--- a/sac_v2.xlsx
+++ b/sac_v2.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\github\KXKM_ESP32_SAC_V2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\GitHub\KXKM_ESP32_SAC_V2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C9458CE-7957-43A1-BDC8-0694673B9210}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64BA0FA5-FF1E-4FF4-9D40-EA6E1F1E8415}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sac_v2" sheetId="3" r:id="rId1"/>
+    <sheet name="bar_h_s" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="50">
   <si>
     <t>ch</t>
   </si>
@@ -169,6 +170,12 @@
   </si>
   <si>
     <t>master_f</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>w_fond</t>
   </si>
 </sst>
 </file>
@@ -966,7 +973,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1073,17 +1080,101 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
@@ -1091,179 +1182,104 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1547,8 +1563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CF55FB9-F19A-4BAB-A5EA-2DD5BBE96787}">
   <dimension ref="A1:AG48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="W40" sqref="W40"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:Z28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1575,44 +1591,44 @@
       <c r="B1" s="4">
         <v>1</v>
       </c>
-      <c r="C1" s="38">
+      <c r="C1" s="98">
         <v>2</v>
       </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="38">
+      <c r="D1" s="99"/>
+      <c r="E1" s="98">
         <v>3</v>
       </c>
-      <c r="F1" s="39"/>
-      <c r="G1" s="38">
+      <c r="F1" s="99"/>
+      <c r="G1" s="98">
         <v>4</v>
       </c>
-      <c r="H1" s="39"/>
-      <c r="I1" s="48">
+      <c r="H1" s="99"/>
+      <c r="I1" s="86">
         <v>5</v>
       </c>
-      <c r="J1" s="56"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="54">
+      <c r="J1" s="100"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="101">
         <v>6</v>
       </c>
-      <c r="M1" s="49"/>
-      <c r="N1" s="50"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="88"/>
       <c r="O1" s="4">
         <v>7</v>
       </c>
       <c r="P1" s="3">
         <v>8</v>
       </c>
-      <c r="Q1" s="54">
+      <c r="Q1" s="101">
         <v>9</v>
       </c>
-      <c r="R1" s="49"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="48">
+      <c r="R1" s="87"/>
+      <c r="S1" s="102"/>
+      <c r="T1" s="86">
         <v>10</v>
       </c>
-      <c r="U1" s="49"/>
-      <c r="V1" s="50"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="88"/>
       <c r="W1" s="4">
         <v>11</v>
       </c>
@@ -1625,12 +1641,12 @@
       <c r="Z1" s="35">
         <v>14</v>
       </c>
-      <c r="AA1" s="93"/>
-      <c r="AB1" s="93"/>
-      <c r="AC1" s="93"/>
-      <c r="AD1" s="93"/>
-      <c r="AE1" s="93"/>
-      <c r="AF1" s="93"/>
+      <c r="AA1" s="80"/>
+      <c r="AB1" s="80"/>
+      <c r="AC1" s="80"/>
+      <c r="AD1" s="80"/>
+      <c r="AE1" s="80"/>
+      <c r="AF1" s="80"/>
       <c r="AG1" s="1">
         <v>16</v>
       </c>
@@ -1642,44 +1658,44 @@
       <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="47" t="s">
+      <c r="D2" s="90"/>
+      <c r="E2" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="37"/>
-      <c r="G2" s="36" t="s">
+      <c r="F2" s="90"/>
+      <c r="G2" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="37"/>
-      <c r="I2" s="51" t="s">
+      <c r="H2" s="90"/>
+      <c r="I2" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="57"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="55" t="s">
+      <c r="J2" s="93"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="52"/>
-      <c r="N2" s="53"/>
+      <c r="M2" s="96"/>
+      <c r="N2" s="94"/>
       <c r="O2" s="6" t="s">
         <v>8</v>
       </c>
       <c r="P2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" s="55" t="s">
+      <c r="Q2" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="52"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="51" t="s">
+      <c r="R2" s="96"/>
+      <c r="S2" s="97"/>
+      <c r="T2" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="U2" s="52"/>
-      <c r="V2" s="53"/>
+      <c r="U2" s="96"/>
+      <c r="V2" s="94"/>
       <c r="W2" s="6" t="s">
         <v>47</v>
       </c>
@@ -1689,33 +1705,33 @@
       <c r="Y2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="Z2" s="96" t="s">
+      <c r="Z2" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="AA2" s="93"/>
-      <c r="AB2" s="93"/>
-      <c r="AC2" s="93"/>
-      <c r="AD2" s="93"/>
-      <c r="AE2" s="93"/>
-      <c r="AF2" s="93"/>
+      <c r="AA2" s="80"/>
+      <c r="AB2" s="80"/>
+      <c r="AC2" s="80"/>
+      <c r="AD2" s="80"/>
+      <c r="AE2" s="80"/>
+      <c r="AF2" s="80"/>
     </row>
     <row r="3" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="44"/>
-      <c r="E3" s="43" t="s">
+      <c r="D3" s="82"/>
+      <c r="E3" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="44"/>
-      <c r="G3" s="43" t="s">
+      <c r="F3" s="82"/>
+      <c r="G3" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="44"/>
+      <c r="H3" s="82"/>
       <c r="I3" s="8">
         <v>0</v>
       </c>
@@ -1734,10 +1750,10 @@
       <c r="N3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="40" t="s">
+      <c r="O3" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="40" t="s">
+      <c r="P3" s="68" t="s">
         <v>15</v>
       </c>
       <c r="Q3" s="8">
@@ -1749,43 +1765,43 @@
       <c r="S3" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="T3" s="75">
+      <c r="T3" s="59">
         <v>0</v>
       </c>
-      <c r="U3" s="76">
+      <c r="U3" s="62">
         <v>255</v>
       </c>
-      <c r="V3" s="77" t="s">
+      <c r="V3" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="W3" s="99" t="s">
+      <c r="W3" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="X3" s="40" t="s">
+      <c r="X3" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="Y3" s="40" t="s">
+      <c r="Y3" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="Z3" s="40" t="s">
+      <c r="Z3" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="AA3" s="94"/>
-      <c r="AB3" s="94"/>
-      <c r="AC3" s="95"/>
-      <c r="AD3" s="94"/>
-      <c r="AE3" s="94"/>
-      <c r="AF3" s="95"/>
+      <c r="AA3" s="39"/>
+      <c r="AB3" s="39"/>
+      <c r="AC3" s="40"/>
+      <c r="AD3" s="39"/>
+      <c r="AE3" s="39"/>
+      <c r="AF3" s="40"/>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
-      <c r="B4" s="41"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="46"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="84"/>
       <c r="I4" s="13">
         <v>11</v>
       </c>
@@ -1804,8 +1820,8 @@
       <c r="N4" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="O4" s="41"/>
-      <c r="P4" s="41"/>
+      <c r="O4" s="69"/>
+      <c r="P4" s="69"/>
       <c r="Q4" s="13">
         <v>11</v>
       </c>
@@ -1815,29 +1831,29 @@
       <c r="S4" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="T4" s="61"/>
-      <c r="U4" s="64"/>
-      <c r="V4" s="70"/>
-      <c r="W4" s="79"/>
-      <c r="X4" s="41"/>
-      <c r="Y4" s="41"/>
-      <c r="Z4" s="41"/>
-      <c r="AA4" s="94"/>
-      <c r="AB4" s="94"/>
-      <c r="AC4" s="95"/>
-      <c r="AD4" s="94"/>
-      <c r="AE4" s="94"/>
-      <c r="AF4" s="95"/>
+      <c r="T4" s="60"/>
+      <c r="U4" s="63"/>
+      <c r="V4" s="66"/>
+      <c r="W4" s="57"/>
+      <c r="X4" s="69"/>
+      <c r="Y4" s="69"/>
+      <c r="Z4" s="69"/>
+      <c r="AA4" s="39"/>
+      <c r="AB4" s="39"/>
+      <c r="AC4" s="40"/>
+      <c r="AD4" s="39"/>
+      <c r="AE4" s="39"/>
+      <c r="AF4" s="40"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="46"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="84"/>
       <c r="I5" s="13">
         <v>21</v>
       </c>
@@ -1856,8 +1872,8 @@
       <c r="N5" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="O5" s="41"/>
-      <c r="P5" s="41"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="69"/>
       <c r="Q5" s="13">
         <v>21</v>
       </c>
@@ -1867,29 +1883,29 @@
       <c r="S5" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="T5" s="61"/>
-      <c r="U5" s="64"/>
-      <c r="V5" s="70"/>
-      <c r="W5" s="79"/>
-      <c r="X5" s="41"/>
-      <c r="Y5" s="41"/>
-      <c r="Z5" s="41"/>
-      <c r="AA5" s="94"/>
-      <c r="AB5" s="94"/>
-      <c r="AC5" s="95"/>
-      <c r="AD5" s="94"/>
-      <c r="AE5" s="94"/>
-      <c r="AF5" s="95"/>
+      <c r="T5" s="60"/>
+      <c r="U5" s="63"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="57"/>
+      <c r="X5" s="69"/>
+      <c r="Y5" s="69"/>
+      <c r="Z5" s="69"/>
+      <c r="AA5" s="39"/>
+      <c r="AB5" s="39"/>
+      <c r="AC5" s="40"/>
+      <c r="AD5" s="39"/>
+      <c r="AE5" s="39"/>
+      <c r="AF5" s="40"/>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="46"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="84"/>
       <c r="I6" s="13">
         <v>31</v>
       </c>
@@ -1908,40 +1924,40 @@
       <c r="N6" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="O6" s="41"/>
-      <c r="P6" s="41"/>
-      <c r="Q6" s="60">
+      <c r="O6" s="69"/>
+      <c r="P6" s="69"/>
+      <c r="Q6" s="74">
         <v>31</v>
       </c>
-      <c r="R6" s="63">
+      <c r="R6" s="76">
         <v>110</v>
       </c>
-      <c r="S6" s="66" t="s">
+      <c r="S6" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="T6" s="61"/>
-      <c r="U6" s="64"/>
-      <c r="V6" s="70"/>
-      <c r="W6" s="79"/>
-      <c r="X6" s="41"/>
-      <c r="Y6" s="41"/>
-      <c r="Z6" s="41"/>
-      <c r="AA6" s="94"/>
-      <c r="AB6" s="94"/>
-      <c r="AC6" s="95"/>
-      <c r="AD6" s="94"/>
-      <c r="AE6" s="94"/>
-      <c r="AF6" s="95"/>
+      <c r="T6" s="60"/>
+      <c r="U6" s="63"/>
+      <c r="V6" s="66"/>
+      <c r="W6" s="57"/>
+      <c r="X6" s="69"/>
+      <c r="Y6" s="69"/>
+      <c r="Z6" s="69"/>
+      <c r="AA6" s="39"/>
+      <c r="AB6" s="39"/>
+      <c r="AC6" s="40"/>
+      <c r="AD6" s="39"/>
+      <c r="AE6" s="39"/>
+      <c r="AF6" s="40"/>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="46"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="83"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="84"/>
       <c r="I7" s="13">
         <v>41</v>
       </c>
@@ -1960,34 +1976,34 @@
       <c r="N7" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="O7" s="41"/>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="61"/>
-      <c r="R7" s="64"/>
-      <c r="S7" s="67"/>
-      <c r="T7" s="61"/>
-      <c r="U7" s="64"/>
-      <c r="V7" s="70"/>
-      <c r="W7" s="79"/>
-      <c r="X7" s="41"/>
-      <c r="Y7" s="41"/>
-      <c r="Z7" s="41"/>
-      <c r="AA7" s="94"/>
-      <c r="AB7" s="94"/>
-      <c r="AC7" s="95"/>
-      <c r="AD7" s="94"/>
-      <c r="AE7" s="94"/>
-      <c r="AF7" s="95"/>
+      <c r="O7" s="69"/>
+      <c r="P7" s="69"/>
+      <c r="Q7" s="60"/>
+      <c r="R7" s="63"/>
+      <c r="S7" s="72"/>
+      <c r="T7" s="60"/>
+      <c r="U7" s="63"/>
+      <c r="V7" s="66"/>
+      <c r="W7" s="57"/>
+      <c r="X7" s="69"/>
+      <c r="Y7" s="69"/>
+      <c r="Z7" s="69"/>
+      <c r="AA7" s="39"/>
+      <c r="AB7" s="39"/>
+      <c r="AC7" s="40"/>
+      <c r="AD7" s="39"/>
+      <c r="AE7" s="39"/>
+      <c r="AF7" s="40"/>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="46"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="83"/>
+      <c r="D8" s="84"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="84"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="84"/>
       <c r="I8" s="13">
         <v>51</v>
       </c>
@@ -2006,34 +2022,34 @@
       <c r="N8" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="O8" s="41"/>
-      <c r="P8" s="41"/>
-      <c r="Q8" s="61"/>
-      <c r="R8" s="64"/>
-      <c r="S8" s="67"/>
-      <c r="T8" s="61"/>
-      <c r="U8" s="64"/>
-      <c r="V8" s="70"/>
-      <c r="W8" s="79"/>
-      <c r="X8" s="41"/>
-      <c r="Y8" s="41"/>
-      <c r="Z8" s="41"/>
-      <c r="AA8" s="94"/>
-      <c r="AB8" s="94"/>
-      <c r="AC8" s="95"/>
-      <c r="AD8" s="94"/>
-      <c r="AE8" s="94"/>
-      <c r="AF8" s="95"/>
+      <c r="O8" s="69"/>
+      <c r="P8" s="69"/>
+      <c r="Q8" s="60"/>
+      <c r="R8" s="63"/>
+      <c r="S8" s="72"/>
+      <c r="T8" s="60"/>
+      <c r="U8" s="63"/>
+      <c r="V8" s="66"/>
+      <c r="W8" s="57"/>
+      <c r="X8" s="69"/>
+      <c r="Y8" s="69"/>
+      <c r="Z8" s="69"/>
+      <c r="AA8" s="39"/>
+      <c r="AB8" s="39"/>
+      <c r="AC8" s="40"/>
+      <c r="AD8" s="39"/>
+      <c r="AE8" s="39"/>
+      <c r="AF8" s="40"/>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="46"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="84"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="84"/>
       <c r="I9" s="13">
         <v>61</v>
       </c>
@@ -2052,34 +2068,34 @@
       <c r="N9" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="O9" s="41"/>
-      <c r="P9" s="41"/>
-      <c r="Q9" s="61"/>
-      <c r="R9" s="64"/>
-      <c r="S9" s="67"/>
-      <c r="T9" s="61"/>
-      <c r="U9" s="64"/>
-      <c r="V9" s="70"/>
-      <c r="W9" s="79"/>
-      <c r="X9" s="41"/>
-      <c r="Y9" s="41"/>
-      <c r="Z9" s="41"/>
-      <c r="AA9" s="94"/>
-      <c r="AB9" s="94"/>
-      <c r="AC9" s="95"/>
-      <c r="AD9" s="94"/>
-      <c r="AE9" s="94"/>
-      <c r="AF9" s="95"/>
+      <c r="O9" s="69"/>
+      <c r="P9" s="69"/>
+      <c r="Q9" s="60"/>
+      <c r="R9" s="63"/>
+      <c r="S9" s="72"/>
+      <c r="T9" s="60"/>
+      <c r="U9" s="63"/>
+      <c r="V9" s="66"/>
+      <c r="W9" s="57"/>
+      <c r="X9" s="69"/>
+      <c r="Y9" s="69"/>
+      <c r="Z9" s="69"/>
+      <c r="AA9" s="39"/>
+      <c r="AB9" s="39"/>
+      <c r="AC9" s="40"/>
+      <c r="AD9" s="39"/>
+      <c r="AE9" s="39"/>
+      <c r="AF9" s="40"/>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="46"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="84"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="84"/>
       <c r="I10" s="13">
         <v>71</v>
       </c>
@@ -2098,34 +2114,34 @@
       <c r="N10" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="O10" s="41"/>
-      <c r="P10" s="41"/>
-      <c r="Q10" s="61"/>
-      <c r="R10" s="64"/>
-      <c r="S10" s="67"/>
-      <c r="T10" s="61"/>
-      <c r="U10" s="64"/>
-      <c r="V10" s="70"/>
-      <c r="W10" s="79"/>
-      <c r="X10" s="41"/>
-      <c r="Y10" s="41"/>
-      <c r="Z10" s="41"/>
-      <c r="AA10" s="94"/>
-      <c r="AB10" s="94"/>
-      <c r="AC10" s="95"/>
-      <c r="AD10" s="94"/>
-      <c r="AE10" s="94"/>
-      <c r="AF10" s="95"/>
+      <c r="O10" s="69"/>
+      <c r="P10" s="69"/>
+      <c r="Q10" s="60"/>
+      <c r="R10" s="63"/>
+      <c r="S10" s="72"/>
+      <c r="T10" s="60"/>
+      <c r="U10" s="63"/>
+      <c r="V10" s="66"/>
+      <c r="W10" s="57"/>
+      <c r="X10" s="69"/>
+      <c r="Y10" s="69"/>
+      <c r="Z10" s="69"/>
+      <c r="AA10" s="39"/>
+      <c r="AB10" s="39"/>
+      <c r="AC10" s="40"/>
+      <c r="AD10" s="39"/>
+      <c r="AE10" s="39"/>
+      <c r="AF10" s="40"/>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="46"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="84"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="84"/>
       <c r="I11" s="13">
         <v>81</v>
       </c>
@@ -2144,34 +2160,34 @@
       <c r="N11" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="O11" s="41"/>
-      <c r="P11" s="41"/>
-      <c r="Q11" s="61"/>
-      <c r="R11" s="64"/>
-      <c r="S11" s="67"/>
-      <c r="T11" s="61"/>
-      <c r="U11" s="64"/>
-      <c r="V11" s="70"/>
-      <c r="W11" s="79"/>
-      <c r="X11" s="41"/>
-      <c r="Y11" s="41"/>
-      <c r="Z11" s="41"/>
-      <c r="AA11" s="94"/>
-      <c r="AB11" s="94"/>
-      <c r="AC11" s="95"/>
-      <c r="AD11" s="94"/>
-      <c r="AE11" s="94"/>
-      <c r="AF11" s="95"/>
+      <c r="O11" s="69"/>
+      <c r="P11" s="69"/>
+      <c r="Q11" s="60"/>
+      <c r="R11" s="63"/>
+      <c r="S11" s="72"/>
+      <c r="T11" s="60"/>
+      <c r="U11" s="63"/>
+      <c r="V11" s="66"/>
+      <c r="W11" s="57"/>
+      <c r="X11" s="69"/>
+      <c r="Y11" s="69"/>
+      <c r="Z11" s="69"/>
+      <c r="AA11" s="39"/>
+      <c r="AB11" s="39"/>
+      <c r="AC11" s="40"/>
+      <c r="AD11" s="39"/>
+      <c r="AE11" s="39"/>
+      <c r="AF11" s="40"/>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="46"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="83"/>
+      <c r="D12" s="84"/>
+      <c r="E12" s="83"/>
+      <c r="F12" s="84"/>
+      <c r="G12" s="83"/>
+      <c r="H12" s="84"/>
       <c r="I12" s="13">
         <v>91</v>
       </c>
@@ -2188,34 +2204,34 @@
         <v>100</v>
       </c>
       <c r="N12" s="15"/>
-      <c r="O12" s="41"/>
-      <c r="P12" s="41"/>
-      <c r="Q12" s="61"/>
-      <c r="R12" s="64"/>
-      <c r="S12" s="67"/>
-      <c r="T12" s="61"/>
-      <c r="U12" s="64"/>
-      <c r="V12" s="70"/>
-      <c r="W12" s="79"/>
-      <c r="X12" s="41"/>
-      <c r="Y12" s="41"/>
-      <c r="Z12" s="41"/>
-      <c r="AA12" s="94"/>
-      <c r="AB12" s="94"/>
-      <c r="AC12" s="95"/>
-      <c r="AD12" s="94"/>
-      <c r="AE12" s="94"/>
-      <c r="AF12" s="95"/>
+      <c r="O12" s="69"/>
+      <c r="P12" s="69"/>
+      <c r="Q12" s="60"/>
+      <c r="R12" s="63"/>
+      <c r="S12" s="72"/>
+      <c r="T12" s="60"/>
+      <c r="U12" s="63"/>
+      <c r="V12" s="66"/>
+      <c r="W12" s="57"/>
+      <c r="X12" s="69"/>
+      <c r="Y12" s="69"/>
+      <c r="Z12" s="69"/>
+      <c r="AA12" s="39"/>
+      <c r="AB12" s="39"/>
+      <c r="AC12" s="40"/>
+      <c r="AD12" s="39"/>
+      <c r="AE12" s="39"/>
+      <c r="AF12" s="40"/>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="46"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="83"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="84"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="84"/>
       <c r="I13" s="13">
         <v>101</v>
       </c>
@@ -2232,34 +2248,34 @@
         <v>110</v>
       </c>
       <c r="N13" s="15"/>
-      <c r="O13" s="41"/>
-      <c r="P13" s="41"/>
-      <c r="Q13" s="62"/>
-      <c r="R13" s="65"/>
-      <c r="S13" s="68"/>
-      <c r="T13" s="61"/>
-      <c r="U13" s="64"/>
-      <c r="V13" s="70"/>
-      <c r="W13" s="79"/>
-      <c r="X13" s="41"/>
-      <c r="Y13" s="41"/>
-      <c r="Z13" s="41"/>
-      <c r="AA13" s="94"/>
-      <c r="AB13" s="94"/>
-      <c r="AC13" s="95"/>
-      <c r="AD13" s="94"/>
-      <c r="AE13" s="94"/>
-      <c r="AF13" s="95"/>
+      <c r="O13" s="69"/>
+      <c r="P13" s="69"/>
+      <c r="Q13" s="75"/>
+      <c r="R13" s="77"/>
+      <c r="S13" s="73"/>
+      <c r="T13" s="60"/>
+      <c r="U13" s="63"/>
+      <c r="V13" s="66"/>
+      <c r="W13" s="57"/>
+      <c r="X13" s="69"/>
+      <c r="Y13" s="69"/>
+      <c r="Z13" s="69"/>
+      <c r="AA13" s="39"/>
+      <c r="AB13" s="39"/>
+      <c r="AC13" s="40"/>
+      <c r="AD13" s="39"/>
+      <c r="AE13" s="39"/>
+      <c r="AF13" s="40"/>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="46"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="84"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="84"/>
       <c r="I14" s="13">
         <v>111</v>
       </c>
@@ -2276,8 +2292,8 @@
         <v>120</v>
       </c>
       <c r="N14" s="15"/>
-      <c r="O14" s="41"/>
-      <c r="P14" s="41"/>
+      <c r="O14" s="69"/>
+      <c r="P14" s="69"/>
       <c r="Q14" s="13">
         <v>111</v>
       </c>
@@ -2287,29 +2303,29 @@
       <c r="S14" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="T14" s="61"/>
-      <c r="U14" s="64"/>
-      <c r="V14" s="70"/>
-      <c r="W14" s="79"/>
-      <c r="X14" s="41"/>
-      <c r="Y14" s="41"/>
-      <c r="Z14" s="41"/>
-      <c r="AA14" s="94"/>
-      <c r="AB14" s="94"/>
-      <c r="AC14" s="95"/>
-      <c r="AD14" s="94"/>
-      <c r="AE14" s="94"/>
-      <c r="AF14" s="95"/>
+      <c r="T14" s="60"/>
+      <c r="U14" s="63"/>
+      <c r="V14" s="66"/>
+      <c r="W14" s="57"/>
+      <c r="X14" s="69"/>
+      <c r="Y14" s="69"/>
+      <c r="Z14" s="69"/>
+      <c r="AA14" s="39"/>
+      <c r="AB14" s="39"/>
+      <c r="AC14" s="40"/>
+      <c r="AD14" s="39"/>
+      <c r="AE14" s="39"/>
+      <c r="AF14" s="40"/>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
-      <c r="B15" s="41"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="46"/>
+      <c r="B15" s="69"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="84"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="84"/>
+      <c r="G15" s="83"/>
+      <c r="H15" s="84"/>
       <c r="I15" s="13">
         <v>120.833333333333</v>
       </c>
@@ -2326,40 +2342,40 @@
         <v>130</v>
       </c>
       <c r="N15" s="15"/>
-      <c r="O15" s="41"/>
-      <c r="P15" s="41"/>
-      <c r="Q15" s="60">
+      <c r="O15" s="69"/>
+      <c r="P15" s="69"/>
+      <c r="Q15" s="74">
         <v>120.833333333333</v>
       </c>
-      <c r="R15" s="63">
+      <c r="R15" s="76">
         <v>200</v>
       </c>
-      <c r="S15" s="69" t="s">
+      <c r="S15" s="78" t="s">
         <v>44</v>
       </c>
-      <c r="T15" s="61"/>
-      <c r="U15" s="64"/>
-      <c r="V15" s="70"/>
-      <c r="W15" s="79"/>
-      <c r="X15" s="41"/>
-      <c r="Y15" s="41"/>
-      <c r="Z15" s="41"/>
-      <c r="AA15" s="94"/>
-      <c r="AB15" s="94"/>
-      <c r="AC15" s="95"/>
-      <c r="AD15" s="94"/>
-      <c r="AE15" s="94"/>
-      <c r="AF15" s="95"/>
+      <c r="T15" s="60"/>
+      <c r="U15" s="63"/>
+      <c r="V15" s="66"/>
+      <c r="W15" s="57"/>
+      <c r="X15" s="69"/>
+      <c r="Y15" s="69"/>
+      <c r="Z15" s="69"/>
+      <c r="AA15" s="39"/>
+      <c r="AB15" s="39"/>
+      <c r="AC15" s="40"/>
+      <c r="AD15" s="39"/>
+      <c r="AE15" s="39"/>
+      <c r="AF15" s="40"/>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
-      <c r="B16" s="41"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="46"/>
+      <c r="B16" s="69"/>
+      <c r="C16" s="83"/>
+      <c r="D16" s="84"/>
+      <c r="E16" s="83"/>
+      <c r="F16" s="84"/>
+      <c r="G16" s="83"/>
+      <c r="H16" s="84"/>
       <c r="I16" s="13">
         <v>131</v>
       </c>
@@ -2376,34 +2392,34 @@
         <v>140</v>
       </c>
       <c r="N16" s="15"/>
-      <c r="O16" s="41"/>
-      <c r="P16" s="41"/>
-      <c r="Q16" s="61"/>
-      <c r="R16" s="64"/>
-      <c r="S16" s="70"/>
-      <c r="T16" s="61"/>
-      <c r="U16" s="64"/>
-      <c r="V16" s="70"/>
-      <c r="W16" s="79"/>
-      <c r="X16" s="41"/>
-      <c r="Y16" s="41"/>
-      <c r="Z16" s="41"/>
-      <c r="AA16" s="94"/>
-      <c r="AB16" s="94"/>
-      <c r="AC16" s="95"/>
-      <c r="AD16" s="94"/>
-      <c r="AE16" s="94"/>
-      <c r="AF16" s="95"/>
+      <c r="O16" s="69"/>
+      <c r="P16" s="69"/>
+      <c r="Q16" s="60"/>
+      <c r="R16" s="63"/>
+      <c r="S16" s="66"/>
+      <c r="T16" s="60"/>
+      <c r="U16" s="63"/>
+      <c r="V16" s="66"/>
+      <c r="W16" s="57"/>
+      <c r="X16" s="69"/>
+      <c r="Y16" s="69"/>
+      <c r="Z16" s="69"/>
+      <c r="AA16" s="39"/>
+      <c r="AB16" s="39"/>
+      <c r="AC16" s="40"/>
+      <c r="AD16" s="39"/>
+      <c r="AE16" s="39"/>
+      <c r="AF16" s="40"/>
     </row>
     <row r="17" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12"/>
-      <c r="B17" s="41"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="46"/>
+      <c r="B17" s="69"/>
+      <c r="C17" s="83"/>
+      <c r="D17" s="84"/>
+      <c r="E17" s="83"/>
+      <c r="F17" s="84"/>
+      <c r="G17" s="83"/>
+      <c r="H17" s="84"/>
       <c r="I17" s="13">
         <v>141</v>
       </c>
@@ -2420,34 +2436,34 @@
         <v>150</v>
       </c>
       <c r="N17" s="15"/>
-      <c r="O17" s="42"/>
-      <c r="P17" s="42"/>
-      <c r="Q17" s="61"/>
-      <c r="R17" s="64"/>
-      <c r="S17" s="70"/>
-      <c r="T17" s="61"/>
-      <c r="U17" s="64"/>
-      <c r="V17" s="70"/>
-      <c r="W17" s="80"/>
-      <c r="X17" s="78"/>
-      <c r="Y17" s="78"/>
-      <c r="Z17" s="78"/>
-      <c r="AA17" s="94"/>
-      <c r="AB17" s="94"/>
-      <c r="AC17" s="95"/>
-      <c r="AD17" s="94"/>
-      <c r="AE17" s="94"/>
-      <c r="AF17" s="95"/>
+      <c r="O17" s="85"/>
+      <c r="P17" s="85"/>
+      <c r="Q17" s="60"/>
+      <c r="R17" s="63"/>
+      <c r="S17" s="66"/>
+      <c r="T17" s="60"/>
+      <c r="U17" s="63"/>
+      <c r="V17" s="66"/>
+      <c r="W17" s="58"/>
+      <c r="X17" s="70"/>
+      <c r="Y17" s="70"/>
+      <c r="Z17" s="70"/>
+      <c r="AA17" s="39"/>
+      <c r="AB17" s="39"/>
+      <c r="AC17" s="40"/>
+      <c r="AD17" s="39"/>
+      <c r="AE17" s="39"/>
+      <c r="AF17" s="40"/>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="28"/>
       <c r="B18" s="32"/>
-      <c r="C18" s="81"/>
-      <c r="D18" s="82"/>
-      <c r="E18" s="81"/>
-      <c r="F18" s="82"/>
-      <c r="G18" s="81"/>
-      <c r="H18" s="83"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="50"/>
       <c r="I18" s="30">
         <v>150.833333333333</v>
       </c>
@@ -2463,33 +2479,33 @@
       </c>
       <c r="N18" s="15"/>
       <c r="O18" s="16"/>
-      <c r="P18" s="90"/>
-      <c r="Q18" s="61"/>
-      <c r="R18" s="64"/>
-      <c r="S18" s="70"/>
-      <c r="T18" s="61"/>
-      <c r="U18" s="64"/>
-      <c r="V18" s="70"/>
-      <c r="W18" s="97"/>
-      <c r="X18" s="91"/>
-      <c r="Y18" s="91"/>
-      <c r="Z18" s="91"/>
-      <c r="AA18" s="94"/>
-      <c r="AB18" s="94"/>
-      <c r="AC18" s="95"/>
-      <c r="AD18" s="94"/>
-      <c r="AE18" s="94"/>
-      <c r="AF18" s="95"/>
+      <c r="P18" s="53"/>
+      <c r="Q18" s="60"/>
+      <c r="R18" s="63"/>
+      <c r="S18" s="66"/>
+      <c r="T18" s="60"/>
+      <c r="U18" s="63"/>
+      <c r="V18" s="66"/>
+      <c r="W18" s="42"/>
+      <c r="X18" s="54"/>
+      <c r="Y18" s="54"/>
+      <c r="Z18" s="54"/>
+      <c r="AA18" s="39"/>
+      <c r="AB18" s="39"/>
+      <c r="AC18" s="40"/>
+      <c r="AD18" s="39"/>
+      <c r="AE18" s="39"/>
+      <c r="AF18" s="40"/>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" s="28"/>
       <c r="B19" s="33"/>
-      <c r="C19" s="84"/>
-      <c r="D19" s="85"/>
-      <c r="E19" s="84"/>
-      <c r="F19" s="85"/>
-      <c r="G19" s="84"/>
-      <c r="H19" s="86"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="51"/>
       <c r="I19" s="30">
         <v>161</v>
       </c>
@@ -2505,33 +2521,33 @@
       </c>
       <c r="N19" s="15"/>
       <c r="O19" s="16"/>
-      <c r="P19" s="91"/>
-      <c r="Q19" s="61"/>
-      <c r="R19" s="64"/>
-      <c r="S19" s="70"/>
-      <c r="T19" s="61"/>
-      <c r="U19" s="64"/>
-      <c r="V19" s="70"/>
-      <c r="W19" s="97"/>
-      <c r="X19" s="91"/>
-      <c r="Y19" s="91"/>
-      <c r="Z19" s="91"/>
-      <c r="AA19" s="94"/>
-      <c r="AB19" s="94"/>
-      <c r="AC19" s="95"/>
-      <c r="AD19" s="94"/>
-      <c r="AE19" s="94"/>
-      <c r="AF19" s="95"/>
+      <c r="P19" s="54"/>
+      <c r="Q19" s="60"/>
+      <c r="R19" s="63"/>
+      <c r="S19" s="66"/>
+      <c r="T19" s="60"/>
+      <c r="U19" s="63"/>
+      <c r="V19" s="66"/>
+      <c r="W19" s="42"/>
+      <c r="X19" s="54"/>
+      <c r="Y19" s="54"/>
+      <c r="Z19" s="54"/>
+      <c r="AA19" s="39"/>
+      <c r="AB19" s="39"/>
+      <c r="AC19" s="40"/>
+      <c r="AD19" s="39"/>
+      <c r="AE19" s="39"/>
+      <c r="AF19" s="40"/>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" s="28"/>
       <c r="B20" s="33"/>
-      <c r="C20" s="84"/>
-      <c r="D20" s="85"/>
-      <c r="E20" s="84"/>
-      <c r="F20" s="85"/>
-      <c r="G20" s="84"/>
-      <c r="H20" s="86"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="51"/>
       <c r="I20" s="30">
         <v>171</v>
       </c>
@@ -2547,33 +2563,33 @@
       </c>
       <c r="N20" s="15"/>
       <c r="O20" s="16"/>
-      <c r="P20" s="91"/>
-      <c r="Q20" s="61"/>
-      <c r="R20" s="64"/>
-      <c r="S20" s="70"/>
-      <c r="T20" s="61"/>
-      <c r="U20" s="64"/>
-      <c r="V20" s="70"/>
-      <c r="W20" s="97"/>
-      <c r="X20" s="91"/>
-      <c r="Y20" s="91"/>
-      <c r="Z20" s="91"/>
-      <c r="AA20" s="94"/>
-      <c r="AB20" s="94"/>
-      <c r="AC20" s="95"/>
-      <c r="AD20" s="94"/>
-      <c r="AE20" s="94"/>
-      <c r="AF20" s="95"/>
+      <c r="P20" s="54"/>
+      <c r="Q20" s="60"/>
+      <c r="R20" s="63"/>
+      <c r="S20" s="66"/>
+      <c r="T20" s="60"/>
+      <c r="U20" s="63"/>
+      <c r="V20" s="66"/>
+      <c r="W20" s="42"/>
+      <c r="X20" s="54"/>
+      <c r="Y20" s="54"/>
+      <c r="Z20" s="54"/>
+      <c r="AA20" s="39"/>
+      <c r="AB20" s="39"/>
+      <c r="AC20" s="40"/>
+      <c r="AD20" s="39"/>
+      <c r="AE20" s="39"/>
+      <c r="AF20" s="40"/>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" s="28"/>
       <c r="B21" s="33"/>
-      <c r="C21" s="84"/>
-      <c r="D21" s="85"/>
-      <c r="E21" s="84"/>
-      <c r="F21" s="85"/>
-      <c r="G21" s="84"/>
-      <c r="H21" s="86"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="51"/>
       <c r="I21" s="30">
         <v>181</v>
       </c>
@@ -2589,33 +2605,33 @@
       </c>
       <c r="N21" s="15"/>
       <c r="O21" s="16"/>
-      <c r="P21" s="91"/>
-      <c r="Q21" s="61"/>
-      <c r="R21" s="64"/>
-      <c r="S21" s="70"/>
-      <c r="T21" s="61"/>
-      <c r="U21" s="64"/>
-      <c r="V21" s="70"/>
-      <c r="W21" s="97"/>
-      <c r="X21" s="91"/>
-      <c r="Y21" s="91"/>
-      <c r="Z21" s="91"/>
-      <c r="AA21" s="94"/>
-      <c r="AB21" s="94"/>
-      <c r="AC21" s="95"/>
-      <c r="AD21" s="94"/>
-      <c r="AE21" s="94"/>
-      <c r="AF21" s="95"/>
+      <c r="P21" s="54"/>
+      <c r="Q21" s="60"/>
+      <c r="R21" s="63"/>
+      <c r="S21" s="66"/>
+      <c r="T21" s="60"/>
+      <c r="U21" s="63"/>
+      <c r="V21" s="66"/>
+      <c r="W21" s="42"/>
+      <c r="X21" s="54"/>
+      <c r="Y21" s="54"/>
+      <c r="Z21" s="54"/>
+      <c r="AA21" s="39"/>
+      <c r="AB21" s="39"/>
+      <c r="AC21" s="40"/>
+      <c r="AD21" s="39"/>
+      <c r="AE21" s="39"/>
+      <c r="AF21" s="40"/>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" s="28"/>
       <c r="B22" s="33"/>
-      <c r="C22" s="84"/>
-      <c r="D22" s="85"/>
-      <c r="E22" s="84"/>
-      <c r="F22" s="85"/>
-      <c r="G22" s="84"/>
-      <c r="H22" s="86"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="51"/>
       <c r="I22" s="30">
         <v>191</v>
       </c>
@@ -2631,33 +2647,33 @@
       </c>
       <c r="N22" s="15"/>
       <c r="O22" s="16"/>
-      <c r="P22" s="91"/>
-      <c r="Q22" s="62"/>
-      <c r="R22" s="65"/>
-      <c r="S22" s="71"/>
-      <c r="T22" s="61"/>
-      <c r="U22" s="64"/>
-      <c r="V22" s="70"/>
-      <c r="W22" s="97"/>
-      <c r="X22" s="91"/>
-      <c r="Y22" s="91"/>
-      <c r="Z22" s="91"/>
-      <c r="AA22" s="94"/>
-      <c r="AB22" s="94"/>
-      <c r="AC22" s="95"/>
-      <c r="AD22" s="94"/>
-      <c r="AE22" s="94"/>
-      <c r="AF22" s="95"/>
+      <c r="P22" s="54"/>
+      <c r="Q22" s="75"/>
+      <c r="R22" s="77"/>
+      <c r="S22" s="79"/>
+      <c r="T22" s="60"/>
+      <c r="U22" s="63"/>
+      <c r="V22" s="66"/>
+      <c r="W22" s="42"/>
+      <c r="X22" s="54"/>
+      <c r="Y22" s="54"/>
+      <c r="Z22" s="54"/>
+      <c r="AA22" s="39"/>
+      <c r="AB22" s="39"/>
+      <c r="AC22" s="40"/>
+      <c r="AD22" s="39"/>
+      <c r="AE22" s="39"/>
+      <c r="AF22" s="40"/>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" s="28"/>
       <c r="B23" s="33"/>
-      <c r="C23" s="84"/>
-      <c r="D23" s="85"/>
-      <c r="E23" s="84"/>
-      <c r="F23" s="85"/>
-      <c r="G23" s="84"/>
-      <c r="H23" s="86"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="51"/>
       <c r="I23" s="30">
         <v>201</v>
       </c>
@@ -2673,39 +2689,39 @@
       </c>
       <c r="N23" s="15"/>
       <c r="O23" s="16"/>
-      <c r="P23" s="91"/>
-      <c r="Q23" s="60">
+      <c r="P23" s="54"/>
+      <c r="Q23" s="74">
         <v>201</v>
       </c>
-      <c r="R23" s="63">
+      <c r="R23" s="76">
         <v>255</v>
       </c>
-      <c r="S23" s="69" t="s">
+      <c r="S23" s="78" t="s">
         <v>45</v>
       </c>
-      <c r="T23" s="61"/>
-      <c r="U23" s="64"/>
-      <c r="V23" s="70"/>
-      <c r="W23" s="97"/>
-      <c r="X23" s="91"/>
-      <c r="Y23" s="91"/>
-      <c r="Z23" s="91"/>
-      <c r="AA23" s="94"/>
-      <c r="AB23" s="94"/>
-      <c r="AC23" s="95"/>
-      <c r="AD23" s="94"/>
-      <c r="AE23" s="94"/>
-      <c r="AF23" s="95"/>
+      <c r="T23" s="60"/>
+      <c r="U23" s="63"/>
+      <c r="V23" s="66"/>
+      <c r="W23" s="42"/>
+      <c r="X23" s="54"/>
+      <c r="Y23" s="54"/>
+      <c r="Z23" s="54"/>
+      <c r="AA23" s="39"/>
+      <c r="AB23" s="39"/>
+      <c r="AC23" s="40"/>
+      <c r="AD23" s="39"/>
+      <c r="AE23" s="39"/>
+      <c r="AF23" s="40"/>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24" s="28"/>
       <c r="B24" s="33"/>
-      <c r="C24" s="84"/>
-      <c r="D24" s="85"/>
-      <c r="E24" s="84"/>
-      <c r="F24" s="85"/>
-      <c r="G24" s="84"/>
-      <c r="H24" s="86"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="51"/>
       <c r="I24" s="30">
         <v>210</v>
       </c>
@@ -2721,33 +2737,33 @@
       </c>
       <c r="N24" s="15"/>
       <c r="O24" s="16"/>
-      <c r="P24" s="91"/>
-      <c r="Q24" s="61"/>
-      <c r="R24" s="64"/>
-      <c r="S24" s="70"/>
-      <c r="T24" s="61"/>
-      <c r="U24" s="64"/>
-      <c r="V24" s="70"/>
-      <c r="W24" s="97"/>
-      <c r="X24" s="91"/>
-      <c r="Y24" s="91"/>
-      <c r="Z24" s="91"/>
-      <c r="AA24" s="94"/>
-      <c r="AB24" s="94"/>
-      <c r="AC24" s="95"/>
-      <c r="AD24" s="94"/>
-      <c r="AE24" s="94"/>
-      <c r="AF24" s="95"/>
+      <c r="P24" s="54"/>
+      <c r="Q24" s="60"/>
+      <c r="R24" s="63"/>
+      <c r="S24" s="66"/>
+      <c r="T24" s="60"/>
+      <c r="U24" s="63"/>
+      <c r="V24" s="66"/>
+      <c r="W24" s="42"/>
+      <c r="X24" s="54"/>
+      <c r="Y24" s="54"/>
+      <c r="Z24" s="54"/>
+      <c r="AA24" s="39"/>
+      <c r="AB24" s="39"/>
+      <c r="AC24" s="40"/>
+      <c r="AD24" s="39"/>
+      <c r="AE24" s="39"/>
+      <c r="AF24" s="40"/>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25" s="28"/>
       <c r="B25" s="33"/>
-      <c r="C25" s="84"/>
-      <c r="D25" s="85"/>
-      <c r="E25" s="84"/>
-      <c r="F25" s="85"/>
-      <c r="G25" s="84"/>
-      <c r="H25" s="86"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="51"/>
       <c r="I25" s="30">
         <v>221</v>
       </c>
@@ -2763,33 +2779,33 @@
       </c>
       <c r="N25" s="15"/>
       <c r="O25" s="16"/>
-      <c r="P25" s="91"/>
-      <c r="Q25" s="61"/>
-      <c r="R25" s="64"/>
-      <c r="S25" s="70"/>
-      <c r="T25" s="61"/>
-      <c r="U25" s="64"/>
-      <c r="V25" s="70"/>
-      <c r="W25" s="97"/>
-      <c r="X25" s="91"/>
-      <c r="Y25" s="91"/>
-      <c r="Z25" s="91"/>
-      <c r="AA25" s="94"/>
-      <c r="AB25" s="94"/>
-      <c r="AC25" s="95"/>
-      <c r="AD25" s="94"/>
-      <c r="AE25" s="94"/>
-      <c r="AF25" s="95"/>
+      <c r="P25" s="54"/>
+      <c r="Q25" s="60"/>
+      <c r="R25" s="63"/>
+      <c r="S25" s="66"/>
+      <c r="T25" s="60"/>
+      <c r="U25" s="63"/>
+      <c r="V25" s="66"/>
+      <c r="W25" s="42"/>
+      <c r="X25" s="54"/>
+      <c r="Y25" s="54"/>
+      <c r="Z25" s="54"/>
+      <c r="AA25" s="39"/>
+      <c r="AB25" s="39"/>
+      <c r="AC25" s="40"/>
+      <c r="AD25" s="39"/>
+      <c r="AE25" s="39"/>
+      <c r="AF25" s="40"/>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26" s="28"/>
       <c r="B26" s="33"/>
-      <c r="C26" s="84"/>
-      <c r="D26" s="85"/>
-      <c r="E26" s="84"/>
-      <c r="F26" s="85"/>
-      <c r="G26" s="84"/>
-      <c r="H26" s="86"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="51"/>
       <c r="I26" s="30">
         <v>231</v>
       </c>
@@ -2805,33 +2821,33 @@
       </c>
       <c r="N26" s="15"/>
       <c r="O26" s="16"/>
-      <c r="P26" s="91"/>
-      <c r="Q26" s="61"/>
-      <c r="R26" s="64"/>
-      <c r="S26" s="70"/>
-      <c r="T26" s="61"/>
-      <c r="U26" s="64"/>
-      <c r="V26" s="70"/>
-      <c r="W26" s="97"/>
-      <c r="X26" s="91"/>
-      <c r="Y26" s="91"/>
-      <c r="Z26" s="91"/>
-      <c r="AA26" s="94"/>
-      <c r="AB26" s="94"/>
-      <c r="AC26" s="95"/>
-      <c r="AD26" s="94"/>
-      <c r="AE26" s="94"/>
-      <c r="AF26" s="95"/>
+      <c r="P26" s="54"/>
+      <c r="Q26" s="60"/>
+      <c r="R26" s="63"/>
+      <c r="S26" s="66"/>
+      <c r="T26" s="60"/>
+      <c r="U26" s="63"/>
+      <c r="V26" s="66"/>
+      <c r="W26" s="42"/>
+      <c r="X26" s="54"/>
+      <c r="Y26" s="54"/>
+      <c r="Z26" s="54"/>
+      <c r="AA26" s="39"/>
+      <c r="AB26" s="39"/>
+      <c r="AC26" s="40"/>
+      <c r="AD26" s="39"/>
+      <c r="AE26" s="39"/>
+      <c r="AF26" s="40"/>
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27" s="28"/>
       <c r="B27" s="33"/>
-      <c r="C27" s="84"/>
-      <c r="D27" s="85"/>
-      <c r="E27" s="84"/>
-      <c r="F27" s="85"/>
-      <c r="G27" s="84"/>
-      <c r="H27" s="86"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="51"/>
       <c r="I27" s="30">
         <v>241</v>
       </c>
@@ -2847,33 +2863,33 @@
       </c>
       <c r="N27" s="15"/>
       <c r="O27" s="16"/>
-      <c r="P27" s="91"/>
-      <c r="Q27" s="61"/>
-      <c r="R27" s="64"/>
-      <c r="S27" s="70"/>
-      <c r="T27" s="61"/>
-      <c r="U27" s="64"/>
-      <c r="V27" s="70"/>
-      <c r="W27" s="97"/>
-      <c r="X27" s="91"/>
-      <c r="Y27" s="91"/>
-      <c r="Z27" s="91"/>
-      <c r="AA27" s="94"/>
-      <c r="AB27" s="94"/>
-      <c r="AC27" s="95"/>
-      <c r="AD27" s="94"/>
-      <c r="AE27" s="94"/>
-      <c r="AF27" s="95"/>
+      <c r="P27" s="54"/>
+      <c r="Q27" s="60"/>
+      <c r="R27" s="63"/>
+      <c r="S27" s="66"/>
+      <c r="T27" s="60"/>
+      <c r="U27" s="63"/>
+      <c r="V27" s="66"/>
+      <c r="W27" s="42"/>
+      <c r="X27" s="54"/>
+      <c r="Y27" s="54"/>
+      <c r="Z27" s="54"/>
+      <c r="AA27" s="39"/>
+      <c r="AB27" s="39"/>
+      <c r="AC27" s="40"/>
+      <c r="AD27" s="39"/>
+      <c r="AE27" s="39"/>
+      <c r="AF27" s="40"/>
     </row>
     <row r="28" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="29"/>
       <c r="B28" s="34"/>
-      <c r="C28" s="87"/>
-      <c r="D28" s="88"/>
-      <c r="E28" s="87"/>
-      <c r="F28" s="88"/>
-      <c r="G28" s="87"/>
-      <c r="H28" s="89"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="52"/>
       <c r="I28" s="31">
         <v>251</v>
       </c>
@@ -2889,23 +2905,23 @@
       </c>
       <c r="N28" s="20"/>
       <c r="O28" s="21"/>
-      <c r="P28" s="92"/>
-      <c r="Q28" s="72"/>
-      <c r="R28" s="73"/>
-      <c r="S28" s="74"/>
-      <c r="T28" s="72"/>
-      <c r="U28" s="73"/>
-      <c r="V28" s="74"/>
-      <c r="W28" s="98"/>
-      <c r="X28" s="92"/>
-      <c r="Y28" s="92"/>
-      <c r="Z28" s="92"/>
-      <c r="AA28" s="94"/>
-      <c r="AB28" s="95"/>
-      <c r="AC28" s="95"/>
-      <c r="AD28" s="94"/>
-      <c r="AE28" s="95"/>
-      <c r="AF28" s="95"/>
+      <c r="P28" s="55"/>
+      <c r="Q28" s="61"/>
+      <c r="R28" s="64"/>
+      <c r="S28" s="67"/>
+      <c r="T28" s="61"/>
+      <c r="U28" s="64"/>
+      <c r="V28" s="67"/>
+      <c r="W28" s="43"/>
+      <c r="X28" s="55"/>
+      <c r="Y28" s="55"/>
+      <c r="Z28" s="55"/>
+      <c r="AA28" s="39"/>
+      <c r="AB28" s="40"/>
+      <c r="AC28" s="40"/>
+      <c r="AD28" s="39"/>
+      <c r="AE28" s="40"/>
+      <c r="AF28" s="40"/>
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A29" s="22"/>
@@ -3589,37 +3605,6 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="C18:D28"/>
-    <mergeCell ref="E18:F28"/>
-    <mergeCell ref="G18:H28"/>
-    <mergeCell ref="P18:P28"/>
-    <mergeCell ref="W3:W17"/>
-    <mergeCell ref="T3:T28"/>
-    <mergeCell ref="U3:U28"/>
-    <mergeCell ref="V3:V28"/>
-    <mergeCell ref="X3:X17"/>
-    <mergeCell ref="Y3:Y17"/>
-    <mergeCell ref="Z3:Z17"/>
-    <mergeCell ref="X18:X28"/>
-    <mergeCell ref="Y18:Y28"/>
-    <mergeCell ref="Z18:Z28"/>
-    <mergeCell ref="S6:S13"/>
-    <mergeCell ref="Q15:Q22"/>
-    <mergeCell ref="R15:R22"/>
-    <mergeCell ref="S15:S22"/>
-    <mergeCell ref="Q23:Q28"/>
-    <mergeCell ref="R23:R28"/>
-    <mergeCell ref="S23:S28"/>
-    <mergeCell ref="AA2:AC2"/>
-    <mergeCell ref="AD2:AF2"/>
-    <mergeCell ref="B3:B17"/>
-    <mergeCell ref="C3:D17"/>
-    <mergeCell ref="E3:F17"/>
-    <mergeCell ref="G3:H17"/>
-    <mergeCell ref="O3:O17"/>
-    <mergeCell ref="P3:P17"/>
-    <mergeCell ref="Q6:Q13"/>
-    <mergeCell ref="R6:R13"/>
     <mergeCell ref="T1:V1"/>
     <mergeCell ref="AA1:AC1"/>
     <mergeCell ref="AD1:AF1"/>
@@ -3636,8 +3621,1145 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="L1:N1"/>
     <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="AA2:AC2"/>
+    <mergeCell ref="AD2:AF2"/>
+    <mergeCell ref="B3:B17"/>
+    <mergeCell ref="C3:D17"/>
+    <mergeCell ref="E3:F17"/>
+    <mergeCell ref="G3:H17"/>
+    <mergeCell ref="O3:O17"/>
+    <mergeCell ref="P3:P17"/>
+    <mergeCell ref="Q6:Q13"/>
+    <mergeCell ref="R6:R13"/>
+    <mergeCell ref="X3:X17"/>
+    <mergeCell ref="Y3:Y17"/>
+    <mergeCell ref="Z3:Z17"/>
+    <mergeCell ref="X18:X28"/>
+    <mergeCell ref="Y18:Y28"/>
+    <mergeCell ref="Z18:Z28"/>
+    <mergeCell ref="C18:D28"/>
+    <mergeCell ref="E18:F28"/>
+    <mergeCell ref="G18:H28"/>
+    <mergeCell ref="P18:P28"/>
+    <mergeCell ref="W3:W17"/>
+    <mergeCell ref="T3:T28"/>
+    <mergeCell ref="U3:U28"/>
+    <mergeCell ref="V3:V28"/>
+    <mergeCell ref="S6:S13"/>
+    <mergeCell ref="Q15:Q22"/>
+    <mergeCell ref="R15:R22"/>
+    <mergeCell ref="S15:S22"/>
+    <mergeCell ref="Q23:Q28"/>
+    <mergeCell ref="R23:R28"/>
+    <mergeCell ref="S23:S28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3A26AFB-2204-4552-9AD6-31C2D7C8993A}">
+  <dimension ref="A1:Z28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="W37" sqref="W37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="37">
+        <v>1</v>
+      </c>
+      <c r="C1" s="98">
+        <v>2</v>
+      </c>
+      <c r="D1" s="99"/>
+      <c r="E1" s="98">
+        <v>3</v>
+      </c>
+      <c r="F1" s="99"/>
+      <c r="G1" s="98">
+        <v>4</v>
+      </c>
+      <c r="H1" s="99"/>
+      <c r="I1" s="98">
+        <v>5</v>
+      </c>
+      <c r="J1" s="99"/>
+      <c r="K1" s="101">
+        <v>6</v>
+      </c>
+      <c r="L1" s="87"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="37">
+        <v>7</v>
+      </c>
+      <c r="O1" s="3">
+        <v>8</v>
+      </c>
+      <c r="P1" s="101">
+        <v>9</v>
+      </c>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="102"/>
+      <c r="S1" s="86">
+        <v>10</v>
+      </c>
+      <c r="T1" s="87"/>
+      <c r="U1" s="88"/>
+      <c r="V1" s="37">
+        <v>11</v>
+      </c>
+      <c r="W1" s="3">
+        <v>12</v>
+      </c>
+      <c r="X1" s="3">
+        <v>13</v>
+      </c>
+      <c r="Y1" s="36">
+        <v>14</v>
+      </c>
+      <c r="Z1" s="36">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="89" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="90"/>
+      <c r="E2" s="91" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="90"/>
+      <c r="G2" s="89" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="90"/>
+      <c r="I2" s="89" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" s="90"/>
+      <c r="K2" s="95" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="96"/>
+      <c r="M2" s="94"/>
+      <c r="N2" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="P2" s="95" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="96"/>
+      <c r="R2" s="97"/>
+      <c r="S2" s="92" t="s">
+        <v>11</v>
+      </c>
+      <c r="T2" s="96"/>
+      <c r="U2" s="94"/>
+      <c r="V2" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y2" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z2" s="41" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="81" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="82"/>
+      <c r="E3" s="81" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="82"/>
+      <c r="G3" s="81" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="82"/>
+      <c r="I3" s="81" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="82"/>
+      <c r="K3" s="8">
+        <v>0</v>
+      </c>
+      <c r="L3" s="9">
+        <v>10</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="O3" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="P3" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="9">
+        <v>10</v>
+      </c>
+      <c r="R3" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="S3" s="59">
+        <v>0</v>
+      </c>
+      <c r="T3" s="62">
+        <v>255</v>
+      </c>
+      <c r="U3" s="65" t="s">
+        <v>46</v>
+      </c>
+      <c r="V3" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="W3" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="X3" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y3" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z3" s="68" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4" s="12"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="84"/>
+      <c r="K4" s="13">
+        <v>11</v>
+      </c>
+      <c r="L4" s="14">
+        <v>20</v>
+      </c>
+      <c r="M4" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="N4" s="69"/>
+      <c r="O4" s="69"/>
+      <c r="P4" s="13">
+        <v>11</v>
+      </c>
+      <c r="Q4" s="14">
+        <v>20</v>
+      </c>
+      <c r="R4" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="S4" s="60"/>
+      <c r="T4" s="63"/>
+      <c r="U4" s="66"/>
+      <c r="V4" s="57"/>
+      <c r="W4" s="69"/>
+      <c r="X4" s="69"/>
+      <c r="Y4" s="69"/>
+      <c r="Z4" s="69"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" s="12"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="13">
+        <v>21</v>
+      </c>
+      <c r="L5" s="14">
+        <v>30</v>
+      </c>
+      <c r="M5" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="N5" s="69"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="13">
+        <v>21</v>
+      </c>
+      <c r="Q5" s="14">
+        <v>30</v>
+      </c>
+      <c r="R5" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="S5" s="60"/>
+      <c r="T5" s="63"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="57"/>
+      <c r="W5" s="69"/>
+      <c r="X5" s="69"/>
+      <c r="Y5" s="69"/>
+      <c r="Z5" s="69"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="12"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="83"/>
+      <c r="J6" s="84"/>
+      <c r="K6" s="13">
+        <v>31</v>
+      </c>
+      <c r="L6" s="14">
+        <v>40</v>
+      </c>
+      <c r="M6" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="N6" s="69"/>
+      <c r="O6" s="69"/>
+      <c r="P6" s="74">
+        <v>31</v>
+      </c>
+      <c r="Q6" s="76">
+        <v>110</v>
+      </c>
+      <c r="R6" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="S6" s="60"/>
+      <c r="T6" s="63"/>
+      <c r="U6" s="66"/>
+      <c r="V6" s="57"/>
+      <c r="W6" s="69"/>
+      <c r="X6" s="69"/>
+      <c r="Y6" s="69"/>
+      <c r="Z6" s="69"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="12"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="83"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="84"/>
+      <c r="I7" s="83"/>
+      <c r="J7" s="84"/>
+      <c r="K7" s="13">
+        <v>41</v>
+      </c>
+      <c r="L7" s="14">
+        <v>50</v>
+      </c>
+      <c r="M7" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="N7" s="69"/>
+      <c r="O7" s="69"/>
+      <c r="P7" s="60"/>
+      <c r="Q7" s="63"/>
+      <c r="R7" s="72"/>
+      <c r="S7" s="60"/>
+      <c r="T7" s="63"/>
+      <c r="U7" s="66"/>
+      <c r="V7" s="57"/>
+      <c r="W7" s="69"/>
+      <c r="X7" s="69"/>
+      <c r="Y7" s="69"/>
+      <c r="Z7" s="69"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="12"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="83"/>
+      <c r="D8" s="84"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="84"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="83"/>
+      <c r="J8" s="84"/>
+      <c r="K8" s="13">
+        <v>51</v>
+      </c>
+      <c r="L8" s="14">
+        <v>60</v>
+      </c>
+      <c r="M8" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="N8" s="69"/>
+      <c r="O8" s="69"/>
+      <c r="P8" s="60"/>
+      <c r="Q8" s="63"/>
+      <c r="R8" s="72"/>
+      <c r="S8" s="60"/>
+      <c r="T8" s="63"/>
+      <c r="U8" s="66"/>
+      <c r="V8" s="57"/>
+      <c r="W8" s="69"/>
+      <c r="X8" s="69"/>
+      <c r="Y8" s="69"/>
+      <c r="Z8" s="69"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" s="12"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="84"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="84"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="84"/>
+      <c r="K9" s="13">
+        <v>61</v>
+      </c>
+      <c r="L9" s="14">
+        <v>70</v>
+      </c>
+      <c r="M9" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="N9" s="69"/>
+      <c r="O9" s="69"/>
+      <c r="P9" s="60"/>
+      <c r="Q9" s="63"/>
+      <c r="R9" s="72"/>
+      <c r="S9" s="60"/>
+      <c r="T9" s="63"/>
+      <c r="U9" s="66"/>
+      <c r="V9" s="57"/>
+      <c r="W9" s="69"/>
+      <c r="X9" s="69"/>
+      <c r="Y9" s="69"/>
+      <c r="Z9" s="69"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" s="12"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="84"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="84"/>
+      <c r="I10" s="83"/>
+      <c r="J10" s="84"/>
+      <c r="K10" s="13">
+        <v>71</v>
+      </c>
+      <c r="L10" s="14">
+        <v>80</v>
+      </c>
+      <c r="M10" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="N10" s="69"/>
+      <c r="O10" s="69"/>
+      <c r="P10" s="60"/>
+      <c r="Q10" s="63"/>
+      <c r="R10" s="72"/>
+      <c r="S10" s="60"/>
+      <c r="T10" s="63"/>
+      <c r="U10" s="66"/>
+      <c r="V10" s="57"/>
+      <c r="W10" s="69"/>
+      <c r="X10" s="69"/>
+      <c r="Y10" s="69"/>
+      <c r="Z10" s="69"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11" s="12"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="84"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="84"/>
+      <c r="I11" s="83"/>
+      <c r="J11" s="84"/>
+      <c r="K11" s="13">
+        <v>81</v>
+      </c>
+      <c r="L11" s="14">
+        <v>90</v>
+      </c>
+      <c r="M11" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="N11" s="69"/>
+      <c r="O11" s="69"/>
+      <c r="P11" s="60"/>
+      <c r="Q11" s="63"/>
+      <c r="R11" s="72"/>
+      <c r="S11" s="60"/>
+      <c r="T11" s="63"/>
+      <c r="U11" s="66"/>
+      <c r="V11" s="57"/>
+      <c r="W11" s="69"/>
+      <c r="X11" s="69"/>
+      <c r="Y11" s="69"/>
+      <c r="Z11" s="69"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12" s="12"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="83"/>
+      <c r="D12" s="84"/>
+      <c r="E12" s="83"/>
+      <c r="F12" s="84"/>
+      <c r="G12" s="83"/>
+      <c r="H12" s="84"/>
+      <c r="I12" s="83"/>
+      <c r="J12" s="84"/>
+      <c r="K12" s="13">
+        <v>91</v>
+      </c>
+      <c r="L12" s="14">
+        <v>100</v>
+      </c>
+      <c r="M12" s="15"/>
+      <c r="N12" s="69"/>
+      <c r="O12" s="69"/>
+      <c r="P12" s="60"/>
+      <c r="Q12" s="63"/>
+      <c r="R12" s="72"/>
+      <c r="S12" s="60"/>
+      <c r="T12" s="63"/>
+      <c r="U12" s="66"/>
+      <c r="V12" s="57"/>
+      <c r="W12" s="69"/>
+      <c r="X12" s="69"/>
+      <c r="Y12" s="69"/>
+      <c r="Z12" s="69"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" s="12"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="83"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="84"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="84"/>
+      <c r="I13" s="83"/>
+      <c r="J13" s="84"/>
+      <c r="K13" s="13">
+        <v>101</v>
+      </c>
+      <c r="L13" s="14">
+        <v>110</v>
+      </c>
+      <c r="M13" s="15"/>
+      <c r="N13" s="69"/>
+      <c r="O13" s="69"/>
+      <c r="P13" s="75"/>
+      <c r="Q13" s="77"/>
+      <c r="R13" s="73"/>
+      <c r="S13" s="60"/>
+      <c r="T13" s="63"/>
+      <c r="U13" s="66"/>
+      <c r="V13" s="57"/>
+      <c r="W13" s="69"/>
+      <c r="X13" s="69"/>
+      <c r="Y13" s="69"/>
+      <c r="Z13" s="69"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14" s="12"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="84"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="84"/>
+      <c r="I14" s="83"/>
+      <c r="J14" s="84"/>
+      <c r="K14" s="13">
+        <v>111</v>
+      </c>
+      <c r="L14" s="14">
+        <v>120</v>
+      </c>
+      <c r="M14" s="15"/>
+      <c r="N14" s="69"/>
+      <c r="O14" s="69"/>
+      <c r="P14" s="13">
+        <v>111</v>
+      </c>
+      <c r="Q14" s="14">
+        <v>120</v>
+      </c>
+      <c r="R14" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="S14" s="60"/>
+      <c r="T14" s="63"/>
+      <c r="U14" s="66"/>
+      <c r="V14" s="57"/>
+      <c r="W14" s="69"/>
+      <c r="X14" s="69"/>
+      <c r="Y14" s="69"/>
+      <c r="Z14" s="69"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15" s="12"/>
+      <c r="B15" s="69"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="84"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="84"/>
+      <c r="G15" s="83"/>
+      <c r="H15" s="84"/>
+      <c r="I15" s="83"/>
+      <c r="J15" s="84"/>
+      <c r="K15" s="13">
+        <v>120.833333333333</v>
+      </c>
+      <c r="L15" s="14">
+        <v>130</v>
+      </c>
+      <c r="M15" s="15"/>
+      <c r="N15" s="69"/>
+      <c r="O15" s="69"/>
+      <c r="P15" s="74">
+        <v>120.833333333333</v>
+      </c>
+      <c r="Q15" s="76">
+        <v>200</v>
+      </c>
+      <c r="R15" s="78" t="s">
+        <v>44</v>
+      </c>
+      <c r="S15" s="60"/>
+      <c r="T15" s="63"/>
+      <c r="U15" s="66"/>
+      <c r="V15" s="57"/>
+      <c r="W15" s="69"/>
+      <c r="X15" s="69"/>
+      <c r="Y15" s="69"/>
+      <c r="Z15" s="69"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16" s="12"/>
+      <c r="B16" s="69"/>
+      <c r="C16" s="83"/>
+      <c r="D16" s="84"/>
+      <c r="E16" s="83"/>
+      <c r="F16" s="84"/>
+      <c r="G16" s="83"/>
+      <c r="H16" s="84"/>
+      <c r="I16" s="83"/>
+      <c r="J16" s="84"/>
+      <c r="K16" s="13">
+        <v>131</v>
+      </c>
+      <c r="L16" s="14">
+        <v>140</v>
+      </c>
+      <c r="M16" s="15"/>
+      <c r="N16" s="69"/>
+      <c r="O16" s="69"/>
+      <c r="P16" s="60"/>
+      <c r="Q16" s="63"/>
+      <c r="R16" s="66"/>
+      <c r="S16" s="60"/>
+      <c r="T16" s="63"/>
+      <c r="U16" s="66"/>
+      <c r="V16" s="57"/>
+      <c r="W16" s="69"/>
+      <c r="X16" s="69"/>
+      <c r="Y16" s="69"/>
+      <c r="Z16" s="69"/>
+    </row>
+    <row r="17" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="12"/>
+      <c r="B17" s="69"/>
+      <c r="C17" s="83"/>
+      <c r="D17" s="84"/>
+      <c r="E17" s="83"/>
+      <c r="F17" s="84"/>
+      <c r="G17" s="83"/>
+      <c r="H17" s="84"/>
+      <c r="I17" s="83"/>
+      <c r="J17" s="84"/>
+      <c r="K17" s="13">
+        <v>141</v>
+      </c>
+      <c r="L17" s="14">
+        <v>150</v>
+      </c>
+      <c r="M17" s="15"/>
+      <c r="N17" s="85"/>
+      <c r="O17" s="85"/>
+      <c r="P17" s="60"/>
+      <c r="Q17" s="63"/>
+      <c r="R17" s="66"/>
+      <c r="S17" s="60"/>
+      <c r="T17" s="63"/>
+      <c r="U17" s="66"/>
+      <c r="V17" s="58"/>
+      <c r="W17" s="70"/>
+      <c r="X17" s="70"/>
+      <c r="Y17" s="70"/>
+      <c r="Z17" s="70"/>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A18" s="28"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="13">
+        <v>150.833333333333</v>
+      </c>
+      <c r="L18" s="14">
+        <v>160</v>
+      </c>
+      <c r="M18" s="15"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="53"/>
+      <c r="P18" s="60"/>
+      <c r="Q18" s="63"/>
+      <c r="R18" s="66"/>
+      <c r="S18" s="60"/>
+      <c r="T18" s="63"/>
+      <c r="U18" s="66"/>
+      <c r="V18" s="42"/>
+      <c r="W18" s="54"/>
+      <c r="X18" s="54"/>
+      <c r="Y18" s="54"/>
+      <c r="Z18" s="54"/>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A19" s="28"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="13">
+        <v>161</v>
+      </c>
+      <c r="L19" s="14">
+        <v>170</v>
+      </c>
+      <c r="M19" s="15"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="54"/>
+      <c r="P19" s="60"/>
+      <c r="Q19" s="63"/>
+      <c r="R19" s="66"/>
+      <c r="S19" s="60"/>
+      <c r="T19" s="63"/>
+      <c r="U19" s="66"/>
+      <c r="V19" s="42"/>
+      <c r="W19" s="54"/>
+      <c r="X19" s="54"/>
+      <c r="Y19" s="54"/>
+      <c r="Z19" s="54"/>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A20" s="28"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="13">
+        <v>171</v>
+      </c>
+      <c r="L20" s="14">
+        <v>180</v>
+      </c>
+      <c r="M20" s="15"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="54"/>
+      <c r="P20" s="60"/>
+      <c r="Q20" s="63"/>
+      <c r="R20" s="66"/>
+      <c r="S20" s="60"/>
+      <c r="T20" s="63"/>
+      <c r="U20" s="66"/>
+      <c r="V20" s="42"/>
+      <c r="W20" s="54"/>
+      <c r="X20" s="54"/>
+      <c r="Y20" s="54"/>
+      <c r="Z20" s="54"/>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A21" s="28"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="13">
+        <v>181</v>
+      </c>
+      <c r="L21" s="14">
+        <v>190</v>
+      </c>
+      <c r="M21" s="15"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="54"/>
+      <c r="P21" s="60"/>
+      <c r="Q21" s="63"/>
+      <c r="R21" s="66"/>
+      <c r="S21" s="60"/>
+      <c r="T21" s="63"/>
+      <c r="U21" s="66"/>
+      <c r="V21" s="42"/>
+      <c r="W21" s="54"/>
+      <c r="X21" s="54"/>
+      <c r="Y21" s="54"/>
+      <c r="Z21" s="54"/>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A22" s="28"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="13">
+        <v>191</v>
+      </c>
+      <c r="L22" s="14">
+        <v>200</v>
+      </c>
+      <c r="M22" s="15"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="54"/>
+      <c r="P22" s="75"/>
+      <c r="Q22" s="77"/>
+      <c r="R22" s="79"/>
+      <c r="S22" s="60"/>
+      <c r="T22" s="63"/>
+      <c r="U22" s="66"/>
+      <c r="V22" s="42"/>
+      <c r="W22" s="54"/>
+      <c r="X22" s="54"/>
+      <c r="Y22" s="54"/>
+      <c r="Z22" s="54"/>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A23" s="28"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="51"/>
+      <c r="K23" s="13">
+        <v>201</v>
+      </c>
+      <c r="L23" s="14">
+        <v>210</v>
+      </c>
+      <c r="M23" s="15"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="54"/>
+      <c r="P23" s="74">
+        <v>201</v>
+      </c>
+      <c r="Q23" s="76">
+        <v>255</v>
+      </c>
+      <c r="R23" s="78" t="s">
+        <v>45</v>
+      </c>
+      <c r="S23" s="60"/>
+      <c r="T23" s="63"/>
+      <c r="U23" s="66"/>
+      <c r="V23" s="42"/>
+      <c r="W23" s="54"/>
+      <c r="X23" s="54"/>
+      <c r="Y23" s="54"/>
+      <c r="Z23" s="54"/>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A24" s="28"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="51"/>
+      <c r="K24" s="13">
+        <v>210</v>
+      </c>
+      <c r="L24" s="14">
+        <v>220</v>
+      </c>
+      <c r="M24" s="15"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="54"/>
+      <c r="P24" s="60"/>
+      <c r="Q24" s="63"/>
+      <c r="R24" s="66"/>
+      <c r="S24" s="60"/>
+      <c r="T24" s="63"/>
+      <c r="U24" s="66"/>
+      <c r="V24" s="42"/>
+      <c r="W24" s="54"/>
+      <c r="X24" s="54"/>
+      <c r="Y24" s="54"/>
+      <c r="Z24" s="54"/>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A25" s="28"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="51"/>
+      <c r="K25" s="13">
+        <v>221</v>
+      </c>
+      <c r="L25" s="14">
+        <v>230</v>
+      </c>
+      <c r="M25" s="15"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="54"/>
+      <c r="P25" s="60"/>
+      <c r="Q25" s="63"/>
+      <c r="R25" s="66"/>
+      <c r="S25" s="60"/>
+      <c r="T25" s="63"/>
+      <c r="U25" s="66"/>
+      <c r="V25" s="42"/>
+      <c r="W25" s="54"/>
+      <c r="X25" s="54"/>
+      <c r="Y25" s="54"/>
+      <c r="Z25" s="54"/>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A26" s="28"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="51"/>
+      <c r="K26" s="13">
+        <v>231</v>
+      </c>
+      <c r="L26" s="14">
+        <v>240</v>
+      </c>
+      <c r="M26" s="15"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="54"/>
+      <c r="P26" s="60"/>
+      <c r="Q26" s="63"/>
+      <c r="R26" s="66"/>
+      <c r="S26" s="60"/>
+      <c r="T26" s="63"/>
+      <c r="U26" s="66"/>
+      <c r="V26" s="42"/>
+      <c r="W26" s="54"/>
+      <c r="X26" s="54"/>
+      <c r="Y26" s="54"/>
+      <c r="Z26" s="54"/>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A27" s="28"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="51"/>
+      <c r="K27" s="13">
+        <v>241</v>
+      </c>
+      <c r="L27" s="14">
+        <v>250</v>
+      </c>
+      <c r="M27" s="15"/>
+      <c r="N27" s="16"/>
+      <c r="O27" s="54"/>
+      <c r="P27" s="60"/>
+      <c r="Q27" s="63"/>
+      <c r="R27" s="66"/>
+      <c r="S27" s="60"/>
+      <c r="T27" s="63"/>
+      <c r="U27" s="66"/>
+      <c r="V27" s="42"/>
+      <c r="W27" s="54"/>
+      <c r="X27" s="54"/>
+      <c r="Y27" s="54"/>
+      <c r="Z27" s="54"/>
+    </row>
+    <row r="28" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="29"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="48"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="18">
+        <v>251</v>
+      </c>
+      <c r="L28" s="19">
+        <v>255</v>
+      </c>
+      <c r="M28" s="20"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="55"/>
+      <c r="P28" s="61"/>
+      <c r="Q28" s="64"/>
+      <c r="R28" s="67"/>
+      <c r="S28" s="61"/>
+      <c r="T28" s="64"/>
+      <c r="U28" s="67"/>
+      <c r="V28" s="43"/>
+      <c r="W28" s="55"/>
+      <c r="X28" s="55"/>
+      <c r="Y28" s="55"/>
+      <c r="Z28" s="55"/>
+    </row>
+  </sheetData>
+  <mergeCells count="47">
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="Z3:Z17"/>
+    <mergeCell ref="Z18:Z28"/>
+    <mergeCell ref="C18:D28"/>
+    <mergeCell ref="E18:F28"/>
+    <mergeCell ref="G18:H28"/>
+    <mergeCell ref="O18:O28"/>
+    <mergeCell ref="W18:W28"/>
+    <mergeCell ref="X18:X28"/>
+    <mergeCell ref="P23:P28"/>
+    <mergeCell ref="Q23:Q28"/>
+    <mergeCell ref="R23:R28"/>
+    <mergeCell ref="I18:J28"/>
+    <mergeCell ref="Y3:Y17"/>
+    <mergeCell ref="P6:P13"/>
+    <mergeCell ref="Q6:Q13"/>
+    <mergeCell ref="R6:R13"/>
+    <mergeCell ref="P15:P22"/>
+    <mergeCell ref="Q15:Q22"/>
+    <mergeCell ref="R15:R22"/>
+    <mergeCell ref="Y18:Y28"/>
+    <mergeCell ref="B3:B17"/>
+    <mergeCell ref="C3:D17"/>
+    <mergeCell ref="E3:F17"/>
+    <mergeCell ref="G3:H17"/>
+    <mergeCell ref="N3:N17"/>
+    <mergeCell ref="O3:O17"/>
+    <mergeCell ref="I3:J17"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:U2"/>
+    <mergeCell ref="S3:S28"/>
+    <mergeCell ref="T3:T28"/>
+    <mergeCell ref="U3:U28"/>
+    <mergeCell ref="V3:V17"/>
+    <mergeCell ref="W3:W17"/>
+    <mergeCell ref="X3:X17"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/sac_v2.xlsx
+++ b/sac_v2.xlsx
@@ -5,16 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\GitHub\KXKM_ESP32_SAC_V2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\github\KXKM_ESP32_SAC_V2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64BA0FA5-FF1E-4FF4-9D40-EA6E1F1E8415}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E76FF15-1522-4B8F-9538-7E55D7889D18}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sac_v2" sheetId="3" r:id="rId1"/>
     <sheet name="bar_h_s" sheetId="4" r:id="rId2"/>
+    <sheet name="v2_005_h_s" sheetId="5" r:id="rId3"/>
+    <sheet name="v2_006_h_s" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="74">
   <si>
     <t>ch</t>
   </si>
@@ -177,6 +179,78 @@
   <si>
     <t>w_fond</t>
   </si>
+  <si>
+    <t>color_mod</t>
+  </si>
+  <si>
+    <t>mirror_mod</t>
+  </si>
+  <si>
+    <t>norm</t>
+  </si>
+  <si>
+    <t>no mirror</t>
+  </si>
+  <si>
+    <t>ruban pic c</t>
+  </si>
+  <si>
+    <t>mirror *2</t>
+  </si>
+  <si>
+    <t>full pic c</t>
+  </si>
+  <si>
+    <t>mirror *3</t>
+  </si>
+  <si>
+    <t>mirror *4</t>
+  </si>
+  <si>
+    <t>rusf&gt;</t>
+  </si>
+  <si>
+    <t>rusf&lt;</t>
+  </si>
+  <si>
+    <t>rusf&lt;&gt;</t>
+  </si>
+  <si>
+    <t>fullsf&gt;</t>
+  </si>
+  <si>
+    <t>fullsf&lt;</t>
+  </si>
+  <si>
+    <t>fullsf&lt;&gt;</t>
+  </si>
+  <si>
+    <t>0 255 master r</t>
+  </si>
+  <si>
+    <t>0 255 master g</t>
+  </si>
+  <si>
+    <t>0 255 master b</t>
+  </si>
+  <si>
+    <t>color long</t>
+  </si>
+  <si>
+    <t>color pos</t>
+  </si>
+  <si>
+    <t>0 255  color start</t>
+  </si>
+  <si>
+    <t>0 255  color end</t>
+  </si>
+  <si>
+    <t>0 255    not use</t>
+  </si>
+  <si>
+    <t>0 255 master w</t>
+  </si>
 </sst>
 </file>
 
@@ -191,7 +265,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -216,6 +290,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="61">
     <border>
@@ -973,7 +1053,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1104,6 +1184,114 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
@@ -1134,12 +1322,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
@@ -1152,18 +1334,12 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1176,15 +1352,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
@@ -1194,92 +1361,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1564,7 +1695,7 @@
   <dimension ref="A1:AG48"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:Z28"/>
+      <selection activeCell="R35" sqref="R35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1591,44 +1722,44 @@
       <c r="B1" s="4">
         <v>1</v>
       </c>
-      <c r="C1" s="98">
+      <c r="C1" s="59">
         <v>2</v>
       </c>
-      <c r="D1" s="99"/>
-      <c r="E1" s="98">
+      <c r="D1" s="60"/>
+      <c r="E1" s="59">
         <v>3</v>
       </c>
-      <c r="F1" s="99"/>
-      <c r="G1" s="98">
+      <c r="F1" s="60"/>
+      <c r="G1" s="59">
         <v>4</v>
       </c>
-      <c r="H1" s="99"/>
-      <c r="I1" s="86">
+      <c r="H1" s="60"/>
+      <c r="I1" s="46">
         <v>5</v>
       </c>
-      <c r="J1" s="100"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="101">
+      <c r="J1" s="61"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="62">
         <v>6</v>
       </c>
-      <c r="M1" s="87"/>
-      <c r="N1" s="88"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="48"/>
       <c r="O1" s="4">
         <v>7</v>
       </c>
       <c r="P1" s="3">
         <v>8</v>
       </c>
-      <c r="Q1" s="101">
+      <c r="Q1" s="62">
         <v>9</v>
       </c>
-      <c r="R1" s="87"/>
-      <c r="S1" s="102"/>
-      <c r="T1" s="86">
+      <c r="R1" s="47"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="46">
         <v>10</v>
       </c>
-      <c r="U1" s="87"/>
-      <c r="V1" s="88"/>
+      <c r="U1" s="47"/>
+      <c r="V1" s="48"/>
       <c r="W1" s="4">
         <v>11</v>
       </c>
@@ -1641,12 +1772,12 @@
       <c r="Z1" s="35">
         <v>14</v>
       </c>
-      <c r="AA1" s="80"/>
-      <c r="AB1" s="80"/>
-      <c r="AC1" s="80"/>
-      <c r="AD1" s="80"/>
-      <c r="AE1" s="80"/>
-      <c r="AF1" s="80"/>
+      <c r="AA1" s="49"/>
+      <c r="AB1" s="49"/>
+      <c r="AC1" s="49"/>
+      <c r="AD1" s="49"/>
+      <c r="AE1" s="49"/>
+      <c r="AF1" s="49"/>
       <c r="AG1" s="1">
         <v>16</v>
       </c>
@@ -1658,44 +1789,44 @@
       <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="89" t="s">
+      <c r="C2" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="90"/>
-      <c r="E2" s="91" t="s">
+      <c r="D2" s="51"/>
+      <c r="E2" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="90"/>
-      <c r="G2" s="89" t="s">
+      <c r="F2" s="51"/>
+      <c r="G2" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="90"/>
-      <c r="I2" s="92" t="s">
+      <c r="H2" s="51"/>
+      <c r="I2" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="93"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="95" t="s">
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="96"/>
-      <c r="N2" s="94"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="55"/>
       <c r="O2" s="6" t="s">
         <v>8</v>
       </c>
       <c r="P2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" s="95" t="s">
+      <c r="Q2" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="96"/>
-      <c r="S2" s="97"/>
-      <c r="T2" s="92" t="s">
+      <c r="R2" s="57"/>
+      <c r="S2" s="58"/>
+      <c r="T2" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="U2" s="96"/>
-      <c r="V2" s="94"/>
+      <c r="U2" s="57"/>
+      <c r="V2" s="55"/>
       <c r="W2" s="6" t="s">
         <v>47</v>
       </c>
@@ -1708,30 +1839,30 @@
       <c r="Z2" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="AA2" s="80"/>
-      <c r="AB2" s="80"/>
-      <c r="AC2" s="80"/>
-      <c r="AD2" s="80"/>
-      <c r="AE2" s="80"/>
-      <c r="AF2" s="80"/>
+      <c r="AA2" s="49"/>
+      <c r="AB2" s="49"/>
+      <c r="AC2" s="49"/>
+      <c r="AD2" s="49"/>
+      <c r="AE2" s="49"/>
+      <c r="AF2" s="49"/>
     </row>
     <row r="3" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="81" t="s">
+      <c r="C3" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="82"/>
-      <c r="E3" s="81" t="s">
+      <c r="D3" s="67"/>
+      <c r="E3" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="82"/>
-      <c r="G3" s="81" t="s">
+      <c r="F3" s="67"/>
+      <c r="G3" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="82"/>
+      <c r="H3" s="67"/>
       <c r="I3" s="8">
         <v>0</v>
       </c>
@@ -1750,10 +1881,10 @@
       <c r="N3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="68" t="s">
+      <c r="O3" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="68" t="s">
+      <c r="P3" s="64" t="s">
         <v>15</v>
       </c>
       <c r="Q3" s="8">
@@ -1765,25 +1896,25 @@
       <c r="S3" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="T3" s="59">
+      <c r="T3" s="93">
         <v>0</v>
       </c>
-      <c r="U3" s="62">
+      <c r="U3" s="95">
         <v>255</v>
       </c>
-      <c r="V3" s="65" t="s">
+      <c r="V3" s="97" t="s">
         <v>46</v>
       </c>
-      <c r="W3" s="56" t="s">
+      <c r="W3" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="X3" s="68" t="s">
+      <c r="X3" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="Y3" s="68" t="s">
+      <c r="Y3" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="Z3" s="68" t="s">
+      <c r="Z3" s="64" t="s">
         <v>15</v>
       </c>
       <c r="AA3" s="39"/>
@@ -1795,13 +1926,13 @@
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="84"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="69"/>
       <c r="I4" s="13">
         <v>11</v>
       </c>
@@ -1820,8 +1951,8 @@
       <c r="N4" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="O4" s="69"/>
-      <c r="P4" s="69"/>
+      <c r="O4" s="65"/>
+      <c r="P4" s="65"/>
       <c r="Q4" s="13">
         <v>11</v>
       </c>
@@ -1831,13 +1962,13 @@
       <c r="S4" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="T4" s="60"/>
-      <c r="U4" s="63"/>
-      <c r="V4" s="66"/>
-      <c r="W4" s="57"/>
-      <c r="X4" s="69"/>
-      <c r="Y4" s="69"/>
-      <c r="Z4" s="69"/>
+      <c r="T4" s="72"/>
+      <c r="U4" s="75"/>
+      <c r="V4" s="98"/>
+      <c r="W4" s="91"/>
+      <c r="X4" s="65"/>
+      <c r="Y4" s="65"/>
+      <c r="Z4" s="65"/>
       <c r="AA4" s="39"/>
       <c r="AB4" s="39"/>
       <c r="AC4" s="40"/>
@@ -1847,13 +1978,13 @@
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
-      <c r="B5" s="69"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="84"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="69"/>
       <c r="I5" s="13">
         <v>21</v>
       </c>
@@ -1872,8 +2003,8 @@
       <c r="N5" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="O5" s="69"/>
-      <c r="P5" s="69"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="65"/>
       <c r="Q5" s="13">
         <v>21</v>
       </c>
@@ -1883,13 +2014,13 @@
       <c r="S5" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="T5" s="60"/>
-      <c r="U5" s="63"/>
-      <c r="V5" s="66"/>
-      <c r="W5" s="57"/>
-      <c r="X5" s="69"/>
-      <c r="Y5" s="69"/>
-      <c r="Z5" s="69"/>
+      <c r="T5" s="72"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="98"/>
+      <c r="W5" s="91"/>
+      <c r="X5" s="65"/>
+      <c r="Y5" s="65"/>
+      <c r="Z5" s="65"/>
       <c r="AA5" s="39"/>
       <c r="AB5" s="39"/>
       <c r="AC5" s="40"/>
@@ -1899,13 +2030,13 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
-      <c r="B6" s="69"/>
-      <c r="C6" s="83"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="83"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="84"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="69"/>
       <c r="I6" s="13">
         <v>31</v>
       </c>
@@ -1924,24 +2055,24 @@
       <c r="N6" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="O6" s="69"/>
-      <c r="P6" s="69"/>
-      <c r="Q6" s="74">
+      <c r="O6" s="65"/>
+      <c r="P6" s="65"/>
+      <c r="Q6" s="71">
         <v>31</v>
       </c>
-      <c r="R6" s="76">
+      <c r="R6" s="74">
         <v>110</v>
       </c>
-      <c r="S6" s="71" t="s">
+      <c r="S6" s="100" t="s">
         <v>42</v>
       </c>
-      <c r="T6" s="60"/>
-      <c r="U6" s="63"/>
-      <c r="V6" s="66"/>
-      <c r="W6" s="57"/>
-      <c r="X6" s="69"/>
-      <c r="Y6" s="69"/>
-      <c r="Z6" s="69"/>
+      <c r="T6" s="72"/>
+      <c r="U6" s="75"/>
+      <c r="V6" s="98"/>
+      <c r="W6" s="91"/>
+      <c r="X6" s="65"/>
+      <c r="Y6" s="65"/>
+      <c r="Z6" s="65"/>
       <c r="AA6" s="39"/>
       <c r="AB6" s="39"/>
       <c r="AC6" s="40"/>
@@ -1951,13 +2082,13 @@
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
-      <c r="B7" s="69"/>
-      <c r="C7" s="83"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="84"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="69"/>
       <c r="I7" s="13">
         <v>41</v>
       </c>
@@ -1976,18 +2107,18 @@
       <c r="N7" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="O7" s="69"/>
-      <c r="P7" s="69"/>
-      <c r="Q7" s="60"/>
-      <c r="R7" s="63"/>
-      <c r="S7" s="72"/>
-      <c r="T7" s="60"/>
-      <c r="U7" s="63"/>
-      <c r="V7" s="66"/>
-      <c r="W7" s="57"/>
-      <c r="X7" s="69"/>
-      <c r="Y7" s="69"/>
-      <c r="Z7" s="69"/>
+      <c r="O7" s="65"/>
+      <c r="P7" s="65"/>
+      <c r="Q7" s="72"/>
+      <c r="R7" s="75"/>
+      <c r="S7" s="101"/>
+      <c r="T7" s="72"/>
+      <c r="U7" s="75"/>
+      <c r="V7" s="98"/>
+      <c r="W7" s="91"/>
+      <c r="X7" s="65"/>
+      <c r="Y7" s="65"/>
+      <c r="Z7" s="65"/>
       <c r="AA7" s="39"/>
       <c r="AB7" s="39"/>
       <c r="AC7" s="40"/>
@@ -1997,13 +2128,13 @@
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
-      <c r="B8" s="69"/>
-      <c r="C8" s="83"/>
-      <c r="D8" s="84"/>
-      <c r="E8" s="83"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="83"/>
-      <c r="H8" s="84"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="69"/>
       <c r="I8" s="13">
         <v>51</v>
       </c>
@@ -2022,18 +2153,18 @@
       <c r="N8" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="O8" s="69"/>
-      <c r="P8" s="69"/>
-      <c r="Q8" s="60"/>
-      <c r="R8" s="63"/>
-      <c r="S8" s="72"/>
-      <c r="T8" s="60"/>
-      <c r="U8" s="63"/>
-      <c r="V8" s="66"/>
-      <c r="W8" s="57"/>
-      <c r="X8" s="69"/>
-      <c r="Y8" s="69"/>
-      <c r="Z8" s="69"/>
+      <c r="O8" s="65"/>
+      <c r="P8" s="65"/>
+      <c r="Q8" s="72"/>
+      <c r="R8" s="75"/>
+      <c r="S8" s="101"/>
+      <c r="T8" s="72"/>
+      <c r="U8" s="75"/>
+      <c r="V8" s="98"/>
+      <c r="W8" s="91"/>
+      <c r="X8" s="65"/>
+      <c r="Y8" s="65"/>
+      <c r="Z8" s="65"/>
       <c r="AA8" s="39"/>
       <c r="AB8" s="39"/>
       <c r="AC8" s="40"/>
@@ -2043,13 +2174,13 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
-      <c r="B9" s="69"/>
-      <c r="C9" s="83"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="83"/>
-      <c r="F9" s="84"/>
-      <c r="G9" s="83"/>
-      <c r="H9" s="84"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="69"/>
       <c r="I9" s="13">
         <v>61</v>
       </c>
@@ -2068,18 +2199,18 @@
       <c r="N9" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="O9" s="69"/>
-      <c r="P9" s="69"/>
-      <c r="Q9" s="60"/>
-      <c r="R9" s="63"/>
-      <c r="S9" s="72"/>
-      <c r="T9" s="60"/>
-      <c r="U9" s="63"/>
-      <c r="V9" s="66"/>
-      <c r="W9" s="57"/>
-      <c r="X9" s="69"/>
-      <c r="Y9" s="69"/>
-      <c r="Z9" s="69"/>
+      <c r="O9" s="65"/>
+      <c r="P9" s="65"/>
+      <c r="Q9" s="72"/>
+      <c r="R9" s="75"/>
+      <c r="S9" s="101"/>
+      <c r="T9" s="72"/>
+      <c r="U9" s="75"/>
+      <c r="V9" s="98"/>
+      <c r="W9" s="91"/>
+      <c r="X9" s="65"/>
+      <c r="Y9" s="65"/>
+      <c r="Z9" s="65"/>
       <c r="AA9" s="39"/>
       <c r="AB9" s="39"/>
       <c r="AC9" s="40"/>
@@ -2089,13 +2220,13 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
-      <c r="B10" s="69"/>
-      <c r="C10" s="83"/>
-      <c r="D10" s="84"/>
-      <c r="E10" s="83"/>
-      <c r="F10" s="84"/>
-      <c r="G10" s="83"/>
-      <c r="H10" s="84"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="69"/>
       <c r="I10" s="13">
         <v>71</v>
       </c>
@@ -2114,18 +2245,18 @@
       <c r="N10" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="O10" s="69"/>
-      <c r="P10" s="69"/>
-      <c r="Q10" s="60"/>
-      <c r="R10" s="63"/>
-      <c r="S10" s="72"/>
-      <c r="T10" s="60"/>
-      <c r="U10" s="63"/>
-      <c r="V10" s="66"/>
-      <c r="W10" s="57"/>
-      <c r="X10" s="69"/>
-      <c r="Y10" s="69"/>
-      <c r="Z10" s="69"/>
+      <c r="O10" s="65"/>
+      <c r="P10" s="65"/>
+      <c r="Q10" s="72"/>
+      <c r="R10" s="75"/>
+      <c r="S10" s="101"/>
+      <c r="T10" s="72"/>
+      <c r="U10" s="75"/>
+      <c r="V10" s="98"/>
+      <c r="W10" s="91"/>
+      <c r="X10" s="65"/>
+      <c r="Y10" s="65"/>
+      <c r="Z10" s="65"/>
       <c r="AA10" s="39"/>
       <c r="AB10" s="39"/>
       <c r="AC10" s="40"/>
@@ -2135,13 +2266,13 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
-      <c r="B11" s="69"/>
-      <c r="C11" s="83"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="83"/>
-      <c r="F11" s="84"/>
-      <c r="G11" s="83"/>
-      <c r="H11" s="84"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="69"/>
       <c r="I11" s="13">
         <v>81</v>
       </c>
@@ -2160,18 +2291,18 @@
       <c r="N11" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="O11" s="69"/>
-      <c r="P11" s="69"/>
-      <c r="Q11" s="60"/>
-      <c r="R11" s="63"/>
-      <c r="S11" s="72"/>
-      <c r="T11" s="60"/>
-      <c r="U11" s="63"/>
-      <c r="V11" s="66"/>
-      <c r="W11" s="57"/>
-      <c r="X11" s="69"/>
-      <c r="Y11" s="69"/>
-      <c r="Z11" s="69"/>
+      <c r="O11" s="65"/>
+      <c r="P11" s="65"/>
+      <c r="Q11" s="72"/>
+      <c r="R11" s="75"/>
+      <c r="S11" s="101"/>
+      <c r="T11" s="72"/>
+      <c r="U11" s="75"/>
+      <c r="V11" s="98"/>
+      <c r="W11" s="91"/>
+      <c r="X11" s="65"/>
+      <c r="Y11" s="65"/>
+      <c r="Z11" s="65"/>
       <c r="AA11" s="39"/>
       <c r="AB11" s="39"/>
       <c r="AC11" s="40"/>
@@ -2181,13 +2312,13 @@
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
-      <c r="B12" s="69"/>
-      <c r="C12" s="83"/>
-      <c r="D12" s="84"/>
-      <c r="E12" s="83"/>
-      <c r="F12" s="84"/>
-      <c r="G12" s="83"/>
-      <c r="H12" s="84"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="69"/>
       <c r="I12" s="13">
         <v>91</v>
       </c>
@@ -2204,18 +2335,18 @@
         <v>100</v>
       </c>
       <c r="N12" s="15"/>
-      <c r="O12" s="69"/>
-      <c r="P12" s="69"/>
-      <c r="Q12" s="60"/>
-      <c r="R12" s="63"/>
-      <c r="S12" s="72"/>
-      <c r="T12" s="60"/>
-      <c r="U12" s="63"/>
-      <c r="V12" s="66"/>
-      <c r="W12" s="57"/>
-      <c r="X12" s="69"/>
-      <c r="Y12" s="69"/>
-      <c r="Z12" s="69"/>
+      <c r="O12" s="65"/>
+      <c r="P12" s="65"/>
+      <c r="Q12" s="72"/>
+      <c r="R12" s="75"/>
+      <c r="S12" s="101"/>
+      <c r="T12" s="72"/>
+      <c r="U12" s="75"/>
+      <c r="V12" s="98"/>
+      <c r="W12" s="91"/>
+      <c r="X12" s="65"/>
+      <c r="Y12" s="65"/>
+      <c r="Z12" s="65"/>
       <c r="AA12" s="39"/>
       <c r="AB12" s="39"/>
       <c r="AC12" s="40"/>
@@ -2225,13 +2356,13 @@
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
-      <c r="B13" s="69"/>
-      <c r="C13" s="83"/>
-      <c r="D13" s="84"/>
-      <c r="E13" s="83"/>
-      <c r="F13" s="84"/>
-      <c r="G13" s="83"/>
-      <c r="H13" s="84"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="69"/>
       <c r="I13" s="13">
         <v>101</v>
       </c>
@@ -2248,18 +2379,18 @@
         <v>110</v>
       </c>
       <c r="N13" s="15"/>
-      <c r="O13" s="69"/>
-      <c r="P13" s="69"/>
-      <c r="Q13" s="75"/>
-      <c r="R13" s="77"/>
-      <c r="S13" s="73"/>
-      <c r="T13" s="60"/>
-      <c r="U13" s="63"/>
-      <c r="V13" s="66"/>
-      <c r="W13" s="57"/>
-      <c r="X13" s="69"/>
-      <c r="Y13" s="69"/>
-      <c r="Z13" s="69"/>
+      <c r="O13" s="65"/>
+      <c r="P13" s="65"/>
+      <c r="Q13" s="73"/>
+      <c r="R13" s="76"/>
+      <c r="S13" s="102"/>
+      <c r="T13" s="72"/>
+      <c r="U13" s="75"/>
+      <c r="V13" s="98"/>
+      <c r="W13" s="91"/>
+      <c r="X13" s="65"/>
+      <c r="Y13" s="65"/>
+      <c r="Z13" s="65"/>
       <c r="AA13" s="39"/>
       <c r="AB13" s="39"/>
       <c r="AC13" s="40"/>
@@ -2269,13 +2400,13 @@
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
-      <c r="B14" s="69"/>
-      <c r="C14" s="83"/>
-      <c r="D14" s="84"/>
-      <c r="E14" s="83"/>
-      <c r="F14" s="84"/>
-      <c r="G14" s="83"/>
-      <c r="H14" s="84"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="69"/>
       <c r="I14" s="13">
         <v>111</v>
       </c>
@@ -2292,8 +2423,8 @@
         <v>120</v>
       </c>
       <c r="N14" s="15"/>
-      <c r="O14" s="69"/>
-      <c r="P14" s="69"/>
+      <c r="O14" s="65"/>
+      <c r="P14" s="65"/>
       <c r="Q14" s="13">
         <v>111</v>
       </c>
@@ -2303,13 +2434,13 @@
       <c r="S14" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="T14" s="60"/>
-      <c r="U14" s="63"/>
-      <c r="V14" s="66"/>
-      <c r="W14" s="57"/>
-      <c r="X14" s="69"/>
-      <c r="Y14" s="69"/>
-      <c r="Z14" s="69"/>
+      <c r="T14" s="72"/>
+      <c r="U14" s="75"/>
+      <c r="V14" s="98"/>
+      <c r="W14" s="91"/>
+      <c r="X14" s="65"/>
+      <c r="Y14" s="65"/>
+      <c r="Z14" s="65"/>
       <c r="AA14" s="39"/>
       <c r="AB14" s="39"/>
       <c r="AC14" s="40"/>
@@ -2319,13 +2450,13 @@
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
-      <c r="B15" s="69"/>
-      <c r="C15" s="83"/>
-      <c r="D15" s="84"/>
-      <c r="E15" s="83"/>
-      <c r="F15" s="84"/>
-      <c r="G15" s="83"/>
-      <c r="H15" s="84"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="69"/>
       <c r="I15" s="13">
         <v>120.833333333333</v>
       </c>
@@ -2342,24 +2473,24 @@
         <v>130</v>
       </c>
       <c r="N15" s="15"/>
-      <c r="O15" s="69"/>
-      <c r="P15" s="69"/>
-      <c r="Q15" s="74">
+      <c r="O15" s="65"/>
+      <c r="P15" s="65"/>
+      <c r="Q15" s="71">
         <v>120.833333333333</v>
       </c>
-      <c r="R15" s="76">
+      <c r="R15" s="74">
         <v>200</v>
       </c>
-      <c r="S15" s="78" t="s">
+      <c r="S15" s="103" t="s">
         <v>44</v>
       </c>
-      <c r="T15" s="60"/>
-      <c r="U15" s="63"/>
-      <c r="V15" s="66"/>
-      <c r="W15" s="57"/>
-      <c r="X15" s="69"/>
-      <c r="Y15" s="69"/>
-      <c r="Z15" s="69"/>
+      <c r="T15" s="72"/>
+      <c r="U15" s="75"/>
+      <c r="V15" s="98"/>
+      <c r="W15" s="91"/>
+      <c r="X15" s="65"/>
+      <c r="Y15" s="65"/>
+      <c r="Z15" s="65"/>
       <c r="AA15" s="39"/>
       <c r="AB15" s="39"/>
       <c r="AC15" s="40"/>
@@ -2369,13 +2500,13 @@
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
-      <c r="B16" s="69"/>
-      <c r="C16" s="83"/>
-      <c r="D16" s="84"/>
-      <c r="E16" s="83"/>
-      <c r="F16" s="84"/>
-      <c r="G16" s="83"/>
-      <c r="H16" s="84"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="69"/>
       <c r="I16" s="13">
         <v>131</v>
       </c>
@@ -2392,18 +2523,18 @@
         <v>140</v>
       </c>
       <c r="N16" s="15"/>
-      <c r="O16" s="69"/>
-      <c r="P16" s="69"/>
-      <c r="Q16" s="60"/>
-      <c r="R16" s="63"/>
-      <c r="S16" s="66"/>
-      <c r="T16" s="60"/>
-      <c r="U16" s="63"/>
-      <c r="V16" s="66"/>
-      <c r="W16" s="57"/>
-      <c r="X16" s="69"/>
-      <c r="Y16" s="69"/>
-      <c r="Z16" s="69"/>
+      <c r="O16" s="65"/>
+      <c r="P16" s="65"/>
+      <c r="Q16" s="72"/>
+      <c r="R16" s="75"/>
+      <c r="S16" s="98"/>
+      <c r="T16" s="72"/>
+      <c r="U16" s="75"/>
+      <c r="V16" s="98"/>
+      <c r="W16" s="91"/>
+      <c r="X16" s="65"/>
+      <c r="Y16" s="65"/>
+      <c r="Z16" s="65"/>
       <c r="AA16" s="39"/>
       <c r="AB16" s="39"/>
       <c r="AC16" s="40"/>
@@ -2413,13 +2544,13 @@
     </row>
     <row r="17" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12"/>
-      <c r="B17" s="69"/>
-      <c r="C17" s="83"/>
-      <c r="D17" s="84"/>
-      <c r="E17" s="83"/>
-      <c r="F17" s="84"/>
-      <c r="G17" s="83"/>
-      <c r="H17" s="84"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="69"/>
       <c r="I17" s="13">
         <v>141</v>
       </c>
@@ -2436,18 +2567,18 @@
         <v>150</v>
       </c>
       <c r="N17" s="15"/>
-      <c r="O17" s="85"/>
-      <c r="P17" s="85"/>
-      <c r="Q17" s="60"/>
-      <c r="R17" s="63"/>
-      <c r="S17" s="66"/>
-      <c r="T17" s="60"/>
-      <c r="U17" s="63"/>
-      <c r="V17" s="66"/>
-      <c r="W17" s="58"/>
-      <c r="X17" s="70"/>
-      <c r="Y17" s="70"/>
-      <c r="Z17" s="70"/>
+      <c r="O17" s="70"/>
+      <c r="P17" s="70"/>
+      <c r="Q17" s="72"/>
+      <c r="R17" s="75"/>
+      <c r="S17" s="98"/>
+      <c r="T17" s="72"/>
+      <c r="U17" s="75"/>
+      <c r="V17" s="98"/>
+      <c r="W17" s="92"/>
+      <c r="X17" s="77"/>
+      <c r="Y17" s="77"/>
+      <c r="Z17" s="77"/>
       <c r="AA17" s="39"/>
       <c r="AB17" s="39"/>
       <c r="AC17" s="40"/>
@@ -2458,12 +2589,12 @@
     <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="28"/>
       <c r="B18" s="32"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="50"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="81"/>
+      <c r="G18" s="80"/>
+      <c r="H18" s="86"/>
       <c r="I18" s="30">
         <v>150.833333333333</v>
       </c>
@@ -2479,17 +2610,17 @@
       </c>
       <c r="N18" s="15"/>
       <c r="O18" s="16"/>
-      <c r="P18" s="53"/>
-      <c r="Q18" s="60"/>
-      <c r="R18" s="63"/>
-      <c r="S18" s="66"/>
-      <c r="T18" s="60"/>
-      <c r="U18" s="63"/>
-      <c r="V18" s="66"/>
+      <c r="P18" s="89"/>
+      <c r="Q18" s="72"/>
+      <c r="R18" s="75"/>
+      <c r="S18" s="98"/>
+      <c r="T18" s="72"/>
+      <c r="U18" s="75"/>
+      <c r="V18" s="98"/>
       <c r="W18" s="42"/>
-      <c r="X18" s="54"/>
-      <c r="Y18" s="54"/>
-      <c r="Z18" s="54"/>
+      <c r="X18" s="78"/>
+      <c r="Y18" s="78"/>
+      <c r="Z18" s="78"/>
       <c r="AA18" s="39"/>
       <c r="AB18" s="39"/>
       <c r="AC18" s="40"/>
@@ -2500,12 +2631,12 @@
     <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" s="28"/>
       <c r="B19" s="33"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="51"/>
+      <c r="C19" s="82"/>
+      <c r="D19" s="83"/>
+      <c r="E19" s="82"/>
+      <c r="F19" s="83"/>
+      <c r="G19" s="82"/>
+      <c r="H19" s="87"/>
       <c r="I19" s="30">
         <v>161</v>
       </c>
@@ -2521,17 +2652,17 @@
       </c>
       <c r="N19" s="15"/>
       <c r="O19" s="16"/>
-      <c r="P19" s="54"/>
-      <c r="Q19" s="60"/>
-      <c r="R19" s="63"/>
-      <c r="S19" s="66"/>
-      <c r="T19" s="60"/>
-      <c r="U19" s="63"/>
-      <c r="V19" s="66"/>
+      <c r="P19" s="78"/>
+      <c r="Q19" s="72"/>
+      <c r="R19" s="75"/>
+      <c r="S19" s="98"/>
+      <c r="T19" s="72"/>
+      <c r="U19" s="75"/>
+      <c r="V19" s="98"/>
       <c r="W19" s="42"/>
-      <c r="X19" s="54"/>
-      <c r="Y19" s="54"/>
-      <c r="Z19" s="54"/>
+      <c r="X19" s="78"/>
+      <c r="Y19" s="78"/>
+      <c r="Z19" s="78"/>
       <c r="AA19" s="39"/>
       <c r="AB19" s="39"/>
       <c r="AC19" s="40"/>
@@ -2542,12 +2673,12 @@
     <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" s="28"/>
       <c r="B20" s="33"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="51"/>
+      <c r="C20" s="82"/>
+      <c r="D20" s="83"/>
+      <c r="E20" s="82"/>
+      <c r="F20" s="83"/>
+      <c r="G20" s="82"/>
+      <c r="H20" s="87"/>
       <c r="I20" s="30">
         <v>171</v>
       </c>
@@ -2563,17 +2694,17 @@
       </c>
       <c r="N20" s="15"/>
       <c r="O20" s="16"/>
-      <c r="P20" s="54"/>
-      <c r="Q20" s="60"/>
-      <c r="R20" s="63"/>
-      <c r="S20" s="66"/>
-      <c r="T20" s="60"/>
-      <c r="U20" s="63"/>
-      <c r="V20" s="66"/>
+      <c r="P20" s="78"/>
+      <c r="Q20" s="72"/>
+      <c r="R20" s="75"/>
+      <c r="S20" s="98"/>
+      <c r="T20" s="72"/>
+      <c r="U20" s="75"/>
+      <c r="V20" s="98"/>
       <c r="W20" s="42"/>
-      <c r="X20" s="54"/>
-      <c r="Y20" s="54"/>
-      <c r="Z20" s="54"/>
+      <c r="X20" s="78"/>
+      <c r="Y20" s="78"/>
+      <c r="Z20" s="78"/>
       <c r="AA20" s="39"/>
       <c r="AB20" s="39"/>
       <c r="AC20" s="40"/>
@@ -2584,12 +2715,12 @@
     <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" s="28"/>
       <c r="B21" s="33"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="51"/>
+      <c r="C21" s="82"/>
+      <c r="D21" s="83"/>
+      <c r="E21" s="82"/>
+      <c r="F21" s="83"/>
+      <c r="G21" s="82"/>
+      <c r="H21" s="87"/>
       <c r="I21" s="30">
         <v>181</v>
       </c>
@@ -2605,17 +2736,17 @@
       </c>
       <c r="N21" s="15"/>
       <c r="O21" s="16"/>
-      <c r="P21" s="54"/>
-      <c r="Q21" s="60"/>
-      <c r="R21" s="63"/>
-      <c r="S21" s="66"/>
-      <c r="T21" s="60"/>
-      <c r="U21" s="63"/>
-      <c r="V21" s="66"/>
+      <c r="P21" s="78"/>
+      <c r="Q21" s="72"/>
+      <c r="R21" s="75"/>
+      <c r="S21" s="98"/>
+      <c r="T21" s="72"/>
+      <c r="U21" s="75"/>
+      <c r="V21" s="98"/>
       <c r="W21" s="42"/>
-      <c r="X21" s="54"/>
-      <c r="Y21" s="54"/>
-      <c r="Z21" s="54"/>
+      <c r="X21" s="78"/>
+      <c r="Y21" s="78"/>
+      <c r="Z21" s="78"/>
       <c r="AA21" s="39"/>
       <c r="AB21" s="39"/>
       <c r="AC21" s="40"/>
@@ -2626,12 +2757,12 @@
     <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" s="28"/>
       <c r="B22" s="33"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="51"/>
+      <c r="C22" s="82"/>
+      <c r="D22" s="83"/>
+      <c r="E22" s="82"/>
+      <c r="F22" s="83"/>
+      <c r="G22" s="82"/>
+      <c r="H22" s="87"/>
       <c r="I22" s="30">
         <v>191</v>
       </c>
@@ -2647,17 +2778,17 @@
       </c>
       <c r="N22" s="15"/>
       <c r="O22" s="16"/>
-      <c r="P22" s="54"/>
-      <c r="Q22" s="75"/>
-      <c r="R22" s="77"/>
-      <c r="S22" s="79"/>
-      <c r="T22" s="60"/>
-      <c r="U22" s="63"/>
-      <c r="V22" s="66"/>
+      <c r="P22" s="78"/>
+      <c r="Q22" s="73"/>
+      <c r="R22" s="76"/>
+      <c r="S22" s="104"/>
+      <c r="T22" s="72"/>
+      <c r="U22" s="75"/>
+      <c r="V22" s="98"/>
       <c r="W22" s="42"/>
-      <c r="X22" s="54"/>
-      <c r="Y22" s="54"/>
-      <c r="Z22" s="54"/>
+      <c r="X22" s="78"/>
+      <c r="Y22" s="78"/>
+      <c r="Z22" s="78"/>
       <c r="AA22" s="39"/>
       <c r="AB22" s="39"/>
       <c r="AC22" s="40"/>
@@ -2668,12 +2799,12 @@
     <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" s="28"/>
       <c r="B23" s="33"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="51"/>
+      <c r="C23" s="82"/>
+      <c r="D23" s="83"/>
+      <c r="E23" s="82"/>
+      <c r="F23" s="83"/>
+      <c r="G23" s="82"/>
+      <c r="H23" s="87"/>
       <c r="I23" s="30">
         <v>201</v>
       </c>
@@ -2689,23 +2820,23 @@
       </c>
       <c r="N23" s="15"/>
       <c r="O23" s="16"/>
-      <c r="P23" s="54"/>
-      <c r="Q23" s="74">
+      <c r="P23" s="78"/>
+      <c r="Q23" s="71">
         <v>201</v>
       </c>
-      <c r="R23" s="76">
+      <c r="R23" s="74">
         <v>255</v>
       </c>
-      <c r="S23" s="78" t="s">
+      <c r="S23" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="T23" s="60"/>
-      <c r="U23" s="63"/>
-      <c r="V23" s="66"/>
+      <c r="T23" s="72"/>
+      <c r="U23" s="75"/>
+      <c r="V23" s="98"/>
       <c r="W23" s="42"/>
-      <c r="X23" s="54"/>
-      <c r="Y23" s="54"/>
-      <c r="Z23" s="54"/>
+      <c r="X23" s="78"/>
+      <c r="Y23" s="78"/>
+      <c r="Z23" s="78"/>
       <c r="AA23" s="39"/>
       <c r="AB23" s="39"/>
       <c r="AC23" s="40"/>
@@ -2716,12 +2847,12 @@
     <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24" s="28"/>
       <c r="B24" s="33"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="51"/>
+      <c r="C24" s="82"/>
+      <c r="D24" s="83"/>
+      <c r="E24" s="82"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="82"/>
+      <c r="H24" s="87"/>
       <c r="I24" s="30">
         <v>210</v>
       </c>
@@ -2737,17 +2868,17 @@
       </c>
       <c r="N24" s="15"/>
       <c r="O24" s="16"/>
-      <c r="P24" s="54"/>
-      <c r="Q24" s="60"/>
-      <c r="R24" s="63"/>
-      <c r="S24" s="66"/>
-      <c r="T24" s="60"/>
-      <c r="U24" s="63"/>
-      <c r="V24" s="66"/>
+      <c r="P24" s="78"/>
+      <c r="Q24" s="72"/>
+      <c r="R24" s="75"/>
+      <c r="S24" s="98"/>
+      <c r="T24" s="72"/>
+      <c r="U24" s="75"/>
+      <c r="V24" s="98"/>
       <c r="W24" s="42"/>
-      <c r="X24" s="54"/>
-      <c r="Y24" s="54"/>
-      <c r="Z24" s="54"/>
+      <c r="X24" s="78"/>
+      <c r="Y24" s="78"/>
+      <c r="Z24" s="78"/>
       <c r="AA24" s="39"/>
       <c r="AB24" s="39"/>
       <c r="AC24" s="40"/>
@@ -2758,12 +2889,12 @@
     <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25" s="28"/>
       <c r="B25" s="33"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="51"/>
+      <c r="C25" s="82"/>
+      <c r="D25" s="83"/>
+      <c r="E25" s="82"/>
+      <c r="F25" s="83"/>
+      <c r="G25" s="82"/>
+      <c r="H25" s="87"/>
       <c r="I25" s="30">
         <v>221</v>
       </c>
@@ -2779,17 +2910,17 @@
       </c>
       <c r="N25" s="15"/>
       <c r="O25" s="16"/>
-      <c r="P25" s="54"/>
-      <c r="Q25" s="60"/>
-      <c r="R25" s="63"/>
-      <c r="S25" s="66"/>
-      <c r="T25" s="60"/>
-      <c r="U25" s="63"/>
-      <c r="V25" s="66"/>
+      <c r="P25" s="78"/>
+      <c r="Q25" s="72"/>
+      <c r="R25" s="75"/>
+      <c r="S25" s="98"/>
+      <c r="T25" s="72"/>
+      <c r="U25" s="75"/>
+      <c r="V25" s="98"/>
       <c r="W25" s="42"/>
-      <c r="X25" s="54"/>
-      <c r="Y25" s="54"/>
-      <c r="Z25" s="54"/>
+      <c r="X25" s="78"/>
+      <c r="Y25" s="78"/>
+      <c r="Z25" s="78"/>
       <c r="AA25" s="39"/>
       <c r="AB25" s="39"/>
       <c r="AC25" s="40"/>
@@ -2800,12 +2931,12 @@
     <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26" s="28"/>
       <c r="B26" s="33"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="51"/>
+      <c r="C26" s="82"/>
+      <c r="D26" s="83"/>
+      <c r="E26" s="82"/>
+      <c r="F26" s="83"/>
+      <c r="G26" s="82"/>
+      <c r="H26" s="87"/>
       <c r="I26" s="30">
         <v>231</v>
       </c>
@@ -2821,17 +2952,17 @@
       </c>
       <c r="N26" s="15"/>
       <c r="O26" s="16"/>
-      <c r="P26" s="54"/>
-      <c r="Q26" s="60"/>
-      <c r="R26" s="63"/>
-      <c r="S26" s="66"/>
-      <c r="T26" s="60"/>
-      <c r="U26" s="63"/>
-      <c r="V26" s="66"/>
+      <c r="P26" s="78"/>
+      <c r="Q26" s="72"/>
+      <c r="R26" s="75"/>
+      <c r="S26" s="98"/>
+      <c r="T26" s="72"/>
+      <c r="U26" s="75"/>
+      <c r="V26" s="98"/>
       <c r="W26" s="42"/>
-      <c r="X26" s="54"/>
-      <c r="Y26" s="54"/>
-      <c r="Z26" s="54"/>
+      <c r="X26" s="78"/>
+      <c r="Y26" s="78"/>
+      <c r="Z26" s="78"/>
       <c r="AA26" s="39"/>
       <c r="AB26" s="39"/>
       <c r="AC26" s="40"/>
@@ -2842,12 +2973,12 @@
     <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27" s="28"/>
       <c r="B27" s="33"/>
-      <c r="C27" s="46"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="51"/>
+      <c r="C27" s="82"/>
+      <c r="D27" s="83"/>
+      <c r="E27" s="82"/>
+      <c r="F27" s="83"/>
+      <c r="G27" s="82"/>
+      <c r="H27" s="87"/>
       <c r="I27" s="30">
         <v>241</v>
       </c>
@@ -2863,17 +2994,17 @@
       </c>
       <c r="N27" s="15"/>
       <c r="O27" s="16"/>
-      <c r="P27" s="54"/>
-      <c r="Q27" s="60"/>
-      <c r="R27" s="63"/>
-      <c r="S27" s="66"/>
-      <c r="T27" s="60"/>
-      <c r="U27" s="63"/>
-      <c r="V27" s="66"/>
+      <c r="P27" s="78"/>
+      <c r="Q27" s="72"/>
+      <c r="R27" s="75"/>
+      <c r="S27" s="98"/>
+      <c r="T27" s="72"/>
+      <c r="U27" s="75"/>
+      <c r="V27" s="98"/>
       <c r="W27" s="42"/>
-      <c r="X27" s="54"/>
-      <c r="Y27" s="54"/>
-      <c r="Z27" s="54"/>
+      <c r="X27" s="78"/>
+      <c r="Y27" s="78"/>
+      <c r="Z27" s="78"/>
       <c r="AA27" s="39"/>
       <c r="AB27" s="39"/>
       <c r="AC27" s="40"/>
@@ -2884,12 +3015,12 @@
     <row r="28" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="29"/>
       <c r="B28" s="34"/>
-      <c r="C28" s="48"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="52"/>
+      <c r="C28" s="84"/>
+      <c r="D28" s="85"/>
+      <c r="E28" s="84"/>
+      <c r="F28" s="85"/>
+      <c r="G28" s="84"/>
+      <c r="H28" s="88"/>
       <c r="I28" s="31">
         <v>251</v>
       </c>
@@ -2905,17 +3036,17 @@
       </c>
       <c r="N28" s="20"/>
       <c r="O28" s="21"/>
-      <c r="P28" s="55"/>
-      <c r="Q28" s="61"/>
-      <c r="R28" s="64"/>
-      <c r="S28" s="67"/>
-      <c r="T28" s="61"/>
-      <c r="U28" s="64"/>
-      <c r="V28" s="67"/>
+      <c r="P28" s="79"/>
+      <c r="Q28" s="94"/>
+      <c r="R28" s="96"/>
+      <c r="S28" s="99"/>
+      <c r="T28" s="94"/>
+      <c r="U28" s="96"/>
+      <c r="V28" s="99"/>
       <c r="W28" s="43"/>
-      <c r="X28" s="55"/>
-      <c r="Y28" s="55"/>
-      <c r="Z28" s="55"/>
+      <c r="X28" s="79"/>
+      <c r="Y28" s="79"/>
+      <c r="Z28" s="79"/>
       <c r="AA28" s="39"/>
       <c r="AB28" s="40"/>
       <c r="AC28" s="40"/>
@@ -3605,6 +3736,37 @@
     </row>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="S23:S28"/>
+    <mergeCell ref="X18:X28"/>
+    <mergeCell ref="Y18:Y28"/>
+    <mergeCell ref="Z18:Z28"/>
+    <mergeCell ref="C18:D28"/>
+    <mergeCell ref="E18:F28"/>
+    <mergeCell ref="G18:H28"/>
+    <mergeCell ref="P18:P28"/>
+    <mergeCell ref="T3:T28"/>
+    <mergeCell ref="U3:U28"/>
+    <mergeCell ref="V3:V28"/>
+    <mergeCell ref="S6:S13"/>
+    <mergeCell ref="Q15:Q22"/>
+    <mergeCell ref="R15:R22"/>
+    <mergeCell ref="S15:S22"/>
+    <mergeCell ref="Q23:Q28"/>
+    <mergeCell ref="R23:R28"/>
+    <mergeCell ref="AA2:AC2"/>
+    <mergeCell ref="AD2:AF2"/>
+    <mergeCell ref="B3:B17"/>
+    <mergeCell ref="C3:D17"/>
+    <mergeCell ref="E3:F17"/>
+    <mergeCell ref="G3:H17"/>
+    <mergeCell ref="O3:O17"/>
+    <mergeCell ref="P3:P17"/>
+    <mergeCell ref="Q6:Q13"/>
+    <mergeCell ref="R6:R13"/>
+    <mergeCell ref="X3:X17"/>
+    <mergeCell ref="Y3:Y17"/>
+    <mergeCell ref="Z3:Z17"/>
+    <mergeCell ref="W3:W17"/>
     <mergeCell ref="T1:V1"/>
     <mergeCell ref="AA1:AC1"/>
     <mergeCell ref="AD1:AF1"/>
@@ -3621,37 +3783,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="L1:N1"/>
     <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="AA2:AC2"/>
-    <mergeCell ref="AD2:AF2"/>
-    <mergeCell ref="B3:B17"/>
-    <mergeCell ref="C3:D17"/>
-    <mergeCell ref="E3:F17"/>
-    <mergeCell ref="G3:H17"/>
-    <mergeCell ref="O3:O17"/>
-    <mergeCell ref="P3:P17"/>
-    <mergeCell ref="Q6:Q13"/>
-    <mergeCell ref="R6:R13"/>
-    <mergeCell ref="X3:X17"/>
-    <mergeCell ref="Y3:Y17"/>
-    <mergeCell ref="Z3:Z17"/>
-    <mergeCell ref="X18:X28"/>
-    <mergeCell ref="Y18:Y28"/>
-    <mergeCell ref="Z18:Z28"/>
-    <mergeCell ref="C18:D28"/>
-    <mergeCell ref="E18:F28"/>
-    <mergeCell ref="G18:H28"/>
-    <mergeCell ref="P18:P28"/>
-    <mergeCell ref="W3:W17"/>
-    <mergeCell ref="T3:T28"/>
-    <mergeCell ref="U3:U28"/>
-    <mergeCell ref="V3:V28"/>
-    <mergeCell ref="S6:S13"/>
-    <mergeCell ref="Q15:Q22"/>
-    <mergeCell ref="R15:R22"/>
-    <mergeCell ref="S15:S22"/>
-    <mergeCell ref="Q23:Q28"/>
-    <mergeCell ref="R23:R28"/>
-    <mergeCell ref="S23:S28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3662,7 +3793,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3A26AFB-2204-4552-9AD6-31C2D7C8993A}">
   <dimension ref="A1:Z28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="W37" sqref="W37"/>
     </sheetView>
   </sheetViews>
@@ -3675,43 +3806,43 @@
       <c r="B1" s="37">
         <v>1</v>
       </c>
-      <c r="C1" s="98">
+      <c r="C1" s="59">
         <v>2</v>
       </c>
-      <c r="D1" s="99"/>
-      <c r="E1" s="98">
+      <c r="D1" s="60"/>
+      <c r="E1" s="59">
         <v>3</v>
       </c>
-      <c r="F1" s="99"/>
-      <c r="G1" s="98">
+      <c r="F1" s="60"/>
+      <c r="G1" s="59">
         <v>4</v>
       </c>
-      <c r="H1" s="99"/>
-      <c r="I1" s="98">
+      <c r="H1" s="60"/>
+      <c r="I1" s="59">
         <v>5</v>
       </c>
-      <c r="J1" s="99"/>
-      <c r="K1" s="101">
+      <c r="J1" s="60"/>
+      <c r="K1" s="62">
         <v>6</v>
       </c>
-      <c r="L1" s="87"/>
-      <c r="M1" s="88"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="48"/>
       <c r="N1" s="37">
         <v>7</v>
       </c>
       <c r="O1" s="3">
         <v>8</v>
       </c>
-      <c r="P1" s="101">
+      <c r="P1" s="62">
         <v>9</v>
       </c>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="102"/>
-      <c r="S1" s="86">
+      <c r="Q1" s="47"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="46">
         <v>10</v>
       </c>
-      <c r="T1" s="87"/>
-      <c r="U1" s="88"/>
+      <c r="T1" s="47"/>
+      <c r="U1" s="48"/>
       <c r="V1" s="37">
         <v>11</v>
       </c>
@@ -3735,43 +3866,43 @@
       <c r="B2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="89" t="s">
+      <c r="C2" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="90"/>
-      <c r="E2" s="91" t="s">
+      <c r="D2" s="51"/>
+      <c r="E2" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="90"/>
-      <c r="G2" s="89" t="s">
+      <c r="F2" s="51"/>
+      <c r="G2" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="90"/>
-      <c r="I2" s="89" t="s">
+      <c r="H2" s="51"/>
+      <c r="I2" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="J2" s="90"/>
-      <c r="K2" s="95" t="s">
+      <c r="J2" s="51"/>
+      <c r="K2" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="96"/>
-      <c r="M2" s="94"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="55"/>
       <c r="N2" s="38" t="s">
         <v>8</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="95" t="s">
+      <c r="P2" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="96"/>
-      <c r="R2" s="97"/>
-      <c r="S2" s="92" t="s">
+      <c r="Q2" s="57"/>
+      <c r="R2" s="58"/>
+      <c r="S2" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="T2" s="96"/>
-      <c r="U2" s="94"/>
+      <c r="T2" s="57"/>
+      <c r="U2" s="55"/>
       <c r="V2" s="38" t="s">
         <v>47</v>
       </c>
@@ -3790,25 +3921,25 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="81" t="s">
+      <c r="C3" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="82"/>
-      <c r="E3" s="81" t="s">
+      <c r="D3" s="67"/>
+      <c r="E3" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="82"/>
-      <c r="G3" s="81" t="s">
+      <c r="F3" s="67"/>
+      <c r="G3" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="82"/>
-      <c r="I3" s="81" t="s">
+      <c r="H3" s="67"/>
+      <c r="I3" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="82"/>
+      <c r="J3" s="67"/>
       <c r="K3" s="8">
         <v>0</v>
       </c>
@@ -3818,10 +3949,10 @@
       <c r="M3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="68" t="s">
+      <c r="N3" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="68" t="s">
+      <c r="O3" s="64" t="s">
         <v>15</v>
       </c>
       <c r="P3" s="8">
@@ -3833,42 +3964,42 @@
       <c r="R3" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="S3" s="59">
+      <c r="S3" s="93">
         <v>0</v>
       </c>
-      <c r="T3" s="62">
+      <c r="T3" s="95">
         <v>255</v>
       </c>
-      <c r="U3" s="65" t="s">
+      <c r="U3" s="97" t="s">
         <v>46</v>
       </c>
-      <c r="V3" s="56" t="s">
+      <c r="V3" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="W3" s="68" t="s">
+      <c r="W3" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="X3" s="68" t="s">
+      <c r="X3" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="Y3" s="68" t="s">
+      <c r="Y3" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="Z3" s="68" t="s">
+      <c r="Z3" s="64" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="84"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="69"/>
       <c r="K4" s="13">
         <v>11</v>
       </c>
@@ -3878,8 +4009,8 @@
       <c r="M4" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="N4" s="69"/>
-      <c r="O4" s="69"/>
+      <c r="N4" s="65"/>
+      <c r="O4" s="65"/>
       <c r="P4" s="13">
         <v>11</v>
       </c>
@@ -3889,26 +4020,26 @@
       <c r="R4" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="S4" s="60"/>
-      <c r="T4" s="63"/>
-      <c r="U4" s="66"/>
-      <c r="V4" s="57"/>
-      <c r="W4" s="69"/>
-      <c r="X4" s="69"/>
-      <c r="Y4" s="69"/>
-      <c r="Z4" s="69"/>
+      <c r="S4" s="72"/>
+      <c r="T4" s="75"/>
+      <c r="U4" s="98"/>
+      <c r="V4" s="91"/>
+      <c r="W4" s="65"/>
+      <c r="X4" s="65"/>
+      <c r="Y4" s="65"/>
+      <c r="Z4" s="65"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
-      <c r="B5" s="69"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="84"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="69"/>
       <c r="K5" s="13">
         <v>21</v>
       </c>
@@ -3918,8 +4049,8 @@
       <c r="M5" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="N5" s="69"/>
-      <c r="O5" s="69"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="65"/>
       <c r="P5" s="13">
         <v>21</v>
       </c>
@@ -3929,26 +4060,26 @@
       <c r="R5" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="S5" s="60"/>
-      <c r="T5" s="63"/>
-      <c r="U5" s="66"/>
-      <c r="V5" s="57"/>
-      <c r="W5" s="69"/>
-      <c r="X5" s="69"/>
-      <c r="Y5" s="69"/>
-      <c r="Z5" s="69"/>
+      <c r="S5" s="72"/>
+      <c r="T5" s="75"/>
+      <c r="U5" s="98"/>
+      <c r="V5" s="91"/>
+      <c r="W5" s="65"/>
+      <c r="X5" s="65"/>
+      <c r="Y5" s="65"/>
+      <c r="Z5" s="65"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
-      <c r="B6" s="69"/>
-      <c r="C6" s="83"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="83"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="84"/>
-      <c r="I6" s="83"/>
-      <c r="J6" s="84"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="69"/>
       <c r="K6" s="13">
         <v>31</v>
       </c>
@@ -3958,37 +4089,37 @@
       <c r="M6" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="N6" s="69"/>
-      <c r="O6" s="69"/>
-      <c r="P6" s="74">
+      <c r="N6" s="65"/>
+      <c r="O6" s="65"/>
+      <c r="P6" s="71">
         <v>31</v>
       </c>
-      <c r="Q6" s="76">
+      <c r="Q6" s="74">
         <v>110</v>
       </c>
-      <c r="R6" s="71" t="s">
+      <c r="R6" s="100" t="s">
         <v>42</v>
       </c>
-      <c r="S6" s="60"/>
-      <c r="T6" s="63"/>
-      <c r="U6" s="66"/>
-      <c r="V6" s="57"/>
-      <c r="W6" s="69"/>
-      <c r="X6" s="69"/>
-      <c r="Y6" s="69"/>
-      <c r="Z6" s="69"/>
+      <c r="S6" s="72"/>
+      <c r="T6" s="75"/>
+      <c r="U6" s="98"/>
+      <c r="V6" s="91"/>
+      <c r="W6" s="65"/>
+      <c r="X6" s="65"/>
+      <c r="Y6" s="65"/>
+      <c r="Z6" s="65"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
-      <c r="B7" s="69"/>
-      <c r="C7" s="83"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="84"/>
-      <c r="I7" s="83"/>
-      <c r="J7" s="84"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="69"/>
       <c r="K7" s="13">
         <v>41</v>
       </c>
@@ -3998,31 +4129,31 @@
       <c r="M7" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="N7" s="69"/>
-      <c r="O7" s="69"/>
-      <c r="P7" s="60"/>
-      <c r="Q7" s="63"/>
-      <c r="R7" s="72"/>
-      <c r="S7" s="60"/>
-      <c r="T7" s="63"/>
-      <c r="U7" s="66"/>
-      <c r="V7" s="57"/>
-      <c r="W7" s="69"/>
-      <c r="X7" s="69"/>
-      <c r="Y7" s="69"/>
-      <c r="Z7" s="69"/>
+      <c r="N7" s="65"/>
+      <c r="O7" s="65"/>
+      <c r="P7" s="72"/>
+      <c r="Q7" s="75"/>
+      <c r="R7" s="101"/>
+      <c r="S7" s="72"/>
+      <c r="T7" s="75"/>
+      <c r="U7" s="98"/>
+      <c r="V7" s="91"/>
+      <c r="W7" s="65"/>
+      <c r="X7" s="65"/>
+      <c r="Y7" s="65"/>
+      <c r="Z7" s="65"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
-      <c r="B8" s="69"/>
-      <c r="C8" s="83"/>
-      <c r="D8" s="84"/>
-      <c r="E8" s="83"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="83"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="83"/>
-      <c r="J8" s="84"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="69"/>
       <c r="K8" s="13">
         <v>51</v>
       </c>
@@ -4032,31 +4163,31 @@
       <c r="M8" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="N8" s="69"/>
-      <c r="O8" s="69"/>
-      <c r="P8" s="60"/>
-      <c r="Q8" s="63"/>
-      <c r="R8" s="72"/>
-      <c r="S8" s="60"/>
-      <c r="T8" s="63"/>
-      <c r="U8" s="66"/>
-      <c r="V8" s="57"/>
-      <c r="W8" s="69"/>
-      <c r="X8" s="69"/>
-      <c r="Y8" s="69"/>
-      <c r="Z8" s="69"/>
+      <c r="N8" s="65"/>
+      <c r="O8" s="65"/>
+      <c r="P8" s="72"/>
+      <c r="Q8" s="75"/>
+      <c r="R8" s="101"/>
+      <c r="S8" s="72"/>
+      <c r="T8" s="75"/>
+      <c r="U8" s="98"/>
+      <c r="V8" s="91"/>
+      <c r="W8" s="65"/>
+      <c r="X8" s="65"/>
+      <c r="Y8" s="65"/>
+      <c r="Z8" s="65"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
-      <c r="B9" s="69"/>
-      <c r="C9" s="83"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="83"/>
-      <c r="F9" s="84"/>
-      <c r="G9" s="83"/>
-      <c r="H9" s="84"/>
-      <c r="I9" s="83"/>
-      <c r="J9" s="84"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="69"/>
       <c r="K9" s="13">
         <v>61</v>
       </c>
@@ -4066,31 +4197,31 @@
       <c r="M9" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="N9" s="69"/>
-      <c r="O9" s="69"/>
-      <c r="P9" s="60"/>
-      <c r="Q9" s="63"/>
-      <c r="R9" s="72"/>
-      <c r="S9" s="60"/>
-      <c r="T9" s="63"/>
-      <c r="U9" s="66"/>
-      <c r="V9" s="57"/>
-      <c r="W9" s="69"/>
-      <c r="X9" s="69"/>
-      <c r="Y9" s="69"/>
-      <c r="Z9" s="69"/>
+      <c r="N9" s="65"/>
+      <c r="O9" s="65"/>
+      <c r="P9" s="72"/>
+      <c r="Q9" s="75"/>
+      <c r="R9" s="101"/>
+      <c r="S9" s="72"/>
+      <c r="T9" s="75"/>
+      <c r="U9" s="98"/>
+      <c r="V9" s="91"/>
+      <c r="W9" s="65"/>
+      <c r="X9" s="65"/>
+      <c r="Y9" s="65"/>
+      <c r="Z9" s="65"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
-      <c r="B10" s="69"/>
-      <c r="C10" s="83"/>
-      <c r="D10" s="84"/>
-      <c r="E10" s="83"/>
-      <c r="F10" s="84"/>
-      <c r="G10" s="83"/>
-      <c r="H10" s="84"/>
-      <c r="I10" s="83"/>
-      <c r="J10" s="84"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="69"/>
       <c r="K10" s="13">
         <v>71</v>
       </c>
@@ -4100,31 +4231,31 @@
       <c r="M10" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="N10" s="69"/>
-      <c r="O10" s="69"/>
-      <c r="P10" s="60"/>
-      <c r="Q10" s="63"/>
-      <c r="R10" s="72"/>
-      <c r="S10" s="60"/>
-      <c r="T10" s="63"/>
-      <c r="U10" s="66"/>
-      <c r="V10" s="57"/>
-      <c r="W10" s="69"/>
-      <c r="X10" s="69"/>
-      <c r="Y10" s="69"/>
-      <c r="Z10" s="69"/>
+      <c r="N10" s="65"/>
+      <c r="O10" s="65"/>
+      <c r="P10" s="72"/>
+      <c r="Q10" s="75"/>
+      <c r="R10" s="101"/>
+      <c r="S10" s="72"/>
+      <c r="T10" s="75"/>
+      <c r="U10" s="98"/>
+      <c r="V10" s="91"/>
+      <c r="W10" s="65"/>
+      <c r="X10" s="65"/>
+      <c r="Y10" s="65"/>
+      <c r="Z10" s="65"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
-      <c r="B11" s="69"/>
-      <c r="C11" s="83"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="83"/>
-      <c r="F11" s="84"/>
-      <c r="G11" s="83"/>
-      <c r="H11" s="84"/>
-      <c r="I11" s="83"/>
-      <c r="J11" s="84"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="69"/>
       <c r="K11" s="13">
         <v>81</v>
       </c>
@@ -4134,31 +4265,31 @@
       <c r="M11" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="N11" s="69"/>
-      <c r="O11" s="69"/>
-      <c r="P11" s="60"/>
-      <c r="Q11" s="63"/>
-      <c r="R11" s="72"/>
-      <c r="S11" s="60"/>
-      <c r="T11" s="63"/>
-      <c r="U11" s="66"/>
-      <c r="V11" s="57"/>
-      <c r="W11" s="69"/>
-      <c r="X11" s="69"/>
-      <c r="Y11" s="69"/>
-      <c r="Z11" s="69"/>
+      <c r="N11" s="65"/>
+      <c r="O11" s="65"/>
+      <c r="P11" s="72"/>
+      <c r="Q11" s="75"/>
+      <c r="R11" s="101"/>
+      <c r="S11" s="72"/>
+      <c r="T11" s="75"/>
+      <c r="U11" s="98"/>
+      <c r="V11" s="91"/>
+      <c r="W11" s="65"/>
+      <c r="X11" s="65"/>
+      <c r="Y11" s="65"/>
+      <c r="Z11" s="65"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
-      <c r="B12" s="69"/>
-      <c r="C12" s="83"/>
-      <c r="D12" s="84"/>
-      <c r="E12" s="83"/>
-      <c r="F12" s="84"/>
-      <c r="G12" s="83"/>
-      <c r="H12" s="84"/>
-      <c r="I12" s="83"/>
-      <c r="J12" s="84"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="69"/>
       <c r="K12" s="13">
         <v>91</v>
       </c>
@@ -4166,31 +4297,31 @@
         <v>100</v>
       </c>
       <c r="M12" s="15"/>
-      <c r="N12" s="69"/>
-      <c r="O12" s="69"/>
-      <c r="P12" s="60"/>
-      <c r="Q12" s="63"/>
-      <c r="R12" s="72"/>
-      <c r="S12" s="60"/>
-      <c r="T12" s="63"/>
-      <c r="U12" s="66"/>
-      <c r="V12" s="57"/>
-      <c r="W12" s="69"/>
-      <c r="X12" s="69"/>
-      <c r="Y12" s="69"/>
-      <c r="Z12" s="69"/>
+      <c r="N12" s="65"/>
+      <c r="O12" s="65"/>
+      <c r="P12" s="72"/>
+      <c r="Q12" s="75"/>
+      <c r="R12" s="101"/>
+      <c r="S12" s="72"/>
+      <c r="T12" s="75"/>
+      <c r="U12" s="98"/>
+      <c r="V12" s="91"/>
+      <c r="W12" s="65"/>
+      <c r="X12" s="65"/>
+      <c r="Y12" s="65"/>
+      <c r="Z12" s="65"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
-      <c r="B13" s="69"/>
-      <c r="C13" s="83"/>
-      <c r="D13" s="84"/>
-      <c r="E13" s="83"/>
-      <c r="F13" s="84"/>
-      <c r="G13" s="83"/>
-      <c r="H13" s="84"/>
-      <c r="I13" s="83"/>
-      <c r="J13" s="84"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="69"/>
       <c r="K13" s="13">
         <v>101</v>
       </c>
@@ -4198,31 +4329,31 @@
         <v>110</v>
       </c>
       <c r="M13" s="15"/>
-      <c r="N13" s="69"/>
-      <c r="O13" s="69"/>
-      <c r="P13" s="75"/>
-      <c r="Q13" s="77"/>
-      <c r="R13" s="73"/>
-      <c r="S13" s="60"/>
-      <c r="T13" s="63"/>
-      <c r="U13" s="66"/>
-      <c r="V13" s="57"/>
-      <c r="W13" s="69"/>
-      <c r="X13" s="69"/>
-      <c r="Y13" s="69"/>
-      <c r="Z13" s="69"/>
+      <c r="N13" s="65"/>
+      <c r="O13" s="65"/>
+      <c r="P13" s="73"/>
+      <c r="Q13" s="76"/>
+      <c r="R13" s="102"/>
+      <c r="S13" s="72"/>
+      <c r="T13" s="75"/>
+      <c r="U13" s="98"/>
+      <c r="V13" s="91"/>
+      <c r="W13" s="65"/>
+      <c r="X13" s="65"/>
+      <c r="Y13" s="65"/>
+      <c r="Z13" s="65"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
-      <c r="B14" s="69"/>
-      <c r="C14" s="83"/>
-      <c r="D14" s="84"/>
-      <c r="E14" s="83"/>
-      <c r="F14" s="84"/>
-      <c r="G14" s="83"/>
-      <c r="H14" s="84"/>
-      <c r="I14" s="83"/>
-      <c r="J14" s="84"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="69"/>
       <c r="K14" s="13">
         <v>111</v>
       </c>
@@ -4230,8 +4361,8 @@
         <v>120</v>
       </c>
       <c r="M14" s="15"/>
-      <c r="N14" s="69"/>
-      <c r="O14" s="69"/>
+      <c r="N14" s="65"/>
+      <c r="O14" s="65"/>
       <c r="P14" s="13">
         <v>111</v>
       </c>
@@ -4241,26 +4372,26 @@
       <c r="R14" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="S14" s="60"/>
-      <c r="T14" s="63"/>
-      <c r="U14" s="66"/>
-      <c r="V14" s="57"/>
-      <c r="W14" s="69"/>
-      <c r="X14" s="69"/>
-      <c r="Y14" s="69"/>
-      <c r="Z14" s="69"/>
+      <c r="S14" s="72"/>
+      <c r="T14" s="75"/>
+      <c r="U14" s="98"/>
+      <c r="V14" s="91"/>
+      <c r="W14" s="65"/>
+      <c r="X14" s="65"/>
+      <c r="Y14" s="65"/>
+      <c r="Z14" s="65"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
-      <c r="B15" s="69"/>
-      <c r="C15" s="83"/>
-      <c r="D15" s="84"/>
-      <c r="E15" s="83"/>
-      <c r="F15" s="84"/>
-      <c r="G15" s="83"/>
-      <c r="H15" s="84"/>
-      <c r="I15" s="83"/>
-      <c r="J15" s="84"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="69"/>
       <c r="K15" s="13">
         <v>120.833333333333</v>
       </c>
@@ -4268,37 +4399,37 @@
         <v>130</v>
       </c>
       <c r="M15" s="15"/>
-      <c r="N15" s="69"/>
-      <c r="O15" s="69"/>
-      <c r="P15" s="74">
+      <c r="N15" s="65"/>
+      <c r="O15" s="65"/>
+      <c r="P15" s="71">
         <v>120.833333333333</v>
       </c>
-      <c r="Q15" s="76">
+      <c r="Q15" s="74">
         <v>200</v>
       </c>
-      <c r="R15" s="78" t="s">
+      <c r="R15" s="103" t="s">
         <v>44</v>
       </c>
-      <c r="S15" s="60"/>
-      <c r="T15" s="63"/>
-      <c r="U15" s="66"/>
-      <c r="V15" s="57"/>
-      <c r="W15" s="69"/>
-      <c r="X15" s="69"/>
-      <c r="Y15" s="69"/>
-      <c r="Z15" s="69"/>
+      <c r="S15" s="72"/>
+      <c r="T15" s="75"/>
+      <c r="U15" s="98"/>
+      <c r="V15" s="91"/>
+      <c r="W15" s="65"/>
+      <c r="X15" s="65"/>
+      <c r="Y15" s="65"/>
+      <c r="Z15" s="65"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
-      <c r="B16" s="69"/>
-      <c r="C16" s="83"/>
-      <c r="D16" s="84"/>
-      <c r="E16" s="83"/>
-      <c r="F16" s="84"/>
-      <c r="G16" s="83"/>
-      <c r="H16" s="84"/>
-      <c r="I16" s="83"/>
-      <c r="J16" s="84"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="69"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="69"/>
       <c r="K16" s="13">
         <v>131</v>
       </c>
@@ -4306,31 +4437,31 @@
         <v>140</v>
       </c>
       <c r="M16" s="15"/>
-      <c r="N16" s="69"/>
-      <c r="O16" s="69"/>
-      <c r="P16" s="60"/>
-      <c r="Q16" s="63"/>
-      <c r="R16" s="66"/>
-      <c r="S16" s="60"/>
-      <c r="T16" s="63"/>
-      <c r="U16" s="66"/>
-      <c r="V16" s="57"/>
-      <c r="W16" s="69"/>
-      <c r="X16" s="69"/>
-      <c r="Y16" s="69"/>
-      <c r="Z16" s="69"/>
+      <c r="N16" s="65"/>
+      <c r="O16" s="65"/>
+      <c r="P16" s="72"/>
+      <c r="Q16" s="75"/>
+      <c r="R16" s="98"/>
+      <c r="S16" s="72"/>
+      <c r="T16" s="75"/>
+      <c r="U16" s="98"/>
+      <c r="V16" s="91"/>
+      <c r="W16" s="65"/>
+      <c r="X16" s="65"/>
+      <c r="Y16" s="65"/>
+      <c r="Z16" s="65"/>
     </row>
     <row r="17" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12"/>
-      <c r="B17" s="69"/>
-      <c r="C17" s="83"/>
-      <c r="D17" s="84"/>
-      <c r="E17" s="83"/>
-      <c r="F17" s="84"/>
-      <c r="G17" s="83"/>
-      <c r="H17" s="84"/>
-      <c r="I17" s="83"/>
-      <c r="J17" s="84"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="69"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="69"/>
       <c r="K17" s="13">
         <v>141</v>
       </c>
@@ -4338,31 +4469,31 @@
         <v>150</v>
       </c>
       <c r="M17" s="15"/>
-      <c r="N17" s="85"/>
-      <c r="O17" s="85"/>
-      <c r="P17" s="60"/>
-      <c r="Q17" s="63"/>
-      <c r="R17" s="66"/>
-      <c r="S17" s="60"/>
-      <c r="T17" s="63"/>
-      <c r="U17" s="66"/>
-      <c r="V17" s="58"/>
-      <c r="W17" s="70"/>
-      <c r="X17" s="70"/>
-      <c r="Y17" s="70"/>
-      <c r="Z17" s="70"/>
+      <c r="N17" s="70"/>
+      <c r="O17" s="70"/>
+      <c r="P17" s="72"/>
+      <c r="Q17" s="75"/>
+      <c r="R17" s="98"/>
+      <c r="S17" s="72"/>
+      <c r="T17" s="75"/>
+      <c r="U17" s="98"/>
+      <c r="V17" s="92"/>
+      <c r="W17" s="77"/>
+      <c r="X17" s="77"/>
+      <c r="Y17" s="77"/>
+      <c r="Z17" s="77"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="28"/>
       <c r="B18" s="32"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="50"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="81"/>
+      <c r="G18" s="80"/>
+      <c r="H18" s="86"/>
+      <c r="I18" s="80"/>
+      <c r="J18" s="86"/>
       <c r="K18" s="13">
         <v>150.833333333333</v>
       </c>
@@ -4371,30 +4502,30 @@
       </c>
       <c r="M18" s="15"/>
       <c r="N18" s="16"/>
-      <c r="O18" s="53"/>
-      <c r="P18" s="60"/>
-      <c r="Q18" s="63"/>
-      <c r="R18" s="66"/>
-      <c r="S18" s="60"/>
-      <c r="T18" s="63"/>
-      <c r="U18" s="66"/>
+      <c r="O18" s="89"/>
+      <c r="P18" s="72"/>
+      <c r="Q18" s="75"/>
+      <c r="R18" s="98"/>
+      <c r="S18" s="72"/>
+      <c r="T18" s="75"/>
+      <c r="U18" s="98"/>
       <c r="V18" s="42"/>
-      <c r="W18" s="54"/>
-      <c r="X18" s="54"/>
-      <c r="Y18" s="54"/>
-      <c r="Z18" s="54"/>
+      <c r="W18" s="78"/>
+      <c r="X18" s="78"/>
+      <c r="Y18" s="78"/>
+      <c r="Z18" s="78"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="28"/>
       <c r="B19" s="33"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="51"/>
+      <c r="C19" s="82"/>
+      <c r="D19" s="83"/>
+      <c r="E19" s="82"/>
+      <c r="F19" s="83"/>
+      <c r="G19" s="82"/>
+      <c r="H19" s="87"/>
+      <c r="I19" s="82"/>
+      <c r="J19" s="87"/>
       <c r="K19" s="13">
         <v>161</v>
       </c>
@@ -4403,30 +4534,30 @@
       </c>
       <c r="M19" s="15"/>
       <c r="N19" s="16"/>
-      <c r="O19" s="54"/>
-      <c r="P19" s="60"/>
-      <c r="Q19" s="63"/>
-      <c r="R19" s="66"/>
-      <c r="S19" s="60"/>
-      <c r="T19" s="63"/>
-      <c r="U19" s="66"/>
+      <c r="O19" s="78"/>
+      <c r="P19" s="72"/>
+      <c r="Q19" s="75"/>
+      <c r="R19" s="98"/>
+      <c r="S19" s="72"/>
+      <c r="T19" s="75"/>
+      <c r="U19" s="98"/>
       <c r="V19" s="42"/>
-      <c r="W19" s="54"/>
-      <c r="X19" s="54"/>
-      <c r="Y19" s="54"/>
-      <c r="Z19" s="54"/>
+      <c r="W19" s="78"/>
+      <c r="X19" s="78"/>
+      <c r="Y19" s="78"/>
+      <c r="Z19" s="78"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="28"/>
       <c r="B20" s="33"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="51"/>
+      <c r="C20" s="82"/>
+      <c r="D20" s="83"/>
+      <c r="E20" s="82"/>
+      <c r="F20" s="83"/>
+      <c r="G20" s="82"/>
+      <c r="H20" s="87"/>
+      <c r="I20" s="82"/>
+      <c r="J20" s="87"/>
       <c r="K20" s="13">
         <v>171</v>
       </c>
@@ -4435,30 +4566,30 @@
       </c>
       <c r="M20" s="15"/>
       <c r="N20" s="16"/>
-      <c r="O20" s="54"/>
-      <c r="P20" s="60"/>
-      <c r="Q20" s="63"/>
-      <c r="R20" s="66"/>
-      <c r="S20" s="60"/>
-      <c r="T20" s="63"/>
-      <c r="U20" s="66"/>
+      <c r="O20" s="78"/>
+      <c r="P20" s="72"/>
+      <c r="Q20" s="75"/>
+      <c r="R20" s="98"/>
+      <c r="S20" s="72"/>
+      <c r="T20" s="75"/>
+      <c r="U20" s="98"/>
       <c r="V20" s="42"/>
-      <c r="W20" s="54"/>
-      <c r="X20" s="54"/>
-      <c r="Y20" s="54"/>
-      <c r="Z20" s="54"/>
+      <c r="W20" s="78"/>
+      <c r="X20" s="78"/>
+      <c r="Y20" s="78"/>
+      <c r="Z20" s="78"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="28"/>
       <c r="B21" s="33"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="51"/>
+      <c r="C21" s="82"/>
+      <c r="D21" s="83"/>
+      <c r="E21" s="82"/>
+      <c r="F21" s="83"/>
+      <c r="G21" s="82"/>
+      <c r="H21" s="87"/>
+      <c r="I21" s="82"/>
+      <c r="J21" s="87"/>
       <c r="K21" s="13">
         <v>181</v>
       </c>
@@ -4467,30 +4598,30 @@
       </c>
       <c r="M21" s="15"/>
       <c r="N21" s="16"/>
-      <c r="O21" s="54"/>
-      <c r="P21" s="60"/>
-      <c r="Q21" s="63"/>
-      <c r="R21" s="66"/>
-      <c r="S21" s="60"/>
-      <c r="T21" s="63"/>
-      <c r="U21" s="66"/>
+      <c r="O21" s="78"/>
+      <c r="P21" s="72"/>
+      <c r="Q21" s="75"/>
+      <c r="R21" s="98"/>
+      <c r="S21" s="72"/>
+      <c r="T21" s="75"/>
+      <c r="U21" s="98"/>
       <c r="V21" s="42"/>
-      <c r="W21" s="54"/>
-      <c r="X21" s="54"/>
-      <c r="Y21" s="54"/>
-      <c r="Z21" s="54"/>
+      <c r="W21" s="78"/>
+      <c r="X21" s="78"/>
+      <c r="Y21" s="78"/>
+      <c r="Z21" s="78"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="28"/>
       <c r="B22" s="33"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="46"/>
-      <c r="J22" s="51"/>
+      <c r="C22" s="82"/>
+      <c r="D22" s="83"/>
+      <c r="E22" s="82"/>
+      <c r="F22" s="83"/>
+      <c r="G22" s="82"/>
+      <c r="H22" s="87"/>
+      <c r="I22" s="82"/>
+      <c r="J22" s="87"/>
       <c r="K22" s="13">
         <v>191</v>
       </c>
@@ -4499,30 +4630,30 @@
       </c>
       <c r="M22" s="15"/>
       <c r="N22" s="16"/>
-      <c r="O22" s="54"/>
-      <c r="P22" s="75"/>
-      <c r="Q22" s="77"/>
-      <c r="R22" s="79"/>
-      <c r="S22" s="60"/>
-      <c r="T22" s="63"/>
-      <c r="U22" s="66"/>
+      <c r="O22" s="78"/>
+      <c r="P22" s="73"/>
+      <c r="Q22" s="76"/>
+      <c r="R22" s="104"/>
+      <c r="S22" s="72"/>
+      <c r="T22" s="75"/>
+      <c r="U22" s="98"/>
       <c r="V22" s="42"/>
-      <c r="W22" s="54"/>
-      <c r="X22" s="54"/>
-      <c r="Y22" s="54"/>
-      <c r="Z22" s="54"/>
+      <c r="W22" s="78"/>
+      <c r="X22" s="78"/>
+      <c r="Y22" s="78"/>
+      <c r="Z22" s="78"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="28"/>
       <c r="B23" s="33"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="46"/>
-      <c r="J23" s="51"/>
+      <c r="C23" s="82"/>
+      <c r="D23" s="83"/>
+      <c r="E23" s="82"/>
+      <c r="F23" s="83"/>
+      <c r="G23" s="82"/>
+      <c r="H23" s="87"/>
+      <c r="I23" s="82"/>
+      <c r="J23" s="87"/>
       <c r="K23" s="13">
         <v>201</v>
       </c>
@@ -4531,36 +4662,36 @@
       </c>
       <c r="M23" s="15"/>
       <c r="N23" s="16"/>
-      <c r="O23" s="54"/>
-      <c r="P23" s="74">
+      <c r="O23" s="78"/>
+      <c r="P23" s="71">
         <v>201</v>
       </c>
-      <c r="Q23" s="76">
+      <c r="Q23" s="74">
         <v>255</v>
       </c>
-      <c r="R23" s="78" t="s">
+      <c r="R23" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="S23" s="60"/>
-      <c r="T23" s="63"/>
-      <c r="U23" s="66"/>
+      <c r="S23" s="72"/>
+      <c r="T23" s="75"/>
+      <c r="U23" s="98"/>
       <c r="V23" s="42"/>
-      <c r="W23" s="54"/>
-      <c r="X23" s="54"/>
-      <c r="Y23" s="54"/>
-      <c r="Z23" s="54"/>
+      <c r="W23" s="78"/>
+      <c r="X23" s="78"/>
+      <c r="Y23" s="78"/>
+      <c r="Z23" s="78"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="28"/>
       <c r="B24" s="33"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="46"/>
-      <c r="J24" s="51"/>
+      <c r="C24" s="82"/>
+      <c r="D24" s="83"/>
+      <c r="E24" s="82"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="82"/>
+      <c r="H24" s="87"/>
+      <c r="I24" s="82"/>
+      <c r="J24" s="87"/>
       <c r="K24" s="13">
         <v>210</v>
       </c>
@@ -4569,30 +4700,30 @@
       </c>
       <c r="M24" s="15"/>
       <c r="N24" s="16"/>
-      <c r="O24" s="54"/>
-      <c r="P24" s="60"/>
-      <c r="Q24" s="63"/>
-      <c r="R24" s="66"/>
-      <c r="S24" s="60"/>
-      <c r="T24" s="63"/>
-      <c r="U24" s="66"/>
+      <c r="O24" s="78"/>
+      <c r="P24" s="72"/>
+      <c r="Q24" s="75"/>
+      <c r="R24" s="98"/>
+      <c r="S24" s="72"/>
+      <c r="T24" s="75"/>
+      <c r="U24" s="98"/>
       <c r="V24" s="42"/>
-      <c r="W24" s="54"/>
-      <c r="X24" s="54"/>
-      <c r="Y24" s="54"/>
-      <c r="Z24" s="54"/>
+      <c r="W24" s="78"/>
+      <c r="X24" s="78"/>
+      <c r="Y24" s="78"/>
+      <c r="Z24" s="78"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="28"/>
       <c r="B25" s="33"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="46"/>
-      <c r="J25" s="51"/>
+      <c r="C25" s="82"/>
+      <c r="D25" s="83"/>
+      <c r="E25" s="82"/>
+      <c r="F25" s="83"/>
+      <c r="G25" s="82"/>
+      <c r="H25" s="87"/>
+      <c r="I25" s="82"/>
+      <c r="J25" s="87"/>
       <c r="K25" s="13">
         <v>221</v>
       </c>
@@ -4601,30 +4732,30 @@
       </c>
       <c r="M25" s="15"/>
       <c r="N25" s="16"/>
-      <c r="O25" s="54"/>
-      <c r="P25" s="60"/>
-      <c r="Q25" s="63"/>
-      <c r="R25" s="66"/>
-      <c r="S25" s="60"/>
-      <c r="T25" s="63"/>
-      <c r="U25" s="66"/>
+      <c r="O25" s="78"/>
+      <c r="P25" s="72"/>
+      <c r="Q25" s="75"/>
+      <c r="R25" s="98"/>
+      <c r="S25" s="72"/>
+      <c r="T25" s="75"/>
+      <c r="U25" s="98"/>
       <c r="V25" s="42"/>
-      <c r="W25" s="54"/>
-      <c r="X25" s="54"/>
-      <c r="Y25" s="54"/>
-      <c r="Z25" s="54"/>
+      <c r="W25" s="78"/>
+      <c r="X25" s="78"/>
+      <c r="Y25" s="78"/>
+      <c r="Z25" s="78"/>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="28"/>
       <c r="B26" s="33"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="46"/>
-      <c r="J26" s="51"/>
+      <c r="C26" s="82"/>
+      <c r="D26" s="83"/>
+      <c r="E26" s="82"/>
+      <c r="F26" s="83"/>
+      <c r="G26" s="82"/>
+      <c r="H26" s="87"/>
+      <c r="I26" s="82"/>
+      <c r="J26" s="87"/>
       <c r="K26" s="13">
         <v>231</v>
       </c>
@@ -4633,30 +4764,30 @@
       </c>
       <c r="M26" s="15"/>
       <c r="N26" s="16"/>
-      <c r="O26" s="54"/>
-      <c r="P26" s="60"/>
-      <c r="Q26" s="63"/>
-      <c r="R26" s="66"/>
-      <c r="S26" s="60"/>
-      <c r="T26" s="63"/>
-      <c r="U26" s="66"/>
+      <c r="O26" s="78"/>
+      <c r="P26" s="72"/>
+      <c r="Q26" s="75"/>
+      <c r="R26" s="98"/>
+      <c r="S26" s="72"/>
+      <c r="T26" s="75"/>
+      <c r="U26" s="98"/>
       <c r="V26" s="42"/>
-      <c r="W26" s="54"/>
-      <c r="X26" s="54"/>
-      <c r="Y26" s="54"/>
-      <c r="Z26" s="54"/>
+      <c r="W26" s="78"/>
+      <c r="X26" s="78"/>
+      <c r="Y26" s="78"/>
+      <c r="Z26" s="78"/>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="28"/>
       <c r="B27" s="33"/>
-      <c r="C27" s="46"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="46"/>
-      <c r="J27" s="51"/>
+      <c r="C27" s="82"/>
+      <c r="D27" s="83"/>
+      <c r="E27" s="82"/>
+      <c r="F27" s="83"/>
+      <c r="G27" s="82"/>
+      <c r="H27" s="87"/>
+      <c r="I27" s="82"/>
+      <c r="J27" s="87"/>
       <c r="K27" s="13">
         <v>241</v>
       </c>
@@ -4665,30 +4796,30 @@
       </c>
       <c r="M27" s="15"/>
       <c r="N27" s="16"/>
-      <c r="O27" s="54"/>
-      <c r="P27" s="60"/>
-      <c r="Q27" s="63"/>
-      <c r="R27" s="66"/>
-      <c r="S27" s="60"/>
-      <c r="T27" s="63"/>
-      <c r="U27" s="66"/>
+      <c r="O27" s="78"/>
+      <c r="P27" s="72"/>
+      <c r="Q27" s="75"/>
+      <c r="R27" s="98"/>
+      <c r="S27" s="72"/>
+      <c r="T27" s="75"/>
+      <c r="U27" s="98"/>
       <c r="V27" s="42"/>
-      <c r="W27" s="54"/>
-      <c r="X27" s="54"/>
-      <c r="Y27" s="54"/>
-      <c r="Z27" s="54"/>
+      <c r="W27" s="78"/>
+      <c r="X27" s="78"/>
+      <c r="Y27" s="78"/>
+      <c r="Z27" s="78"/>
     </row>
     <row r="28" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="29"/>
       <c r="B28" s="34"/>
-      <c r="C28" s="48"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="52"/>
-      <c r="I28" s="48"/>
-      <c r="J28" s="52"/>
+      <c r="C28" s="84"/>
+      <c r="D28" s="85"/>
+      <c r="E28" s="84"/>
+      <c r="F28" s="85"/>
+      <c r="G28" s="84"/>
+      <c r="H28" s="88"/>
+      <c r="I28" s="84"/>
+      <c r="J28" s="88"/>
       <c r="K28" s="18">
         <v>251</v>
       </c>
@@ -4697,21 +4828,52 @@
       </c>
       <c r="M28" s="20"/>
       <c r="N28" s="21"/>
-      <c r="O28" s="55"/>
-      <c r="P28" s="61"/>
-      <c r="Q28" s="64"/>
-      <c r="R28" s="67"/>
-      <c r="S28" s="61"/>
-      <c r="T28" s="64"/>
-      <c r="U28" s="67"/>
+      <c r="O28" s="79"/>
+      <c r="P28" s="94"/>
+      <c r="Q28" s="96"/>
+      <c r="R28" s="99"/>
+      <c r="S28" s="94"/>
+      <c r="T28" s="96"/>
+      <c r="U28" s="99"/>
       <c r="V28" s="43"/>
-      <c r="W28" s="55"/>
-      <c r="X28" s="55"/>
-      <c r="Y28" s="55"/>
-      <c r="Z28" s="55"/>
+      <c r="W28" s="79"/>
+      <c r="X28" s="79"/>
+      <c r="Y28" s="79"/>
+      <c r="Z28" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:U2"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="Y18:Y28"/>
+    <mergeCell ref="B3:B17"/>
+    <mergeCell ref="C3:D17"/>
+    <mergeCell ref="E3:F17"/>
+    <mergeCell ref="G3:H17"/>
+    <mergeCell ref="N3:N17"/>
+    <mergeCell ref="O3:O17"/>
+    <mergeCell ref="I3:J17"/>
+    <mergeCell ref="S3:S28"/>
+    <mergeCell ref="T3:T28"/>
+    <mergeCell ref="U3:U28"/>
+    <mergeCell ref="V3:V17"/>
+    <mergeCell ref="W3:W17"/>
+    <mergeCell ref="X3:X17"/>
+    <mergeCell ref="Q6:Q13"/>
+    <mergeCell ref="R6:R13"/>
+    <mergeCell ref="P15:P22"/>
+    <mergeCell ref="Q15:Q22"/>
+    <mergeCell ref="R15:R22"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="Z3:Z17"/>
@@ -4728,37 +4890,3242 @@
     <mergeCell ref="I18:J28"/>
     <mergeCell ref="Y3:Y17"/>
     <mergeCell ref="P6:P13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1FAC18C-8C9D-40E3-94CD-D60DDFAFE75D}">
+  <dimension ref="A1:AH28"/>
+  <sheetViews>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="44">
+        <v>1</v>
+      </c>
+      <c r="C1" s="59">
+        <v>2</v>
+      </c>
+      <c r="D1" s="60"/>
+      <c r="E1" s="59">
+        <v>3</v>
+      </c>
+      <c r="F1" s="60"/>
+      <c r="G1" s="59">
+        <v>4</v>
+      </c>
+      <c r="H1" s="60"/>
+      <c r="I1" s="59">
+        <v>5</v>
+      </c>
+      <c r="J1" s="60"/>
+      <c r="K1" s="46">
+        <v>6</v>
+      </c>
+      <c r="L1" s="61"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="62">
+        <v>7</v>
+      </c>
+      <c r="O1" s="47"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="44">
+        <v>8</v>
+      </c>
+      <c r="R1" s="3">
+        <v>9</v>
+      </c>
+      <c r="S1" s="62">
+        <v>10</v>
+      </c>
+      <c r="T1" s="47"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="46">
+        <v>11</v>
+      </c>
+      <c r="W1" s="47"/>
+      <c r="X1" s="48"/>
+      <c r="Y1" s="44">
+        <v>12</v>
+      </c>
+      <c r="Z1" s="3">
+        <v>13</v>
+      </c>
+      <c r="AA1" s="44">
+        <v>14</v>
+      </c>
+      <c r="AB1" s="44">
+        <v>15</v>
+      </c>
+      <c r="AC1" s="46">
+        <v>16</v>
+      </c>
+      <c r="AD1" s="47"/>
+      <c r="AE1" s="48"/>
+      <c r="AF1" s="62">
+        <v>17</v>
+      </c>
+      <c r="AG1" s="47"/>
+      <c r="AH1" s="48"/>
+    </row>
+    <row r="2" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="51"/>
+      <c r="E2" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="51"/>
+      <c r="G2" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="51"/>
+      <c r="I2" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" s="51"/>
+      <c r="K2" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="54"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" s="57"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="S2" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="T2" s="57"/>
+      <c r="U2" s="58"/>
+      <c r="V2" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="W2" s="57"/>
+      <c r="X2" s="55"/>
+      <c r="Y2" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA2" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB2" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC2" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD2" s="57"/>
+      <c r="AE2" s="55"/>
+      <c r="AF2" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG2" s="57"/>
+      <c r="AH2" s="55"/>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="67"/>
+      <c r="E3" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="67"/>
+      <c r="G3" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="67"/>
+      <c r="I3" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="67"/>
+      <c r="K3" s="8">
+        <v>0</v>
+      </c>
+      <c r="L3" s="9">
+        <v>10</v>
+      </c>
+      <c r="M3" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3" s="8">
+        <v>0</v>
+      </c>
+      <c r="O3" s="9">
+        <v>10</v>
+      </c>
+      <c r="P3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q3" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="R3" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="S3" s="8">
+        <v>0</v>
+      </c>
+      <c r="T3" s="9">
+        <v>10</v>
+      </c>
+      <c r="U3" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="V3" s="93">
+        <v>0</v>
+      </c>
+      <c r="W3" s="95">
+        <v>255</v>
+      </c>
+      <c r="X3" s="97" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y3" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z3" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA3" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB3" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC3" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="9">
+        <v>10</v>
+      </c>
+      <c r="AE3" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF3" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="9">
+        <v>10</v>
+      </c>
+      <c r="AH3" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A4" s="12"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="13">
+        <v>11</v>
+      </c>
+      <c r="L4" s="14">
+        <v>20</v>
+      </c>
+      <c r="M4" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="N4" s="13">
+        <v>11</v>
+      </c>
+      <c r="O4" s="14">
+        <v>20</v>
+      </c>
+      <c r="P4" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q4" s="65"/>
+      <c r="R4" s="65"/>
+      <c r="S4" s="13">
+        <v>11</v>
+      </c>
+      <c r="T4" s="14">
+        <v>20</v>
+      </c>
+      <c r="U4" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="V4" s="72"/>
+      <c r="W4" s="75"/>
+      <c r="X4" s="98"/>
+      <c r="Y4" s="65"/>
+      <c r="Z4" s="65"/>
+      <c r="AA4" s="65"/>
+      <c r="AB4" s="65"/>
+      <c r="AC4" s="105">
+        <v>11</v>
+      </c>
+      <c r="AD4" s="106">
+        <v>20</v>
+      </c>
+      <c r="AE4" s="107" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF4" s="13">
+        <v>11</v>
+      </c>
+      <c r="AG4" s="14">
+        <v>20</v>
+      </c>
+      <c r="AH4" s="15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A5" s="12"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="13">
+        <v>21</v>
+      </c>
+      <c r="L5" s="14">
+        <v>30</v>
+      </c>
+      <c r="M5" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="N5" s="13">
+        <v>21</v>
+      </c>
+      <c r="O5" s="14">
+        <v>30</v>
+      </c>
+      <c r="P5" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="13">
+        <v>21</v>
+      </c>
+      <c r="T5" s="14">
+        <v>30</v>
+      </c>
+      <c r="U5" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="V5" s="72"/>
+      <c r="W5" s="75"/>
+      <c r="X5" s="98"/>
+      <c r="Y5" s="65"/>
+      <c r="Z5" s="65"/>
+      <c r="AA5" s="65"/>
+      <c r="AB5" s="65"/>
+      <c r="AC5" s="105">
+        <v>21</v>
+      </c>
+      <c r="AD5" s="106">
+        <v>30</v>
+      </c>
+      <c r="AE5" s="107" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF5" s="13">
+        <v>21</v>
+      </c>
+      <c r="AG5" s="14">
+        <v>30</v>
+      </c>
+      <c r="AH5" s="15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A6" s="12"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="13">
+        <v>31</v>
+      </c>
+      <c r="L6" s="14">
+        <v>40</v>
+      </c>
+      <c r="M6" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="N6" s="13">
+        <v>31</v>
+      </c>
+      <c r="O6" s="14">
+        <v>40</v>
+      </c>
+      <c r="P6" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q6" s="65"/>
+      <c r="R6" s="65"/>
+      <c r="S6" s="71">
+        <v>31</v>
+      </c>
+      <c r="T6" s="74">
+        <v>110</v>
+      </c>
+      <c r="U6" s="100" t="s">
+        <v>42</v>
+      </c>
+      <c r="V6" s="72"/>
+      <c r="W6" s="75"/>
+      <c r="X6" s="98"/>
+      <c r="Y6" s="65"/>
+      <c r="Z6" s="65"/>
+      <c r="AA6" s="65"/>
+      <c r="AB6" s="65"/>
+      <c r="AC6" s="13">
+        <v>31</v>
+      </c>
+      <c r="AD6" s="14">
+        <v>40</v>
+      </c>
+      <c r="AE6" s="15"/>
+      <c r="AF6" s="13">
+        <v>31</v>
+      </c>
+      <c r="AG6" s="14">
+        <v>40</v>
+      </c>
+      <c r="AH6" s="15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A7" s="12"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="13">
+        <v>41</v>
+      </c>
+      <c r="L7" s="14">
+        <v>50</v>
+      </c>
+      <c r="M7" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" s="13">
+        <v>41</v>
+      </c>
+      <c r="O7" s="14">
+        <v>50</v>
+      </c>
+      <c r="P7" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q7" s="65"/>
+      <c r="R7" s="65"/>
+      <c r="S7" s="72"/>
+      <c r="T7" s="75"/>
+      <c r="U7" s="101"/>
+      <c r="V7" s="72"/>
+      <c r="W7" s="75"/>
+      <c r="X7" s="98"/>
+      <c r="Y7" s="65"/>
+      <c r="Z7" s="65"/>
+      <c r="AA7" s="65"/>
+      <c r="AB7" s="65"/>
+      <c r="AC7" s="13">
+        <v>41</v>
+      </c>
+      <c r="AD7" s="14">
+        <v>50</v>
+      </c>
+      <c r="AE7" s="15"/>
+      <c r="AF7" s="13">
+        <v>41</v>
+      </c>
+      <c r="AG7" s="14">
+        <v>50</v>
+      </c>
+      <c r="AH7" s="15"/>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A8" s="12"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="13">
+        <v>51</v>
+      </c>
+      <c r="L8" s="14">
+        <v>60</v>
+      </c>
+      <c r="M8" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="N8" s="13">
+        <v>51</v>
+      </c>
+      <c r="O8" s="14">
+        <v>60</v>
+      </c>
+      <c r="P8" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q8" s="65"/>
+      <c r="R8" s="65"/>
+      <c r="S8" s="72"/>
+      <c r="T8" s="75"/>
+      <c r="U8" s="101"/>
+      <c r="V8" s="72"/>
+      <c r="W8" s="75"/>
+      <c r="X8" s="98"/>
+      <c r="Y8" s="65"/>
+      <c r="Z8" s="65"/>
+      <c r="AA8" s="65"/>
+      <c r="AB8" s="65"/>
+      <c r="AC8" s="13">
+        <v>51</v>
+      </c>
+      <c r="AD8" s="14">
+        <v>60</v>
+      </c>
+      <c r="AE8" s="15"/>
+      <c r="AF8" s="13">
+        <v>51</v>
+      </c>
+      <c r="AG8" s="14">
+        <v>60</v>
+      </c>
+      <c r="AH8" s="15"/>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A9" s="12"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="13">
+        <v>61</v>
+      </c>
+      <c r="L9" s="14">
+        <v>70</v>
+      </c>
+      <c r="M9" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="N9" s="13">
+        <v>61</v>
+      </c>
+      <c r="O9" s="14">
+        <v>70</v>
+      </c>
+      <c r="P9" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q9" s="65"/>
+      <c r="R9" s="65"/>
+      <c r="S9" s="72"/>
+      <c r="T9" s="75"/>
+      <c r="U9" s="101"/>
+      <c r="V9" s="72"/>
+      <c r="W9" s="75"/>
+      <c r="X9" s="98"/>
+      <c r="Y9" s="65"/>
+      <c r="Z9" s="65"/>
+      <c r="AA9" s="65"/>
+      <c r="AB9" s="65"/>
+      <c r="AC9" s="13">
+        <v>61</v>
+      </c>
+      <c r="AD9" s="14">
+        <v>70</v>
+      </c>
+      <c r="AE9" s="15"/>
+      <c r="AF9" s="13">
+        <v>61</v>
+      </c>
+      <c r="AG9" s="14">
+        <v>70</v>
+      </c>
+      <c r="AH9" s="15"/>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A10" s="12"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="13">
+        <v>71</v>
+      </c>
+      <c r="L10" s="14">
+        <v>80</v>
+      </c>
+      <c r="M10" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="N10" s="13">
+        <v>71</v>
+      </c>
+      <c r="O10" s="14">
+        <v>80</v>
+      </c>
+      <c r="P10" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q10" s="65"/>
+      <c r="R10" s="65"/>
+      <c r="S10" s="72"/>
+      <c r="T10" s="75"/>
+      <c r="U10" s="101"/>
+      <c r="V10" s="72"/>
+      <c r="W10" s="75"/>
+      <c r="X10" s="98"/>
+      <c r="Y10" s="65"/>
+      <c r="Z10" s="65"/>
+      <c r="AA10" s="65"/>
+      <c r="AB10" s="65"/>
+      <c r="AC10" s="13">
+        <v>71</v>
+      </c>
+      <c r="AD10" s="14">
+        <v>80</v>
+      </c>
+      <c r="AE10" s="15"/>
+      <c r="AF10" s="13">
+        <v>71</v>
+      </c>
+      <c r="AG10" s="14">
+        <v>80</v>
+      </c>
+      <c r="AH10" s="15"/>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A11" s="12"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="69"/>
+      <c r="K11" s="13">
+        <v>81</v>
+      </c>
+      <c r="L11" s="14">
+        <v>90</v>
+      </c>
+      <c r="M11" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="N11" s="13">
+        <v>81</v>
+      </c>
+      <c r="O11" s="14">
+        <v>90</v>
+      </c>
+      <c r="P11" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q11" s="65"/>
+      <c r="R11" s="65"/>
+      <c r="S11" s="72"/>
+      <c r="T11" s="75"/>
+      <c r="U11" s="101"/>
+      <c r="V11" s="72"/>
+      <c r="W11" s="75"/>
+      <c r="X11" s="98"/>
+      <c r="Y11" s="65"/>
+      <c r="Z11" s="65"/>
+      <c r="AA11" s="65"/>
+      <c r="AB11" s="65"/>
+      <c r="AC11" s="13">
+        <v>81</v>
+      </c>
+      <c r="AD11" s="14">
+        <v>90</v>
+      </c>
+      <c r="AE11" s="15"/>
+      <c r="AF11" s="13">
+        <v>81</v>
+      </c>
+      <c r="AG11" s="14">
+        <v>90</v>
+      </c>
+      <c r="AH11" s="15"/>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A12" s="12"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="69"/>
+      <c r="K12" s="13">
+        <v>91</v>
+      </c>
+      <c r="L12" s="14">
+        <v>100</v>
+      </c>
+      <c r="M12" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="N12" s="13">
+        <v>91</v>
+      </c>
+      <c r="O12" s="14">
+        <v>100</v>
+      </c>
+      <c r="P12" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q12" s="65"/>
+      <c r="R12" s="65"/>
+      <c r="S12" s="72"/>
+      <c r="T12" s="75"/>
+      <c r="U12" s="101"/>
+      <c r="V12" s="72"/>
+      <c r="W12" s="75"/>
+      <c r="X12" s="98"/>
+      <c r="Y12" s="65"/>
+      <c r="Z12" s="65"/>
+      <c r="AA12" s="65"/>
+      <c r="AB12" s="65"/>
+      <c r="AC12" s="13">
+        <v>91</v>
+      </c>
+      <c r="AD12" s="14">
+        <v>100</v>
+      </c>
+      <c r="AE12" s="15"/>
+      <c r="AF12" s="13">
+        <v>91</v>
+      </c>
+      <c r="AG12" s="14">
+        <v>100</v>
+      </c>
+      <c r="AH12" s="15"/>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A13" s="12"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="69"/>
+      <c r="K13" s="13">
+        <v>101</v>
+      </c>
+      <c r="L13" s="14">
+        <v>110</v>
+      </c>
+      <c r="M13" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="N13" s="13">
+        <v>101</v>
+      </c>
+      <c r="O13" s="14">
+        <v>110</v>
+      </c>
+      <c r="P13" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q13" s="65"/>
+      <c r="R13" s="65"/>
+      <c r="S13" s="73"/>
+      <c r="T13" s="76"/>
+      <c r="U13" s="102"/>
+      <c r="V13" s="72"/>
+      <c r="W13" s="75"/>
+      <c r="X13" s="98"/>
+      <c r="Y13" s="65"/>
+      <c r="Z13" s="65"/>
+      <c r="AA13" s="65"/>
+      <c r="AB13" s="65"/>
+      <c r="AC13" s="13">
+        <v>101</v>
+      </c>
+      <c r="AD13" s="14">
+        <v>110</v>
+      </c>
+      <c r="AE13" s="15"/>
+      <c r="AF13" s="13">
+        <v>101</v>
+      </c>
+      <c r="AG13" s="14">
+        <v>110</v>
+      </c>
+      <c r="AH13" s="15"/>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A14" s="12"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="69"/>
+      <c r="K14" s="13">
+        <v>111</v>
+      </c>
+      <c r="L14" s="14">
+        <v>120</v>
+      </c>
+      <c r="M14" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="N14" s="13">
+        <v>111</v>
+      </c>
+      <c r="O14" s="14">
+        <v>120</v>
+      </c>
+      <c r="P14" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q14" s="65"/>
+      <c r="R14" s="65"/>
+      <c r="S14" s="13">
+        <v>111</v>
+      </c>
+      <c r="T14" s="14">
+        <v>120</v>
+      </c>
+      <c r="U14" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="V14" s="72"/>
+      <c r="W14" s="75"/>
+      <c r="X14" s="98"/>
+      <c r="Y14" s="65"/>
+      <c r="Z14" s="65"/>
+      <c r="AA14" s="65"/>
+      <c r="AB14" s="65"/>
+      <c r="AC14" s="13">
+        <v>111</v>
+      </c>
+      <c r="AD14" s="14">
+        <v>120</v>
+      </c>
+      <c r="AE14" s="15"/>
+      <c r="AF14" s="13">
+        <v>111</v>
+      </c>
+      <c r="AG14" s="14">
+        <v>120</v>
+      </c>
+      <c r="AH14" s="15"/>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A15" s="12"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="69"/>
+      <c r="K15" s="13">
+        <v>120.833333333333</v>
+      </c>
+      <c r="L15" s="14">
+        <v>130</v>
+      </c>
+      <c r="M15" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="N15" s="13">
+        <v>120.833333333333</v>
+      </c>
+      <c r="O15" s="14">
+        <v>130</v>
+      </c>
+      <c r="P15" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q15" s="65"/>
+      <c r="R15" s="65"/>
+      <c r="S15" s="71">
+        <v>120.833333333333</v>
+      </c>
+      <c r="T15" s="74">
+        <v>200</v>
+      </c>
+      <c r="U15" s="103" t="s">
+        <v>44</v>
+      </c>
+      <c r="V15" s="72"/>
+      <c r="W15" s="75"/>
+      <c r="X15" s="98"/>
+      <c r="Y15" s="65"/>
+      <c r="Z15" s="65"/>
+      <c r="AA15" s="65"/>
+      <c r="AB15" s="65"/>
+      <c r="AC15" s="13">
+        <v>120.833333333333</v>
+      </c>
+      <c r="AD15" s="14">
+        <v>130</v>
+      </c>
+      <c r="AE15" s="15"/>
+      <c r="AF15" s="13">
+        <v>120.833333333333</v>
+      </c>
+      <c r="AG15" s="14">
+        <v>130</v>
+      </c>
+      <c r="AH15" s="15"/>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A16" s="12"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="69"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="69"/>
+      <c r="K16" s="13">
+        <v>131</v>
+      </c>
+      <c r="L16" s="14">
+        <v>140</v>
+      </c>
+      <c r="M16" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="N16" s="13">
+        <v>131</v>
+      </c>
+      <c r="O16" s="14">
+        <v>140</v>
+      </c>
+      <c r="P16" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q16" s="65"/>
+      <c r="R16" s="65"/>
+      <c r="S16" s="72"/>
+      <c r="T16" s="75"/>
+      <c r="U16" s="98"/>
+      <c r="V16" s="72"/>
+      <c r="W16" s="75"/>
+      <c r="X16" s="98"/>
+      <c r="Y16" s="65"/>
+      <c r="Z16" s="65"/>
+      <c r="AA16" s="65"/>
+      <c r="AB16" s="65"/>
+      <c r="AC16" s="13">
+        <v>131</v>
+      </c>
+      <c r="AD16" s="14">
+        <v>140</v>
+      </c>
+      <c r="AE16" s="15"/>
+      <c r="AF16" s="13">
+        <v>131</v>
+      </c>
+      <c r="AG16" s="14">
+        <v>140</v>
+      </c>
+      <c r="AH16" s="15"/>
+    </row>
+    <row r="17" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="12"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="69"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="69"/>
+      <c r="K17" s="13">
+        <v>141</v>
+      </c>
+      <c r="L17" s="14">
+        <v>150</v>
+      </c>
+      <c r="M17" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="N17" s="13">
+        <v>141</v>
+      </c>
+      <c r="O17" s="14">
+        <v>150</v>
+      </c>
+      <c r="P17" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q17" s="70"/>
+      <c r="R17" s="70"/>
+      <c r="S17" s="72"/>
+      <c r="T17" s="75"/>
+      <c r="U17" s="98"/>
+      <c r="V17" s="72"/>
+      <c r="W17" s="75"/>
+      <c r="X17" s="98"/>
+      <c r="Y17" s="70"/>
+      <c r="Z17" s="70"/>
+      <c r="AA17" s="70"/>
+      <c r="AB17" s="70"/>
+      <c r="AC17" s="13">
+        <v>141</v>
+      </c>
+      <c r="AD17" s="14">
+        <v>150</v>
+      </c>
+      <c r="AE17" s="15"/>
+      <c r="AF17" s="13">
+        <v>141</v>
+      </c>
+      <c r="AG17" s="14">
+        <v>150</v>
+      </c>
+      <c r="AH17" s="15"/>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A18" s="28"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="108" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="109"/>
+      <c r="E18" s="108" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18" s="109"/>
+      <c r="G18" s="108" t="s">
+        <v>67</v>
+      </c>
+      <c r="H18" s="110"/>
+      <c r="I18" s="108" t="s">
+        <v>73</v>
+      </c>
+      <c r="J18" s="110"/>
+      <c r="K18" s="30">
+        <v>150.833333333333</v>
+      </c>
+      <c r="L18" s="14">
+        <v>160</v>
+      </c>
+      <c r="M18" s="25"/>
+      <c r="N18" s="13">
+        <v>150.833333333333</v>
+      </c>
+      <c r="O18" s="14">
+        <v>160</v>
+      </c>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="111" t="s">
+        <v>68</v>
+      </c>
+      <c r="R18" s="111" t="s">
+        <v>69</v>
+      </c>
+      <c r="S18" s="72"/>
+      <c r="T18" s="75"/>
+      <c r="U18" s="98"/>
+      <c r="V18" s="72"/>
+      <c r="W18" s="75"/>
+      <c r="X18" s="98"/>
+      <c r="Y18" s="111" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z18" s="111" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA18" s="111" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB18" s="111" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC18" s="13">
+        <v>150.833333333333</v>
+      </c>
+      <c r="AD18" s="14">
+        <v>160</v>
+      </c>
+      <c r="AE18" s="15"/>
+      <c r="AF18" s="13">
+        <v>150.833333333333</v>
+      </c>
+      <c r="AG18" s="14">
+        <v>160</v>
+      </c>
+      <c r="AH18" s="15"/>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A19" s="28"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="112"/>
+      <c r="D19" s="113"/>
+      <c r="E19" s="112"/>
+      <c r="F19" s="113"/>
+      <c r="G19" s="112"/>
+      <c r="H19" s="114"/>
+      <c r="I19" s="112"/>
+      <c r="J19" s="114"/>
+      <c r="K19" s="30">
+        <v>161</v>
+      </c>
+      <c r="L19" s="14">
+        <v>170</v>
+      </c>
+      <c r="M19" s="25"/>
+      <c r="N19" s="13">
+        <v>161</v>
+      </c>
+      <c r="O19" s="14">
+        <v>170</v>
+      </c>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="115"/>
+      <c r="R19" s="115"/>
+      <c r="S19" s="72"/>
+      <c r="T19" s="75"/>
+      <c r="U19" s="98"/>
+      <c r="V19" s="72"/>
+      <c r="W19" s="75"/>
+      <c r="X19" s="98"/>
+      <c r="Y19" s="115"/>
+      <c r="Z19" s="115"/>
+      <c r="AA19" s="115"/>
+      <c r="AB19" s="115"/>
+      <c r="AC19" s="13">
+        <v>161</v>
+      </c>
+      <c r="AD19" s="14">
+        <v>170</v>
+      </c>
+      <c r="AE19" s="15"/>
+      <c r="AF19" s="13">
+        <v>161</v>
+      </c>
+      <c r="AG19" s="14">
+        <v>170</v>
+      </c>
+      <c r="AH19" s="15"/>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A20" s="28"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="112"/>
+      <c r="D20" s="113"/>
+      <c r="E20" s="112"/>
+      <c r="F20" s="113"/>
+      <c r="G20" s="112"/>
+      <c r="H20" s="114"/>
+      <c r="I20" s="112"/>
+      <c r="J20" s="114"/>
+      <c r="K20" s="30">
+        <v>171</v>
+      </c>
+      <c r="L20" s="14">
+        <v>180</v>
+      </c>
+      <c r="M20" s="25"/>
+      <c r="N20" s="13">
+        <v>171</v>
+      </c>
+      <c r="O20" s="14">
+        <v>180</v>
+      </c>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="115"/>
+      <c r="R20" s="115"/>
+      <c r="S20" s="72"/>
+      <c r="T20" s="75"/>
+      <c r="U20" s="98"/>
+      <c r="V20" s="72"/>
+      <c r="W20" s="75"/>
+      <c r="X20" s="98"/>
+      <c r="Y20" s="115"/>
+      <c r="Z20" s="115"/>
+      <c r="AA20" s="115"/>
+      <c r="AB20" s="115"/>
+      <c r="AC20" s="13">
+        <v>171</v>
+      </c>
+      <c r="AD20" s="14">
+        <v>180</v>
+      </c>
+      <c r="AE20" s="15"/>
+      <c r="AF20" s="13">
+        <v>171</v>
+      </c>
+      <c r="AG20" s="14">
+        <v>180</v>
+      </c>
+      <c r="AH20" s="15"/>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A21" s="28"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="112"/>
+      <c r="D21" s="113"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="112"/>
+      <c r="H21" s="114"/>
+      <c r="I21" s="112"/>
+      <c r="J21" s="114"/>
+      <c r="K21" s="30">
+        <v>181</v>
+      </c>
+      <c r="L21" s="14">
+        <v>190</v>
+      </c>
+      <c r="M21" s="25"/>
+      <c r="N21" s="13">
+        <v>181</v>
+      </c>
+      <c r="O21" s="14">
+        <v>190</v>
+      </c>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="115"/>
+      <c r="R21" s="115"/>
+      <c r="S21" s="72"/>
+      <c r="T21" s="75"/>
+      <c r="U21" s="98"/>
+      <c r="V21" s="72"/>
+      <c r="W21" s="75"/>
+      <c r="X21" s="98"/>
+      <c r="Y21" s="115"/>
+      <c r="Z21" s="115"/>
+      <c r="AA21" s="115"/>
+      <c r="AB21" s="115"/>
+      <c r="AC21" s="13">
+        <v>181</v>
+      </c>
+      <c r="AD21" s="14">
+        <v>190</v>
+      </c>
+      <c r="AE21" s="15"/>
+      <c r="AF21" s="13">
+        <v>181</v>
+      </c>
+      <c r="AG21" s="14">
+        <v>190</v>
+      </c>
+      <c r="AH21" s="15"/>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A22" s="28"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="112"/>
+      <c r="D22" s="113"/>
+      <c r="E22" s="112"/>
+      <c r="F22" s="113"/>
+      <c r="G22" s="112"/>
+      <c r="H22" s="114"/>
+      <c r="I22" s="112"/>
+      <c r="J22" s="114"/>
+      <c r="K22" s="30">
+        <v>191</v>
+      </c>
+      <c r="L22" s="14">
+        <v>200</v>
+      </c>
+      <c r="M22" s="25"/>
+      <c r="N22" s="13">
+        <v>191</v>
+      </c>
+      <c r="O22" s="14">
+        <v>200</v>
+      </c>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="115"/>
+      <c r="R22" s="115"/>
+      <c r="S22" s="73"/>
+      <c r="T22" s="76"/>
+      <c r="U22" s="104"/>
+      <c r="V22" s="72"/>
+      <c r="W22" s="75"/>
+      <c r="X22" s="98"/>
+      <c r="Y22" s="115"/>
+      <c r="Z22" s="115"/>
+      <c r="AA22" s="115"/>
+      <c r="AB22" s="115"/>
+      <c r="AC22" s="13">
+        <v>191</v>
+      </c>
+      <c r="AD22" s="14">
+        <v>200</v>
+      </c>
+      <c r="AE22" s="15"/>
+      <c r="AF22" s="13">
+        <v>191</v>
+      </c>
+      <c r="AG22" s="14">
+        <v>200</v>
+      </c>
+      <c r="AH22" s="15"/>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A23" s="28"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="112"/>
+      <c r="D23" s="113"/>
+      <c r="E23" s="112"/>
+      <c r="F23" s="113"/>
+      <c r="G23" s="112"/>
+      <c r="H23" s="114"/>
+      <c r="I23" s="112"/>
+      <c r="J23" s="114"/>
+      <c r="K23" s="30">
+        <v>201</v>
+      </c>
+      <c r="L23" s="14">
+        <v>210</v>
+      </c>
+      <c r="M23" s="25"/>
+      <c r="N23" s="13">
+        <v>201</v>
+      </c>
+      <c r="O23" s="14">
+        <v>210</v>
+      </c>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="115"/>
+      <c r="R23" s="115"/>
+      <c r="S23" s="71">
+        <v>201</v>
+      </c>
+      <c r="T23" s="74">
+        <v>255</v>
+      </c>
+      <c r="U23" s="103" t="s">
+        <v>45</v>
+      </c>
+      <c r="V23" s="72"/>
+      <c r="W23" s="75"/>
+      <c r="X23" s="98"/>
+      <c r="Y23" s="115"/>
+      <c r="Z23" s="115"/>
+      <c r="AA23" s="115"/>
+      <c r="AB23" s="115"/>
+      <c r="AC23" s="13">
+        <v>201</v>
+      </c>
+      <c r="AD23" s="14">
+        <v>210</v>
+      </c>
+      <c r="AE23" s="15"/>
+      <c r="AF23" s="13">
+        <v>201</v>
+      </c>
+      <c r="AG23" s="14">
+        <v>210</v>
+      </c>
+      <c r="AH23" s="15"/>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A24" s="28"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="112"/>
+      <c r="D24" s="113"/>
+      <c r="E24" s="112"/>
+      <c r="F24" s="113"/>
+      <c r="G24" s="112"/>
+      <c r="H24" s="114"/>
+      <c r="I24" s="112"/>
+      <c r="J24" s="114"/>
+      <c r="K24" s="30">
+        <v>210</v>
+      </c>
+      <c r="L24" s="14">
+        <v>220</v>
+      </c>
+      <c r="M24" s="25"/>
+      <c r="N24" s="13">
+        <v>210</v>
+      </c>
+      <c r="O24" s="14">
+        <v>220</v>
+      </c>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="115"/>
+      <c r="R24" s="115"/>
+      <c r="S24" s="72"/>
+      <c r="T24" s="75"/>
+      <c r="U24" s="98"/>
+      <c r="V24" s="72"/>
+      <c r="W24" s="75"/>
+      <c r="X24" s="98"/>
+      <c r="Y24" s="115"/>
+      <c r="Z24" s="115"/>
+      <c r="AA24" s="115"/>
+      <c r="AB24" s="115"/>
+      <c r="AC24" s="13">
+        <v>210</v>
+      </c>
+      <c r="AD24" s="14">
+        <v>220</v>
+      </c>
+      <c r="AE24" s="15"/>
+      <c r="AF24" s="13">
+        <v>210</v>
+      </c>
+      <c r="AG24" s="14">
+        <v>220</v>
+      </c>
+      <c r="AH24" s="15"/>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A25" s="28"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="112"/>
+      <c r="D25" s="113"/>
+      <c r="E25" s="112"/>
+      <c r="F25" s="113"/>
+      <c r="G25" s="112"/>
+      <c r="H25" s="114"/>
+      <c r="I25" s="112"/>
+      <c r="J25" s="114"/>
+      <c r="K25" s="30">
+        <v>221</v>
+      </c>
+      <c r="L25" s="14">
+        <v>230</v>
+      </c>
+      <c r="M25" s="25"/>
+      <c r="N25" s="13">
+        <v>221</v>
+      </c>
+      <c r="O25" s="14">
+        <v>230</v>
+      </c>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="115"/>
+      <c r="R25" s="115"/>
+      <c r="S25" s="72"/>
+      <c r="T25" s="75"/>
+      <c r="U25" s="98"/>
+      <c r="V25" s="72"/>
+      <c r="W25" s="75"/>
+      <c r="X25" s="98"/>
+      <c r="Y25" s="115"/>
+      <c r="Z25" s="115"/>
+      <c r="AA25" s="115"/>
+      <c r="AB25" s="115"/>
+      <c r="AC25" s="13">
+        <v>221</v>
+      </c>
+      <c r="AD25" s="14">
+        <v>230</v>
+      </c>
+      <c r="AE25" s="15"/>
+      <c r="AF25" s="13">
+        <v>221</v>
+      </c>
+      <c r="AG25" s="14">
+        <v>230</v>
+      </c>
+      <c r="AH25" s="15"/>
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A26" s="28"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="112"/>
+      <c r="D26" s="113"/>
+      <c r="E26" s="112"/>
+      <c r="F26" s="113"/>
+      <c r="G26" s="112"/>
+      <c r="H26" s="114"/>
+      <c r="I26" s="112"/>
+      <c r="J26" s="114"/>
+      <c r="K26" s="30">
+        <v>231</v>
+      </c>
+      <c r="L26" s="14">
+        <v>240</v>
+      </c>
+      <c r="M26" s="25"/>
+      <c r="N26" s="13">
+        <v>231</v>
+      </c>
+      <c r="O26" s="14">
+        <v>240</v>
+      </c>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="115"/>
+      <c r="R26" s="115"/>
+      <c r="S26" s="72"/>
+      <c r="T26" s="75"/>
+      <c r="U26" s="98"/>
+      <c r="V26" s="72"/>
+      <c r="W26" s="75"/>
+      <c r="X26" s="98"/>
+      <c r="Y26" s="115"/>
+      <c r="Z26" s="115"/>
+      <c r="AA26" s="115"/>
+      <c r="AB26" s="115"/>
+      <c r="AC26" s="13">
+        <v>231</v>
+      </c>
+      <c r="AD26" s="14">
+        <v>240</v>
+      </c>
+      <c r="AE26" s="15"/>
+      <c r="AF26" s="13">
+        <v>231</v>
+      </c>
+      <c r="AG26" s="14">
+        <v>240</v>
+      </c>
+      <c r="AH26" s="15"/>
+    </row>
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A27" s="28"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="112"/>
+      <c r="D27" s="113"/>
+      <c r="E27" s="112"/>
+      <c r="F27" s="113"/>
+      <c r="G27" s="112"/>
+      <c r="H27" s="114"/>
+      <c r="I27" s="112"/>
+      <c r="J27" s="114"/>
+      <c r="K27" s="30">
+        <v>241</v>
+      </c>
+      <c r="L27" s="14">
+        <v>250</v>
+      </c>
+      <c r="M27" s="25"/>
+      <c r="N27" s="13">
+        <v>241</v>
+      </c>
+      <c r="O27" s="14">
+        <v>250</v>
+      </c>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="115"/>
+      <c r="R27" s="115"/>
+      <c r="S27" s="72"/>
+      <c r="T27" s="75"/>
+      <c r="U27" s="98"/>
+      <c r="V27" s="72"/>
+      <c r="W27" s="75"/>
+      <c r="X27" s="98"/>
+      <c r="Y27" s="115"/>
+      <c r="Z27" s="115"/>
+      <c r="AA27" s="115"/>
+      <c r="AB27" s="115"/>
+      <c r="AC27" s="13">
+        <v>241</v>
+      </c>
+      <c r="AD27" s="14">
+        <v>250</v>
+      </c>
+      <c r="AE27" s="15"/>
+      <c r="AF27" s="13">
+        <v>241</v>
+      </c>
+      <c r="AG27" s="14">
+        <v>250</v>
+      </c>
+      <c r="AH27" s="15"/>
+    </row>
+    <row r="28" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="29"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="116"/>
+      <c r="D28" s="117"/>
+      <c r="E28" s="116"/>
+      <c r="F28" s="117"/>
+      <c r="G28" s="116"/>
+      <c r="H28" s="118"/>
+      <c r="I28" s="116"/>
+      <c r="J28" s="118"/>
+      <c r="K28" s="31">
+        <v>251</v>
+      </c>
+      <c r="L28" s="19">
+        <v>255</v>
+      </c>
+      <c r="M28" s="27"/>
+      <c r="N28" s="18">
+        <v>251</v>
+      </c>
+      <c r="O28" s="19">
+        <v>255</v>
+      </c>
+      <c r="P28" s="20"/>
+      <c r="Q28" s="119"/>
+      <c r="R28" s="119"/>
+      <c r="S28" s="94"/>
+      <c r="T28" s="96"/>
+      <c r="U28" s="99"/>
+      <c r="V28" s="94"/>
+      <c r="W28" s="96"/>
+      <c r="X28" s="99"/>
+      <c r="Y28" s="119"/>
+      <c r="Z28" s="119"/>
+      <c r="AA28" s="119"/>
+      <c r="AB28" s="119"/>
+      <c r="AC28" s="18">
+        <v>251</v>
+      </c>
+      <c r="AD28" s="19">
+        <v>255</v>
+      </c>
+      <c r="AE28" s="20"/>
+      <c r="AF28" s="18">
+        <v>251</v>
+      </c>
+      <c r="AG28" s="19">
+        <v>255</v>
+      </c>
+      <c r="AH28" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="53">
+    <mergeCell ref="AB3:AB17"/>
+    <mergeCell ref="AB18:AB28"/>
+    <mergeCell ref="Z18:Z28"/>
+    <mergeCell ref="AA18:AA28"/>
+    <mergeCell ref="S23:S28"/>
+    <mergeCell ref="T23:T28"/>
+    <mergeCell ref="U23:U28"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I3:J17"/>
+    <mergeCell ref="I18:J28"/>
+    <mergeCell ref="C18:D28"/>
+    <mergeCell ref="E18:F28"/>
+    <mergeCell ref="G18:H28"/>
+    <mergeCell ref="Q18:Q28"/>
+    <mergeCell ref="R18:R28"/>
+    <mergeCell ref="Y18:Y28"/>
+    <mergeCell ref="X3:X28"/>
+    <mergeCell ref="Y3:Y17"/>
+    <mergeCell ref="Z3:Z17"/>
+    <mergeCell ref="AA3:AA17"/>
+    <mergeCell ref="S6:S13"/>
+    <mergeCell ref="T6:T13"/>
+    <mergeCell ref="U6:U13"/>
+    <mergeCell ref="S15:S22"/>
+    <mergeCell ref="T15:T22"/>
+    <mergeCell ref="U15:U22"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="B3:B17"/>
+    <mergeCell ref="C3:D17"/>
+    <mergeCell ref="E3:F17"/>
+    <mergeCell ref="G3:H17"/>
+    <mergeCell ref="Q3:Q17"/>
+    <mergeCell ref="R3:R17"/>
+    <mergeCell ref="V3:V28"/>
+    <mergeCell ref="W3:W28"/>
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="AC1:AE1"/>
+    <mergeCell ref="AF1:AH1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="S2:U2"/>
+    <mergeCell ref="V2:X2"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="S1:U1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD3EA4A1-2ED4-41DB-B39E-C696A0AA5D67}">
+  <dimension ref="A1:AE28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="T45" sqref="T44:T45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="44">
+        <v>1</v>
+      </c>
+      <c r="C1" s="59">
+        <v>2</v>
+      </c>
+      <c r="D1" s="60"/>
+      <c r="E1" s="59">
+        <v>3</v>
+      </c>
+      <c r="F1" s="60"/>
+      <c r="G1" s="59">
+        <v>4</v>
+      </c>
+      <c r="H1" s="60"/>
+      <c r="I1" s="59">
+        <v>5</v>
+      </c>
+      <c r="J1" s="60"/>
+      <c r="K1" s="62">
+        <v>6</v>
+      </c>
+      <c r="L1" s="47"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="44">
+        <v>7</v>
+      </c>
+      <c r="O1" s="3">
+        <v>8</v>
+      </c>
+      <c r="P1" s="62">
+        <v>9</v>
+      </c>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="46">
+        <v>10</v>
+      </c>
+      <c r="T1" s="47"/>
+      <c r="U1" s="48"/>
+      <c r="V1" s="44">
+        <v>11</v>
+      </c>
+      <c r="W1" s="3">
+        <v>12</v>
+      </c>
+      <c r="X1" s="44">
+        <v>13</v>
+      </c>
+      <c r="Y1" s="44">
+        <v>14</v>
+      </c>
+      <c r="Z1" s="46">
+        <v>15</v>
+      </c>
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="48"/>
+      <c r="AC1" s="62">
+        <v>16</v>
+      </c>
+      <c r="AD1" s="47"/>
+      <c r="AE1" s="48"/>
+    </row>
+    <row r="2" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="51"/>
+      <c r="E2" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="51"/>
+      <c r="G2" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="51"/>
+      <c r="I2" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" s="51"/>
+      <c r="K2" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="57"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="P2" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="58"/>
+      <c r="S2" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="T2" s="57"/>
+      <c r="U2" s="55"/>
+      <c r="V2" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="X2" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y2" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z2" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA2" s="57"/>
+      <c r="AB2" s="55"/>
+      <c r="AC2" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD2" s="57"/>
+      <c r="AE2" s="55"/>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="67"/>
+      <c r="E3" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="67"/>
+      <c r="G3" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="67"/>
+      <c r="I3" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="67"/>
+      <c r="K3" s="8">
+        <v>0</v>
+      </c>
+      <c r="L3" s="9">
+        <v>10</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="O3" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="P3" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="9">
+        <v>10</v>
+      </c>
+      <c r="R3" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="S3" s="93">
+        <v>0</v>
+      </c>
+      <c r="T3" s="95">
+        <v>255</v>
+      </c>
+      <c r="U3" s="97" t="s">
+        <v>46</v>
+      </c>
+      <c r="V3" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="W3" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="X3" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y3" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z3" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="9">
+        <v>10</v>
+      </c>
+      <c r="AB3" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC3" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="9">
+        <v>10</v>
+      </c>
+      <c r="AE3" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A4" s="12"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="13">
+        <v>11</v>
+      </c>
+      <c r="L4" s="14">
+        <v>20</v>
+      </c>
+      <c r="M4" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="N4" s="65"/>
+      <c r="O4" s="65"/>
+      <c r="P4" s="13">
+        <v>11</v>
+      </c>
+      <c r="Q4" s="14">
+        <v>20</v>
+      </c>
+      <c r="R4" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="S4" s="72"/>
+      <c r="T4" s="75"/>
+      <c r="U4" s="98"/>
+      <c r="V4" s="65"/>
+      <c r="W4" s="65"/>
+      <c r="X4" s="65"/>
+      <c r="Y4" s="65"/>
+      <c r="Z4" s="105">
+        <v>11</v>
+      </c>
+      <c r="AA4" s="106">
+        <v>20</v>
+      </c>
+      <c r="AB4" s="107" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC4" s="13">
+        <v>11</v>
+      </c>
+      <c r="AD4" s="14">
+        <v>20</v>
+      </c>
+      <c r="AE4" s="15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A5" s="12"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="13">
+        <v>21</v>
+      </c>
+      <c r="L5" s="14">
+        <v>30</v>
+      </c>
+      <c r="M5" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="N5" s="65"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="13">
+        <v>21</v>
+      </c>
+      <c r="Q5" s="14">
+        <v>30</v>
+      </c>
+      <c r="R5" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="S5" s="72"/>
+      <c r="T5" s="75"/>
+      <c r="U5" s="98"/>
+      <c r="V5" s="65"/>
+      <c r="W5" s="65"/>
+      <c r="X5" s="65"/>
+      <c r="Y5" s="65"/>
+      <c r="Z5" s="105">
+        <v>21</v>
+      </c>
+      <c r="AA5" s="106">
+        <v>30</v>
+      </c>
+      <c r="AB5" s="107" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC5" s="13">
+        <v>21</v>
+      </c>
+      <c r="AD5" s="14">
+        <v>30</v>
+      </c>
+      <c r="AE5" s="15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A6" s="12"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="13">
+        <v>31</v>
+      </c>
+      <c r="L6" s="14">
+        <v>40</v>
+      </c>
+      <c r="M6" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="N6" s="65"/>
+      <c r="O6" s="65"/>
+      <c r="P6" s="71">
+        <v>31</v>
+      </c>
+      <c r="Q6" s="74">
+        <v>110</v>
+      </c>
+      <c r="R6" s="100" t="s">
+        <v>42</v>
+      </c>
+      <c r="S6" s="72"/>
+      <c r="T6" s="75"/>
+      <c r="U6" s="98"/>
+      <c r="V6" s="65"/>
+      <c r="W6" s="65"/>
+      <c r="X6" s="65"/>
+      <c r="Y6" s="65"/>
+      <c r="Z6" s="13">
+        <v>31</v>
+      </c>
+      <c r="AA6" s="14">
+        <v>40</v>
+      </c>
+      <c r="AB6" s="15"/>
+      <c r="AC6" s="13">
+        <v>31</v>
+      </c>
+      <c r="AD6" s="14">
+        <v>40</v>
+      </c>
+      <c r="AE6" s="15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A7" s="12"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="13">
+        <v>41</v>
+      </c>
+      <c r="L7" s="14">
+        <v>50</v>
+      </c>
+      <c r="M7" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="N7" s="65"/>
+      <c r="O7" s="65"/>
+      <c r="P7" s="72"/>
+      <c r="Q7" s="75"/>
+      <c r="R7" s="101"/>
+      <c r="S7" s="72"/>
+      <c r="T7" s="75"/>
+      <c r="U7" s="98"/>
+      <c r="V7" s="65"/>
+      <c r="W7" s="65"/>
+      <c r="X7" s="65"/>
+      <c r="Y7" s="65"/>
+      <c r="Z7" s="13">
+        <v>41</v>
+      </c>
+      <c r="AA7" s="14">
+        <v>50</v>
+      </c>
+      <c r="AB7" s="15"/>
+      <c r="AC7" s="13">
+        <v>41</v>
+      </c>
+      <c r="AD7" s="14">
+        <v>50</v>
+      </c>
+      <c r="AE7" s="15"/>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A8" s="12"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="13">
+        <v>51</v>
+      </c>
+      <c r="L8" s="14">
+        <v>60</v>
+      </c>
+      <c r="M8" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="N8" s="65"/>
+      <c r="O8" s="65"/>
+      <c r="P8" s="72"/>
+      <c r="Q8" s="75"/>
+      <c r="R8" s="101"/>
+      <c r="S8" s="72"/>
+      <c r="T8" s="75"/>
+      <c r="U8" s="98"/>
+      <c r="V8" s="65"/>
+      <c r="W8" s="65"/>
+      <c r="X8" s="65"/>
+      <c r="Y8" s="65"/>
+      <c r="Z8" s="13">
+        <v>51</v>
+      </c>
+      <c r="AA8" s="14">
+        <v>60</v>
+      </c>
+      <c r="AB8" s="15"/>
+      <c r="AC8" s="13">
+        <v>51</v>
+      </c>
+      <c r="AD8" s="14">
+        <v>60</v>
+      </c>
+      <c r="AE8" s="15"/>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A9" s="12"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="13">
+        <v>61</v>
+      </c>
+      <c r="L9" s="14">
+        <v>70</v>
+      </c>
+      <c r="M9" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="N9" s="65"/>
+      <c r="O9" s="65"/>
+      <c r="P9" s="72"/>
+      <c r="Q9" s="75"/>
+      <c r="R9" s="101"/>
+      <c r="S9" s="72"/>
+      <c r="T9" s="75"/>
+      <c r="U9" s="98"/>
+      <c r="V9" s="65"/>
+      <c r="W9" s="65"/>
+      <c r="X9" s="65"/>
+      <c r="Y9" s="65"/>
+      <c r="Z9" s="13">
+        <v>61</v>
+      </c>
+      <c r="AA9" s="14">
+        <v>70</v>
+      </c>
+      <c r="AB9" s="15"/>
+      <c r="AC9" s="13">
+        <v>61</v>
+      </c>
+      <c r="AD9" s="14">
+        <v>70</v>
+      </c>
+      <c r="AE9" s="15"/>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A10" s="12"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="13">
+        <v>71</v>
+      </c>
+      <c r="L10" s="14">
+        <v>80</v>
+      </c>
+      <c r="M10" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="N10" s="65"/>
+      <c r="O10" s="65"/>
+      <c r="P10" s="72"/>
+      <c r="Q10" s="75"/>
+      <c r="R10" s="101"/>
+      <c r="S10" s="72"/>
+      <c r="T10" s="75"/>
+      <c r="U10" s="98"/>
+      <c r="V10" s="65"/>
+      <c r="W10" s="65"/>
+      <c r="X10" s="65"/>
+      <c r="Y10" s="65"/>
+      <c r="Z10" s="13">
+        <v>71</v>
+      </c>
+      <c r="AA10" s="14">
+        <v>80</v>
+      </c>
+      <c r="AB10" s="15"/>
+      <c r="AC10" s="13">
+        <v>71</v>
+      </c>
+      <c r="AD10" s="14">
+        <v>80</v>
+      </c>
+      <c r="AE10" s="15"/>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A11" s="12"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="69"/>
+      <c r="K11" s="13">
+        <v>81</v>
+      </c>
+      <c r="L11" s="14">
+        <v>90</v>
+      </c>
+      <c r="M11" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="N11" s="65"/>
+      <c r="O11" s="65"/>
+      <c r="P11" s="72"/>
+      <c r="Q11" s="75"/>
+      <c r="R11" s="101"/>
+      <c r="S11" s="72"/>
+      <c r="T11" s="75"/>
+      <c r="U11" s="98"/>
+      <c r="V11" s="65"/>
+      <c r="W11" s="65"/>
+      <c r="X11" s="65"/>
+      <c r="Y11" s="65"/>
+      <c r="Z11" s="13">
+        <v>81</v>
+      </c>
+      <c r="AA11" s="14">
+        <v>90</v>
+      </c>
+      <c r="AB11" s="15"/>
+      <c r="AC11" s="13">
+        <v>81</v>
+      </c>
+      <c r="AD11" s="14">
+        <v>90</v>
+      </c>
+      <c r="AE11" s="15"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A12" s="12"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="69"/>
+      <c r="K12" s="13">
+        <v>91</v>
+      </c>
+      <c r="L12" s="14">
+        <v>100</v>
+      </c>
+      <c r="M12" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="N12" s="65"/>
+      <c r="O12" s="65"/>
+      <c r="P12" s="72"/>
+      <c r="Q12" s="75"/>
+      <c r="R12" s="101"/>
+      <c r="S12" s="72"/>
+      <c r="T12" s="75"/>
+      <c r="U12" s="98"/>
+      <c r="V12" s="65"/>
+      <c r="W12" s="65"/>
+      <c r="X12" s="65"/>
+      <c r="Y12" s="65"/>
+      <c r="Z12" s="13">
+        <v>91</v>
+      </c>
+      <c r="AA12" s="14">
+        <v>100</v>
+      </c>
+      <c r="AB12" s="15"/>
+      <c r="AC12" s="13">
+        <v>91</v>
+      </c>
+      <c r="AD12" s="14">
+        <v>100</v>
+      </c>
+      <c r="AE12" s="15"/>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A13" s="12"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="69"/>
+      <c r="K13" s="13">
+        <v>101</v>
+      </c>
+      <c r="L13" s="14">
+        <v>110</v>
+      </c>
+      <c r="M13" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="N13" s="65"/>
+      <c r="O13" s="65"/>
+      <c r="P13" s="73"/>
+      <c r="Q13" s="76"/>
+      <c r="R13" s="102"/>
+      <c r="S13" s="72"/>
+      <c r="T13" s="75"/>
+      <c r="U13" s="98"/>
+      <c r="V13" s="65"/>
+      <c r="W13" s="65"/>
+      <c r="X13" s="65"/>
+      <c r="Y13" s="65"/>
+      <c r="Z13" s="13">
+        <v>101</v>
+      </c>
+      <c r="AA13" s="14">
+        <v>110</v>
+      </c>
+      <c r="AB13" s="15"/>
+      <c r="AC13" s="13">
+        <v>101</v>
+      </c>
+      <c r="AD13" s="14">
+        <v>110</v>
+      </c>
+      <c r="AE13" s="15"/>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A14" s="12"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="69"/>
+      <c r="K14" s="13">
+        <v>111</v>
+      </c>
+      <c r="L14" s="14">
+        <v>120</v>
+      </c>
+      <c r="M14" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="N14" s="65"/>
+      <c r="O14" s="65"/>
+      <c r="P14" s="13">
+        <v>111</v>
+      </c>
+      <c r="Q14" s="14">
+        <v>120</v>
+      </c>
+      <c r="R14" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="S14" s="72"/>
+      <c r="T14" s="75"/>
+      <c r="U14" s="98"/>
+      <c r="V14" s="65"/>
+      <c r="W14" s="65"/>
+      <c r="X14" s="65"/>
+      <c r="Y14" s="65"/>
+      <c r="Z14" s="13">
+        <v>111</v>
+      </c>
+      <c r="AA14" s="14">
+        <v>120</v>
+      </c>
+      <c r="AB14" s="15"/>
+      <c r="AC14" s="13">
+        <v>111</v>
+      </c>
+      <c r="AD14" s="14">
+        <v>120</v>
+      </c>
+      <c r="AE14" s="15"/>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A15" s="12"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="69"/>
+      <c r="K15" s="13">
+        <v>120.833333333333</v>
+      </c>
+      <c r="L15" s="14">
+        <v>130</v>
+      </c>
+      <c r="M15" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="N15" s="65"/>
+      <c r="O15" s="65"/>
+      <c r="P15" s="71">
+        <v>120.833333333333</v>
+      </c>
+      <c r="Q15" s="74">
+        <v>200</v>
+      </c>
+      <c r="R15" s="103" t="s">
+        <v>44</v>
+      </c>
+      <c r="S15" s="72"/>
+      <c r="T15" s="75"/>
+      <c r="U15" s="98"/>
+      <c r="V15" s="65"/>
+      <c r="W15" s="65"/>
+      <c r="X15" s="65"/>
+      <c r="Y15" s="65"/>
+      <c r="Z15" s="13">
+        <v>120.833333333333</v>
+      </c>
+      <c r="AA15" s="14">
+        <v>130</v>
+      </c>
+      <c r="AB15" s="15"/>
+      <c r="AC15" s="13">
+        <v>120.833333333333</v>
+      </c>
+      <c r="AD15" s="14">
+        <v>130</v>
+      </c>
+      <c r="AE15" s="15"/>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A16" s="12"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="69"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="69"/>
+      <c r="K16" s="13">
+        <v>131</v>
+      </c>
+      <c r="L16" s="14">
+        <v>140</v>
+      </c>
+      <c r="M16" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="N16" s="65"/>
+      <c r="O16" s="65"/>
+      <c r="P16" s="72"/>
+      <c r="Q16" s="75"/>
+      <c r="R16" s="98"/>
+      <c r="S16" s="72"/>
+      <c r="T16" s="75"/>
+      <c r="U16" s="98"/>
+      <c r="V16" s="65"/>
+      <c r="W16" s="65"/>
+      <c r="X16" s="65"/>
+      <c r="Y16" s="65"/>
+      <c r="Z16" s="13">
+        <v>131</v>
+      </c>
+      <c r="AA16" s="14">
+        <v>140</v>
+      </c>
+      <c r="AB16" s="15"/>
+      <c r="AC16" s="13">
+        <v>131</v>
+      </c>
+      <c r="AD16" s="14">
+        <v>140</v>
+      </c>
+      <c r="AE16" s="15"/>
+    </row>
+    <row r="17" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="12"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="69"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="69"/>
+      <c r="K17" s="13">
+        <v>141</v>
+      </c>
+      <c r="L17" s="14">
+        <v>150</v>
+      </c>
+      <c r="M17" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="N17" s="70"/>
+      <c r="O17" s="70"/>
+      <c r="P17" s="72"/>
+      <c r="Q17" s="75"/>
+      <c r="R17" s="98"/>
+      <c r="S17" s="72"/>
+      <c r="T17" s="75"/>
+      <c r="U17" s="98"/>
+      <c r="V17" s="70"/>
+      <c r="W17" s="70"/>
+      <c r="X17" s="70"/>
+      <c r="Y17" s="70"/>
+      <c r="Z17" s="13">
+        <v>141</v>
+      </c>
+      <c r="AA17" s="14">
+        <v>150</v>
+      </c>
+      <c r="AB17" s="15"/>
+      <c r="AC17" s="13">
+        <v>141</v>
+      </c>
+      <c r="AD17" s="14">
+        <v>150</v>
+      </c>
+      <c r="AE17" s="15"/>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A18" s="28"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="108" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="109"/>
+      <c r="E18" s="108" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18" s="109"/>
+      <c r="G18" s="108" t="s">
+        <v>67</v>
+      </c>
+      <c r="H18" s="110"/>
+      <c r="I18" s="108" t="s">
+        <v>73</v>
+      </c>
+      <c r="J18" s="110"/>
+      <c r="K18" s="13">
+        <v>150.833333333333</v>
+      </c>
+      <c r="L18" s="14">
+        <v>160</v>
+      </c>
+      <c r="M18" s="15"/>
+      <c r="N18" s="111" t="s">
+        <v>68</v>
+      </c>
+      <c r="O18" s="111" t="s">
+        <v>69</v>
+      </c>
+      <c r="P18" s="72"/>
+      <c r="Q18" s="75"/>
+      <c r="R18" s="98"/>
+      <c r="S18" s="72"/>
+      <c r="T18" s="75"/>
+      <c r="U18" s="98"/>
+      <c r="V18" s="111" t="s">
+        <v>70</v>
+      </c>
+      <c r="W18" s="111" t="s">
+        <v>71</v>
+      </c>
+      <c r="X18" s="111" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y18" s="111" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z18" s="13">
+        <v>150.833333333333</v>
+      </c>
+      <c r="AA18" s="14">
+        <v>160</v>
+      </c>
+      <c r="AB18" s="15"/>
+      <c r="AC18" s="13">
+        <v>150.833333333333</v>
+      </c>
+      <c r="AD18" s="14">
+        <v>160</v>
+      </c>
+      <c r="AE18" s="15"/>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A19" s="28"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="112"/>
+      <c r="D19" s="113"/>
+      <c r="E19" s="112"/>
+      <c r="F19" s="113"/>
+      <c r="G19" s="112"/>
+      <c r="H19" s="114"/>
+      <c r="I19" s="112"/>
+      <c r="J19" s="114"/>
+      <c r="K19" s="13">
+        <v>161</v>
+      </c>
+      <c r="L19" s="14">
+        <v>170</v>
+      </c>
+      <c r="M19" s="15"/>
+      <c r="N19" s="115"/>
+      <c r="O19" s="115"/>
+      <c r="P19" s="72"/>
+      <c r="Q19" s="75"/>
+      <c r="R19" s="98"/>
+      <c r="S19" s="72"/>
+      <c r="T19" s="75"/>
+      <c r="U19" s="98"/>
+      <c r="V19" s="115"/>
+      <c r="W19" s="115"/>
+      <c r="X19" s="115"/>
+      <c r="Y19" s="115"/>
+      <c r="Z19" s="13">
+        <v>161</v>
+      </c>
+      <c r="AA19" s="14">
+        <v>170</v>
+      </c>
+      <c r="AB19" s="15"/>
+      <c r="AC19" s="13">
+        <v>161</v>
+      </c>
+      <c r="AD19" s="14">
+        <v>170</v>
+      </c>
+      <c r="AE19" s="15"/>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A20" s="28"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="112"/>
+      <c r="D20" s="113"/>
+      <c r="E20" s="112"/>
+      <c r="F20" s="113"/>
+      <c r="G20" s="112"/>
+      <c r="H20" s="114"/>
+      <c r="I20" s="112"/>
+      <c r="J20" s="114"/>
+      <c r="K20" s="13">
+        <v>171</v>
+      </c>
+      <c r="L20" s="14">
+        <v>180</v>
+      </c>
+      <c r="M20" s="15"/>
+      <c r="N20" s="115"/>
+      <c r="O20" s="115"/>
+      <c r="P20" s="72"/>
+      <c r="Q20" s="75"/>
+      <c r="R20" s="98"/>
+      <c r="S20" s="72"/>
+      <c r="T20" s="75"/>
+      <c r="U20" s="98"/>
+      <c r="V20" s="115"/>
+      <c r="W20" s="115"/>
+      <c r="X20" s="115"/>
+      <c r="Y20" s="115"/>
+      <c r="Z20" s="13">
+        <v>171</v>
+      </c>
+      <c r="AA20" s="14">
+        <v>180</v>
+      </c>
+      <c r="AB20" s="15"/>
+      <c r="AC20" s="13">
+        <v>171</v>
+      </c>
+      <c r="AD20" s="14">
+        <v>180</v>
+      </c>
+      <c r="AE20" s="15"/>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A21" s="28"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="112"/>
+      <c r="D21" s="113"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="112"/>
+      <c r="H21" s="114"/>
+      <c r="I21" s="112"/>
+      <c r="J21" s="114"/>
+      <c r="K21" s="13">
+        <v>181</v>
+      </c>
+      <c r="L21" s="14">
+        <v>190</v>
+      </c>
+      <c r="M21" s="15"/>
+      <c r="N21" s="115"/>
+      <c r="O21" s="115"/>
+      <c r="P21" s="72"/>
+      <c r="Q21" s="75"/>
+      <c r="R21" s="98"/>
+      <c r="S21" s="72"/>
+      <c r="T21" s="75"/>
+      <c r="U21" s="98"/>
+      <c r="V21" s="115"/>
+      <c r="W21" s="115"/>
+      <c r="X21" s="115"/>
+      <c r="Y21" s="115"/>
+      <c r="Z21" s="13">
+        <v>181</v>
+      </c>
+      <c r="AA21" s="14">
+        <v>190</v>
+      </c>
+      <c r="AB21" s="15"/>
+      <c r="AC21" s="13">
+        <v>181</v>
+      </c>
+      <c r="AD21" s="14">
+        <v>190</v>
+      </c>
+      <c r="AE21" s="15"/>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A22" s="28"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="112"/>
+      <c r="D22" s="113"/>
+      <c r="E22" s="112"/>
+      <c r="F22" s="113"/>
+      <c r="G22" s="112"/>
+      <c r="H22" s="114"/>
+      <c r="I22" s="112"/>
+      <c r="J22" s="114"/>
+      <c r="K22" s="13">
+        <v>191</v>
+      </c>
+      <c r="L22" s="14">
+        <v>200</v>
+      </c>
+      <c r="M22" s="15"/>
+      <c r="N22" s="115"/>
+      <c r="O22" s="115"/>
+      <c r="P22" s="73"/>
+      <c r="Q22" s="76"/>
+      <c r="R22" s="104"/>
+      <c r="S22" s="72"/>
+      <c r="T22" s="75"/>
+      <c r="U22" s="98"/>
+      <c r="V22" s="115"/>
+      <c r="W22" s="115"/>
+      <c r="X22" s="115"/>
+      <c r="Y22" s="115"/>
+      <c r="Z22" s="13">
+        <v>191</v>
+      </c>
+      <c r="AA22" s="14">
+        <v>200</v>
+      </c>
+      <c r="AB22" s="15"/>
+      <c r="AC22" s="13">
+        <v>191</v>
+      </c>
+      <c r="AD22" s="14">
+        <v>200</v>
+      </c>
+      <c r="AE22" s="15"/>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A23" s="28"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="112"/>
+      <c r="D23" s="113"/>
+      <c r="E23" s="112"/>
+      <c r="F23" s="113"/>
+      <c r="G23" s="112"/>
+      <c r="H23" s="114"/>
+      <c r="I23" s="112"/>
+      <c r="J23" s="114"/>
+      <c r="K23" s="13">
+        <v>201</v>
+      </c>
+      <c r="L23" s="14">
+        <v>210</v>
+      </c>
+      <c r="M23" s="15"/>
+      <c r="N23" s="115"/>
+      <c r="O23" s="115"/>
+      <c r="P23" s="71">
+        <v>201</v>
+      </c>
+      <c r="Q23" s="74">
+        <v>255</v>
+      </c>
+      <c r="R23" s="103" t="s">
+        <v>45</v>
+      </c>
+      <c r="S23" s="72"/>
+      <c r="T23" s="75"/>
+      <c r="U23" s="98"/>
+      <c r="V23" s="115"/>
+      <c r="W23" s="115"/>
+      <c r="X23" s="115"/>
+      <c r="Y23" s="115"/>
+      <c r="Z23" s="13">
+        <v>201</v>
+      </c>
+      <c r="AA23" s="14">
+        <v>210</v>
+      </c>
+      <c r="AB23" s="15"/>
+      <c r="AC23" s="13">
+        <v>201</v>
+      </c>
+      <c r="AD23" s="14">
+        <v>210</v>
+      </c>
+      <c r="AE23" s="15"/>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A24" s="28"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="112"/>
+      <c r="D24" s="113"/>
+      <c r="E24" s="112"/>
+      <c r="F24" s="113"/>
+      <c r="G24" s="112"/>
+      <c r="H24" s="114"/>
+      <c r="I24" s="112"/>
+      <c r="J24" s="114"/>
+      <c r="K24" s="13">
+        <v>210</v>
+      </c>
+      <c r="L24" s="14">
+        <v>220</v>
+      </c>
+      <c r="M24" s="15"/>
+      <c r="N24" s="115"/>
+      <c r="O24" s="115"/>
+      <c r="P24" s="72"/>
+      <c r="Q24" s="75"/>
+      <c r="R24" s="98"/>
+      <c r="S24" s="72"/>
+      <c r="T24" s="75"/>
+      <c r="U24" s="98"/>
+      <c r="V24" s="115"/>
+      <c r="W24" s="115"/>
+      <c r="X24" s="115"/>
+      <c r="Y24" s="115"/>
+      <c r="Z24" s="13">
+        <v>210</v>
+      </c>
+      <c r="AA24" s="14">
+        <v>220</v>
+      </c>
+      <c r="AB24" s="15"/>
+      <c r="AC24" s="13">
+        <v>210</v>
+      </c>
+      <c r="AD24" s="14">
+        <v>220</v>
+      </c>
+      <c r="AE24" s="15"/>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A25" s="28"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="112"/>
+      <c r="D25" s="113"/>
+      <c r="E25" s="112"/>
+      <c r="F25" s="113"/>
+      <c r="G25" s="112"/>
+      <c r="H25" s="114"/>
+      <c r="I25" s="112"/>
+      <c r="J25" s="114"/>
+      <c r="K25" s="13">
+        <v>221</v>
+      </c>
+      <c r="L25" s="14">
+        <v>230</v>
+      </c>
+      <c r="M25" s="15"/>
+      <c r="N25" s="115"/>
+      <c r="O25" s="115"/>
+      <c r="P25" s="72"/>
+      <c r="Q25" s="75"/>
+      <c r="R25" s="98"/>
+      <c r="S25" s="72"/>
+      <c r="T25" s="75"/>
+      <c r="U25" s="98"/>
+      <c r="V25" s="115"/>
+      <c r="W25" s="115"/>
+      <c r="X25" s="115"/>
+      <c r="Y25" s="115"/>
+      <c r="Z25" s="13">
+        <v>221</v>
+      </c>
+      <c r="AA25" s="14">
+        <v>230</v>
+      </c>
+      <c r="AB25" s="15"/>
+      <c r="AC25" s="13">
+        <v>221</v>
+      </c>
+      <c r="AD25" s="14">
+        <v>230</v>
+      </c>
+      <c r="AE25" s="15"/>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A26" s="28"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="112"/>
+      <c r="D26" s="113"/>
+      <c r="E26" s="112"/>
+      <c r="F26" s="113"/>
+      <c r="G26" s="112"/>
+      <c r="H26" s="114"/>
+      <c r="I26" s="112"/>
+      <c r="J26" s="114"/>
+      <c r="K26" s="13">
+        <v>231</v>
+      </c>
+      <c r="L26" s="14">
+        <v>240</v>
+      </c>
+      <c r="M26" s="15"/>
+      <c r="N26" s="115"/>
+      <c r="O26" s="115"/>
+      <c r="P26" s="72"/>
+      <c r="Q26" s="75"/>
+      <c r="R26" s="98"/>
+      <c r="S26" s="72"/>
+      <c r="T26" s="75"/>
+      <c r="U26" s="98"/>
+      <c r="V26" s="115"/>
+      <c r="W26" s="115"/>
+      <c r="X26" s="115"/>
+      <c r="Y26" s="115"/>
+      <c r="Z26" s="13">
+        <v>231</v>
+      </c>
+      <c r="AA26" s="14">
+        <v>240</v>
+      </c>
+      <c r="AB26" s="15"/>
+      <c r="AC26" s="13">
+        <v>231</v>
+      </c>
+      <c r="AD26" s="14">
+        <v>240</v>
+      </c>
+      <c r="AE26" s="15"/>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A27" s="28"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="112"/>
+      <c r="D27" s="113"/>
+      <c r="E27" s="112"/>
+      <c r="F27" s="113"/>
+      <c r="G27" s="112"/>
+      <c r="H27" s="114"/>
+      <c r="I27" s="112"/>
+      <c r="J27" s="114"/>
+      <c r="K27" s="13">
+        <v>241</v>
+      </c>
+      <c r="L27" s="14">
+        <v>250</v>
+      </c>
+      <c r="M27" s="15"/>
+      <c r="N27" s="115"/>
+      <c r="O27" s="115"/>
+      <c r="P27" s="72"/>
+      <c r="Q27" s="75"/>
+      <c r="R27" s="98"/>
+      <c r="S27" s="72"/>
+      <c r="T27" s="75"/>
+      <c r="U27" s="98"/>
+      <c r="V27" s="115"/>
+      <c r="W27" s="115"/>
+      <c r="X27" s="115"/>
+      <c r="Y27" s="115"/>
+      <c r="Z27" s="13">
+        <v>241</v>
+      </c>
+      <c r="AA27" s="14">
+        <v>250</v>
+      </c>
+      <c r="AB27" s="15"/>
+      <c r="AC27" s="13">
+        <v>241</v>
+      </c>
+      <c r="AD27" s="14">
+        <v>250</v>
+      </c>
+      <c r="AE27" s="15"/>
+    </row>
+    <row r="28" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="29"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="116"/>
+      <c r="D28" s="117"/>
+      <c r="E28" s="116"/>
+      <c r="F28" s="117"/>
+      <c r="G28" s="116"/>
+      <c r="H28" s="118"/>
+      <c r="I28" s="116"/>
+      <c r="J28" s="118"/>
+      <c r="K28" s="18">
+        <v>251</v>
+      </c>
+      <c r="L28" s="19">
+        <v>255</v>
+      </c>
+      <c r="M28" s="20"/>
+      <c r="N28" s="119"/>
+      <c r="O28" s="119"/>
+      <c r="P28" s="94"/>
+      <c r="Q28" s="96"/>
+      <c r="R28" s="99"/>
+      <c r="S28" s="94"/>
+      <c r="T28" s="96"/>
+      <c r="U28" s="99"/>
+      <c r="V28" s="119"/>
+      <c r="W28" s="119"/>
+      <c r="X28" s="119"/>
+      <c r="Y28" s="119"/>
+      <c r="Z28" s="18">
+        <v>251</v>
+      </c>
+      <c r="AA28" s="19">
+        <v>255</v>
+      </c>
+      <c r="AB28" s="20"/>
+      <c r="AC28" s="18">
+        <v>251</v>
+      </c>
+      <c r="AD28" s="19">
+        <v>255</v>
+      </c>
+      <c r="AE28" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="51">
+    <mergeCell ref="X18:X28"/>
+    <mergeCell ref="Y18:Y28"/>
+    <mergeCell ref="P23:P28"/>
+    <mergeCell ref="Q23:Q28"/>
+    <mergeCell ref="R23:R28"/>
+    <mergeCell ref="C18:D28"/>
+    <mergeCell ref="E18:F28"/>
+    <mergeCell ref="G18:H28"/>
+    <mergeCell ref="I18:J28"/>
+    <mergeCell ref="N18:N28"/>
+    <mergeCell ref="O18:O28"/>
+    <mergeCell ref="X3:X17"/>
+    <mergeCell ref="Y3:Y17"/>
+    <mergeCell ref="P6:P13"/>
     <mergeCell ref="Q6:Q13"/>
     <mergeCell ref="R6:R13"/>
     <mergeCell ref="P15:P22"/>
     <mergeCell ref="Q15:Q22"/>
     <mergeCell ref="R15:R22"/>
-    <mergeCell ref="Y18:Y28"/>
-    <mergeCell ref="B3:B17"/>
-    <mergeCell ref="C3:D17"/>
-    <mergeCell ref="E3:F17"/>
-    <mergeCell ref="G3:H17"/>
-    <mergeCell ref="N3:N17"/>
+    <mergeCell ref="V18:V28"/>
+    <mergeCell ref="W18:W28"/>
     <mergeCell ref="O3:O17"/>
-    <mergeCell ref="I3:J17"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="S1:U1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:U2"/>
     <mergeCell ref="S3:S28"/>
     <mergeCell ref="T3:T28"/>
     <mergeCell ref="U3:U28"/>
     <mergeCell ref="V3:V17"/>
     <mergeCell ref="W3:W17"/>
-    <mergeCell ref="X3:X17"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:U2"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="B3:B17"/>
+    <mergeCell ref="C3:D17"/>
+    <mergeCell ref="E3:F17"/>
+    <mergeCell ref="G3:H17"/>
+    <mergeCell ref="I3:J17"/>
+    <mergeCell ref="N3:N17"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="AC1:AE1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:M2"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/sac_v2.xlsx
+++ b/sac_v2.xlsx
@@ -5,18 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\github\KXKM_ESP32_SAC_V2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\GitHub\KXKM_ESP32_SAC_V2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E76FF15-1522-4B8F-9538-7E55D7889D18}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FA45114-0196-4587-8A49-F5D18F9CCE9F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="28800" windowHeight="16200" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sac_v2" sheetId="3" r:id="rId1"/>
     <sheet name="bar_h_s" sheetId="4" r:id="rId2"/>
     <sheet name="v2_005_h_s" sheetId="5" r:id="rId3"/>
     <sheet name="v2_006_h_s" sheetId="7" r:id="rId4"/>
+    <sheet name="kxkm_esp32_BAR_h_s_006" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="80">
   <si>
     <t>ch</t>
   </si>
@@ -251,6 +252,24 @@
   <si>
     <t>0 255 master w</t>
   </si>
+  <si>
+    <t>mirror *2 &lt;&gt;</t>
+  </si>
+  <si>
+    <t>mirror *3 &lt;&gt;&lt;</t>
+  </si>
+  <si>
+    <t>mirror *4 &lt;&gt;&lt;&gt;</t>
+  </si>
+  <si>
+    <t>mirror *4 &lt;&lt;&lt;&lt;</t>
+  </si>
+  <si>
+    <t>mirror *3 &lt;&lt;&lt;</t>
+  </si>
+  <si>
+    <t>mirror *2 &lt;&lt;</t>
+  </si>
 </sst>
 </file>
 
@@ -1053,7 +1072,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1190,6 +1209,147 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1199,9 +1359,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1244,172 +1401,40 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1722,44 +1747,44 @@
       <c r="B1" s="4">
         <v>1</v>
       </c>
-      <c r="C1" s="59">
+      <c r="C1" s="105">
         <v>2</v>
       </c>
-      <c r="D1" s="60"/>
-      <c r="E1" s="59">
+      <c r="D1" s="106"/>
+      <c r="E1" s="105">
         <v>3</v>
       </c>
-      <c r="F1" s="60"/>
-      <c r="G1" s="59">
+      <c r="F1" s="106"/>
+      <c r="G1" s="105">
         <v>4</v>
       </c>
-      <c r="H1" s="60"/>
-      <c r="I1" s="46">
+      <c r="H1" s="106"/>
+      <c r="I1" s="93">
         <v>5</v>
       </c>
-      <c r="J1" s="61"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="62">
+      <c r="J1" s="107"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="108">
         <v>6</v>
       </c>
-      <c r="M1" s="47"/>
-      <c r="N1" s="48"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="95"/>
       <c r="O1" s="4">
         <v>7</v>
       </c>
       <c r="P1" s="3">
         <v>8</v>
       </c>
-      <c r="Q1" s="62">
+      <c r="Q1" s="108">
         <v>9</v>
       </c>
-      <c r="R1" s="47"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="46">
+      <c r="R1" s="94"/>
+      <c r="S1" s="109"/>
+      <c r="T1" s="93">
         <v>10</v>
       </c>
-      <c r="U1" s="47"/>
-      <c r="V1" s="48"/>
+      <c r="U1" s="94"/>
+      <c r="V1" s="95"/>
       <c r="W1" s="4">
         <v>11</v>
       </c>
@@ -1772,12 +1797,12 @@
       <c r="Z1" s="35">
         <v>14</v>
       </c>
-      <c r="AA1" s="49"/>
-      <c r="AB1" s="49"/>
-      <c r="AC1" s="49"/>
-      <c r="AD1" s="49"/>
-      <c r="AE1" s="49"/>
-      <c r="AF1" s="49"/>
+      <c r="AA1" s="81"/>
+      <c r="AB1" s="81"/>
+      <c r="AC1" s="81"/>
+      <c r="AD1" s="81"/>
+      <c r="AE1" s="81"/>
+      <c r="AF1" s="81"/>
       <c r="AG1" s="1">
         <v>16</v>
       </c>
@@ -1789,44 +1814,44 @@
       <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="51"/>
-      <c r="E2" s="52" t="s">
+      <c r="D2" s="97"/>
+      <c r="E2" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="51"/>
-      <c r="G2" s="50" t="s">
+      <c r="F2" s="97"/>
+      <c r="G2" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="51"/>
-      <c r="I2" s="53" t="s">
+      <c r="H2" s="97"/>
+      <c r="I2" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="56" t="s">
+      <c r="J2" s="100"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="57"/>
-      <c r="N2" s="55"/>
+      <c r="M2" s="103"/>
+      <c r="N2" s="101"/>
       <c r="O2" s="6" t="s">
         <v>8</v>
       </c>
       <c r="P2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" s="56" t="s">
+      <c r="Q2" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="57"/>
-      <c r="S2" s="58"/>
-      <c r="T2" s="53" t="s">
+      <c r="R2" s="103"/>
+      <c r="S2" s="104"/>
+      <c r="T2" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="U2" s="57"/>
-      <c r="V2" s="55"/>
+      <c r="U2" s="103"/>
+      <c r="V2" s="101"/>
       <c r="W2" s="6" t="s">
         <v>47</v>
       </c>
@@ -1839,30 +1864,30 @@
       <c r="Z2" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="AA2" s="49"/>
-      <c r="AB2" s="49"/>
-      <c r="AC2" s="49"/>
-      <c r="AD2" s="49"/>
-      <c r="AE2" s="49"/>
-      <c r="AF2" s="49"/>
+      <c r="AA2" s="81"/>
+      <c r="AB2" s="81"/>
+      <c r="AC2" s="81"/>
+      <c r="AD2" s="81"/>
+      <c r="AE2" s="81"/>
+      <c r="AF2" s="81"/>
     </row>
     <row r="3" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="66" t="s">
+      <c r="C3" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="67"/>
-      <c r="E3" s="66" t="s">
+      <c r="D3" s="85"/>
+      <c r="E3" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="67"/>
-      <c r="G3" s="66" t="s">
+      <c r="F3" s="85"/>
+      <c r="G3" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="67"/>
+      <c r="H3" s="85"/>
       <c r="I3" s="8">
         <v>0</v>
       </c>
@@ -1881,10 +1906,10 @@
       <c r="N3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="64" t="s">
+      <c r="O3" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="64" t="s">
+      <c r="P3" s="82" t="s">
         <v>15</v>
       </c>
       <c r="Q3" s="8">
@@ -1896,25 +1921,25 @@
       <c r="S3" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="T3" s="93">
+      <c r="T3" s="66">
         <v>0</v>
       </c>
-      <c r="U3" s="95">
+      <c r="U3" s="69">
         <v>255</v>
       </c>
-      <c r="V3" s="97" t="s">
+      <c r="V3" s="72" t="s">
         <v>46</v>
       </c>
       <c r="W3" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="X3" s="64" t="s">
+      <c r="X3" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="Y3" s="64" t="s">
+      <c r="Y3" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="Z3" s="64" t="s">
+      <c r="Z3" s="82" t="s">
         <v>15</v>
       </c>
       <c r="AA3" s="39"/>
@@ -1926,13 +1951,13 @@
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
-      <c r="B4" s="65"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="69"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="87"/>
       <c r="I4" s="13">
         <v>11</v>
       </c>
@@ -1951,8 +1976,8 @@
       <c r="N4" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="O4" s="65"/>
-      <c r="P4" s="65"/>
+      <c r="O4" s="83"/>
+      <c r="P4" s="83"/>
       <c r="Q4" s="13">
         <v>11</v>
       </c>
@@ -1962,13 +1987,13 @@
       <c r="S4" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="T4" s="72"/>
-      <c r="U4" s="75"/>
-      <c r="V4" s="98"/>
+      <c r="T4" s="67"/>
+      <c r="U4" s="70"/>
+      <c r="V4" s="52"/>
       <c r="W4" s="91"/>
-      <c r="X4" s="65"/>
-      <c r="Y4" s="65"/>
-      <c r="Z4" s="65"/>
+      <c r="X4" s="83"/>
+      <c r="Y4" s="83"/>
+      <c r="Z4" s="83"/>
       <c r="AA4" s="39"/>
       <c r="AB4" s="39"/>
       <c r="AC4" s="40"/>
@@ -1978,13 +2003,13 @@
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
-      <c r="B5" s="65"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="69"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="87"/>
       <c r="I5" s="13">
         <v>21</v>
       </c>
@@ -2003,8 +2028,8 @@
       <c r="N5" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="O5" s="65"/>
-      <c r="P5" s="65"/>
+      <c r="O5" s="83"/>
+      <c r="P5" s="83"/>
       <c r="Q5" s="13">
         <v>21</v>
       </c>
@@ -2014,13 +2039,13 @@
       <c r="S5" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="T5" s="72"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="98"/>
+      <c r="T5" s="67"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="52"/>
       <c r="W5" s="91"/>
-      <c r="X5" s="65"/>
-      <c r="Y5" s="65"/>
-      <c r="Z5" s="65"/>
+      <c r="X5" s="83"/>
+      <c r="Y5" s="83"/>
+      <c r="Z5" s="83"/>
       <c r="AA5" s="39"/>
       <c r="AB5" s="39"/>
       <c r="AC5" s="40"/>
@@ -2030,13 +2055,13 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
-      <c r="B6" s="65"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="68"/>
-      <c r="H6" s="69"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="86"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="87"/>
       <c r="I6" s="13">
         <v>31</v>
       </c>
@@ -2055,24 +2080,24 @@
       <c r="N6" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="O6" s="65"/>
-      <c r="P6" s="65"/>
-      <c r="Q6" s="71">
+      <c r="O6" s="83"/>
+      <c r="P6" s="83"/>
+      <c r="Q6" s="76">
         <v>31</v>
       </c>
-      <c r="R6" s="74">
+      <c r="R6" s="78">
         <v>110</v>
       </c>
-      <c r="S6" s="100" t="s">
+      <c r="S6" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="T6" s="72"/>
-      <c r="U6" s="75"/>
-      <c r="V6" s="98"/>
+      <c r="T6" s="67"/>
+      <c r="U6" s="70"/>
+      <c r="V6" s="52"/>
       <c r="W6" s="91"/>
-      <c r="X6" s="65"/>
-      <c r="Y6" s="65"/>
-      <c r="Z6" s="65"/>
+      <c r="X6" s="83"/>
+      <c r="Y6" s="83"/>
+      <c r="Z6" s="83"/>
       <c r="AA6" s="39"/>
       <c r="AB6" s="39"/>
       <c r="AC6" s="40"/>
@@ -2082,13 +2107,13 @@
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
-      <c r="B7" s="65"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="69"/>
+      <c r="B7" s="83"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="87"/>
       <c r="I7" s="13">
         <v>41</v>
       </c>
@@ -2107,18 +2132,18 @@
       <c r="N7" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="O7" s="65"/>
-      <c r="P7" s="65"/>
-      <c r="Q7" s="72"/>
-      <c r="R7" s="75"/>
-      <c r="S7" s="101"/>
-      <c r="T7" s="72"/>
-      <c r="U7" s="75"/>
-      <c r="V7" s="98"/>
+      <c r="O7" s="83"/>
+      <c r="P7" s="83"/>
+      <c r="Q7" s="67"/>
+      <c r="R7" s="70"/>
+      <c r="S7" s="74"/>
+      <c r="T7" s="67"/>
+      <c r="U7" s="70"/>
+      <c r="V7" s="52"/>
       <c r="W7" s="91"/>
-      <c r="X7" s="65"/>
-      <c r="Y7" s="65"/>
-      <c r="Z7" s="65"/>
+      <c r="X7" s="83"/>
+      <c r="Y7" s="83"/>
+      <c r="Z7" s="83"/>
       <c r="AA7" s="39"/>
       <c r="AB7" s="39"/>
       <c r="AC7" s="40"/>
@@ -2128,13 +2153,13 @@
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
-      <c r="B8" s="65"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="69"/>
+      <c r="B8" s="83"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="87"/>
+      <c r="G8" s="86"/>
+      <c r="H8" s="87"/>
       <c r="I8" s="13">
         <v>51</v>
       </c>
@@ -2153,18 +2178,18 @@
       <c r="N8" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="O8" s="65"/>
-      <c r="P8" s="65"/>
-      <c r="Q8" s="72"/>
-      <c r="R8" s="75"/>
-      <c r="S8" s="101"/>
-      <c r="T8" s="72"/>
-      <c r="U8" s="75"/>
-      <c r="V8" s="98"/>
+      <c r="O8" s="83"/>
+      <c r="P8" s="83"/>
+      <c r="Q8" s="67"/>
+      <c r="R8" s="70"/>
+      <c r="S8" s="74"/>
+      <c r="T8" s="67"/>
+      <c r="U8" s="70"/>
+      <c r="V8" s="52"/>
       <c r="W8" s="91"/>
-      <c r="X8" s="65"/>
-      <c r="Y8" s="65"/>
-      <c r="Z8" s="65"/>
+      <c r="X8" s="83"/>
+      <c r="Y8" s="83"/>
+      <c r="Z8" s="83"/>
       <c r="AA8" s="39"/>
       <c r="AB8" s="39"/>
       <c r="AC8" s="40"/>
@@ -2174,13 +2199,13 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
-      <c r="B9" s="65"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="68"/>
-      <c r="H9" s="69"/>
+      <c r="B9" s="83"/>
+      <c r="C9" s="86"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="86"/>
+      <c r="F9" s="87"/>
+      <c r="G9" s="86"/>
+      <c r="H9" s="87"/>
       <c r="I9" s="13">
         <v>61</v>
       </c>
@@ -2199,18 +2224,18 @@
       <c r="N9" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="O9" s="65"/>
-      <c r="P9" s="65"/>
-      <c r="Q9" s="72"/>
-      <c r="R9" s="75"/>
-      <c r="S9" s="101"/>
-      <c r="T9" s="72"/>
-      <c r="U9" s="75"/>
-      <c r="V9" s="98"/>
+      <c r="O9" s="83"/>
+      <c r="P9" s="83"/>
+      <c r="Q9" s="67"/>
+      <c r="R9" s="70"/>
+      <c r="S9" s="74"/>
+      <c r="T9" s="67"/>
+      <c r="U9" s="70"/>
+      <c r="V9" s="52"/>
       <c r="W9" s="91"/>
-      <c r="X9" s="65"/>
-      <c r="Y9" s="65"/>
-      <c r="Z9" s="65"/>
+      <c r="X9" s="83"/>
+      <c r="Y9" s="83"/>
+      <c r="Z9" s="83"/>
       <c r="AA9" s="39"/>
       <c r="AB9" s="39"/>
       <c r="AC9" s="40"/>
@@ -2220,13 +2245,13 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
-      <c r="B10" s="65"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="68"/>
-      <c r="H10" s="69"/>
+      <c r="B10" s="83"/>
+      <c r="C10" s="86"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="86"/>
+      <c r="F10" s="87"/>
+      <c r="G10" s="86"/>
+      <c r="H10" s="87"/>
       <c r="I10" s="13">
         <v>71</v>
       </c>
@@ -2245,18 +2270,18 @@
       <c r="N10" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="O10" s="65"/>
-      <c r="P10" s="65"/>
-      <c r="Q10" s="72"/>
-      <c r="R10" s="75"/>
-      <c r="S10" s="101"/>
-      <c r="T10" s="72"/>
-      <c r="U10" s="75"/>
-      <c r="V10" s="98"/>
+      <c r="O10" s="83"/>
+      <c r="P10" s="83"/>
+      <c r="Q10" s="67"/>
+      <c r="R10" s="70"/>
+      <c r="S10" s="74"/>
+      <c r="T10" s="67"/>
+      <c r="U10" s="70"/>
+      <c r="V10" s="52"/>
       <c r="W10" s="91"/>
-      <c r="X10" s="65"/>
-      <c r="Y10" s="65"/>
-      <c r="Z10" s="65"/>
+      <c r="X10" s="83"/>
+      <c r="Y10" s="83"/>
+      <c r="Z10" s="83"/>
       <c r="AA10" s="39"/>
       <c r="AB10" s="39"/>
       <c r="AC10" s="40"/>
@@ -2266,13 +2291,13 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
-      <c r="B11" s="65"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="69"/>
-      <c r="G11" s="68"/>
-      <c r="H11" s="69"/>
+      <c r="B11" s="83"/>
+      <c r="C11" s="86"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="86"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="86"/>
+      <c r="H11" s="87"/>
       <c r="I11" s="13">
         <v>81</v>
       </c>
@@ -2291,18 +2316,18 @@
       <c r="N11" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="O11" s="65"/>
-      <c r="P11" s="65"/>
-      <c r="Q11" s="72"/>
-      <c r="R11" s="75"/>
-      <c r="S11" s="101"/>
-      <c r="T11" s="72"/>
-      <c r="U11" s="75"/>
-      <c r="V11" s="98"/>
+      <c r="O11" s="83"/>
+      <c r="P11" s="83"/>
+      <c r="Q11" s="67"/>
+      <c r="R11" s="70"/>
+      <c r="S11" s="74"/>
+      <c r="T11" s="67"/>
+      <c r="U11" s="70"/>
+      <c r="V11" s="52"/>
       <c r="W11" s="91"/>
-      <c r="X11" s="65"/>
-      <c r="Y11" s="65"/>
-      <c r="Z11" s="65"/>
+      <c r="X11" s="83"/>
+      <c r="Y11" s="83"/>
+      <c r="Z11" s="83"/>
       <c r="AA11" s="39"/>
       <c r="AB11" s="39"/>
       <c r="AC11" s="40"/>
@@ -2312,13 +2337,13 @@
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
-      <c r="B12" s="65"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="69"/>
+      <c r="B12" s="83"/>
+      <c r="C12" s="86"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="86"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="86"/>
+      <c r="H12" s="87"/>
       <c r="I12" s="13">
         <v>91</v>
       </c>
@@ -2335,18 +2360,18 @@
         <v>100</v>
       </c>
       <c r="N12" s="15"/>
-      <c r="O12" s="65"/>
-      <c r="P12" s="65"/>
-      <c r="Q12" s="72"/>
-      <c r="R12" s="75"/>
-      <c r="S12" s="101"/>
-      <c r="T12" s="72"/>
-      <c r="U12" s="75"/>
-      <c r="V12" s="98"/>
+      <c r="O12" s="83"/>
+      <c r="P12" s="83"/>
+      <c r="Q12" s="67"/>
+      <c r="R12" s="70"/>
+      <c r="S12" s="74"/>
+      <c r="T12" s="67"/>
+      <c r="U12" s="70"/>
+      <c r="V12" s="52"/>
       <c r="W12" s="91"/>
-      <c r="X12" s="65"/>
-      <c r="Y12" s="65"/>
-      <c r="Z12" s="65"/>
+      <c r="X12" s="83"/>
+      <c r="Y12" s="83"/>
+      <c r="Z12" s="83"/>
       <c r="AA12" s="39"/>
       <c r="AB12" s="39"/>
       <c r="AC12" s="40"/>
@@ -2356,13 +2381,13 @@
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
-      <c r="B13" s="65"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="68"/>
-      <c r="H13" s="69"/>
+      <c r="B13" s="83"/>
+      <c r="C13" s="86"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="86"/>
+      <c r="H13" s="87"/>
       <c r="I13" s="13">
         <v>101</v>
       </c>
@@ -2379,18 +2404,18 @@
         <v>110</v>
       </c>
       <c r="N13" s="15"/>
-      <c r="O13" s="65"/>
-      <c r="P13" s="65"/>
-      <c r="Q13" s="73"/>
-      <c r="R13" s="76"/>
-      <c r="S13" s="102"/>
-      <c r="T13" s="72"/>
-      <c r="U13" s="75"/>
-      <c r="V13" s="98"/>
+      <c r="O13" s="83"/>
+      <c r="P13" s="83"/>
+      <c r="Q13" s="77"/>
+      <c r="R13" s="79"/>
+      <c r="S13" s="75"/>
+      <c r="T13" s="67"/>
+      <c r="U13" s="70"/>
+      <c r="V13" s="52"/>
       <c r="W13" s="91"/>
-      <c r="X13" s="65"/>
-      <c r="Y13" s="65"/>
-      <c r="Z13" s="65"/>
+      <c r="X13" s="83"/>
+      <c r="Y13" s="83"/>
+      <c r="Z13" s="83"/>
       <c r="AA13" s="39"/>
       <c r="AB13" s="39"/>
       <c r="AC13" s="40"/>
@@ -2400,13 +2425,13 @@
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
-      <c r="B14" s="65"/>
-      <c r="C14" s="68"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="68"/>
-      <c r="H14" s="69"/>
+      <c r="B14" s="83"/>
+      <c r="C14" s="86"/>
+      <c r="D14" s="87"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="87"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="87"/>
       <c r="I14" s="13">
         <v>111</v>
       </c>
@@ -2423,8 +2448,8 @@
         <v>120</v>
       </c>
       <c r="N14" s="15"/>
-      <c r="O14" s="65"/>
-      <c r="P14" s="65"/>
+      <c r="O14" s="83"/>
+      <c r="P14" s="83"/>
       <c r="Q14" s="13">
         <v>111</v>
       </c>
@@ -2434,13 +2459,13 @@
       <c r="S14" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="T14" s="72"/>
-      <c r="U14" s="75"/>
-      <c r="V14" s="98"/>
+      <c r="T14" s="67"/>
+      <c r="U14" s="70"/>
+      <c r="V14" s="52"/>
       <c r="W14" s="91"/>
-      <c r="X14" s="65"/>
-      <c r="Y14" s="65"/>
-      <c r="Z14" s="65"/>
+      <c r="X14" s="83"/>
+      <c r="Y14" s="83"/>
+      <c r="Z14" s="83"/>
       <c r="AA14" s="39"/>
       <c r="AB14" s="39"/>
       <c r="AC14" s="40"/>
@@ -2450,13 +2475,13 @@
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
-      <c r="B15" s="65"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="68"/>
-      <c r="H15" s="69"/>
+      <c r="B15" s="83"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="87"/>
+      <c r="G15" s="86"/>
+      <c r="H15" s="87"/>
       <c r="I15" s="13">
         <v>120.833333333333</v>
       </c>
@@ -2473,24 +2498,24 @@
         <v>130</v>
       </c>
       <c r="N15" s="15"/>
-      <c r="O15" s="65"/>
-      <c r="P15" s="65"/>
-      <c r="Q15" s="71">
+      <c r="O15" s="83"/>
+      <c r="P15" s="83"/>
+      <c r="Q15" s="76">
         <v>120.833333333333</v>
       </c>
-      <c r="R15" s="74">
+      <c r="R15" s="78">
         <v>200</v>
       </c>
-      <c r="S15" s="103" t="s">
+      <c r="S15" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="T15" s="72"/>
-      <c r="U15" s="75"/>
-      <c r="V15" s="98"/>
+      <c r="T15" s="67"/>
+      <c r="U15" s="70"/>
+      <c r="V15" s="52"/>
       <c r="W15" s="91"/>
-      <c r="X15" s="65"/>
-      <c r="Y15" s="65"/>
-      <c r="Z15" s="65"/>
+      <c r="X15" s="83"/>
+      <c r="Y15" s="83"/>
+      <c r="Z15" s="83"/>
       <c r="AA15" s="39"/>
       <c r="AB15" s="39"/>
       <c r="AC15" s="40"/>
@@ -2500,13 +2525,13 @@
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
-      <c r="B16" s="65"/>
-      <c r="C16" s="68"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="68"/>
-      <c r="H16" s="69"/>
+      <c r="B16" s="83"/>
+      <c r="C16" s="86"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="86"/>
+      <c r="F16" s="87"/>
+      <c r="G16" s="86"/>
+      <c r="H16" s="87"/>
       <c r="I16" s="13">
         <v>131</v>
       </c>
@@ -2523,18 +2548,18 @@
         <v>140</v>
       </c>
       <c r="N16" s="15"/>
-      <c r="O16" s="65"/>
-      <c r="P16" s="65"/>
-      <c r="Q16" s="72"/>
-      <c r="R16" s="75"/>
-      <c r="S16" s="98"/>
-      <c r="T16" s="72"/>
-      <c r="U16" s="75"/>
-      <c r="V16" s="98"/>
+      <c r="O16" s="83"/>
+      <c r="P16" s="83"/>
+      <c r="Q16" s="67"/>
+      <c r="R16" s="70"/>
+      <c r="S16" s="52"/>
+      <c r="T16" s="67"/>
+      <c r="U16" s="70"/>
+      <c r="V16" s="52"/>
       <c r="W16" s="91"/>
-      <c r="X16" s="65"/>
-      <c r="Y16" s="65"/>
-      <c r="Z16" s="65"/>
+      <c r="X16" s="83"/>
+      <c r="Y16" s="83"/>
+      <c r="Z16" s="83"/>
       <c r="AA16" s="39"/>
       <c r="AB16" s="39"/>
       <c r="AC16" s="40"/>
@@ -2544,13 +2569,13 @@
     </row>
     <row r="17" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12"/>
-      <c r="B17" s="65"/>
-      <c r="C17" s="68"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="68"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="68"/>
-      <c r="H17" s="69"/>
+      <c r="B17" s="83"/>
+      <c r="C17" s="86"/>
+      <c r="D17" s="87"/>
+      <c r="E17" s="86"/>
+      <c r="F17" s="87"/>
+      <c r="G17" s="86"/>
+      <c r="H17" s="87"/>
       <c r="I17" s="13">
         <v>141</v>
       </c>
@@ -2567,18 +2592,18 @@
         <v>150</v>
       </c>
       <c r="N17" s="15"/>
-      <c r="O17" s="70"/>
-      <c r="P17" s="70"/>
-      <c r="Q17" s="72"/>
-      <c r="R17" s="75"/>
-      <c r="S17" s="98"/>
-      <c r="T17" s="72"/>
-      <c r="U17" s="75"/>
-      <c r="V17" s="98"/>
+      <c r="O17" s="88"/>
+      <c r="P17" s="88"/>
+      <c r="Q17" s="67"/>
+      <c r="R17" s="70"/>
+      <c r="S17" s="52"/>
+      <c r="T17" s="67"/>
+      <c r="U17" s="70"/>
+      <c r="V17" s="52"/>
       <c r="W17" s="92"/>
-      <c r="X17" s="77"/>
-      <c r="Y17" s="77"/>
-      <c r="Z17" s="77"/>
+      <c r="X17" s="89"/>
+      <c r="Y17" s="89"/>
+      <c r="Z17" s="89"/>
       <c r="AA17" s="39"/>
       <c r="AB17" s="39"/>
       <c r="AC17" s="40"/>
@@ -2589,12 +2614,12 @@
     <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="28"/>
       <c r="B18" s="32"/>
-      <c r="C18" s="80"/>
-      <c r="D18" s="81"/>
-      <c r="E18" s="80"/>
-      <c r="F18" s="81"/>
-      <c r="G18" s="80"/>
-      <c r="H18" s="86"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="62"/>
       <c r="I18" s="30">
         <v>150.833333333333</v>
       </c>
@@ -2610,17 +2635,17 @@
       </c>
       <c r="N18" s="15"/>
       <c r="O18" s="16"/>
-      <c r="P18" s="89"/>
-      <c r="Q18" s="72"/>
-      <c r="R18" s="75"/>
-      <c r="S18" s="98"/>
-      <c r="T18" s="72"/>
-      <c r="U18" s="75"/>
-      <c r="V18" s="98"/>
+      <c r="P18" s="65"/>
+      <c r="Q18" s="67"/>
+      <c r="R18" s="70"/>
+      <c r="S18" s="52"/>
+      <c r="T18" s="67"/>
+      <c r="U18" s="70"/>
+      <c r="V18" s="52"/>
       <c r="W18" s="42"/>
-      <c r="X18" s="78"/>
-      <c r="Y18" s="78"/>
-      <c r="Z18" s="78"/>
+      <c r="X18" s="54"/>
+      <c r="Y18" s="54"/>
+      <c r="Z18" s="54"/>
       <c r="AA18" s="39"/>
       <c r="AB18" s="39"/>
       <c r="AC18" s="40"/>
@@ -2631,12 +2656,12 @@
     <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" s="28"/>
       <c r="B19" s="33"/>
-      <c r="C19" s="82"/>
-      <c r="D19" s="83"/>
-      <c r="E19" s="82"/>
-      <c r="F19" s="83"/>
-      <c r="G19" s="82"/>
-      <c r="H19" s="87"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="63"/>
       <c r="I19" s="30">
         <v>161</v>
       </c>
@@ -2652,17 +2677,17 @@
       </c>
       <c r="N19" s="15"/>
       <c r="O19" s="16"/>
-      <c r="P19" s="78"/>
-      <c r="Q19" s="72"/>
-      <c r="R19" s="75"/>
-      <c r="S19" s="98"/>
-      <c r="T19" s="72"/>
-      <c r="U19" s="75"/>
-      <c r="V19" s="98"/>
+      <c r="P19" s="54"/>
+      <c r="Q19" s="67"/>
+      <c r="R19" s="70"/>
+      <c r="S19" s="52"/>
+      <c r="T19" s="67"/>
+      <c r="U19" s="70"/>
+      <c r="V19" s="52"/>
       <c r="W19" s="42"/>
-      <c r="X19" s="78"/>
-      <c r="Y19" s="78"/>
-      <c r="Z19" s="78"/>
+      <c r="X19" s="54"/>
+      <c r="Y19" s="54"/>
+      <c r="Z19" s="54"/>
       <c r="AA19" s="39"/>
       <c r="AB19" s="39"/>
       <c r="AC19" s="40"/>
@@ -2673,12 +2698,12 @@
     <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" s="28"/>
       <c r="B20" s="33"/>
-      <c r="C20" s="82"/>
-      <c r="D20" s="83"/>
-      <c r="E20" s="82"/>
-      <c r="F20" s="83"/>
-      <c r="G20" s="82"/>
-      <c r="H20" s="87"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="63"/>
       <c r="I20" s="30">
         <v>171</v>
       </c>
@@ -2694,17 +2719,17 @@
       </c>
       <c r="N20" s="15"/>
       <c r="O20" s="16"/>
-      <c r="P20" s="78"/>
-      <c r="Q20" s="72"/>
-      <c r="R20" s="75"/>
-      <c r="S20" s="98"/>
-      <c r="T20" s="72"/>
-      <c r="U20" s="75"/>
-      <c r="V20" s="98"/>
+      <c r="P20" s="54"/>
+      <c r="Q20" s="67"/>
+      <c r="R20" s="70"/>
+      <c r="S20" s="52"/>
+      <c r="T20" s="67"/>
+      <c r="U20" s="70"/>
+      <c r="V20" s="52"/>
       <c r="W20" s="42"/>
-      <c r="X20" s="78"/>
-      <c r="Y20" s="78"/>
-      <c r="Z20" s="78"/>
+      <c r="X20" s="54"/>
+      <c r="Y20" s="54"/>
+      <c r="Z20" s="54"/>
       <c r="AA20" s="39"/>
       <c r="AB20" s="39"/>
       <c r="AC20" s="40"/>
@@ -2715,12 +2740,12 @@
     <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" s="28"/>
       <c r="B21" s="33"/>
-      <c r="C21" s="82"/>
-      <c r="D21" s="83"/>
-      <c r="E21" s="82"/>
-      <c r="F21" s="83"/>
-      <c r="G21" s="82"/>
-      <c r="H21" s="87"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="63"/>
       <c r="I21" s="30">
         <v>181</v>
       </c>
@@ -2736,17 +2761,17 @@
       </c>
       <c r="N21" s="15"/>
       <c r="O21" s="16"/>
-      <c r="P21" s="78"/>
-      <c r="Q21" s="72"/>
-      <c r="R21" s="75"/>
-      <c r="S21" s="98"/>
-      <c r="T21" s="72"/>
-      <c r="U21" s="75"/>
-      <c r="V21" s="98"/>
+      <c r="P21" s="54"/>
+      <c r="Q21" s="67"/>
+      <c r="R21" s="70"/>
+      <c r="S21" s="52"/>
+      <c r="T21" s="67"/>
+      <c r="U21" s="70"/>
+      <c r="V21" s="52"/>
       <c r="W21" s="42"/>
-      <c r="X21" s="78"/>
-      <c r="Y21" s="78"/>
-      <c r="Z21" s="78"/>
+      <c r="X21" s="54"/>
+      <c r="Y21" s="54"/>
+      <c r="Z21" s="54"/>
       <c r="AA21" s="39"/>
       <c r="AB21" s="39"/>
       <c r="AC21" s="40"/>
@@ -2757,12 +2782,12 @@
     <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" s="28"/>
       <c r="B22" s="33"/>
-      <c r="C22" s="82"/>
-      <c r="D22" s="83"/>
-      <c r="E22" s="82"/>
-      <c r="F22" s="83"/>
-      <c r="G22" s="82"/>
-      <c r="H22" s="87"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="63"/>
       <c r="I22" s="30">
         <v>191</v>
       </c>
@@ -2778,17 +2803,17 @@
       </c>
       <c r="N22" s="15"/>
       <c r="O22" s="16"/>
-      <c r="P22" s="78"/>
-      <c r="Q22" s="73"/>
-      <c r="R22" s="76"/>
-      <c r="S22" s="104"/>
-      <c r="T22" s="72"/>
-      <c r="U22" s="75"/>
-      <c r="V22" s="98"/>
+      <c r="P22" s="54"/>
+      <c r="Q22" s="77"/>
+      <c r="R22" s="79"/>
+      <c r="S22" s="80"/>
+      <c r="T22" s="67"/>
+      <c r="U22" s="70"/>
+      <c r="V22" s="52"/>
       <c r="W22" s="42"/>
-      <c r="X22" s="78"/>
-      <c r="Y22" s="78"/>
-      <c r="Z22" s="78"/>
+      <c r="X22" s="54"/>
+      <c r="Y22" s="54"/>
+      <c r="Z22" s="54"/>
       <c r="AA22" s="39"/>
       <c r="AB22" s="39"/>
       <c r="AC22" s="40"/>
@@ -2799,12 +2824,12 @@
     <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" s="28"/>
       <c r="B23" s="33"/>
-      <c r="C23" s="82"/>
-      <c r="D23" s="83"/>
-      <c r="E23" s="82"/>
-      <c r="F23" s="83"/>
-      <c r="G23" s="82"/>
-      <c r="H23" s="87"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="63"/>
       <c r="I23" s="30">
         <v>201</v>
       </c>
@@ -2820,23 +2845,23 @@
       </c>
       <c r="N23" s="15"/>
       <c r="O23" s="16"/>
-      <c r="P23" s="78"/>
-      <c r="Q23" s="71">
+      <c r="P23" s="54"/>
+      <c r="Q23" s="76">
         <v>201</v>
       </c>
-      <c r="R23" s="74">
+      <c r="R23" s="78">
         <v>255</v>
       </c>
-      <c r="S23" s="103" t="s">
+      <c r="S23" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="T23" s="72"/>
-      <c r="U23" s="75"/>
-      <c r="V23" s="98"/>
+      <c r="T23" s="67"/>
+      <c r="U23" s="70"/>
+      <c r="V23" s="52"/>
       <c r="W23" s="42"/>
-      <c r="X23" s="78"/>
-      <c r="Y23" s="78"/>
-      <c r="Z23" s="78"/>
+      <c r="X23" s="54"/>
+      <c r="Y23" s="54"/>
+      <c r="Z23" s="54"/>
       <c r="AA23" s="39"/>
       <c r="AB23" s="39"/>
       <c r="AC23" s="40"/>
@@ -2847,12 +2872,12 @@
     <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24" s="28"/>
       <c r="B24" s="33"/>
-      <c r="C24" s="82"/>
-      <c r="D24" s="83"/>
-      <c r="E24" s="82"/>
-      <c r="F24" s="83"/>
-      <c r="G24" s="82"/>
-      <c r="H24" s="87"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="63"/>
       <c r="I24" s="30">
         <v>210</v>
       </c>
@@ -2868,17 +2893,17 @@
       </c>
       <c r="N24" s="15"/>
       <c r="O24" s="16"/>
-      <c r="P24" s="78"/>
-      <c r="Q24" s="72"/>
-      <c r="R24" s="75"/>
-      <c r="S24" s="98"/>
-      <c r="T24" s="72"/>
-      <c r="U24" s="75"/>
-      <c r="V24" s="98"/>
+      <c r="P24" s="54"/>
+      <c r="Q24" s="67"/>
+      <c r="R24" s="70"/>
+      <c r="S24" s="52"/>
+      <c r="T24" s="67"/>
+      <c r="U24" s="70"/>
+      <c r="V24" s="52"/>
       <c r="W24" s="42"/>
-      <c r="X24" s="78"/>
-      <c r="Y24" s="78"/>
-      <c r="Z24" s="78"/>
+      <c r="X24" s="54"/>
+      <c r="Y24" s="54"/>
+      <c r="Z24" s="54"/>
       <c r="AA24" s="39"/>
       <c r="AB24" s="39"/>
       <c r="AC24" s="40"/>
@@ -2889,12 +2914,12 @@
     <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25" s="28"/>
       <c r="B25" s="33"/>
-      <c r="C25" s="82"/>
-      <c r="D25" s="83"/>
-      <c r="E25" s="82"/>
-      <c r="F25" s="83"/>
-      <c r="G25" s="82"/>
-      <c r="H25" s="87"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="63"/>
       <c r="I25" s="30">
         <v>221</v>
       </c>
@@ -2910,17 +2935,17 @@
       </c>
       <c r="N25" s="15"/>
       <c r="O25" s="16"/>
-      <c r="P25" s="78"/>
-      <c r="Q25" s="72"/>
-      <c r="R25" s="75"/>
-      <c r="S25" s="98"/>
-      <c r="T25" s="72"/>
-      <c r="U25" s="75"/>
-      <c r="V25" s="98"/>
+      <c r="P25" s="54"/>
+      <c r="Q25" s="67"/>
+      <c r="R25" s="70"/>
+      <c r="S25" s="52"/>
+      <c r="T25" s="67"/>
+      <c r="U25" s="70"/>
+      <c r="V25" s="52"/>
       <c r="W25" s="42"/>
-      <c r="X25" s="78"/>
-      <c r="Y25" s="78"/>
-      <c r="Z25" s="78"/>
+      <c r="X25" s="54"/>
+      <c r="Y25" s="54"/>
+      <c r="Z25" s="54"/>
       <c r="AA25" s="39"/>
       <c r="AB25" s="39"/>
       <c r="AC25" s="40"/>
@@ -2931,12 +2956,12 @@
     <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26" s="28"/>
       <c r="B26" s="33"/>
-      <c r="C26" s="82"/>
-      <c r="D26" s="83"/>
-      <c r="E26" s="82"/>
-      <c r="F26" s="83"/>
-      <c r="G26" s="82"/>
-      <c r="H26" s="87"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="63"/>
       <c r="I26" s="30">
         <v>231</v>
       </c>
@@ -2952,17 +2977,17 @@
       </c>
       <c r="N26" s="15"/>
       <c r="O26" s="16"/>
-      <c r="P26" s="78"/>
-      <c r="Q26" s="72"/>
-      <c r="R26" s="75"/>
-      <c r="S26" s="98"/>
-      <c r="T26" s="72"/>
-      <c r="U26" s="75"/>
-      <c r="V26" s="98"/>
+      <c r="P26" s="54"/>
+      <c r="Q26" s="67"/>
+      <c r="R26" s="70"/>
+      <c r="S26" s="52"/>
+      <c r="T26" s="67"/>
+      <c r="U26" s="70"/>
+      <c r="V26" s="52"/>
       <c r="W26" s="42"/>
-      <c r="X26" s="78"/>
-      <c r="Y26" s="78"/>
-      <c r="Z26" s="78"/>
+      <c r="X26" s="54"/>
+      <c r="Y26" s="54"/>
+      <c r="Z26" s="54"/>
       <c r="AA26" s="39"/>
       <c r="AB26" s="39"/>
       <c r="AC26" s="40"/>
@@ -2973,12 +2998,12 @@
     <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27" s="28"/>
       <c r="B27" s="33"/>
-      <c r="C27" s="82"/>
-      <c r="D27" s="83"/>
-      <c r="E27" s="82"/>
-      <c r="F27" s="83"/>
-      <c r="G27" s="82"/>
-      <c r="H27" s="87"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="63"/>
       <c r="I27" s="30">
         <v>241</v>
       </c>
@@ -2994,17 +3019,17 @@
       </c>
       <c r="N27" s="15"/>
       <c r="O27" s="16"/>
-      <c r="P27" s="78"/>
-      <c r="Q27" s="72"/>
-      <c r="R27" s="75"/>
-      <c r="S27" s="98"/>
-      <c r="T27" s="72"/>
-      <c r="U27" s="75"/>
-      <c r="V27" s="98"/>
+      <c r="P27" s="54"/>
+      <c r="Q27" s="67"/>
+      <c r="R27" s="70"/>
+      <c r="S27" s="52"/>
+      <c r="T27" s="67"/>
+      <c r="U27" s="70"/>
+      <c r="V27" s="52"/>
       <c r="W27" s="42"/>
-      <c r="X27" s="78"/>
-      <c r="Y27" s="78"/>
-      <c r="Z27" s="78"/>
+      <c r="X27" s="54"/>
+      <c r="Y27" s="54"/>
+      <c r="Z27" s="54"/>
       <c r="AA27" s="39"/>
       <c r="AB27" s="39"/>
       <c r="AC27" s="40"/>
@@ -3015,12 +3040,12 @@
     <row r="28" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="29"/>
       <c r="B28" s="34"/>
-      <c r="C28" s="84"/>
-      <c r="D28" s="85"/>
-      <c r="E28" s="84"/>
-      <c r="F28" s="85"/>
-      <c r="G28" s="84"/>
-      <c r="H28" s="88"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="60"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="60"/>
+      <c r="H28" s="64"/>
       <c r="I28" s="31">
         <v>251</v>
       </c>
@@ -3036,17 +3061,17 @@
       </c>
       <c r="N28" s="20"/>
       <c r="O28" s="21"/>
-      <c r="P28" s="79"/>
-      <c r="Q28" s="94"/>
-      <c r="R28" s="96"/>
-      <c r="S28" s="99"/>
-      <c r="T28" s="94"/>
-      <c r="U28" s="96"/>
-      <c r="V28" s="99"/>
+      <c r="P28" s="55"/>
+      <c r="Q28" s="68"/>
+      <c r="R28" s="71"/>
+      <c r="S28" s="53"/>
+      <c r="T28" s="68"/>
+      <c r="U28" s="71"/>
+      <c r="V28" s="53"/>
       <c r="W28" s="43"/>
-      <c r="X28" s="79"/>
-      <c r="Y28" s="79"/>
-      <c r="Z28" s="79"/>
+      <c r="X28" s="55"/>
+      <c r="Y28" s="55"/>
+      <c r="Z28" s="55"/>
       <c r="AA28" s="39"/>
       <c r="AB28" s="40"/>
       <c r="AC28" s="40"/>
@@ -3736,6 +3761,37 @@
     </row>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="T1:V1"/>
+    <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="AD1:AF1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="R23:R28"/>
+    <mergeCell ref="AA2:AC2"/>
+    <mergeCell ref="AD2:AF2"/>
+    <mergeCell ref="B3:B17"/>
+    <mergeCell ref="C3:D17"/>
+    <mergeCell ref="E3:F17"/>
+    <mergeCell ref="G3:H17"/>
+    <mergeCell ref="O3:O17"/>
+    <mergeCell ref="P3:P17"/>
+    <mergeCell ref="Q6:Q13"/>
+    <mergeCell ref="R6:R13"/>
+    <mergeCell ref="X3:X17"/>
+    <mergeCell ref="Y3:Y17"/>
+    <mergeCell ref="Z3:Z17"/>
+    <mergeCell ref="W3:W17"/>
     <mergeCell ref="S23:S28"/>
     <mergeCell ref="X18:X28"/>
     <mergeCell ref="Y18:Y28"/>
@@ -3752,37 +3808,6 @@
     <mergeCell ref="R15:R22"/>
     <mergeCell ref="S15:S22"/>
     <mergeCell ref="Q23:Q28"/>
-    <mergeCell ref="R23:R28"/>
-    <mergeCell ref="AA2:AC2"/>
-    <mergeCell ref="AD2:AF2"/>
-    <mergeCell ref="B3:B17"/>
-    <mergeCell ref="C3:D17"/>
-    <mergeCell ref="E3:F17"/>
-    <mergeCell ref="G3:H17"/>
-    <mergeCell ref="O3:O17"/>
-    <mergeCell ref="P3:P17"/>
-    <mergeCell ref="Q6:Q13"/>
-    <mergeCell ref="R6:R13"/>
-    <mergeCell ref="X3:X17"/>
-    <mergeCell ref="Y3:Y17"/>
-    <mergeCell ref="Z3:Z17"/>
-    <mergeCell ref="W3:W17"/>
-    <mergeCell ref="T1:V1"/>
-    <mergeCell ref="AA1:AC1"/>
-    <mergeCell ref="AD1:AF1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="T2:V2"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="Q1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3806,43 +3831,43 @@
       <c r="B1" s="37">
         <v>1</v>
       </c>
-      <c r="C1" s="59">
+      <c r="C1" s="105">
         <v>2</v>
       </c>
-      <c r="D1" s="60"/>
-      <c r="E1" s="59">
+      <c r="D1" s="106"/>
+      <c r="E1" s="105">
         <v>3</v>
       </c>
-      <c r="F1" s="60"/>
-      <c r="G1" s="59">
+      <c r="F1" s="106"/>
+      <c r="G1" s="105">
         <v>4</v>
       </c>
-      <c r="H1" s="60"/>
-      <c r="I1" s="59">
+      <c r="H1" s="106"/>
+      <c r="I1" s="105">
         <v>5</v>
       </c>
-      <c r="J1" s="60"/>
-      <c r="K1" s="62">
+      <c r="J1" s="106"/>
+      <c r="K1" s="108">
         <v>6</v>
       </c>
-      <c r="L1" s="47"/>
-      <c r="M1" s="48"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="95"/>
       <c r="N1" s="37">
         <v>7</v>
       </c>
       <c r="O1" s="3">
         <v>8</v>
       </c>
-      <c r="P1" s="62">
+      <c r="P1" s="108">
         <v>9</v>
       </c>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="46">
+      <c r="Q1" s="94"/>
+      <c r="R1" s="109"/>
+      <c r="S1" s="93">
         <v>10</v>
       </c>
-      <c r="T1" s="47"/>
-      <c r="U1" s="48"/>
+      <c r="T1" s="94"/>
+      <c r="U1" s="95"/>
       <c r="V1" s="37">
         <v>11</v>
       </c>
@@ -3866,43 +3891,43 @@
       <c r="B2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="51"/>
-      <c r="E2" s="52" t="s">
+      <c r="D2" s="97"/>
+      <c r="E2" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="51"/>
-      <c r="G2" s="50" t="s">
+      <c r="F2" s="97"/>
+      <c r="G2" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="51"/>
-      <c r="I2" s="50" t="s">
+      <c r="H2" s="97"/>
+      <c r="I2" s="96" t="s">
         <v>48</v>
       </c>
-      <c r="J2" s="51"/>
-      <c r="K2" s="56" t="s">
+      <c r="J2" s="97"/>
+      <c r="K2" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="57"/>
-      <c r="M2" s="55"/>
+      <c r="L2" s="103"/>
+      <c r="M2" s="101"/>
       <c r="N2" s="38" t="s">
         <v>8</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="56" t="s">
+      <c r="P2" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="58"/>
-      <c r="S2" s="53" t="s">
+      <c r="Q2" s="103"/>
+      <c r="R2" s="104"/>
+      <c r="S2" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="T2" s="57"/>
-      <c r="U2" s="55"/>
+      <c r="T2" s="103"/>
+      <c r="U2" s="101"/>
       <c r="V2" s="38" t="s">
         <v>47</v>
       </c>
@@ -3921,25 +3946,25 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="66" t="s">
+      <c r="C3" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="67"/>
-      <c r="E3" s="66" t="s">
+      <c r="D3" s="85"/>
+      <c r="E3" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="67"/>
-      <c r="G3" s="66" t="s">
+      <c r="F3" s="85"/>
+      <c r="G3" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="67"/>
-      <c r="I3" s="66" t="s">
+      <c r="H3" s="85"/>
+      <c r="I3" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="67"/>
+      <c r="J3" s="85"/>
       <c r="K3" s="8">
         <v>0</v>
       </c>
@@ -3949,10 +3974,10 @@
       <c r="M3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="64" t="s">
+      <c r="N3" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="64" t="s">
+      <c r="O3" s="82" t="s">
         <v>15</v>
       </c>
       <c r="P3" s="8">
@@ -3964,42 +3989,42 @@
       <c r="R3" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="S3" s="93">
+      <c r="S3" s="66">
         <v>0</v>
       </c>
-      <c r="T3" s="95">
+      <c r="T3" s="69">
         <v>255</v>
       </c>
-      <c r="U3" s="97" t="s">
+      <c r="U3" s="72" t="s">
         <v>46</v>
       </c>
       <c r="V3" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="W3" s="64" t="s">
+      <c r="W3" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="X3" s="64" t="s">
+      <c r="X3" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="Y3" s="64" t="s">
+      <c r="Y3" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="Z3" s="64" t="s">
+      <c r="Z3" s="82" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
-      <c r="B4" s="65"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="69"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="87"/>
       <c r="K4" s="13">
         <v>11</v>
       </c>
@@ -4009,8 +4034,8 @@
       <c r="M4" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="N4" s="65"/>
-      <c r="O4" s="65"/>
+      <c r="N4" s="83"/>
+      <c r="O4" s="83"/>
       <c r="P4" s="13">
         <v>11</v>
       </c>
@@ -4020,26 +4045,26 @@
       <c r="R4" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="S4" s="72"/>
-      <c r="T4" s="75"/>
-      <c r="U4" s="98"/>
+      <c r="S4" s="67"/>
+      <c r="T4" s="70"/>
+      <c r="U4" s="52"/>
       <c r="V4" s="91"/>
-      <c r="W4" s="65"/>
-      <c r="X4" s="65"/>
-      <c r="Y4" s="65"/>
-      <c r="Z4" s="65"/>
+      <c r="W4" s="83"/>
+      <c r="X4" s="83"/>
+      <c r="Y4" s="83"/>
+      <c r="Z4" s="83"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
-      <c r="B5" s="65"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="68"/>
-      <c r="J5" s="69"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="86"/>
+      <c r="J5" s="87"/>
       <c r="K5" s="13">
         <v>21</v>
       </c>
@@ -4049,8 +4074,8 @@
       <c r="M5" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="N5" s="65"/>
-      <c r="O5" s="65"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="83"/>
       <c r="P5" s="13">
         <v>21</v>
       </c>
@@ -4060,26 +4085,26 @@
       <c r="R5" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="S5" s="72"/>
-      <c r="T5" s="75"/>
-      <c r="U5" s="98"/>
+      <c r="S5" s="67"/>
+      <c r="T5" s="70"/>
+      <c r="U5" s="52"/>
       <c r="V5" s="91"/>
-      <c r="W5" s="65"/>
-      <c r="X5" s="65"/>
-      <c r="Y5" s="65"/>
-      <c r="Z5" s="65"/>
+      <c r="W5" s="83"/>
+      <c r="X5" s="83"/>
+      <c r="Y5" s="83"/>
+      <c r="Z5" s="83"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
-      <c r="B6" s="65"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="68"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="68"/>
-      <c r="J6" s="69"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="86"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="87"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="87"/>
       <c r="K6" s="13">
         <v>31</v>
       </c>
@@ -4089,37 +4114,37 @@
       <c r="M6" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="N6" s="65"/>
-      <c r="O6" s="65"/>
-      <c r="P6" s="71">
+      <c r="N6" s="83"/>
+      <c r="O6" s="83"/>
+      <c r="P6" s="76">
         <v>31</v>
       </c>
-      <c r="Q6" s="74">
+      <c r="Q6" s="78">
         <v>110</v>
       </c>
-      <c r="R6" s="100" t="s">
+      <c r="R6" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="S6" s="72"/>
-      <c r="T6" s="75"/>
-      <c r="U6" s="98"/>
+      <c r="S6" s="67"/>
+      <c r="T6" s="70"/>
+      <c r="U6" s="52"/>
       <c r="V6" s="91"/>
-      <c r="W6" s="65"/>
-      <c r="X6" s="65"/>
-      <c r="Y6" s="65"/>
-      <c r="Z6" s="65"/>
+      <c r="W6" s="83"/>
+      <c r="X6" s="83"/>
+      <c r="Y6" s="83"/>
+      <c r="Z6" s="83"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
-      <c r="B7" s="65"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="69"/>
+      <c r="B7" s="83"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="87"/>
+      <c r="I7" s="86"/>
+      <c r="J7" s="87"/>
       <c r="K7" s="13">
         <v>41</v>
       </c>
@@ -4129,31 +4154,31 @@
       <c r="M7" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="N7" s="65"/>
-      <c r="O7" s="65"/>
-      <c r="P7" s="72"/>
-      <c r="Q7" s="75"/>
-      <c r="R7" s="101"/>
-      <c r="S7" s="72"/>
-      <c r="T7" s="75"/>
-      <c r="U7" s="98"/>
+      <c r="N7" s="83"/>
+      <c r="O7" s="83"/>
+      <c r="P7" s="67"/>
+      <c r="Q7" s="70"/>
+      <c r="R7" s="74"/>
+      <c r="S7" s="67"/>
+      <c r="T7" s="70"/>
+      <c r="U7" s="52"/>
       <c r="V7" s="91"/>
-      <c r="W7" s="65"/>
-      <c r="X7" s="65"/>
-      <c r="Y7" s="65"/>
-      <c r="Z7" s="65"/>
+      <c r="W7" s="83"/>
+      <c r="X7" s="83"/>
+      <c r="Y7" s="83"/>
+      <c r="Z7" s="83"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
-      <c r="B8" s="65"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="68"/>
-      <c r="J8" s="69"/>
+      <c r="B8" s="83"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="87"/>
+      <c r="G8" s="86"/>
+      <c r="H8" s="87"/>
+      <c r="I8" s="86"/>
+      <c r="J8" s="87"/>
       <c r="K8" s="13">
         <v>51</v>
       </c>
@@ -4163,31 +4188,31 @@
       <c r="M8" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="N8" s="65"/>
-      <c r="O8" s="65"/>
-      <c r="P8" s="72"/>
-      <c r="Q8" s="75"/>
-      <c r="R8" s="101"/>
-      <c r="S8" s="72"/>
-      <c r="T8" s="75"/>
-      <c r="U8" s="98"/>
+      <c r="N8" s="83"/>
+      <c r="O8" s="83"/>
+      <c r="P8" s="67"/>
+      <c r="Q8" s="70"/>
+      <c r="R8" s="74"/>
+      <c r="S8" s="67"/>
+      <c r="T8" s="70"/>
+      <c r="U8" s="52"/>
       <c r="V8" s="91"/>
-      <c r="W8" s="65"/>
-      <c r="X8" s="65"/>
-      <c r="Y8" s="65"/>
-      <c r="Z8" s="65"/>
+      <c r="W8" s="83"/>
+      <c r="X8" s="83"/>
+      <c r="Y8" s="83"/>
+      <c r="Z8" s="83"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
-      <c r="B9" s="65"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="68"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="68"/>
-      <c r="J9" s="69"/>
+      <c r="B9" s="83"/>
+      <c r="C9" s="86"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="86"/>
+      <c r="F9" s="87"/>
+      <c r="G9" s="86"/>
+      <c r="H9" s="87"/>
+      <c r="I9" s="86"/>
+      <c r="J9" s="87"/>
       <c r="K9" s="13">
         <v>61</v>
       </c>
@@ -4197,31 +4222,31 @@
       <c r="M9" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="N9" s="65"/>
-      <c r="O9" s="65"/>
-      <c r="P9" s="72"/>
-      <c r="Q9" s="75"/>
-      <c r="R9" s="101"/>
-      <c r="S9" s="72"/>
-      <c r="T9" s="75"/>
-      <c r="U9" s="98"/>
+      <c r="N9" s="83"/>
+      <c r="O9" s="83"/>
+      <c r="P9" s="67"/>
+      <c r="Q9" s="70"/>
+      <c r="R9" s="74"/>
+      <c r="S9" s="67"/>
+      <c r="T9" s="70"/>
+      <c r="U9" s="52"/>
       <c r="V9" s="91"/>
-      <c r="W9" s="65"/>
-      <c r="X9" s="65"/>
-      <c r="Y9" s="65"/>
-      <c r="Z9" s="65"/>
+      <c r="W9" s="83"/>
+      <c r="X9" s="83"/>
+      <c r="Y9" s="83"/>
+      <c r="Z9" s="83"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
-      <c r="B10" s="65"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="68"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="68"/>
-      <c r="J10" s="69"/>
+      <c r="B10" s="83"/>
+      <c r="C10" s="86"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="86"/>
+      <c r="F10" s="87"/>
+      <c r="G10" s="86"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="86"/>
+      <c r="J10" s="87"/>
       <c r="K10" s="13">
         <v>71</v>
       </c>
@@ -4231,31 +4256,31 @@
       <c r="M10" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="N10" s="65"/>
-      <c r="O10" s="65"/>
-      <c r="P10" s="72"/>
-      <c r="Q10" s="75"/>
-      <c r="R10" s="101"/>
-      <c r="S10" s="72"/>
-      <c r="T10" s="75"/>
-      <c r="U10" s="98"/>
+      <c r="N10" s="83"/>
+      <c r="O10" s="83"/>
+      <c r="P10" s="67"/>
+      <c r="Q10" s="70"/>
+      <c r="R10" s="74"/>
+      <c r="S10" s="67"/>
+      <c r="T10" s="70"/>
+      <c r="U10" s="52"/>
       <c r="V10" s="91"/>
-      <c r="W10" s="65"/>
-      <c r="X10" s="65"/>
-      <c r="Y10" s="65"/>
-      <c r="Z10" s="65"/>
+      <c r="W10" s="83"/>
+      <c r="X10" s="83"/>
+      <c r="Y10" s="83"/>
+      <c r="Z10" s="83"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
-      <c r="B11" s="65"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="69"/>
-      <c r="G11" s="68"/>
-      <c r="H11" s="69"/>
-      <c r="I11" s="68"/>
-      <c r="J11" s="69"/>
+      <c r="B11" s="83"/>
+      <c r="C11" s="86"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="86"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="86"/>
+      <c r="H11" s="87"/>
+      <c r="I11" s="86"/>
+      <c r="J11" s="87"/>
       <c r="K11" s="13">
         <v>81</v>
       </c>
@@ -4265,31 +4290,31 @@
       <c r="M11" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="N11" s="65"/>
-      <c r="O11" s="65"/>
-      <c r="P11" s="72"/>
-      <c r="Q11" s="75"/>
-      <c r="R11" s="101"/>
-      <c r="S11" s="72"/>
-      <c r="T11" s="75"/>
-      <c r="U11" s="98"/>
+      <c r="N11" s="83"/>
+      <c r="O11" s="83"/>
+      <c r="P11" s="67"/>
+      <c r="Q11" s="70"/>
+      <c r="R11" s="74"/>
+      <c r="S11" s="67"/>
+      <c r="T11" s="70"/>
+      <c r="U11" s="52"/>
       <c r="V11" s="91"/>
-      <c r="W11" s="65"/>
-      <c r="X11" s="65"/>
-      <c r="Y11" s="65"/>
-      <c r="Z11" s="65"/>
+      <c r="W11" s="83"/>
+      <c r="X11" s="83"/>
+      <c r="Y11" s="83"/>
+      <c r="Z11" s="83"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
-      <c r="B12" s="65"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="68"/>
-      <c r="J12" s="69"/>
+      <c r="B12" s="83"/>
+      <c r="C12" s="86"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="86"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="86"/>
+      <c r="H12" s="87"/>
+      <c r="I12" s="86"/>
+      <c r="J12" s="87"/>
       <c r="K12" s="13">
         <v>91</v>
       </c>
@@ -4297,31 +4322,31 @@
         <v>100</v>
       </c>
       <c r="M12" s="15"/>
-      <c r="N12" s="65"/>
-      <c r="O12" s="65"/>
-      <c r="P12" s="72"/>
-      <c r="Q12" s="75"/>
-      <c r="R12" s="101"/>
-      <c r="S12" s="72"/>
-      <c r="T12" s="75"/>
-      <c r="U12" s="98"/>
+      <c r="N12" s="83"/>
+      <c r="O12" s="83"/>
+      <c r="P12" s="67"/>
+      <c r="Q12" s="70"/>
+      <c r="R12" s="74"/>
+      <c r="S12" s="67"/>
+      <c r="T12" s="70"/>
+      <c r="U12" s="52"/>
       <c r="V12" s="91"/>
-      <c r="W12" s="65"/>
-      <c r="X12" s="65"/>
-      <c r="Y12" s="65"/>
-      <c r="Z12" s="65"/>
+      <c r="W12" s="83"/>
+      <c r="X12" s="83"/>
+      <c r="Y12" s="83"/>
+      <c r="Z12" s="83"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
-      <c r="B13" s="65"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="68"/>
-      <c r="H13" s="69"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="69"/>
+      <c r="B13" s="83"/>
+      <c r="C13" s="86"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="86"/>
+      <c r="H13" s="87"/>
+      <c r="I13" s="86"/>
+      <c r="J13" s="87"/>
       <c r="K13" s="13">
         <v>101</v>
       </c>
@@ -4329,31 +4354,31 @@
         <v>110</v>
       </c>
       <c r="M13" s="15"/>
-      <c r="N13" s="65"/>
-      <c r="O13" s="65"/>
-      <c r="P13" s="73"/>
-      <c r="Q13" s="76"/>
-      <c r="R13" s="102"/>
-      <c r="S13" s="72"/>
-      <c r="T13" s="75"/>
-      <c r="U13" s="98"/>
+      <c r="N13" s="83"/>
+      <c r="O13" s="83"/>
+      <c r="P13" s="77"/>
+      <c r="Q13" s="79"/>
+      <c r="R13" s="75"/>
+      <c r="S13" s="67"/>
+      <c r="T13" s="70"/>
+      <c r="U13" s="52"/>
       <c r="V13" s="91"/>
-      <c r="W13" s="65"/>
-      <c r="X13" s="65"/>
-      <c r="Y13" s="65"/>
-      <c r="Z13" s="65"/>
+      <c r="W13" s="83"/>
+      <c r="X13" s="83"/>
+      <c r="Y13" s="83"/>
+      <c r="Z13" s="83"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
-      <c r="B14" s="65"/>
-      <c r="C14" s="68"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="68"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="68"/>
-      <c r="J14" s="69"/>
+      <c r="B14" s="83"/>
+      <c r="C14" s="86"/>
+      <c r="D14" s="87"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="87"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="87"/>
+      <c r="I14" s="86"/>
+      <c r="J14" s="87"/>
       <c r="K14" s="13">
         <v>111</v>
       </c>
@@ -4361,8 +4386,8 @@
         <v>120</v>
       </c>
       <c r="M14" s="15"/>
-      <c r="N14" s="65"/>
-      <c r="O14" s="65"/>
+      <c r="N14" s="83"/>
+      <c r="O14" s="83"/>
       <c r="P14" s="13">
         <v>111</v>
       </c>
@@ -4372,26 +4397,26 @@
       <c r="R14" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="S14" s="72"/>
-      <c r="T14" s="75"/>
-      <c r="U14" s="98"/>
+      <c r="S14" s="67"/>
+      <c r="T14" s="70"/>
+      <c r="U14" s="52"/>
       <c r="V14" s="91"/>
-      <c r="W14" s="65"/>
-      <c r="X14" s="65"/>
-      <c r="Y14" s="65"/>
-      <c r="Z14" s="65"/>
+      <c r="W14" s="83"/>
+      <c r="X14" s="83"/>
+      <c r="Y14" s="83"/>
+      <c r="Z14" s="83"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
-      <c r="B15" s="65"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="68"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="69"/>
+      <c r="B15" s="83"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="87"/>
+      <c r="G15" s="86"/>
+      <c r="H15" s="87"/>
+      <c r="I15" s="86"/>
+      <c r="J15" s="87"/>
       <c r="K15" s="13">
         <v>120.833333333333</v>
       </c>
@@ -4399,37 +4424,37 @@
         <v>130</v>
       </c>
       <c r="M15" s="15"/>
-      <c r="N15" s="65"/>
-      <c r="O15" s="65"/>
-      <c r="P15" s="71">
+      <c r="N15" s="83"/>
+      <c r="O15" s="83"/>
+      <c r="P15" s="76">
         <v>120.833333333333</v>
       </c>
-      <c r="Q15" s="74">
+      <c r="Q15" s="78">
         <v>200</v>
       </c>
-      <c r="R15" s="103" t="s">
+      <c r="R15" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="S15" s="72"/>
-      <c r="T15" s="75"/>
-      <c r="U15" s="98"/>
+      <c r="S15" s="67"/>
+      <c r="T15" s="70"/>
+      <c r="U15" s="52"/>
       <c r="V15" s="91"/>
-      <c r="W15" s="65"/>
-      <c r="X15" s="65"/>
-      <c r="Y15" s="65"/>
-      <c r="Z15" s="65"/>
+      <c r="W15" s="83"/>
+      <c r="X15" s="83"/>
+      <c r="Y15" s="83"/>
+      <c r="Z15" s="83"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
-      <c r="B16" s="65"/>
-      <c r="C16" s="68"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="68"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="68"/>
-      <c r="J16" s="69"/>
+      <c r="B16" s="83"/>
+      <c r="C16" s="86"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="86"/>
+      <c r="F16" s="87"/>
+      <c r="G16" s="86"/>
+      <c r="H16" s="87"/>
+      <c r="I16" s="86"/>
+      <c r="J16" s="87"/>
       <c r="K16" s="13">
         <v>131</v>
       </c>
@@ -4437,31 +4462,31 @@
         <v>140</v>
       </c>
       <c r="M16" s="15"/>
-      <c r="N16" s="65"/>
-      <c r="O16" s="65"/>
-      <c r="P16" s="72"/>
-      <c r="Q16" s="75"/>
-      <c r="R16" s="98"/>
-      <c r="S16" s="72"/>
-      <c r="T16" s="75"/>
-      <c r="U16" s="98"/>
+      <c r="N16" s="83"/>
+      <c r="O16" s="83"/>
+      <c r="P16" s="67"/>
+      <c r="Q16" s="70"/>
+      <c r="R16" s="52"/>
+      <c r="S16" s="67"/>
+      <c r="T16" s="70"/>
+      <c r="U16" s="52"/>
       <c r="V16" s="91"/>
-      <c r="W16" s="65"/>
-      <c r="X16" s="65"/>
-      <c r="Y16" s="65"/>
-      <c r="Z16" s="65"/>
+      <c r="W16" s="83"/>
+      <c r="X16" s="83"/>
+      <c r="Y16" s="83"/>
+      <c r="Z16" s="83"/>
     </row>
     <row r="17" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12"/>
-      <c r="B17" s="65"/>
-      <c r="C17" s="68"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="68"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="68"/>
-      <c r="H17" s="69"/>
-      <c r="I17" s="68"/>
-      <c r="J17" s="69"/>
+      <c r="B17" s="83"/>
+      <c r="C17" s="86"/>
+      <c r="D17" s="87"/>
+      <c r="E17" s="86"/>
+      <c r="F17" s="87"/>
+      <c r="G17" s="86"/>
+      <c r="H17" s="87"/>
+      <c r="I17" s="86"/>
+      <c r="J17" s="87"/>
       <c r="K17" s="13">
         <v>141</v>
       </c>
@@ -4469,31 +4494,31 @@
         <v>150</v>
       </c>
       <c r="M17" s="15"/>
-      <c r="N17" s="70"/>
-      <c r="O17" s="70"/>
-      <c r="P17" s="72"/>
-      <c r="Q17" s="75"/>
-      <c r="R17" s="98"/>
-      <c r="S17" s="72"/>
-      <c r="T17" s="75"/>
-      <c r="U17" s="98"/>
+      <c r="N17" s="88"/>
+      <c r="O17" s="88"/>
+      <c r="P17" s="67"/>
+      <c r="Q17" s="70"/>
+      <c r="R17" s="52"/>
+      <c r="S17" s="67"/>
+      <c r="T17" s="70"/>
+      <c r="U17" s="52"/>
       <c r="V17" s="92"/>
-      <c r="W17" s="77"/>
-      <c r="X17" s="77"/>
-      <c r="Y17" s="77"/>
-      <c r="Z17" s="77"/>
+      <c r="W17" s="89"/>
+      <c r="X17" s="89"/>
+      <c r="Y17" s="89"/>
+      <c r="Z17" s="89"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="28"/>
       <c r="B18" s="32"/>
-      <c r="C18" s="80"/>
-      <c r="D18" s="81"/>
-      <c r="E18" s="80"/>
-      <c r="F18" s="81"/>
-      <c r="G18" s="80"/>
-      <c r="H18" s="86"/>
-      <c r="I18" s="80"/>
-      <c r="J18" s="86"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="62"/>
       <c r="K18" s="13">
         <v>150.833333333333</v>
       </c>
@@ -4502,30 +4527,30 @@
       </c>
       <c r="M18" s="15"/>
       <c r="N18" s="16"/>
-      <c r="O18" s="89"/>
-      <c r="P18" s="72"/>
-      <c r="Q18" s="75"/>
-      <c r="R18" s="98"/>
-      <c r="S18" s="72"/>
-      <c r="T18" s="75"/>
-      <c r="U18" s="98"/>
+      <c r="O18" s="65"/>
+      <c r="P18" s="67"/>
+      <c r="Q18" s="70"/>
+      <c r="R18" s="52"/>
+      <c r="S18" s="67"/>
+      <c r="T18" s="70"/>
+      <c r="U18" s="52"/>
       <c r="V18" s="42"/>
-      <c r="W18" s="78"/>
-      <c r="X18" s="78"/>
-      <c r="Y18" s="78"/>
-      <c r="Z18" s="78"/>
+      <c r="W18" s="54"/>
+      <c r="X18" s="54"/>
+      <c r="Y18" s="54"/>
+      <c r="Z18" s="54"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="28"/>
       <c r="B19" s="33"/>
-      <c r="C19" s="82"/>
-      <c r="D19" s="83"/>
-      <c r="E19" s="82"/>
-      <c r="F19" s="83"/>
-      <c r="G19" s="82"/>
-      <c r="H19" s="87"/>
-      <c r="I19" s="82"/>
-      <c r="J19" s="87"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="63"/>
       <c r="K19" s="13">
         <v>161</v>
       </c>
@@ -4534,30 +4559,30 @@
       </c>
       <c r="M19" s="15"/>
       <c r="N19" s="16"/>
-      <c r="O19" s="78"/>
-      <c r="P19" s="72"/>
-      <c r="Q19" s="75"/>
-      <c r="R19" s="98"/>
-      <c r="S19" s="72"/>
-      <c r="T19" s="75"/>
-      <c r="U19" s="98"/>
+      <c r="O19" s="54"/>
+      <c r="P19" s="67"/>
+      <c r="Q19" s="70"/>
+      <c r="R19" s="52"/>
+      <c r="S19" s="67"/>
+      <c r="T19" s="70"/>
+      <c r="U19" s="52"/>
       <c r="V19" s="42"/>
-      <c r="W19" s="78"/>
-      <c r="X19" s="78"/>
-      <c r="Y19" s="78"/>
-      <c r="Z19" s="78"/>
+      <c r="W19" s="54"/>
+      <c r="X19" s="54"/>
+      <c r="Y19" s="54"/>
+      <c r="Z19" s="54"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="28"/>
       <c r="B20" s="33"/>
-      <c r="C20" s="82"/>
-      <c r="D20" s="83"/>
-      <c r="E20" s="82"/>
-      <c r="F20" s="83"/>
-      <c r="G20" s="82"/>
-      <c r="H20" s="87"/>
-      <c r="I20" s="82"/>
-      <c r="J20" s="87"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="63"/>
       <c r="K20" s="13">
         <v>171</v>
       </c>
@@ -4566,30 +4591,30 @@
       </c>
       <c r="M20" s="15"/>
       <c r="N20" s="16"/>
-      <c r="O20" s="78"/>
-      <c r="P20" s="72"/>
-      <c r="Q20" s="75"/>
-      <c r="R20" s="98"/>
-      <c r="S20" s="72"/>
-      <c r="T20" s="75"/>
-      <c r="U20" s="98"/>
+      <c r="O20" s="54"/>
+      <c r="P20" s="67"/>
+      <c r="Q20" s="70"/>
+      <c r="R20" s="52"/>
+      <c r="S20" s="67"/>
+      <c r="T20" s="70"/>
+      <c r="U20" s="52"/>
       <c r="V20" s="42"/>
-      <c r="W20" s="78"/>
-      <c r="X20" s="78"/>
-      <c r="Y20" s="78"/>
-      <c r="Z20" s="78"/>
+      <c r="W20" s="54"/>
+      <c r="X20" s="54"/>
+      <c r="Y20" s="54"/>
+      <c r="Z20" s="54"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="28"/>
       <c r="B21" s="33"/>
-      <c r="C21" s="82"/>
-      <c r="D21" s="83"/>
-      <c r="E21" s="82"/>
-      <c r="F21" s="83"/>
-      <c r="G21" s="82"/>
-      <c r="H21" s="87"/>
-      <c r="I21" s="82"/>
-      <c r="J21" s="87"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="58"/>
+      <c r="J21" s="63"/>
       <c r="K21" s="13">
         <v>181</v>
       </c>
@@ -4598,30 +4623,30 @@
       </c>
       <c r="M21" s="15"/>
       <c r="N21" s="16"/>
-      <c r="O21" s="78"/>
-      <c r="P21" s="72"/>
-      <c r="Q21" s="75"/>
-      <c r="R21" s="98"/>
-      <c r="S21" s="72"/>
-      <c r="T21" s="75"/>
-      <c r="U21" s="98"/>
+      <c r="O21" s="54"/>
+      <c r="P21" s="67"/>
+      <c r="Q21" s="70"/>
+      <c r="R21" s="52"/>
+      <c r="S21" s="67"/>
+      <c r="T21" s="70"/>
+      <c r="U21" s="52"/>
       <c r="V21" s="42"/>
-      <c r="W21" s="78"/>
-      <c r="X21" s="78"/>
-      <c r="Y21" s="78"/>
-      <c r="Z21" s="78"/>
+      <c r="W21" s="54"/>
+      <c r="X21" s="54"/>
+      <c r="Y21" s="54"/>
+      <c r="Z21" s="54"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="28"/>
       <c r="B22" s="33"/>
-      <c r="C22" s="82"/>
-      <c r="D22" s="83"/>
-      <c r="E22" s="82"/>
-      <c r="F22" s="83"/>
-      <c r="G22" s="82"/>
-      <c r="H22" s="87"/>
-      <c r="I22" s="82"/>
-      <c r="J22" s="87"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="58"/>
+      <c r="J22" s="63"/>
       <c r="K22" s="13">
         <v>191</v>
       </c>
@@ -4630,30 +4655,30 @@
       </c>
       <c r="M22" s="15"/>
       <c r="N22" s="16"/>
-      <c r="O22" s="78"/>
-      <c r="P22" s="73"/>
-      <c r="Q22" s="76"/>
-      <c r="R22" s="104"/>
-      <c r="S22" s="72"/>
-      <c r="T22" s="75"/>
-      <c r="U22" s="98"/>
+      <c r="O22" s="54"/>
+      <c r="P22" s="77"/>
+      <c r="Q22" s="79"/>
+      <c r="R22" s="80"/>
+      <c r="S22" s="67"/>
+      <c r="T22" s="70"/>
+      <c r="U22" s="52"/>
       <c r="V22" s="42"/>
-      <c r="W22" s="78"/>
-      <c r="X22" s="78"/>
-      <c r="Y22" s="78"/>
-      <c r="Z22" s="78"/>
+      <c r="W22" s="54"/>
+      <c r="X22" s="54"/>
+      <c r="Y22" s="54"/>
+      <c r="Z22" s="54"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="28"/>
       <c r="B23" s="33"/>
-      <c r="C23" s="82"/>
-      <c r="D23" s="83"/>
-      <c r="E23" s="82"/>
-      <c r="F23" s="83"/>
-      <c r="G23" s="82"/>
-      <c r="H23" s="87"/>
-      <c r="I23" s="82"/>
-      <c r="J23" s="87"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="63"/>
+      <c r="I23" s="58"/>
+      <c r="J23" s="63"/>
       <c r="K23" s="13">
         <v>201</v>
       </c>
@@ -4662,36 +4687,36 @@
       </c>
       <c r="M23" s="15"/>
       <c r="N23" s="16"/>
-      <c r="O23" s="78"/>
-      <c r="P23" s="71">
+      <c r="O23" s="54"/>
+      <c r="P23" s="76">
         <v>201</v>
       </c>
-      <c r="Q23" s="74">
+      <c r="Q23" s="78">
         <v>255</v>
       </c>
-      <c r="R23" s="103" t="s">
+      <c r="R23" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="S23" s="72"/>
-      <c r="T23" s="75"/>
-      <c r="U23" s="98"/>
+      <c r="S23" s="67"/>
+      <c r="T23" s="70"/>
+      <c r="U23" s="52"/>
       <c r="V23" s="42"/>
-      <c r="W23" s="78"/>
-      <c r="X23" s="78"/>
-      <c r="Y23" s="78"/>
-      <c r="Z23" s="78"/>
+      <c r="W23" s="54"/>
+      <c r="X23" s="54"/>
+      <c r="Y23" s="54"/>
+      <c r="Z23" s="54"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="28"/>
       <c r="B24" s="33"/>
-      <c r="C24" s="82"/>
-      <c r="D24" s="83"/>
-      <c r="E24" s="82"/>
-      <c r="F24" s="83"/>
-      <c r="G24" s="82"/>
-      <c r="H24" s="87"/>
-      <c r="I24" s="82"/>
-      <c r="J24" s="87"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="58"/>
+      <c r="J24" s="63"/>
       <c r="K24" s="13">
         <v>210</v>
       </c>
@@ -4700,30 +4725,30 @@
       </c>
       <c r="M24" s="15"/>
       <c r="N24" s="16"/>
-      <c r="O24" s="78"/>
-      <c r="P24" s="72"/>
-      <c r="Q24" s="75"/>
-      <c r="R24" s="98"/>
-      <c r="S24" s="72"/>
-      <c r="T24" s="75"/>
-      <c r="U24" s="98"/>
+      <c r="O24" s="54"/>
+      <c r="P24" s="67"/>
+      <c r="Q24" s="70"/>
+      <c r="R24" s="52"/>
+      <c r="S24" s="67"/>
+      <c r="T24" s="70"/>
+      <c r="U24" s="52"/>
       <c r="V24" s="42"/>
-      <c r="W24" s="78"/>
-      <c r="X24" s="78"/>
-      <c r="Y24" s="78"/>
-      <c r="Z24" s="78"/>
+      <c r="W24" s="54"/>
+      <c r="X24" s="54"/>
+      <c r="Y24" s="54"/>
+      <c r="Z24" s="54"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="28"/>
       <c r="B25" s="33"/>
-      <c r="C25" s="82"/>
-      <c r="D25" s="83"/>
-      <c r="E25" s="82"/>
-      <c r="F25" s="83"/>
-      <c r="G25" s="82"/>
-      <c r="H25" s="87"/>
-      <c r="I25" s="82"/>
-      <c r="J25" s="87"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="58"/>
+      <c r="J25" s="63"/>
       <c r="K25" s="13">
         <v>221</v>
       </c>
@@ -4732,30 +4757,30 @@
       </c>
       <c r="M25" s="15"/>
       <c r="N25" s="16"/>
-      <c r="O25" s="78"/>
-      <c r="P25" s="72"/>
-      <c r="Q25" s="75"/>
-      <c r="R25" s="98"/>
-      <c r="S25" s="72"/>
-      <c r="T25" s="75"/>
-      <c r="U25" s="98"/>
+      <c r="O25" s="54"/>
+      <c r="P25" s="67"/>
+      <c r="Q25" s="70"/>
+      <c r="R25" s="52"/>
+      <c r="S25" s="67"/>
+      <c r="T25" s="70"/>
+      <c r="U25" s="52"/>
       <c r="V25" s="42"/>
-      <c r="W25" s="78"/>
-      <c r="X25" s="78"/>
-      <c r="Y25" s="78"/>
-      <c r="Z25" s="78"/>
+      <c r="W25" s="54"/>
+      <c r="X25" s="54"/>
+      <c r="Y25" s="54"/>
+      <c r="Z25" s="54"/>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="28"/>
       <c r="B26" s="33"/>
-      <c r="C26" s="82"/>
-      <c r="D26" s="83"/>
-      <c r="E26" s="82"/>
-      <c r="F26" s="83"/>
-      <c r="G26" s="82"/>
-      <c r="H26" s="87"/>
-      <c r="I26" s="82"/>
-      <c r="J26" s="87"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="58"/>
+      <c r="J26" s="63"/>
       <c r="K26" s="13">
         <v>231</v>
       </c>
@@ -4764,30 +4789,30 @@
       </c>
       <c r="M26" s="15"/>
       <c r="N26" s="16"/>
-      <c r="O26" s="78"/>
-      <c r="P26" s="72"/>
-      <c r="Q26" s="75"/>
-      <c r="R26" s="98"/>
-      <c r="S26" s="72"/>
-      <c r="T26" s="75"/>
-      <c r="U26" s="98"/>
+      <c r="O26" s="54"/>
+      <c r="P26" s="67"/>
+      <c r="Q26" s="70"/>
+      <c r="R26" s="52"/>
+      <c r="S26" s="67"/>
+      <c r="T26" s="70"/>
+      <c r="U26" s="52"/>
       <c r="V26" s="42"/>
-      <c r="W26" s="78"/>
-      <c r="X26" s="78"/>
-      <c r="Y26" s="78"/>
-      <c r="Z26" s="78"/>
+      <c r="W26" s="54"/>
+      <c r="X26" s="54"/>
+      <c r="Y26" s="54"/>
+      <c r="Z26" s="54"/>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="28"/>
       <c r="B27" s="33"/>
-      <c r="C27" s="82"/>
-      <c r="D27" s="83"/>
-      <c r="E27" s="82"/>
-      <c r="F27" s="83"/>
-      <c r="G27" s="82"/>
-      <c r="H27" s="87"/>
-      <c r="I27" s="82"/>
-      <c r="J27" s="87"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="58"/>
+      <c r="J27" s="63"/>
       <c r="K27" s="13">
         <v>241</v>
       </c>
@@ -4796,30 +4821,30 @@
       </c>
       <c r="M27" s="15"/>
       <c r="N27" s="16"/>
-      <c r="O27" s="78"/>
-      <c r="P27" s="72"/>
-      <c r="Q27" s="75"/>
-      <c r="R27" s="98"/>
-      <c r="S27" s="72"/>
-      <c r="T27" s="75"/>
-      <c r="U27" s="98"/>
+      <c r="O27" s="54"/>
+      <c r="P27" s="67"/>
+      <c r="Q27" s="70"/>
+      <c r="R27" s="52"/>
+      <c r="S27" s="67"/>
+      <c r="T27" s="70"/>
+      <c r="U27" s="52"/>
       <c r="V27" s="42"/>
-      <c r="W27" s="78"/>
-      <c r="X27" s="78"/>
-      <c r="Y27" s="78"/>
-      <c r="Z27" s="78"/>
+      <c r="W27" s="54"/>
+      <c r="X27" s="54"/>
+      <c r="Y27" s="54"/>
+      <c r="Z27" s="54"/>
     </row>
     <row r="28" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="29"/>
       <c r="B28" s="34"/>
-      <c r="C28" s="84"/>
-      <c r="D28" s="85"/>
-      <c r="E28" s="84"/>
-      <c r="F28" s="85"/>
-      <c r="G28" s="84"/>
-      <c r="H28" s="88"/>
-      <c r="I28" s="84"/>
-      <c r="J28" s="88"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="60"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="60"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="60"/>
+      <c r="J28" s="64"/>
       <c r="K28" s="18">
         <v>251</v>
       </c>
@@ -4828,33 +4853,40 @@
       </c>
       <c r="M28" s="20"/>
       <c r="N28" s="21"/>
-      <c r="O28" s="79"/>
-      <c r="P28" s="94"/>
-      <c r="Q28" s="96"/>
-      <c r="R28" s="99"/>
-      <c r="S28" s="94"/>
-      <c r="T28" s="96"/>
-      <c r="U28" s="99"/>
+      <c r="O28" s="55"/>
+      <c r="P28" s="68"/>
+      <c r="Q28" s="71"/>
+      <c r="R28" s="53"/>
+      <c r="S28" s="68"/>
+      <c r="T28" s="71"/>
+      <c r="U28" s="53"/>
       <c r="V28" s="43"/>
-      <c r="W28" s="79"/>
-      <c r="X28" s="79"/>
-      <c r="Y28" s="79"/>
-      <c r="Z28" s="79"/>
+      <c r="W28" s="55"/>
+      <c r="X28" s="55"/>
+      <c r="Y28" s="55"/>
+      <c r="Z28" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="S1:U1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:U2"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="Z3:Z17"/>
+    <mergeCell ref="Z18:Z28"/>
+    <mergeCell ref="C18:D28"/>
+    <mergeCell ref="E18:F28"/>
+    <mergeCell ref="G18:H28"/>
+    <mergeCell ref="O18:O28"/>
+    <mergeCell ref="W18:W28"/>
+    <mergeCell ref="X18:X28"/>
+    <mergeCell ref="P23:P28"/>
+    <mergeCell ref="Q23:Q28"/>
+    <mergeCell ref="R23:R28"/>
+    <mergeCell ref="I18:J28"/>
+    <mergeCell ref="Y3:Y17"/>
+    <mergeCell ref="P6:P13"/>
+    <mergeCell ref="P15:P22"/>
+    <mergeCell ref="Q15:Q22"/>
+    <mergeCell ref="R15:R22"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="I2:J2"/>
     <mergeCell ref="Y18:Y28"/>
     <mergeCell ref="B3:B17"/>
     <mergeCell ref="C3:D17"/>
@@ -4871,25 +4903,18 @@
     <mergeCell ref="X3:X17"/>
     <mergeCell ref="Q6:Q13"/>
     <mergeCell ref="R6:R13"/>
-    <mergeCell ref="P15:P22"/>
-    <mergeCell ref="Q15:Q22"/>
-    <mergeCell ref="R15:R22"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="Z3:Z17"/>
-    <mergeCell ref="Z18:Z28"/>
-    <mergeCell ref="C18:D28"/>
-    <mergeCell ref="E18:F28"/>
-    <mergeCell ref="G18:H28"/>
-    <mergeCell ref="O18:O28"/>
-    <mergeCell ref="W18:W28"/>
-    <mergeCell ref="X18:X28"/>
-    <mergeCell ref="P23:P28"/>
-    <mergeCell ref="Q23:Q28"/>
-    <mergeCell ref="R23:R28"/>
-    <mergeCell ref="I18:J28"/>
-    <mergeCell ref="Y3:Y17"/>
-    <mergeCell ref="P6:P13"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:U2"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4912,48 +4937,48 @@
       <c r="B1" s="44">
         <v>1</v>
       </c>
-      <c r="C1" s="59">
+      <c r="C1" s="105">
         <v>2</v>
       </c>
-      <c r="D1" s="60"/>
-      <c r="E1" s="59">
+      <c r="D1" s="106"/>
+      <c r="E1" s="105">
         <v>3</v>
       </c>
-      <c r="F1" s="60"/>
-      <c r="G1" s="59">
+      <c r="F1" s="106"/>
+      <c r="G1" s="105">
         <v>4</v>
       </c>
-      <c r="H1" s="60"/>
-      <c r="I1" s="59">
+      <c r="H1" s="106"/>
+      <c r="I1" s="105">
         <v>5</v>
       </c>
-      <c r="J1" s="60"/>
-      <c r="K1" s="46">
+      <c r="J1" s="106"/>
+      <c r="K1" s="93">
         <v>6</v>
       </c>
-      <c r="L1" s="61"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="62">
+      <c r="L1" s="107"/>
+      <c r="M1" s="95"/>
+      <c r="N1" s="108">
         <v>7</v>
       </c>
-      <c r="O1" s="47"/>
-      <c r="P1" s="48"/>
+      <c r="O1" s="94"/>
+      <c r="P1" s="95"/>
       <c r="Q1" s="44">
         <v>8</v>
       </c>
       <c r="R1" s="3">
         <v>9</v>
       </c>
-      <c r="S1" s="62">
+      <c r="S1" s="108">
         <v>10</v>
       </c>
-      <c r="T1" s="47"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="46">
+      <c r="T1" s="94"/>
+      <c r="U1" s="109"/>
+      <c r="V1" s="93">
         <v>11</v>
       </c>
-      <c r="W1" s="47"/>
-      <c r="X1" s="48"/>
+      <c r="W1" s="94"/>
+      <c r="X1" s="95"/>
       <c r="Y1" s="44">
         <v>12</v>
       </c>
@@ -4966,16 +4991,16 @@
       <c r="AB1" s="44">
         <v>15</v>
       </c>
-      <c r="AC1" s="46">
+      <c r="AC1" s="93">
         <v>16</v>
       </c>
-      <c r="AD1" s="47"/>
-      <c r="AE1" s="48"/>
-      <c r="AF1" s="62">
+      <c r="AD1" s="94"/>
+      <c r="AE1" s="95"/>
+      <c r="AF1" s="108">
         <v>17</v>
       </c>
-      <c r="AG1" s="47"/>
-      <c r="AH1" s="48"/>
+      <c r="AG1" s="94"/>
+      <c r="AH1" s="95"/>
     </row>
     <row r="2" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -4984,48 +5009,48 @@
       <c r="B2" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="51"/>
-      <c r="E2" s="52" t="s">
+      <c r="D2" s="97"/>
+      <c r="E2" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="51"/>
-      <c r="G2" s="50" t="s">
+      <c r="F2" s="97"/>
+      <c r="G2" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="51"/>
-      <c r="I2" s="50" t="s">
+      <c r="H2" s="97"/>
+      <c r="I2" s="96" t="s">
         <v>48</v>
       </c>
-      <c r="J2" s="51"/>
-      <c r="K2" s="53" t="s">
+      <c r="J2" s="97"/>
+      <c r="K2" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="54"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="56" t="s">
+      <c r="L2" s="100"/>
+      <c r="M2" s="101"/>
+      <c r="N2" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="57"/>
-      <c r="P2" s="55"/>
+      <c r="O2" s="103"/>
+      <c r="P2" s="101"/>
       <c r="Q2" s="45" t="s">
         <v>8</v>
       </c>
       <c r="R2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="56" t="s">
+      <c r="S2" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="T2" s="57"/>
-      <c r="U2" s="58"/>
-      <c r="V2" s="53" t="s">
+      <c r="T2" s="103"/>
+      <c r="U2" s="104"/>
+      <c r="V2" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="W2" s="57"/>
-      <c r="X2" s="55"/>
+      <c r="W2" s="103"/>
+      <c r="X2" s="101"/>
       <c r="Y2" s="45" t="s">
         <v>12</v>
       </c>
@@ -5038,38 +5063,38 @@
       <c r="AB2" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="AC2" s="53" t="s">
+      <c r="AC2" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="AD2" s="57"/>
-      <c r="AE2" s="55"/>
-      <c r="AF2" s="56" t="s">
+      <c r="AD2" s="103"/>
+      <c r="AE2" s="101"/>
+      <c r="AF2" s="102" t="s">
         <v>51</v>
       </c>
-      <c r="AG2" s="57"/>
-      <c r="AH2" s="55"/>
+      <c r="AG2" s="103"/>
+      <c r="AH2" s="101"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="66" t="s">
+      <c r="C3" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="67"/>
-      <c r="E3" s="66" t="s">
+      <c r="D3" s="85"/>
+      <c r="E3" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="67"/>
-      <c r="G3" s="66" t="s">
+      <c r="F3" s="85"/>
+      <c r="G3" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="67"/>
-      <c r="I3" s="66" t="s">
+      <c r="H3" s="85"/>
+      <c r="I3" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="67"/>
+      <c r="J3" s="85"/>
       <c r="K3" s="8">
         <v>0</v>
       </c>
@@ -5088,10 +5113,10 @@
       <c r="P3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="64" t="s">
+      <c r="Q3" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="R3" s="64" t="s">
+      <c r="R3" s="82" t="s">
         <v>15</v>
       </c>
       <c r="S3" s="8">
@@ -5103,25 +5128,25 @@
       <c r="U3" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="V3" s="93">
+      <c r="V3" s="66">
         <v>0</v>
       </c>
-      <c r="W3" s="95">
+      <c r="W3" s="69">
         <v>255</v>
       </c>
-      <c r="X3" s="97" t="s">
+      <c r="X3" s="72" t="s">
         <v>46</v>
       </c>
-      <c r="Y3" s="64" t="s">
+      <c r="Y3" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="Z3" s="64" t="s">
+      <c r="Z3" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="AA3" s="64" t="s">
+      <c r="AA3" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="AB3" s="64" t="s">
+      <c r="AB3" s="82" t="s">
         <v>15</v>
       </c>
       <c r="AC3" s="8">
@@ -5145,15 +5170,15 @@
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
-      <c r="B4" s="65"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="69"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="87"/>
       <c r="K4" s="13">
         <v>11</v>
       </c>
@@ -5172,8 +5197,8 @@
       <c r="P4" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="Q4" s="65"/>
-      <c r="R4" s="65"/>
+      <c r="Q4" s="83"/>
+      <c r="R4" s="83"/>
       <c r="S4" s="13">
         <v>11</v>
       </c>
@@ -5183,20 +5208,20 @@
       <c r="U4" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="V4" s="72"/>
-      <c r="W4" s="75"/>
-      <c r="X4" s="98"/>
-      <c r="Y4" s="65"/>
-      <c r="Z4" s="65"/>
-      <c r="AA4" s="65"/>
-      <c r="AB4" s="65"/>
-      <c r="AC4" s="105">
+      <c r="V4" s="67"/>
+      <c r="W4" s="70"/>
+      <c r="X4" s="52"/>
+      <c r="Y4" s="83"/>
+      <c r="Z4" s="83"/>
+      <c r="AA4" s="83"/>
+      <c r="AB4" s="83"/>
+      <c r="AC4" s="48">
         <v>11</v>
       </c>
-      <c r="AD4" s="106">
+      <c r="AD4" s="49">
         <v>20</v>
       </c>
-      <c r="AE4" s="107" t="s">
+      <c r="AE4" s="50" t="s">
         <v>54</v>
       </c>
       <c r="AF4" s="13">
@@ -5211,15 +5236,15 @@
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
-      <c r="B5" s="65"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="68"/>
-      <c r="J5" s="69"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="86"/>
+      <c r="J5" s="87"/>
       <c r="K5" s="13">
         <v>21</v>
       </c>
@@ -5238,8 +5263,8 @@
       <c r="P5" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
+      <c r="Q5" s="83"/>
+      <c r="R5" s="83"/>
       <c r="S5" s="13">
         <v>21</v>
       </c>
@@ -5249,20 +5274,20 @@
       <c r="U5" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="V5" s="72"/>
-      <c r="W5" s="75"/>
-      <c r="X5" s="98"/>
-      <c r="Y5" s="65"/>
-      <c r="Z5" s="65"/>
-      <c r="AA5" s="65"/>
-      <c r="AB5" s="65"/>
-      <c r="AC5" s="105">
+      <c r="V5" s="67"/>
+      <c r="W5" s="70"/>
+      <c r="X5" s="52"/>
+      <c r="Y5" s="83"/>
+      <c r="Z5" s="83"/>
+      <c r="AA5" s="83"/>
+      <c r="AB5" s="83"/>
+      <c r="AC5" s="48">
         <v>21</v>
       </c>
-      <c r="AD5" s="106">
+      <c r="AD5" s="49">
         <v>30</v>
       </c>
-      <c r="AE5" s="107" t="s">
+      <c r="AE5" s="50" t="s">
         <v>56</v>
       </c>
       <c r="AF5" s="13">
@@ -5277,15 +5302,15 @@
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
-      <c r="B6" s="65"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="68"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="68"/>
-      <c r="J6" s="69"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="86"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="87"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="87"/>
       <c r="K6" s="13">
         <v>31</v>
       </c>
@@ -5304,24 +5329,24 @@
       <c r="P6" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="Q6" s="65"/>
-      <c r="R6" s="65"/>
-      <c r="S6" s="71">
+      <c r="Q6" s="83"/>
+      <c r="R6" s="83"/>
+      <c r="S6" s="76">
         <v>31</v>
       </c>
-      <c r="T6" s="74">
+      <c r="T6" s="78">
         <v>110</v>
       </c>
-      <c r="U6" s="100" t="s">
+      <c r="U6" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="V6" s="72"/>
-      <c r="W6" s="75"/>
-      <c r="X6" s="98"/>
-      <c r="Y6" s="65"/>
-      <c r="Z6" s="65"/>
-      <c r="AA6" s="65"/>
-      <c r="AB6" s="65"/>
+      <c r="V6" s="67"/>
+      <c r="W6" s="70"/>
+      <c r="X6" s="52"/>
+      <c r="Y6" s="83"/>
+      <c r="Z6" s="83"/>
+      <c r="AA6" s="83"/>
+      <c r="AB6" s="83"/>
       <c r="AC6" s="13">
         <v>31</v>
       </c>
@@ -5341,15 +5366,15 @@
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
-      <c r="B7" s="65"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="69"/>
+      <c r="B7" s="83"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="87"/>
+      <c r="I7" s="86"/>
+      <c r="J7" s="87"/>
       <c r="K7" s="13">
         <v>41</v>
       </c>
@@ -5368,18 +5393,18 @@
       <c r="P7" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="Q7" s="65"/>
-      <c r="R7" s="65"/>
-      <c r="S7" s="72"/>
-      <c r="T7" s="75"/>
-      <c r="U7" s="101"/>
-      <c r="V7" s="72"/>
-      <c r="W7" s="75"/>
-      <c r="X7" s="98"/>
-      <c r="Y7" s="65"/>
-      <c r="Z7" s="65"/>
-      <c r="AA7" s="65"/>
-      <c r="AB7" s="65"/>
+      <c r="Q7" s="83"/>
+      <c r="R7" s="83"/>
+      <c r="S7" s="67"/>
+      <c r="T7" s="70"/>
+      <c r="U7" s="74"/>
+      <c r="V7" s="67"/>
+      <c r="W7" s="70"/>
+      <c r="X7" s="52"/>
+      <c r="Y7" s="83"/>
+      <c r="Z7" s="83"/>
+      <c r="AA7" s="83"/>
+      <c r="AB7" s="83"/>
       <c r="AC7" s="13">
         <v>41</v>
       </c>
@@ -5397,15 +5422,15 @@
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
-      <c r="B8" s="65"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="68"/>
-      <c r="J8" s="69"/>
+      <c r="B8" s="83"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="87"/>
+      <c r="G8" s="86"/>
+      <c r="H8" s="87"/>
+      <c r="I8" s="86"/>
+      <c r="J8" s="87"/>
       <c r="K8" s="13">
         <v>51</v>
       </c>
@@ -5424,18 +5449,18 @@
       <c r="P8" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="Q8" s="65"/>
-      <c r="R8" s="65"/>
-      <c r="S8" s="72"/>
-      <c r="T8" s="75"/>
-      <c r="U8" s="101"/>
-      <c r="V8" s="72"/>
-      <c r="W8" s="75"/>
-      <c r="X8" s="98"/>
-      <c r="Y8" s="65"/>
-      <c r="Z8" s="65"/>
-      <c r="AA8" s="65"/>
-      <c r="AB8" s="65"/>
+      <c r="Q8" s="83"/>
+      <c r="R8" s="83"/>
+      <c r="S8" s="67"/>
+      <c r="T8" s="70"/>
+      <c r="U8" s="74"/>
+      <c r="V8" s="67"/>
+      <c r="W8" s="70"/>
+      <c r="X8" s="52"/>
+      <c r="Y8" s="83"/>
+      <c r="Z8" s="83"/>
+      <c r="AA8" s="83"/>
+      <c r="AB8" s="83"/>
       <c r="AC8" s="13">
         <v>51</v>
       </c>
@@ -5453,15 +5478,15 @@
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
-      <c r="B9" s="65"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="68"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="68"/>
-      <c r="J9" s="69"/>
+      <c r="B9" s="83"/>
+      <c r="C9" s="86"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="86"/>
+      <c r="F9" s="87"/>
+      <c r="G9" s="86"/>
+      <c r="H9" s="87"/>
+      <c r="I9" s="86"/>
+      <c r="J9" s="87"/>
       <c r="K9" s="13">
         <v>61</v>
       </c>
@@ -5480,18 +5505,18 @@
       <c r="P9" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="Q9" s="65"/>
-      <c r="R9" s="65"/>
-      <c r="S9" s="72"/>
-      <c r="T9" s="75"/>
-      <c r="U9" s="101"/>
-      <c r="V9" s="72"/>
-      <c r="W9" s="75"/>
-      <c r="X9" s="98"/>
-      <c r="Y9" s="65"/>
-      <c r="Z9" s="65"/>
-      <c r="AA9" s="65"/>
-      <c r="AB9" s="65"/>
+      <c r="Q9" s="83"/>
+      <c r="R9" s="83"/>
+      <c r="S9" s="67"/>
+      <c r="T9" s="70"/>
+      <c r="U9" s="74"/>
+      <c r="V9" s="67"/>
+      <c r="W9" s="70"/>
+      <c r="X9" s="52"/>
+      <c r="Y9" s="83"/>
+      <c r="Z9" s="83"/>
+      <c r="AA9" s="83"/>
+      <c r="AB9" s="83"/>
       <c r="AC9" s="13">
         <v>61</v>
       </c>
@@ -5509,15 +5534,15 @@
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
-      <c r="B10" s="65"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="68"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="68"/>
-      <c r="J10" s="69"/>
+      <c r="B10" s="83"/>
+      <c r="C10" s="86"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="86"/>
+      <c r="F10" s="87"/>
+      <c r="G10" s="86"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="86"/>
+      <c r="J10" s="87"/>
       <c r="K10" s="13">
         <v>71</v>
       </c>
@@ -5536,18 +5561,18 @@
       <c r="P10" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="Q10" s="65"/>
-      <c r="R10" s="65"/>
-      <c r="S10" s="72"/>
-      <c r="T10" s="75"/>
-      <c r="U10" s="101"/>
-      <c r="V10" s="72"/>
-      <c r="W10" s="75"/>
-      <c r="X10" s="98"/>
-      <c r="Y10" s="65"/>
-      <c r="Z10" s="65"/>
-      <c r="AA10" s="65"/>
-      <c r="AB10" s="65"/>
+      <c r="Q10" s="83"/>
+      <c r="R10" s="83"/>
+      <c r="S10" s="67"/>
+      <c r="T10" s="70"/>
+      <c r="U10" s="74"/>
+      <c r="V10" s="67"/>
+      <c r="W10" s="70"/>
+      <c r="X10" s="52"/>
+      <c r="Y10" s="83"/>
+      <c r="Z10" s="83"/>
+      <c r="AA10" s="83"/>
+      <c r="AB10" s="83"/>
       <c r="AC10" s="13">
         <v>71</v>
       </c>
@@ -5565,15 +5590,15 @@
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
-      <c r="B11" s="65"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="69"/>
-      <c r="G11" s="68"/>
-      <c r="H11" s="69"/>
-      <c r="I11" s="68"/>
-      <c r="J11" s="69"/>
+      <c r="B11" s="83"/>
+      <c r="C11" s="86"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="86"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="86"/>
+      <c r="H11" s="87"/>
+      <c r="I11" s="86"/>
+      <c r="J11" s="87"/>
       <c r="K11" s="13">
         <v>81</v>
       </c>
@@ -5592,18 +5617,18 @@
       <c r="P11" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="Q11" s="65"/>
-      <c r="R11" s="65"/>
-      <c r="S11" s="72"/>
-      <c r="T11" s="75"/>
-      <c r="U11" s="101"/>
-      <c r="V11" s="72"/>
-      <c r="W11" s="75"/>
-      <c r="X11" s="98"/>
-      <c r="Y11" s="65"/>
-      <c r="Z11" s="65"/>
-      <c r="AA11" s="65"/>
-      <c r="AB11" s="65"/>
+      <c r="Q11" s="83"/>
+      <c r="R11" s="83"/>
+      <c r="S11" s="67"/>
+      <c r="T11" s="70"/>
+      <c r="U11" s="74"/>
+      <c r="V11" s="67"/>
+      <c r="W11" s="70"/>
+      <c r="X11" s="52"/>
+      <c r="Y11" s="83"/>
+      <c r="Z11" s="83"/>
+      <c r="AA11" s="83"/>
+      <c r="AB11" s="83"/>
       <c r="AC11" s="13">
         <v>81</v>
       </c>
@@ -5621,15 +5646,15 @@
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
-      <c r="B12" s="65"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="68"/>
-      <c r="J12" s="69"/>
+      <c r="B12" s="83"/>
+      <c r="C12" s="86"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="86"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="86"/>
+      <c r="H12" s="87"/>
+      <c r="I12" s="86"/>
+      <c r="J12" s="87"/>
       <c r="K12" s="13">
         <v>91</v>
       </c>
@@ -5648,18 +5673,18 @@
       <c r="P12" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="Q12" s="65"/>
-      <c r="R12" s="65"/>
-      <c r="S12" s="72"/>
-      <c r="T12" s="75"/>
-      <c r="U12" s="101"/>
-      <c r="V12" s="72"/>
-      <c r="W12" s="75"/>
-      <c r="X12" s="98"/>
-      <c r="Y12" s="65"/>
-      <c r="Z12" s="65"/>
-      <c r="AA12" s="65"/>
-      <c r="AB12" s="65"/>
+      <c r="Q12" s="83"/>
+      <c r="R12" s="83"/>
+      <c r="S12" s="67"/>
+      <c r="T12" s="70"/>
+      <c r="U12" s="74"/>
+      <c r="V12" s="67"/>
+      <c r="W12" s="70"/>
+      <c r="X12" s="52"/>
+      <c r="Y12" s="83"/>
+      <c r="Z12" s="83"/>
+      <c r="AA12" s="83"/>
+      <c r="AB12" s="83"/>
       <c r="AC12" s="13">
         <v>91</v>
       </c>
@@ -5677,15 +5702,15 @@
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
-      <c r="B13" s="65"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="68"/>
-      <c r="H13" s="69"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="69"/>
+      <c r="B13" s="83"/>
+      <c r="C13" s="86"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="86"/>
+      <c r="H13" s="87"/>
+      <c r="I13" s="86"/>
+      <c r="J13" s="87"/>
       <c r="K13" s="13">
         <v>101</v>
       </c>
@@ -5704,18 +5729,18 @@
       <c r="P13" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="Q13" s="65"/>
-      <c r="R13" s="65"/>
-      <c r="S13" s="73"/>
-      <c r="T13" s="76"/>
-      <c r="U13" s="102"/>
-      <c r="V13" s="72"/>
-      <c r="W13" s="75"/>
-      <c r="X13" s="98"/>
-      <c r="Y13" s="65"/>
-      <c r="Z13" s="65"/>
-      <c r="AA13" s="65"/>
-      <c r="AB13" s="65"/>
+      <c r="Q13" s="83"/>
+      <c r="R13" s="83"/>
+      <c r="S13" s="77"/>
+      <c r="T13" s="79"/>
+      <c r="U13" s="75"/>
+      <c r="V13" s="67"/>
+      <c r="W13" s="70"/>
+      <c r="X13" s="52"/>
+      <c r="Y13" s="83"/>
+      <c r="Z13" s="83"/>
+      <c r="AA13" s="83"/>
+      <c r="AB13" s="83"/>
       <c r="AC13" s="13">
         <v>101</v>
       </c>
@@ -5733,15 +5758,15 @@
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
-      <c r="B14" s="65"/>
-      <c r="C14" s="68"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="68"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="68"/>
-      <c r="J14" s="69"/>
+      <c r="B14" s="83"/>
+      <c r="C14" s="86"/>
+      <c r="D14" s="87"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="87"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="87"/>
+      <c r="I14" s="86"/>
+      <c r="J14" s="87"/>
       <c r="K14" s="13">
         <v>111</v>
       </c>
@@ -5760,8 +5785,8 @@
       <c r="P14" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="Q14" s="65"/>
-      <c r="R14" s="65"/>
+      <c r="Q14" s="83"/>
+      <c r="R14" s="83"/>
       <c r="S14" s="13">
         <v>111</v>
       </c>
@@ -5771,13 +5796,13 @@
       <c r="U14" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="V14" s="72"/>
-      <c r="W14" s="75"/>
-      <c r="X14" s="98"/>
-      <c r="Y14" s="65"/>
-      <c r="Z14" s="65"/>
-      <c r="AA14" s="65"/>
-      <c r="AB14" s="65"/>
+      <c r="V14" s="67"/>
+      <c r="W14" s="70"/>
+      <c r="X14" s="52"/>
+      <c r="Y14" s="83"/>
+      <c r="Z14" s="83"/>
+      <c r="AA14" s="83"/>
+      <c r="AB14" s="83"/>
       <c r="AC14" s="13">
         <v>111</v>
       </c>
@@ -5795,15 +5820,15 @@
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
-      <c r="B15" s="65"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="68"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="69"/>
+      <c r="B15" s="83"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="87"/>
+      <c r="G15" s="86"/>
+      <c r="H15" s="87"/>
+      <c r="I15" s="86"/>
+      <c r="J15" s="87"/>
       <c r="K15" s="13">
         <v>120.833333333333</v>
       </c>
@@ -5822,24 +5847,24 @@
       <c r="P15" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="Q15" s="65"/>
-      <c r="R15" s="65"/>
-      <c r="S15" s="71">
+      <c r="Q15" s="83"/>
+      <c r="R15" s="83"/>
+      <c r="S15" s="76">
         <v>120.833333333333</v>
       </c>
-      <c r="T15" s="74">
+      <c r="T15" s="78">
         <v>200</v>
       </c>
-      <c r="U15" s="103" t="s">
+      <c r="U15" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="V15" s="72"/>
-      <c r="W15" s="75"/>
-      <c r="X15" s="98"/>
-      <c r="Y15" s="65"/>
-      <c r="Z15" s="65"/>
-      <c r="AA15" s="65"/>
-      <c r="AB15" s="65"/>
+      <c r="V15" s="67"/>
+      <c r="W15" s="70"/>
+      <c r="X15" s="52"/>
+      <c r="Y15" s="83"/>
+      <c r="Z15" s="83"/>
+      <c r="AA15" s="83"/>
+      <c r="AB15" s="83"/>
       <c r="AC15" s="13">
         <v>120.833333333333</v>
       </c>
@@ -5857,15 +5882,15 @@
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
-      <c r="B16" s="65"/>
-      <c r="C16" s="68"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="68"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="68"/>
-      <c r="J16" s="69"/>
+      <c r="B16" s="83"/>
+      <c r="C16" s="86"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="86"/>
+      <c r="F16" s="87"/>
+      <c r="G16" s="86"/>
+      <c r="H16" s="87"/>
+      <c r="I16" s="86"/>
+      <c r="J16" s="87"/>
       <c r="K16" s="13">
         <v>131</v>
       </c>
@@ -5884,18 +5909,18 @@
       <c r="P16" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="Q16" s="65"/>
-      <c r="R16" s="65"/>
-      <c r="S16" s="72"/>
-      <c r="T16" s="75"/>
-      <c r="U16" s="98"/>
-      <c r="V16" s="72"/>
-      <c r="W16" s="75"/>
-      <c r="X16" s="98"/>
-      <c r="Y16" s="65"/>
-      <c r="Z16" s="65"/>
-      <c r="AA16" s="65"/>
-      <c r="AB16" s="65"/>
+      <c r="Q16" s="83"/>
+      <c r="R16" s="83"/>
+      <c r="S16" s="67"/>
+      <c r="T16" s="70"/>
+      <c r="U16" s="52"/>
+      <c r="V16" s="67"/>
+      <c r="W16" s="70"/>
+      <c r="X16" s="52"/>
+      <c r="Y16" s="83"/>
+      <c r="Z16" s="83"/>
+      <c r="AA16" s="83"/>
+      <c r="AB16" s="83"/>
       <c r="AC16" s="13">
         <v>131</v>
       </c>
@@ -5913,15 +5938,15 @@
     </row>
     <row r="17" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12"/>
-      <c r="B17" s="65"/>
-      <c r="C17" s="68"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="68"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="68"/>
-      <c r="H17" s="69"/>
-      <c r="I17" s="68"/>
-      <c r="J17" s="69"/>
+      <c r="B17" s="83"/>
+      <c r="C17" s="86"/>
+      <c r="D17" s="87"/>
+      <c r="E17" s="86"/>
+      <c r="F17" s="87"/>
+      <c r="G17" s="86"/>
+      <c r="H17" s="87"/>
+      <c r="I17" s="86"/>
+      <c r="J17" s="87"/>
       <c r="K17" s="13">
         <v>141</v>
       </c>
@@ -5940,18 +5965,18 @@
       <c r="P17" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="Q17" s="70"/>
-      <c r="R17" s="70"/>
-      <c r="S17" s="72"/>
-      <c r="T17" s="75"/>
-      <c r="U17" s="98"/>
-      <c r="V17" s="72"/>
-      <c r="W17" s="75"/>
-      <c r="X17" s="98"/>
-      <c r="Y17" s="70"/>
-      <c r="Z17" s="70"/>
-      <c r="AA17" s="70"/>
-      <c r="AB17" s="70"/>
+      <c r="Q17" s="88"/>
+      <c r="R17" s="88"/>
+      <c r="S17" s="67"/>
+      <c r="T17" s="70"/>
+      <c r="U17" s="52"/>
+      <c r="V17" s="67"/>
+      <c r="W17" s="70"/>
+      <c r="X17" s="52"/>
+      <c r="Y17" s="88"/>
+      <c r="Z17" s="88"/>
+      <c r="AA17" s="88"/>
+      <c r="AB17" s="88"/>
       <c r="AC17" s="13">
         <v>141</v>
       </c>
@@ -5970,22 +5995,22 @@
     <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18" s="28"/>
       <c r="B18" s="32"/>
-      <c r="C18" s="108" t="s">
+      <c r="C18" s="113" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="109"/>
-      <c r="E18" s="108" t="s">
+      <c r="D18" s="119"/>
+      <c r="E18" s="113" t="s">
         <v>66</v>
       </c>
-      <c r="F18" s="109"/>
-      <c r="G18" s="108" t="s">
+      <c r="F18" s="119"/>
+      <c r="G18" s="113" t="s">
         <v>67</v>
       </c>
-      <c r="H18" s="110"/>
-      <c r="I18" s="108" t="s">
+      <c r="H18" s="114"/>
+      <c r="I18" s="113" t="s">
         <v>73</v>
       </c>
-      <c r="J18" s="110"/>
+      <c r="J18" s="114"/>
       <c r="K18" s="30">
         <v>150.833333333333</v>
       </c>
@@ -6000,28 +6025,28 @@
         <v>160</v>
       </c>
       <c r="P18" s="15"/>
-      <c r="Q18" s="111" t="s">
+      <c r="Q18" s="110" t="s">
         <v>68</v>
       </c>
-      <c r="R18" s="111" t="s">
+      <c r="R18" s="110" t="s">
         <v>69</v>
       </c>
-      <c r="S18" s="72"/>
-      <c r="T18" s="75"/>
-      <c r="U18" s="98"/>
-      <c r="V18" s="72"/>
-      <c r="W18" s="75"/>
-      <c r="X18" s="98"/>
-      <c r="Y18" s="111" t="s">
+      <c r="S18" s="67"/>
+      <c r="T18" s="70"/>
+      <c r="U18" s="52"/>
+      <c r="V18" s="67"/>
+      <c r="W18" s="70"/>
+      <c r="X18" s="52"/>
+      <c r="Y18" s="110" t="s">
         <v>70</v>
       </c>
-      <c r="Z18" s="111" t="s">
+      <c r="Z18" s="110" t="s">
         <v>71</v>
       </c>
-      <c r="AA18" s="111" t="s">
+      <c r="AA18" s="110" t="s">
         <v>72</v>
       </c>
-      <c r="AB18" s="111" t="s">
+      <c r="AB18" s="110" t="s">
         <v>72</v>
       </c>
       <c r="AC18" s="13">
@@ -6042,14 +6067,14 @@
     <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" s="28"/>
       <c r="B19" s="33"/>
-      <c r="C19" s="112"/>
-      <c r="D19" s="113"/>
-      <c r="E19" s="112"/>
-      <c r="F19" s="113"/>
-      <c r="G19" s="112"/>
-      <c r="H19" s="114"/>
-      <c r="I19" s="112"/>
-      <c r="J19" s="114"/>
+      <c r="C19" s="115"/>
+      <c r="D19" s="120"/>
+      <c r="E19" s="115"/>
+      <c r="F19" s="120"/>
+      <c r="G19" s="115"/>
+      <c r="H19" s="116"/>
+      <c r="I19" s="115"/>
+      <c r="J19" s="116"/>
       <c r="K19" s="30">
         <v>161</v>
       </c>
@@ -6064,18 +6089,18 @@
         <v>170</v>
       </c>
       <c r="P19" s="15"/>
-      <c r="Q19" s="115"/>
-      <c r="R19" s="115"/>
-      <c r="S19" s="72"/>
-      <c r="T19" s="75"/>
-      <c r="U19" s="98"/>
-      <c r="V19" s="72"/>
-      <c r="W19" s="75"/>
-      <c r="X19" s="98"/>
-      <c r="Y19" s="115"/>
-      <c r="Z19" s="115"/>
-      <c r="AA19" s="115"/>
-      <c r="AB19" s="115"/>
+      <c r="Q19" s="111"/>
+      <c r="R19" s="111"/>
+      <c r="S19" s="67"/>
+      <c r="T19" s="70"/>
+      <c r="U19" s="52"/>
+      <c r="V19" s="67"/>
+      <c r="W19" s="70"/>
+      <c r="X19" s="52"/>
+      <c r="Y19" s="111"/>
+      <c r="Z19" s="111"/>
+      <c r="AA19" s="111"/>
+      <c r="AB19" s="111"/>
       <c r="AC19" s="13">
         <v>161</v>
       </c>
@@ -6094,14 +6119,14 @@
     <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20" s="28"/>
       <c r="B20" s="33"/>
-      <c r="C20" s="112"/>
-      <c r="D20" s="113"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="113"/>
-      <c r="G20" s="112"/>
-      <c r="H20" s="114"/>
-      <c r="I20" s="112"/>
-      <c r="J20" s="114"/>
+      <c r="C20" s="115"/>
+      <c r="D20" s="120"/>
+      <c r="E20" s="115"/>
+      <c r="F20" s="120"/>
+      <c r="G20" s="115"/>
+      <c r="H20" s="116"/>
+      <c r="I20" s="115"/>
+      <c r="J20" s="116"/>
       <c r="K20" s="30">
         <v>171</v>
       </c>
@@ -6116,18 +6141,18 @@
         <v>180</v>
       </c>
       <c r="P20" s="15"/>
-      <c r="Q20" s="115"/>
-      <c r="R20" s="115"/>
-      <c r="S20" s="72"/>
-      <c r="T20" s="75"/>
-      <c r="U20" s="98"/>
-      <c r="V20" s="72"/>
-      <c r="W20" s="75"/>
-      <c r="X20" s="98"/>
-      <c r="Y20" s="115"/>
-      <c r="Z20" s="115"/>
-      <c r="AA20" s="115"/>
-      <c r="AB20" s="115"/>
+      <c r="Q20" s="111"/>
+      <c r="R20" s="111"/>
+      <c r="S20" s="67"/>
+      <c r="T20" s="70"/>
+      <c r="U20" s="52"/>
+      <c r="V20" s="67"/>
+      <c r="W20" s="70"/>
+      <c r="X20" s="52"/>
+      <c r="Y20" s="111"/>
+      <c r="Z20" s="111"/>
+      <c r="AA20" s="111"/>
+      <c r="AB20" s="111"/>
       <c r="AC20" s="13">
         <v>171</v>
       </c>
@@ -6146,14 +6171,14 @@
     <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21" s="28"/>
       <c r="B21" s="33"/>
-      <c r="C21" s="112"/>
-      <c r="D21" s="113"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="112"/>
-      <c r="H21" s="114"/>
-      <c r="I21" s="112"/>
-      <c r="J21" s="114"/>
+      <c r="C21" s="115"/>
+      <c r="D21" s="120"/>
+      <c r="E21" s="115"/>
+      <c r="F21" s="120"/>
+      <c r="G21" s="115"/>
+      <c r="H21" s="116"/>
+      <c r="I21" s="115"/>
+      <c r="J21" s="116"/>
       <c r="K21" s="30">
         <v>181</v>
       </c>
@@ -6168,18 +6193,18 @@
         <v>190</v>
       </c>
       <c r="P21" s="15"/>
-      <c r="Q21" s="115"/>
-      <c r="R21" s="115"/>
-      <c r="S21" s="72"/>
-      <c r="T21" s="75"/>
-      <c r="U21" s="98"/>
-      <c r="V21" s="72"/>
-      <c r="W21" s="75"/>
-      <c r="X21" s="98"/>
-      <c r="Y21" s="115"/>
-      <c r="Z21" s="115"/>
-      <c r="AA21" s="115"/>
-      <c r="AB21" s="115"/>
+      <c r="Q21" s="111"/>
+      <c r="R21" s="111"/>
+      <c r="S21" s="67"/>
+      <c r="T21" s="70"/>
+      <c r="U21" s="52"/>
+      <c r="V21" s="67"/>
+      <c r="W21" s="70"/>
+      <c r="X21" s="52"/>
+      <c r="Y21" s="111"/>
+      <c r="Z21" s="111"/>
+      <c r="AA21" s="111"/>
+      <c r="AB21" s="111"/>
       <c r="AC21" s="13">
         <v>181</v>
       </c>
@@ -6198,14 +6223,14 @@
     <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22" s="28"/>
       <c r="B22" s="33"/>
-      <c r="C22" s="112"/>
-      <c r="D22" s="113"/>
-      <c r="E22" s="112"/>
-      <c r="F22" s="113"/>
-      <c r="G22" s="112"/>
-      <c r="H22" s="114"/>
-      <c r="I22" s="112"/>
-      <c r="J22" s="114"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="120"/>
+      <c r="E22" s="115"/>
+      <c r="F22" s="120"/>
+      <c r="G22" s="115"/>
+      <c r="H22" s="116"/>
+      <c r="I22" s="115"/>
+      <c r="J22" s="116"/>
       <c r="K22" s="30">
         <v>191</v>
       </c>
@@ -6220,18 +6245,18 @@
         <v>200</v>
       </c>
       <c r="P22" s="15"/>
-      <c r="Q22" s="115"/>
-      <c r="R22" s="115"/>
-      <c r="S22" s="73"/>
-      <c r="T22" s="76"/>
-      <c r="U22" s="104"/>
-      <c r="V22" s="72"/>
-      <c r="W22" s="75"/>
-      <c r="X22" s="98"/>
-      <c r="Y22" s="115"/>
-      <c r="Z22" s="115"/>
-      <c r="AA22" s="115"/>
-      <c r="AB22" s="115"/>
+      <c r="Q22" s="111"/>
+      <c r="R22" s="111"/>
+      <c r="S22" s="77"/>
+      <c r="T22" s="79"/>
+      <c r="U22" s="80"/>
+      <c r="V22" s="67"/>
+      <c r="W22" s="70"/>
+      <c r="X22" s="52"/>
+      <c r="Y22" s="111"/>
+      <c r="Z22" s="111"/>
+      <c r="AA22" s="111"/>
+      <c r="AB22" s="111"/>
       <c r="AC22" s="13">
         <v>191</v>
       </c>
@@ -6250,14 +6275,14 @@
     <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23" s="28"/>
       <c r="B23" s="33"/>
-      <c r="C23" s="112"/>
-      <c r="D23" s="113"/>
-      <c r="E23" s="112"/>
-      <c r="F23" s="113"/>
-      <c r="G23" s="112"/>
-      <c r="H23" s="114"/>
-      <c r="I23" s="112"/>
-      <c r="J23" s="114"/>
+      <c r="C23" s="115"/>
+      <c r="D23" s="120"/>
+      <c r="E23" s="115"/>
+      <c r="F23" s="120"/>
+      <c r="G23" s="115"/>
+      <c r="H23" s="116"/>
+      <c r="I23" s="115"/>
+      <c r="J23" s="116"/>
       <c r="K23" s="30">
         <v>201</v>
       </c>
@@ -6272,24 +6297,24 @@
         <v>210</v>
       </c>
       <c r="P23" s="15"/>
-      <c r="Q23" s="115"/>
-      <c r="R23" s="115"/>
-      <c r="S23" s="71">
+      <c r="Q23" s="111"/>
+      <c r="R23" s="111"/>
+      <c r="S23" s="76">
         <v>201</v>
       </c>
-      <c r="T23" s="74">
+      <c r="T23" s="78">
         <v>255</v>
       </c>
-      <c r="U23" s="103" t="s">
+      <c r="U23" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="V23" s="72"/>
-      <c r="W23" s="75"/>
-      <c r="X23" s="98"/>
-      <c r="Y23" s="115"/>
-      <c r="Z23" s="115"/>
-      <c r="AA23" s="115"/>
-      <c r="AB23" s="115"/>
+      <c r="V23" s="67"/>
+      <c r="W23" s="70"/>
+      <c r="X23" s="52"/>
+      <c r="Y23" s="111"/>
+      <c r="Z23" s="111"/>
+      <c r="AA23" s="111"/>
+      <c r="AB23" s="111"/>
       <c r="AC23" s="13">
         <v>201</v>
       </c>
@@ -6308,14 +6333,14 @@
     <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A24" s="28"/>
       <c r="B24" s="33"/>
-      <c r="C24" s="112"/>
-      <c r="D24" s="113"/>
-      <c r="E24" s="112"/>
-      <c r="F24" s="113"/>
-      <c r="G24" s="112"/>
-      <c r="H24" s="114"/>
-      <c r="I24" s="112"/>
-      <c r="J24" s="114"/>
+      <c r="C24" s="115"/>
+      <c r="D24" s="120"/>
+      <c r="E24" s="115"/>
+      <c r="F24" s="120"/>
+      <c r="G24" s="115"/>
+      <c r="H24" s="116"/>
+      <c r="I24" s="115"/>
+      <c r="J24" s="116"/>
       <c r="K24" s="30">
         <v>210</v>
       </c>
@@ -6330,18 +6355,18 @@
         <v>220</v>
       </c>
       <c r="P24" s="15"/>
-      <c r="Q24" s="115"/>
-      <c r="R24" s="115"/>
-      <c r="S24" s="72"/>
-      <c r="T24" s="75"/>
-      <c r="U24" s="98"/>
-      <c r="V24" s="72"/>
-      <c r="W24" s="75"/>
-      <c r="X24" s="98"/>
-      <c r="Y24" s="115"/>
-      <c r="Z24" s="115"/>
-      <c r="AA24" s="115"/>
-      <c r="AB24" s="115"/>
+      <c r="Q24" s="111"/>
+      <c r="R24" s="111"/>
+      <c r="S24" s="67"/>
+      <c r="T24" s="70"/>
+      <c r="U24" s="52"/>
+      <c r="V24" s="67"/>
+      <c r="W24" s="70"/>
+      <c r="X24" s="52"/>
+      <c r="Y24" s="111"/>
+      <c r="Z24" s="111"/>
+      <c r="AA24" s="111"/>
+      <c r="AB24" s="111"/>
       <c r="AC24" s="13">
         <v>210</v>
       </c>
@@ -6360,14 +6385,14 @@
     <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A25" s="28"/>
       <c r="B25" s="33"/>
-      <c r="C25" s="112"/>
-      <c r="D25" s="113"/>
-      <c r="E25" s="112"/>
-      <c r="F25" s="113"/>
-      <c r="G25" s="112"/>
-      <c r="H25" s="114"/>
-      <c r="I25" s="112"/>
-      <c r="J25" s="114"/>
+      <c r="C25" s="115"/>
+      <c r="D25" s="120"/>
+      <c r="E25" s="115"/>
+      <c r="F25" s="120"/>
+      <c r="G25" s="115"/>
+      <c r="H25" s="116"/>
+      <c r="I25" s="115"/>
+      <c r="J25" s="116"/>
       <c r="K25" s="30">
         <v>221</v>
       </c>
@@ -6382,18 +6407,18 @@
         <v>230</v>
       </c>
       <c r="P25" s="15"/>
-      <c r="Q25" s="115"/>
-      <c r="R25" s="115"/>
-      <c r="S25" s="72"/>
-      <c r="T25" s="75"/>
-      <c r="U25" s="98"/>
-      <c r="V25" s="72"/>
-      <c r="W25" s="75"/>
-      <c r="X25" s="98"/>
-      <c r="Y25" s="115"/>
-      <c r="Z25" s="115"/>
-      <c r="AA25" s="115"/>
-      <c r="AB25" s="115"/>
+      <c r="Q25" s="111"/>
+      <c r="R25" s="111"/>
+      <c r="S25" s="67"/>
+      <c r="T25" s="70"/>
+      <c r="U25" s="52"/>
+      <c r="V25" s="67"/>
+      <c r="W25" s="70"/>
+      <c r="X25" s="52"/>
+      <c r="Y25" s="111"/>
+      <c r="Z25" s="111"/>
+      <c r="AA25" s="111"/>
+      <c r="AB25" s="111"/>
       <c r="AC25" s="13">
         <v>221</v>
       </c>
@@ -6412,14 +6437,14 @@
     <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A26" s="28"/>
       <c r="B26" s="33"/>
-      <c r="C26" s="112"/>
-      <c r="D26" s="113"/>
-      <c r="E26" s="112"/>
-      <c r="F26" s="113"/>
-      <c r="G26" s="112"/>
-      <c r="H26" s="114"/>
-      <c r="I26" s="112"/>
-      <c r="J26" s="114"/>
+      <c r="C26" s="115"/>
+      <c r="D26" s="120"/>
+      <c r="E26" s="115"/>
+      <c r="F26" s="120"/>
+      <c r="G26" s="115"/>
+      <c r="H26" s="116"/>
+      <c r="I26" s="115"/>
+      <c r="J26" s="116"/>
       <c r="K26" s="30">
         <v>231</v>
       </c>
@@ -6434,18 +6459,18 @@
         <v>240</v>
       </c>
       <c r="P26" s="15"/>
-      <c r="Q26" s="115"/>
-      <c r="R26" s="115"/>
-      <c r="S26" s="72"/>
-      <c r="T26" s="75"/>
-      <c r="U26" s="98"/>
-      <c r="V26" s="72"/>
-      <c r="W26" s="75"/>
-      <c r="X26" s="98"/>
-      <c r="Y26" s="115"/>
-      <c r="Z26" s="115"/>
-      <c r="AA26" s="115"/>
-      <c r="AB26" s="115"/>
+      <c r="Q26" s="111"/>
+      <c r="R26" s="111"/>
+      <c r="S26" s="67"/>
+      <c r="T26" s="70"/>
+      <c r="U26" s="52"/>
+      <c r="V26" s="67"/>
+      <c r="W26" s="70"/>
+      <c r="X26" s="52"/>
+      <c r="Y26" s="111"/>
+      <c r="Z26" s="111"/>
+      <c r="AA26" s="111"/>
+      <c r="AB26" s="111"/>
       <c r="AC26" s="13">
         <v>231</v>
       </c>
@@ -6464,14 +6489,14 @@
     <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A27" s="28"/>
       <c r="B27" s="33"/>
-      <c r="C27" s="112"/>
-      <c r="D27" s="113"/>
-      <c r="E27" s="112"/>
-      <c r="F27" s="113"/>
-      <c r="G27" s="112"/>
-      <c r="H27" s="114"/>
-      <c r="I27" s="112"/>
-      <c r="J27" s="114"/>
+      <c r="C27" s="115"/>
+      <c r="D27" s="120"/>
+      <c r="E27" s="115"/>
+      <c r="F27" s="120"/>
+      <c r="G27" s="115"/>
+      <c r="H27" s="116"/>
+      <c r="I27" s="115"/>
+      <c r="J27" s="116"/>
       <c r="K27" s="30">
         <v>241</v>
       </c>
@@ -6486,18 +6511,18 @@
         <v>250</v>
       </c>
       <c r="P27" s="15"/>
-      <c r="Q27" s="115"/>
-      <c r="R27" s="115"/>
-      <c r="S27" s="72"/>
-      <c r="T27" s="75"/>
-      <c r="U27" s="98"/>
-      <c r="V27" s="72"/>
-      <c r="W27" s="75"/>
-      <c r="X27" s="98"/>
-      <c r="Y27" s="115"/>
-      <c r="Z27" s="115"/>
-      <c r="AA27" s="115"/>
-      <c r="AB27" s="115"/>
+      <c r="Q27" s="111"/>
+      <c r="R27" s="111"/>
+      <c r="S27" s="67"/>
+      <c r="T27" s="70"/>
+      <c r="U27" s="52"/>
+      <c r="V27" s="67"/>
+      <c r="W27" s="70"/>
+      <c r="X27" s="52"/>
+      <c r="Y27" s="111"/>
+      <c r="Z27" s="111"/>
+      <c r="AA27" s="111"/>
+      <c r="AB27" s="111"/>
       <c r="AC27" s="13">
         <v>241</v>
       </c>
@@ -6516,13 +6541,13 @@
     <row r="28" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="29"/>
       <c r="B28" s="34"/>
-      <c r="C28" s="116"/>
-      <c r="D28" s="117"/>
-      <c r="E28" s="116"/>
-      <c r="F28" s="117"/>
-      <c r="G28" s="116"/>
+      <c r="C28" s="117"/>
+      <c r="D28" s="121"/>
+      <c r="E28" s="117"/>
+      <c r="F28" s="121"/>
+      <c r="G28" s="117"/>
       <c r="H28" s="118"/>
-      <c r="I28" s="116"/>
+      <c r="I28" s="117"/>
       <c r="J28" s="118"/>
       <c r="K28" s="31">
         <v>251</v>
@@ -6538,18 +6563,18 @@
         <v>255</v>
       </c>
       <c r="P28" s="20"/>
-      <c r="Q28" s="119"/>
-      <c r="R28" s="119"/>
-      <c r="S28" s="94"/>
-      <c r="T28" s="96"/>
-      <c r="U28" s="99"/>
-      <c r="V28" s="94"/>
-      <c r="W28" s="96"/>
-      <c r="X28" s="99"/>
-      <c r="Y28" s="119"/>
-      <c r="Z28" s="119"/>
-      <c r="AA28" s="119"/>
-      <c r="AB28" s="119"/>
+      <c r="Q28" s="112"/>
+      <c r="R28" s="112"/>
+      <c r="S28" s="68"/>
+      <c r="T28" s="71"/>
+      <c r="U28" s="53"/>
+      <c r="V28" s="68"/>
+      <c r="W28" s="71"/>
+      <c r="X28" s="53"/>
+      <c r="Y28" s="112"/>
+      <c r="Z28" s="112"/>
+      <c r="AA28" s="112"/>
+      <c r="AB28" s="112"/>
       <c r="AC28" s="18">
         <v>251</v>
       </c>
@@ -6567,43 +6592,6 @@
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="AB3:AB17"/>
-    <mergeCell ref="AB18:AB28"/>
-    <mergeCell ref="Z18:Z28"/>
-    <mergeCell ref="AA18:AA28"/>
-    <mergeCell ref="S23:S28"/>
-    <mergeCell ref="T23:T28"/>
-    <mergeCell ref="U23:U28"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="I3:J17"/>
-    <mergeCell ref="I18:J28"/>
-    <mergeCell ref="C18:D28"/>
-    <mergeCell ref="E18:F28"/>
-    <mergeCell ref="G18:H28"/>
-    <mergeCell ref="Q18:Q28"/>
-    <mergeCell ref="R18:R28"/>
-    <mergeCell ref="Y18:Y28"/>
-    <mergeCell ref="X3:X28"/>
-    <mergeCell ref="Y3:Y17"/>
-    <mergeCell ref="Z3:Z17"/>
-    <mergeCell ref="AA3:AA17"/>
-    <mergeCell ref="S6:S13"/>
-    <mergeCell ref="T6:T13"/>
-    <mergeCell ref="U6:U13"/>
-    <mergeCell ref="S15:S22"/>
-    <mergeCell ref="T15:T22"/>
-    <mergeCell ref="U15:U22"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AH2"/>
-    <mergeCell ref="B3:B17"/>
-    <mergeCell ref="C3:D17"/>
-    <mergeCell ref="E3:F17"/>
-    <mergeCell ref="G3:H17"/>
-    <mergeCell ref="Q3:Q17"/>
-    <mergeCell ref="R3:R17"/>
-    <mergeCell ref="V3:V28"/>
-    <mergeCell ref="W3:W28"/>
     <mergeCell ref="V1:X1"/>
     <mergeCell ref="AC1:AE1"/>
     <mergeCell ref="AF1:AH1"/>
@@ -6620,6 +6608,43 @@
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="S1:U1"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="B3:B17"/>
+    <mergeCell ref="C3:D17"/>
+    <mergeCell ref="E3:F17"/>
+    <mergeCell ref="G3:H17"/>
+    <mergeCell ref="Q3:Q17"/>
+    <mergeCell ref="R3:R17"/>
+    <mergeCell ref="V3:V28"/>
+    <mergeCell ref="W3:W28"/>
+    <mergeCell ref="Q18:Q28"/>
+    <mergeCell ref="R18:R28"/>
+    <mergeCell ref="Y18:Y28"/>
+    <mergeCell ref="X3:X28"/>
+    <mergeCell ref="Y3:Y17"/>
+    <mergeCell ref="S6:S13"/>
+    <mergeCell ref="T6:T13"/>
+    <mergeCell ref="U6:U13"/>
+    <mergeCell ref="S15:S22"/>
+    <mergeCell ref="T15:T22"/>
+    <mergeCell ref="U15:U22"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I3:J17"/>
+    <mergeCell ref="I18:J28"/>
+    <mergeCell ref="C18:D28"/>
+    <mergeCell ref="E18:F28"/>
+    <mergeCell ref="G18:H28"/>
+    <mergeCell ref="AB3:AB17"/>
+    <mergeCell ref="AB18:AB28"/>
+    <mergeCell ref="Z18:Z28"/>
+    <mergeCell ref="AA18:AA28"/>
+    <mergeCell ref="S23:S28"/>
+    <mergeCell ref="T23:T28"/>
+    <mergeCell ref="U23:U28"/>
+    <mergeCell ref="Z3:Z17"/>
+    <mergeCell ref="AA3:AA17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6629,7 +6654,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD3EA4A1-2ED4-41DB-B39E-C696A0AA5D67}">
   <dimension ref="A1:AE28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="T45" sqref="T44:T45"/>
     </sheetView>
   </sheetViews>
@@ -6642,43 +6667,43 @@
       <c r="B1" s="44">
         <v>1</v>
       </c>
-      <c r="C1" s="59">
+      <c r="C1" s="105">
         <v>2</v>
       </c>
-      <c r="D1" s="60"/>
-      <c r="E1" s="59">
+      <c r="D1" s="106"/>
+      <c r="E1" s="105">
         <v>3</v>
       </c>
-      <c r="F1" s="60"/>
-      <c r="G1" s="59">
+      <c r="F1" s="106"/>
+      <c r="G1" s="105">
         <v>4</v>
       </c>
-      <c r="H1" s="60"/>
-      <c r="I1" s="59">
+      <c r="H1" s="106"/>
+      <c r="I1" s="105">
         <v>5</v>
       </c>
-      <c r="J1" s="60"/>
-      <c r="K1" s="62">
+      <c r="J1" s="106"/>
+      <c r="K1" s="108">
         <v>6</v>
       </c>
-      <c r="L1" s="47"/>
-      <c r="M1" s="48"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="95"/>
       <c r="N1" s="44">
         <v>7</v>
       </c>
       <c r="O1" s="3">
         <v>8</v>
       </c>
-      <c r="P1" s="62">
+      <c r="P1" s="108">
         <v>9</v>
       </c>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="46">
+      <c r="Q1" s="94"/>
+      <c r="R1" s="109"/>
+      <c r="S1" s="93">
         <v>10</v>
       </c>
-      <c r="T1" s="47"/>
-      <c r="U1" s="48"/>
+      <c r="T1" s="94"/>
+      <c r="U1" s="95"/>
       <c r="V1" s="44">
         <v>11</v>
       </c>
@@ -6691,16 +6716,16 @@
       <c r="Y1" s="44">
         <v>14</v>
       </c>
-      <c r="Z1" s="46">
+      <c r="Z1" s="93">
         <v>15</v>
       </c>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="48"/>
-      <c r="AC1" s="62">
+      <c r="AA1" s="94"/>
+      <c r="AB1" s="95"/>
+      <c r="AC1" s="108">
         <v>16</v>
       </c>
-      <c r="AD1" s="47"/>
-      <c r="AE1" s="48"/>
+      <c r="AD1" s="94"/>
+      <c r="AE1" s="95"/>
     </row>
     <row r="2" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -6709,43 +6734,43 @@
       <c r="B2" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="51"/>
-      <c r="E2" s="52" t="s">
+      <c r="D2" s="97"/>
+      <c r="E2" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="51"/>
-      <c r="G2" s="50" t="s">
+      <c r="F2" s="97"/>
+      <c r="G2" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="51"/>
-      <c r="I2" s="50" t="s">
+      <c r="H2" s="97"/>
+      <c r="I2" s="96" t="s">
         <v>48</v>
       </c>
-      <c r="J2" s="51"/>
-      <c r="K2" s="56" t="s">
+      <c r="J2" s="97"/>
+      <c r="K2" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="57"/>
-      <c r="M2" s="55"/>
+      <c r="L2" s="103"/>
+      <c r="M2" s="101"/>
       <c r="N2" s="45" t="s">
         <v>8</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="56" t="s">
+      <c r="P2" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="58"/>
-      <c r="S2" s="53" t="s">
+      <c r="Q2" s="103"/>
+      <c r="R2" s="104"/>
+      <c r="S2" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="T2" s="57"/>
-      <c r="U2" s="55"/>
+      <c r="T2" s="103"/>
+      <c r="U2" s="101"/>
       <c r="V2" s="45" t="s">
         <v>12</v>
       </c>
@@ -6758,38 +6783,38 @@
       <c r="Y2" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="Z2" s="53" t="s">
+      <c r="Z2" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="AA2" s="57"/>
-      <c r="AB2" s="55"/>
-      <c r="AC2" s="56" t="s">
+      <c r="AA2" s="103"/>
+      <c r="AB2" s="101"/>
+      <c r="AC2" s="102" t="s">
         <v>51</v>
       </c>
-      <c r="AD2" s="57"/>
-      <c r="AE2" s="55"/>
+      <c r="AD2" s="103"/>
+      <c r="AE2" s="101"/>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="66" t="s">
+      <c r="C3" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="67"/>
-      <c r="E3" s="66" t="s">
+      <c r="D3" s="85"/>
+      <c r="E3" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="67"/>
-      <c r="G3" s="66" t="s">
+      <c r="F3" s="85"/>
+      <c r="G3" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="67"/>
-      <c r="I3" s="66" t="s">
+      <c r="H3" s="85"/>
+      <c r="I3" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="67"/>
+      <c r="J3" s="85"/>
       <c r="K3" s="8">
         <v>0</v>
       </c>
@@ -6799,10 +6824,10 @@
       <c r="M3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="64" t="s">
+      <c r="N3" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="64" t="s">
+      <c r="O3" s="82" t="s">
         <v>15</v>
       </c>
       <c r="P3" s="8">
@@ -6814,25 +6839,25 @@
       <c r="R3" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="S3" s="93">
+      <c r="S3" s="66">
         <v>0</v>
       </c>
-      <c r="T3" s="95">
+      <c r="T3" s="69">
         <v>255</v>
       </c>
-      <c r="U3" s="97" t="s">
+      <c r="U3" s="72" t="s">
         <v>46</v>
       </c>
-      <c r="V3" s="64" t="s">
+      <c r="V3" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="W3" s="64" t="s">
+      <c r="W3" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="X3" s="64" t="s">
+      <c r="X3" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="Y3" s="64" t="s">
+      <c r="Y3" s="82" t="s">
         <v>15</v>
       </c>
       <c r="Z3" s="8">
@@ -6856,15 +6881,15 @@
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
-      <c r="B4" s="65"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="69"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="87"/>
       <c r="K4" s="13">
         <v>11</v>
       </c>
@@ -6874,8 +6899,8 @@
       <c r="M4" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="N4" s="65"/>
-      <c r="O4" s="65"/>
+      <c r="N4" s="83"/>
+      <c r="O4" s="83"/>
       <c r="P4" s="13">
         <v>11</v>
       </c>
@@ -6885,20 +6910,20 @@
       <c r="R4" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="S4" s="72"/>
-      <c r="T4" s="75"/>
-      <c r="U4" s="98"/>
-      <c r="V4" s="65"/>
-      <c r="W4" s="65"/>
-      <c r="X4" s="65"/>
-      <c r="Y4" s="65"/>
-      <c r="Z4" s="105">
+      <c r="S4" s="67"/>
+      <c r="T4" s="70"/>
+      <c r="U4" s="52"/>
+      <c r="V4" s="83"/>
+      <c r="W4" s="83"/>
+      <c r="X4" s="83"/>
+      <c r="Y4" s="83"/>
+      <c r="Z4" s="48">
         <v>11</v>
       </c>
-      <c r="AA4" s="106">
+      <c r="AA4" s="49">
         <v>20</v>
       </c>
-      <c r="AB4" s="107" t="s">
+      <c r="AB4" s="50" t="s">
         <v>54</v>
       </c>
       <c r="AC4" s="13">
@@ -6913,15 +6938,15 @@
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
-      <c r="B5" s="65"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="68"/>
-      <c r="J5" s="69"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="86"/>
+      <c r="J5" s="87"/>
       <c r="K5" s="13">
         <v>21</v>
       </c>
@@ -6931,8 +6956,8 @@
       <c r="M5" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="N5" s="65"/>
-      <c r="O5" s="65"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="83"/>
       <c r="P5" s="13">
         <v>21</v>
       </c>
@@ -6942,20 +6967,20 @@
       <c r="R5" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="S5" s="72"/>
-      <c r="T5" s="75"/>
-      <c r="U5" s="98"/>
-      <c r="V5" s="65"/>
-      <c r="W5" s="65"/>
-      <c r="X5" s="65"/>
-      <c r="Y5" s="65"/>
-      <c r="Z5" s="105">
+      <c r="S5" s="67"/>
+      <c r="T5" s="70"/>
+      <c r="U5" s="52"/>
+      <c r="V5" s="83"/>
+      <c r="W5" s="83"/>
+      <c r="X5" s="83"/>
+      <c r="Y5" s="83"/>
+      <c r="Z5" s="48">
         <v>21</v>
       </c>
-      <c r="AA5" s="106">
+      <c r="AA5" s="49">
         <v>30</v>
       </c>
-      <c r="AB5" s="107" t="s">
+      <c r="AB5" s="50" t="s">
         <v>56</v>
       </c>
       <c r="AC5" s="13">
@@ -6970,15 +6995,15 @@
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
-      <c r="B6" s="65"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="68"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="68"/>
-      <c r="J6" s="69"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="86"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="87"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="87"/>
       <c r="K6" s="13">
         <v>31</v>
       </c>
@@ -6988,24 +7013,24 @@
       <c r="M6" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="N6" s="65"/>
-      <c r="O6" s="65"/>
-      <c r="P6" s="71">
+      <c r="N6" s="83"/>
+      <c r="O6" s="83"/>
+      <c r="P6" s="76">
         <v>31</v>
       </c>
-      <c r="Q6" s="74">
+      <c r="Q6" s="78">
         <v>110</v>
       </c>
-      <c r="R6" s="100" t="s">
+      <c r="R6" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="S6" s="72"/>
-      <c r="T6" s="75"/>
-      <c r="U6" s="98"/>
-      <c r="V6" s="65"/>
-      <c r="W6" s="65"/>
-      <c r="X6" s="65"/>
-      <c r="Y6" s="65"/>
+      <c r="S6" s="67"/>
+      <c r="T6" s="70"/>
+      <c r="U6" s="52"/>
+      <c r="V6" s="83"/>
+      <c r="W6" s="83"/>
+      <c r="X6" s="83"/>
+      <c r="Y6" s="83"/>
       <c r="Z6" s="13">
         <v>31</v>
       </c>
@@ -7025,15 +7050,15 @@
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
-      <c r="B7" s="65"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="69"/>
+      <c r="B7" s="83"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="87"/>
+      <c r="I7" s="86"/>
+      <c r="J7" s="87"/>
       <c r="K7" s="13">
         <v>41</v>
       </c>
@@ -7043,18 +7068,18 @@
       <c r="M7" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="N7" s="65"/>
-      <c r="O7" s="65"/>
-      <c r="P7" s="72"/>
-      <c r="Q7" s="75"/>
-      <c r="R7" s="101"/>
-      <c r="S7" s="72"/>
-      <c r="T7" s="75"/>
-      <c r="U7" s="98"/>
-      <c r="V7" s="65"/>
-      <c r="W7" s="65"/>
-      <c r="X7" s="65"/>
-      <c r="Y7" s="65"/>
+      <c r="N7" s="83"/>
+      <c r="O7" s="83"/>
+      <c r="P7" s="67"/>
+      <c r="Q7" s="70"/>
+      <c r="R7" s="74"/>
+      <c r="S7" s="67"/>
+      <c r="T7" s="70"/>
+      <c r="U7" s="52"/>
+      <c r="V7" s="83"/>
+      <c r="W7" s="83"/>
+      <c r="X7" s="83"/>
+      <c r="Y7" s="83"/>
       <c r="Z7" s="13">
         <v>41</v>
       </c>
@@ -7072,15 +7097,15 @@
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
-      <c r="B8" s="65"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="68"/>
-      <c r="J8" s="69"/>
+      <c r="B8" s="83"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="87"/>
+      <c r="G8" s="86"/>
+      <c r="H8" s="87"/>
+      <c r="I8" s="86"/>
+      <c r="J8" s="87"/>
       <c r="K8" s="13">
         <v>51</v>
       </c>
@@ -7090,18 +7115,18 @@
       <c r="M8" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="N8" s="65"/>
-      <c r="O8" s="65"/>
-      <c r="P8" s="72"/>
-      <c r="Q8" s="75"/>
-      <c r="R8" s="101"/>
-      <c r="S8" s="72"/>
-      <c r="T8" s="75"/>
-      <c r="U8" s="98"/>
-      <c r="V8" s="65"/>
-      <c r="W8" s="65"/>
-      <c r="X8" s="65"/>
-      <c r="Y8" s="65"/>
+      <c r="N8" s="83"/>
+      <c r="O8" s="83"/>
+      <c r="P8" s="67"/>
+      <c r="Q8" s="70"/>
+      <c r="R8" s="74"/>
+      <c r="S8" s="67"/>
+      <c r="T8" s="70"/>
+      <c r="U8" s="52"/>
+      <c r="V8" s="83"/>
+      <c r="W8" s="83"/>
+      <c r="X8" s="83"/>
+      <c r="Y8" s="83"/>
       <c r="Z8" s="13">
         <v>51</v>
       </c>
@@ -7119,15 +7144,15 @@
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
-      <c r="B9" s="65"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="68"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="68"/>
-      <c r="J9" s="69"/>
+      <c r="B9" s="83"/>
+      <c r="C9" s="86"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="86"/>
+      <c r="F9" s="87"/>
+      <c r="G9" s="86"/>
+      <c r="H9" s="87"/>
+      <c r="I9" s="86"/>
+      <c r="J9" s="87"/>
       <c r="K9" s="13">
         <v>61</v>
       </c>
@@ -7137,18 +7162,18 @@
       <c r="M9" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="N9" s="65"/>
-      <c r="O9" s="65"/>
-      <c r="P9" s="72"/>
-      <c r="Q9" s="75"/>
-      <c r="R9" s="101"/>
-      <c r="S9" s="72"/>
-      <c r="T9" s="75"/>
-      <c r="U9" s="98"/>
-      <c r="V9" s="65"/>
-      <c r="W9" s="65"/>
-      <c r="X9" s="65"/>
-      <c r="Y9" s="65"/>
+      <c r="N9" s="83"/>
+      <c r="O9" s="83"/>
+      <c r="P9" s="67"/>
+      <c r="Q9" s="70"/>
+      <c r="R9" s="74"/>
+      <c r="S9" s="67"/>
+      <c r="T9" s="70"/>
+      <c r="U9" s="52"/>
+      <c r="V9" s="83"/>
+      <c r="W9" s="83"/>
+      <c r="X9" s="83"/>
+      <c r="Y9" s="83"/>
       <c r="Z9" s="13">
         <v>61</v>
       </c>
@@ -7166,15 +7191,15 @@
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
-      <c r="B10" s="65"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="68"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="68"/>
-      <c r="J10" s="69"/>
+      <c r="B10" s="83"/>
+      <c r="C10" s="86"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="86"/>
+      <c r="F10" s="87"/>
+      <c r="G10" s="86"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="86"/>
+      <c r="J10" s="87"/>
       <c r="K10" s="13">
         <v>71</v>
       </c>
@@ -7184,18 +7209,18 @@
       <c r="M10" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="N10" s="65"/>
-      <c r="O10" s="65"/>
-      <c r="P10" s="72"/>
-      <c r="Q10" s="75"/>
-      <c r="R10" s="101"/>
-      <c r="S10" s="72"/>
-      <c r="T10" s="75"/>
-      <c r="U10" s="98"/>
-      <c r="V10" s="65"/>
-      <c r="W10" s="65"/>
-      <c r="X10" s="65"/>
-      <c r="Y10" s="65"/>
+      <c r="N10" s="83"/>
+      <c r="O10" s="83"/>
+      <c r="P10" s="67"/>
+      <c r="Q10" s="70"/>
+      <c r="R10" s="74"/>
+      <c r="S10" s="67"/>
+      <c r="T10" s="70"/>
+      <c r="U10" s="52"/>
+      <c r="V10" s="83"/>
+      <c r="W10" s="83"/>
+      <c r="X10" s="83"/>
+      <c r="Y10" s="83"/>
       <c r="Z10" s="13">
         <v>71</v>
       </c>
@@ -7213,15 +7238,15 @@
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
-      <c r="B11" s="65"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="69"/>
-      <c r="G11" s="68"/>
-      <c r="H11" s="69"/>
-      <c r="I11" s="68"/>
-      <c r="J11" s="69"/>
+      <c r="B11" s="83"/>
+      <c r="C11" s="86"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="86"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="86"/>
+      <c r="H11" s="87"/>
+      <c r="I11" s="86"/>
+      <c r="J11" s="87"/>
       <c r="K11" s="13">
         <v>81</v>
       </c>
@@ -7231,18 +7256,18 @@
       <c r="M11" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="N11" s="65"/>
-      <c r="O11" s="65"/>
-      <c r="P11" s="72"/>
-      <c r="Q11" s="75"/>
-      <c r="R11" s="101"/>
-      <c r="S11" s="72"/>
-      <c r="T11" s="75"/>
-      <c r="U11" s="98"/>
-      <c r="V11" s="65"/>
-      <c r="W11" s="65"/>
-      <c r="X11" s="65"/>
-      <c r="Y11" s="65"/>
+      <c r="N11" s="83"/>
+      <c r="O11" s="83"/>
+      <c r="P11" s="67"/>
+      <c r="Q11" s="70"/>
+      <c r="R11" s="74"/>
+      <c r="S11" s="67"/>
+      <c r="T11" s="70"/>
+      <c r="U11" s="52"/>
+      <c r="V11" s="83"/>
+      <c r="W11" s="83"/>
+      <c r="X11" s="83"/>
+      <c r="Y11" s="83"/>
       <c r="Z11" s="13">
         <v>81</v>
       </c>
@@ -7260,15 +7285,15 @@
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
-      <c r="B12" s="65"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="68"/>
-      <c r="J12" s="69"/>
+      <c r="B12" s="83"/>
+      <c r="C12" s="86"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="86"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="86"/>
+      <c r="H12" s="87"/>
+      <c r="I12" s="86"/>
+      <c r="J12" s="87"/>
       <c r="K12" s="13">
         <v>91</v>
       </c>
@@ -7278,18 +7303,18 @@
       <c r="M12" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="N12" s="65"/>
-      <c r="O12" s="65"/>
-      <c r="P12" s="72"/>
-      <c r="Q12" s="75"/>
-      <c r="R12" s="101"/>
-      <c r="S12" s="72"/>
-      <c r="T12" s="75"/>
-      <c r="U12" s="98"/>
-      <c r="V12" s="65"/>
-      <c r="W12" s="65"/>
-      <c r="X12" s="65"/>
-      <c r="Y12" s="65"/>
+      <c r="N12" s="83"/>
+      <c r="O12" s="83"/>
+      <c r="P12" s="67"/>
+      <c r="Q12" s="70"/>
+      <c r="R12" s="74"/>
+      <c r="S12" s="67"/>
+      <c r="T12" s="70"/>
+      <c r="U12" s="52"/>
+      <c r="V12" s="83"/>
+      <c r="W12" s="83"/>
+      <c r="X12" s="83"/>
+      <c r="Y12" s="83"/>
       <c r="Z12" s="13">
         <v>91</v>
       </c>
@@ -7307,15 +7332,15 @@
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
-      <c r="B13" s="65"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="68"/>
-      <c r="H13" s="69"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="69"/>
+      <c r="B13" s="83"/>
+      <c r="C13" s="86"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="86"/>
+      <c r="H13" s="87"/>
+      <c r="I13" s="86"/>
+      <c r="J13" s="87"/>
       <c r="K13" s="13">
         <v>101</v>
       </c>
@@ -7325,18 +7350,18 @@
       <c r="M13" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="N13" s="65"/>
-      <c r="O13" s="65"/>
-      <c r="P13" s="73"/>
-      <c r="Q13" s="76"/>
-      <c r="R13" s="102"/>
-      <c r="S13" s="72"/>
-      <c r="T13" s="75"/>
-      <c r="U13" s="98"/>
-      <c r="V13" s="65"/>
-      <c r="W13" s="65"/>
-      <c r="X13" s="65"/>
-      <c r="Y13" s="65"/>
+      <c r="N13" s="83"/>
+      <c r="O13" s="83"/>
+      <c r="P13" s="77"/>
+      <c r="Q13" s="79"/>
+      <c r="R13" s="75"/>
+      <c r="S13" s="67"/>
+      <c r="T13" s="70"/>
+      <c r="U13" s="52"/>
+      <c r="V13" s="83"/>
+      <c r="W13" s="83"/>
+      <c r="X13" s="83"/>
+      <c r="Y13" s="83"/>
       <c r="Z13" s="13">
         <v>101</v>
       </c>
@@ -7354,15 +7379,15 @@
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
-      <c r="B14" s="65"/>
-      <c r="C14" s="68"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="68"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="68"/>
-      <c r="J14" s="69"/>
+      <c r="B14" s="83"/>
+      <c r="C14" s="86"/>
+      <c r="D14" s="87"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="87"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="87"/>
+      <c r="I14" s="86"/>
+      <c r="J14" s="87"/>
       <c r="K14" s="13">
         <v>111</v>
       </c>
@@ -7372,8 +7397,8 @@
       <c r="M14" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="N14" s="65"/>
-      <c r="O14" s="65"/>
+      <c r="N14" s="83"/>
+      <c r="O14" s="83"/>
       <c r="P14" s="13">
         <v>111</v>
       </c>
@@ -7383,13 +7408,13 @@
       <c r="R14" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="S14" s="72"/>
-      <c r="T14" s="75"/>
-      <c r="U14" s="98"/>
-      <c r="V14" s="65"/>
-      <c r="W14" s="65"/>
-      <c r="X14" s="65"/>
-      <c r="Y14" s="65"/>
+      <c r="S14" s="67"/>
+      <c r="T14" s="70"/>
+      <c r="U14" s="52"/>
+      <c r="V14" s="83"/>
+      <c r="W14" s="83"/>
+      <c r="X14" s="83"/>
+      <c r="Y14" s="83"/>
       <c r="Z14" s="13">
         <v>111</v>
       </c>
@@ -7407,15 +7432,15 @@
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
-      <c r="B15" s="65"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="68"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="69"/>
+      <c r="B15" s="83"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="87"/>
+      <c r="G15" s="86"/>
+      <c r="H15" s="87"/>
+      <c r="I15" s="86"/>
+      <c r="J15" s="87"/>
       <c r="K15" s="13">
         <v>120.833333333333</v>
       </c>
@@ -7425,24 +7450,24 @@
       <c r="M15" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="N15" s="65"/>
-      <c r="O15" s="65"/>
-      <c r="P15" s="71">
+      <c r="N15" s="83"/>
+      <c r="O15" s="83"/>
+      <c r="P15" s="76">
         <v>120.833333333333</v>
       </c>
-      <c r="Q15" s="74">
+      <c r="Q15" s="78">
         <v>200</v>
       </c>
-      <c r="R15" s="103" t="s">
+      <c r="R15" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="S15" s="72"/>
-      <c r="T15" s="75"/>
-      <c r="U15" s="98"/>
-      <c r="V15" s="65"/>
-      <c r="W15" s="65"/>
-      <c r="X15" s="65"/>
-      <c r="Y15" s="65"/>
+      <c r="S15" s="67"/>
+      <c r="T15" s="70"/>
+      <c r="U15" s="52"/>
+      <c r="V15" s="83"/>
+      <c r="W15" s="83"/>
+      <c r="X15" s="83"/>
+      <c r="Y15" s="83"/>
       <c r="Z15" s="13">
         <v>120.833333333333</v>
       </c>
@@ -7460,15 +7485,15 @@
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
-      <c r="B16" s="65"/>
-      <c r="C16" s="68"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="68"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="68"/>
-      <c r="J16" s="69"/>
+      <c r="B16" s="83"/>
+      <c r="C16" s="86"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="86"/>
+      <c r="F16" s="87"/>
+      <c r="G16" s="86"/>
+      <c r="H16" s="87"/>
+      <c r="I16" s="86"/>
+      <c r="J16" s="87"/>
       <c r="K16" s="13">
         <v>131</v>
       </c>
@@ -7478,18 +7503,18 @@
       <c r="M16" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="N16" s="65"/>
-      <c r="O16" s="65"/>
-      <c r="P16" s="72"/>
-      <c r="Q16" s="75"/>
-      <c r="R16" s="98"/>
-      <c r="S16" s="72"/>
-      <c r="T16" s="75"/>
-      <c r="U16" s="98"/>
-      <c r="V16" s="65"/>
-      <c r="W16" s="65"/>
-      <c r="X16" s="65"/>
-      <c r="Y16" s="65"/>
+      <c r="N16" s="83"/>
+      <c r="O16" s="83"/>
+      <c r="P16" s="67"/>
+      <c r="Q16" s="70"/>
+      <c r="R16" s="52"/>
+      <c r="S16" s="67"/>
+      <c r="T16" s="70"/>
+      <c r="U16" s="52"/>
+      <c r="V16" s="83"/>
+      <c r="W16" s="83"/>
+      <c r="X16" s="83"/>
+      <c r="Y16" s="83"/>
       <c r="Z16" s="13">
         <v>131</v>
       </c>
@@ -7507,15 +7532,15 @@
     </row>
     <row r="17" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12"/>
-      <c r="B17" s="65"/>
-      <c r="C17" s="68"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="68"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="68"/>
-      <c r="H17" s="69"/>
-      <c r="I17" s="68"/>
-      <c r="J17" s="69"/>
+      <c r="B17" s="83"/>
+      <c r="C17" s="86"/>
+      <c r="D17" s="87"/>
+      <c r="E17" s="86"/>
+      <c r="F17" s="87"/>
+      <c r="G17" s="86"/>
+      <c r="H17" s="87"/>
+      <c r="I17" s="86"/>
+      <c r="J17" s="87"/>
       <c r="K17" s="13">
         <v>141</v>
       </c>
@@ -7525,18 +7550,18 @@
       <c r="M17" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="N17" s="70"/>
-      <c r="O17" s="70"/>
-      <c r="P17" s="72"/>
-      <c r="Q17" s="75"/>
-      <c r="R17" s="98"/>
-      <c r="S17" s="72"/>
-      <c r="T17" s="75"/>
-      <c r="U17" s="98"/>
-      <c r="V17" s="70"/>
-      <c r="W17" s="70"/>
-      <c r="X17" s="70"/>
-      <c r="Y17" s="70"/>
+      <c r="N17" s="88"/>
+      <c r="O17" s="88"/>
+      <c r="P17" s="67"/>
+      <c r="Q17" s="70"/>
+      <c r="R17" s="52"/>
+      <c r="S17" s="67"/>
+      <c r="T17" s="70"/>
+      <c r="U17" s="52"/>
+      <c r="V17" s="88"/>
+      <c r="W17" s="88"/>
+      <c r="X17" s="88"/>
+      <c r="Y17" s="88"/>
       <c r="Z17" s="13">
         <v>141</v>
       </c>
@@ -7555,22 +7580,22 @@
     <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" s="28"/>
       <c r="B18" s="32"/>
-      <c r="C18" s="108" t="s">
+      <c r="C18" s="113" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="109"/>
-      <c r="E18" s="108" t="s">
+      <c r="D18" s="119"/>
+      <c r="E18" s="113" t="s">
         <v>66</v>
       </c>
-      <c r="F18" s="109"/>
-      <c r="G18" s="108" t="s">
+      <c r="F18" s="119"/>
+      <c r="G18" s="113" t="s">
         <v>67</v>
       </c>
-      <c r="H18" s="110"/>
-      <c r="I18" s="108" t="s">
+      <c r="H18" s="114"/>
+      <c r="I18" s="113" t="s">
         <v>73</v>
       </c>
-      <c r="J18" s="110"/>
+      <c r="J18" s="114"/>
       <c r="K18" s="13">
         <v>150.833333333333</v>
       </c>
@@ -7578,28 +7603,28 @@
         <v>160</v>
       </c>
       <c r="M18" s="15"/>
-      <c r="N18" s="111" t="s">
+      <c r="N18" s="110" t="s">
         <v>68</v>
       </c>
-      <c r="O18" s="111" t="s">
+      <c r="O18" s="110" t="s">
         <v>69</v>
       </c>
-      <c r="P18" s="72"/>
-      <c r="Q18" s="75"/>
-      <c r="R18" s="98"/>
-      <c r="S18" s="72"/>
-      <c r="T18" s="75"/>
-      <c r="U18" s="98"/>
-      <c r="V18" s="111" t="s">
+      <c r="P18" s="67"/>
+      <c r="Q18" s="70"/>
+      <c r="R18" s="52"/>
+      <c r="S18" s="67"/>
+      <c r="T18" s="70"/>
+      <c r="U18" s="52"/>
+      <c r="V18" s="110" t="s">
         <v>70</v>
       </c>
-      <c r="W18" s="111" t="s">
+      <c r="W18" s="110" t="s">
         <v>71</v>
       </c>
-      <c r="X18" s="111" t="s">
+      <c r="X18" s="110" t="s">
         <v>72</v>
       </c>
-      <c r="Y18" s="111" t="s">
+      <c r="Y18" s="110" t="s">
         <v>72</v>
       </c>
       <c r="Z18" s="13">
@@ -7620,14 +7645,14 @@
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" s="28"/>
       <c r="B19" s="33"/>
-      <c r="C19" s="112"/>
-      <c r="D19" s="113"/>
-      <c r="E19" s="112"/>
-      <c r="F19" s="113"/>
-      <c r="G19" s="112"/>
-      <c r="H19" s="114"/>
-      <c r="I19" s="112"/>
-      <c r="J19" s="114"/>
+      <c r="C19" s="115"/>
+      <c r="D19" s="120"/>
+      <c r="E19" s="115"/>
+      <c r="F19" s="120"/>
+      <c r="G19" s="115"/>
+      <c r="H19" s="116"/>
+      <c r="I19" s="115"/>
+      <c r="J19" s="116"/>
       <c r="K19" s="13">
         <v>161</v>
       </c>
@@ -7635,18 +7660,18 @@
         <v>170</v>
       </c>
       <c r="M19" s="15"/>
-      <c r="N19" s="115"/>
-      <c r="O19" s="115"/>
-      <c r="P19" s="72"/>
-      <c r="Q19" s="75"/>
-      <c r="R19" s="98"/>
-      <c r="S19" s="72"/>
-      <c r="T19" s="75"/>
-      <c r="U19" s="98"/>
-      <c r="V19" s="115"/>
-      <c r="W19" s="115"/>
-      <c r="X19" s="115"/>
-      <c r="Y19" s="115"/>
+      <c r="N19" s="111"/>
+      <c r="O19" s="111"/>
+      <c r="P19" s="67"/>
+      <c r="Q19" s="70"/>
+      <c r="R19" s="52"/>
+      <c r="S19" s="67"/>
+      <c r="T19" s="70"/>
+      <c r="U19" s="52"/>
+      <c r="V19" s="111"/>
+      <c r="W19" s="111"/>
+      <c r="X19" s="111"/>
+      <c r="Y19" s="111"/>
       <c r="Z19" s="13">
         <v>161</v>
       </c>
@@ -7665,14 +7690,14 @@
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" s="28"/>
       <c r="B20" s="33"/>
-      <c r="C20" s="112"/>
-      <c r="D20" s="113"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="113"/>
-      <c r="G20" s="112"/>
-      <c r="H20" s="114"/>
-      <c r="I20" s="112"/>
-      <c r="J20" s="114"/>
+      <c r="C20" s="115"/>
+      <c r="D20" s="120"/>
+      <c r="E20" s="115"/>
+      <c r="F20" s="120"/>
+      <c r="G20" s="115"/>
+      <c r="H20" s="116"/>
+      <c r="I20" s="115"/>
+      <c r="J20" s="116"/>
       <c r="K20" s="13">
         <v>171</v>
       </c>
@@ -7680,18 +7705,18 @@
         <v>180</v>
       </c>
       <c r="M20" s="15"/>
-      <c r="N20" s="115"/>
-      <c r="O20" s="115"/>
-      <c r="P20" s="72"/>
-      <c r="Q20" s="75"/>
-      <c r="R20" s="98"/>
-      <c r="S20" s="72"/>
-      <c r="T20" s="75"/>
-      <c r="U20" s="98"/>
-      <c r="V20" s="115"/>
-      <c r="W20" s="115"/>
-      <c r="X20" s="115"/>
-      <c r="Y20" s="115"/>
+      <c r="N20" s="111"/>
+      <c r="O20" s="111"/>
+      <c r="P20" s="67"/>
+      <c r="Q20" s="70"/>
+      <c r="R20" s="52"/>
+      <c r="S20" s="67"/>
+      <c r="T20" s="70"/>
+      <c r="U20" s="52"/>
+      <c r="V20" s="111"/>
+      <c r="W20" s="111"/>
+      <c r="X20" s="111"/>
+      <c r="Y20" s="111"/>
       <c r="Z20" s="13">
         <v>171</v>
       </c>
@@ -7710,14 +7735,14 @@
     <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" s="28"/>
       <c r="B21" s="33"/>
-      <c r="C21" s="112"/>
-      <c r="D21" s="113"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="112"/>
-      <c r="H21" s="114"/>
-      <c r="I21" s="112"/>
-      <c r="J21" s="114"/>
+      <c r="C21" s="115"/>
+      <c r="D21" s="120"/>
+      <c r="E21" s="115"/>
+      <c r="F21" s="120"/>
+      <c r="G21" s="115"/>
+      <c r="H21" s="116"/>
+      <c r="I21" s="115"/>
+      <c r="J21" s="116"/>
       <c r="K21" s="13">
         <v>181</v>
       </c>
@@ -7725,18 +7750,18 @@
         <v>190</v>
       </c>
       <c r="M21" s="15"/>
-      <c r="N21" s="115"/>
-      <c r="O21" s="115"/>
-      <c r="P21" s="72"/>
-      <c r="Q21" s="75"/>
-      <c r="R21" s="98"/>
-      <c r="S21" s="72"/>
-      <c r="T21" s="75"/>
-      <c r="U21" s="98"/>
-      <c r="V21" s="115"/>
-      <c r="W21" s="115"/>
-      <c r="X21" s="115"/>
-      <c r="Y21" s="115"/>
+      <c r="N21" s="111"/>
+      <c r="O21" s="111"/>
+      <c r="P21" s="67"/>
+      <c r="Q21" s="70"/>
+      <c r="R21" s="52"/>
+      <c r="S21" s="67"/>
+      <c r="T21" s="70"/>
+      <c r="U21" s="52"/>
+      <c r="V21" s="111"/>
+      <c r="W21" s="111"/>
+      <c r="X21" s="111"/>
+      <c r="Y21" s="111"/>
       <c r="Z21" s="13">
         <v>181</v>
       </c>
@@ -7755,14 +7780,14 @@
     <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" s="28"/>
       <c r="B22" s="33"/>
-      <c r="C22" s="112"/>
-      <c r="D22" s="113"/>
-      <c r="E22" s="112"/>
-      <c r="F22" s="113"/>
-      <c r="G22" s="112"/>
-      <c r="H22" s="114"/>
-      <c r="I22" s="112"/>
-      <c r="J22" s="114"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="120"/>
+      <c r="E22" s="115"/>
+      <c r="F22" s="120"/>
+      <c r="G22" s="115"/>
+      <c r="H22" s="116"/>
+      <c r="I22" s="115"/>
+      <c r="J22" s="116"/>
       <c r="K22" s="13">
         <v>191</v>
       </c>
@@ -7770,18 +7795,18 @@
         <v>200</v>
       </c>
       <c r="M22" s="15"/>
-      <c r="N22" s="115"/>
-      <c r="O22" s="115"/>
-      <c r="P22" s="73"/>
-      <c r="Q22" s="76"/>
-      <c r="R22" s="104"/>
-      <c r="S22" s="72"/>
-      <c r="T22" s="75"/>
-      <c r="U22" s="98"/>
-      <c r="V22" s="115"/>
-      <c r="W22" s="115"/>
-      <c r="X22" s="115"/>
-      <c r="Y22" s="115"/>
+      <c r="N22" s="111"/>
+      <c r="O22" s="111"/>
+      <c r="P22" s="77"/>
+      <c r="Q22" s="79"/>
+      <c r="R22" s="80"/>
+      <c r="S22" s="67"/>
+      <c r="T22" s="70"/>
+      <c r="U22" s="52"/>
+      <c r="V22" s="111"/>
+      <c r="W22" s="111"/>
+      <c r="X22" s="111"/>
+      <c r="Y22" s="111"/>
       <c r="Z22" s="13">
         <v>191</v>
       </c>
@@ -7800,14 +7825,14 @@
     <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" s="28"/>
       <c r="B23" s="33"/>
-      <c r="C23" s="112"/>
-      <c r="D23" s="113"/>
-      <c r="E23" s="112"/>
-      <c r="F23" s="113"/>
-      <c r="G23" s="112"/>
-      <c r="H23" s="114"/>
-      <c r="I23" s="112"/>
-      <c r="J23" s="114"/>
+      <c r="C23" s="115"/>
+      <c r="D23" s="120"/>
+      <c r="E23" s="115"/>
+      <c r="F23" s="120"/>
+      <c r="G23" s="115"/>
+      <c r="H23" s="116"/>
+      <c r="I23" s="115"/>
+      <c r="J23" s="116"/>
       <c r="K23" s="13">
         <v>201</v>
       </c>
@@ -7815,24 +7840,24 @@
         <v>210</v>
       </c>
       <c r="M23" s="15"/>
-      <c r="N23" s="115"/>
-      <c r="O23" s="115"/>
-      <c r="P23" s="71">
+      <c r="N23" s="111"/>
+      <c r="O23" s="111"/>
+      <c r="P23" s="76">
         <v>201</v>
       </c>
-      <c r="Q23" s="74">
+      <c r="Q23" s="78">
         <v>255</v>
       </c>
-      <c r="R23" s="103" t="s">
+      <c r="R23" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="S23" s="72"/>
-      <c r="T23" s="75"/>
-      <c r="U23" s="98"/>
-      <c r="V23" s="115"/>
-      <c r="W23" s="115"/>
-      <c r="X23" s="115"/>
-      <c r="Y23" s="115"/>
+      <c r="S23" s="67"/>
+      <c r="T23" s="70"/>
+      <c r="U23" s="52"/>
+      <c r="V23" s="111"/>
+      <c r="W23" s="111"/>
+      <c r="X23" s="111"/>
+      <c r="Y23" s="111"/>
       <c r="Z23" s="13">
         <v>201</v>
       </c>
@@ -7851,14 +7876,14 @@
     <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" s="28"/>
       <c r="B24" s="33"/>
-      <c r="C24" s="112"/>
-      <c r="D24" s="113"/>
-      <c r="E24" s="112"/>
-      <c r="F24" s="113"/>
-      <c r="G24" s="112"/>
-      <c r="H24" s="114"/>
-      <c r="I24" s="112"/>
-      <c r="J24" s="114"/>
+      <c r="C24" s="115"/>
+      <c r="D24" s="120"/>
+      <c r="E24" s="115"/>
+      <c r="F24" s="120"/>
+      <c r="G24" s="115"/>
+      <c r="H24" s="116"/>
+      <c r="I24" s="115"/>
+      <c r="J24" s="116"/>
       <c r="K24" s="13">
         <v>210</v>
       </c>
@@ -7866,18 +7891,18 @@
         <v>220</v>
       </c>
       <c r="M24" s="15"/>
-      <c r="N24" s="115"/>
-      <c r="O24" s="115"/>
-      <c r="P24" s="72"/>
-      <c r="Q24" s="75"/>
-      <c r="R24" s="98"/>
-      <c r="S24" s="72"/>
-      <c r="T24" s="75"/>
-      <c r="U24" s="98"/>
-      <c r="V24" s="115"/>
-      <c r="W24" s="115"/>
-      <c r="X24" s="115"/>
-      <c r="Y24" s="115"/>
+      <c r="N24" s="111"/>
+      <c r="O24" s="111"/>
+      <c r="P24" s="67"/>
+      <c r="Q24" s="70"/>
+      <c r="R24" s="52"/>
+      <c r="S24" s="67"/>
+      <c r="T24" s="70"/>
+      <c r="U24" s="52"/>
+      <c r="V24" s="111"/>
+      <c r="W24" s="111"/>
+      <c r="X24" s="111"/>
+      <c r="Y24" s="111"/>
       <c r="Z24" s="13">
         <v>210</v>
       </c>
@@ -7896,14 +7921,14 @@
     <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" s="28"/>
       <c r="B25" s="33"/>
-      <c r="C25" s="112"/>
-      <c r="D25" s="113"/>
-      <c r="E25" s="112"/>
-      <c r="F25" s="113"/>
-      <c r="G25" s="112"/>
-      <c r="H25" s="114"/>
-      <c r="I25" s="112"/>
-      <c r="J25" s="114"/>
+      <c r="C25" s="115"/>
+      <c r="D25" s="120"/>
+      <c r="E25" s="115"/>
+      <c r="F25" s="120"/>
+      <c r="G25" s="115"/>
+      <c r="H25" s="116"/>
+      <c r="I25" s="115"/>
+      <c r="J25" s="116"/>
       <c r="K25" s="13">
         <v>221</v>
       </c>
@@ -7911,18 +7936,18 @@
         <v>230</v>
       </c>
       <c r="M25" s="15"/>
-      <c r="N25" s="115"/>
-      <c r="O25" s="115"/>
-      <c r="P25" s="72"/>
-      <c r="Q25" s="75"/>
-      <c r="R25" s="98"/>
-      <c r="S25" s="72"/>
-      <c r="T25" s="75"/>
-      <c r="U25" s="98"/>
-      <c r="V25" s="115"/>
-      <c r="W25" s="115"/>
-      <c r="X25" s="115"/>
-      <c r="Y25" s="115"/>
+      <c r="N25" s="111"/>
+      <c r="O25" s="111"/>
+      <c r="P25" s="67"/>
+      <c r="Q25" s="70"/>
+      <c r="R25" s="52"/>
+      <c r="S25" s="67"/>
+      <c r="T25" s="70"/>
+      <c r="U25" s="52"/>
+      <c r="V25" s="111"/>
+      <c r="W25" s="111"/>
+      <c r="X25" s="111"/>
+      <c r="Y25" s="111"/>
       <c r="Z25" s="13">
         <v>221</v>
       </c>
@@ -7941,14 +7966,14 @@
     <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26" s="28"/>
       <c r="B26" s="33"/>
-      <c r="C26" s="112"/>
-      <c r="D26" s="113"/>
-      <c r="E26" s="112"/>
-      <c r="F26" s="113"/>
-      <c r="G26" s="112"/>
-      <c r="H26" s="114"/>
-      <c r="I26" s="112"/>
-      <c r="J26" s="114"/>
+      <c r="C26" s="115"/>
+      <c r="D26" s="120"/>
+      <c r="E26" s="115"/>
+      <c r="F26" s="120"/>
+      <c r="G26" s="115"/>
+      <c r="H26" s="116"/>
+      <c r="I26" s="115"/>
+      <c r="J26" s="116"/>
       <c r="K26" s="13">
         <v>231</v>
       </c>
@@ -7956,18 +7981,18 @@
         <v>240</v>
       </c>
       <c r="M26" s="15"/>
-      <c r="N26" s="115"/>
-      <c r="O26" s="115"/>
-      <c r="P26" s="72"/>
-      <c r="Q26" s="75"/>
-      <c r="R26" s="98"/>
-      <c r="S26" s="72"/>
-      <c r="T26" s="75"/>
-      <c r="U26" s="98"/>
-      <c r="V26" s="115"/>
-      <c r="W26" s="115"/>
-      <c r="X26" s="115"/>
-      <c r="Y26" s="115"/>
+      <c r="N26" s="111"/>
+      <c r="O26" s="111"/>
+      <c r="P26" s="67"/>
+      <c r="Q26" s="70"/>
+      <c r="R26" s="52"/>
+      <c r="S26" s="67"/>
+      <c r="T26" s="70"/>
+      <c r="U26" s="52"/>
+      <c r="V26" s="111"/>
+      <c r="W26" s="111"/>
+      <c r="X26" s="111"/>
+      <c r="Y26" s="111"/>
       <c r="Z26" s="13">
         <v>231</v>
       </c>
@@ -7986,14 +8011,14 @@
     <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" s="28"/>
       <c r="B27" s="33"/>
-      <c r="C27" s="112"/>
-      <c r="D27" s="113"/>
-      <c r="E27" s="112"/>
-      <c r="F27" s="113"/>
-      <c r="G27" s="112"/>
-      <c r="H27" s="114"/>
-      <c r="I27" s="112"/>
-      <c r="J27" s="114"/>
+      <c r="C27" s="115"/>
+      <c r="D27" s="120"/>
+      <c r="E27" s="115"/>
+      <c r="F27" s="120"/>
+      <c r="G27" s="115"/>
+      <c r="H27" s="116"/>
+      <c r="I27" s="115"/>
+      <c r="J27" s="116"/>
       <c r="K27" s="13">
         <v>241</v>
       </c>
@@ -8001,18 +8026,18 @@
         <v>250</v>
       </c>
       <c r="M27" s="15"/>
-      <c r="N27" s="115"/>
-      <c r="O27" s="115"/>
-      <c r="P27" s="72"/>
-      <c r="Q27" s="75"/>
-      <c r="R27" s="98"/>
-      <c r="S27" s="72"/>
-      <c r="T27" s="75"/>
-      <c r="U27" s="98"/>
-      <c r="V27" s="115"/>
-      <c r="W27" s="115"/>
-      <c r="X27" s="115"/>
-      <c r="Y27" s="115"/>
+      <c r="N27" s="111"/>
+      <c r="O27" s="111"/>
+      <c r="P27" s="67"/>
+      <c r="Q27" s="70"/>
+      <c r="R27" s="52"/>
+      <c r="S27" s="67"/>
+      <c r="T27" s="70"/>
+      <c r="U27" s="52"/>
+      <c r="V27" s="111"/>
+      <c r="W27" s="111"/>
+      <c r="X27" s="111"/>
+      <c r="Y27" s="111"/>
       <c r="Z27" s="13">
         <v>241</v>
       </c>
@@ -8031,13 +8056,13 @@
     <row r="28" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="29"/>
       <c r="B28" s="34"/>
-      <c r="C28" s="116"/>
-      <c r="D28" s="117"/>
-      <c r="E28" s="116"/>
-      <c r="F28" s="117"/>
-      <c r="G28" s="116"/>
+      <c r="C28" s="117"/>
+      <c r="D28" s="121"/>
+      <c r="E28" s="117"/>
+      <c r="F28" s="121"/>
+      <c r="G28" s="117"/>
       <c r="H28" s="118"/>
-      <c r="I28" s="116"/>
+      <c r="I28" s="117"/>
       <c r="J28" s="118"/>
       <c r="K28" s="18">
         <v>251</v>
@@ -8046,18 +8071,18 @@
         <v>255</v>
       </c>
       <c r="M28" s="20"/>
-      <c r="N28" s="119"/>
-      <c r="O28" s="119"/>
-      <c r="P28" s="94"/>
-      <c r="Q28" s="96"/>
-      <c r="R28" s="99"/>
-      <c r="S28" s="94"/>
-      <c r="T28" s="96"/>
-      <c r="U28" s="99"/>
-      <c r="V28" s="119"/>
-      <c r="W28" s="119"/>
-      <c r="X28" s="119"/>
-      <c r="Y28" s="119"/>
+      <c r="N28" s="112"/>
+      <c r="O28" s="112"/>
+      <c r="P28" s="68"/>
+      <c r="Q28" s="71"/>
+      <c r="R28" s="53"/>
+      <c r="S28" s="68"/>
+      <c r="T28" s="71"/>
+      <c r="U28" s="53"/>
+      <c r="V28" s="112"/>
+      <c r="W28" s="112"/>
+      <c r="X28" s="112"/>
+      <c r="Y28" s="112"/>
       <c r="Z28" s="18">
         <v>251</v>
       </c>
@@ -8075,16 +8100,31 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="X18:X28"/>
-    <mergeCell ref="Y18:Y28"/>
-    <mergeCell ref="P23:P28"/>
-    <mergeCell ref="Q23:Q28"/>
-    <mergeCell ref="R23:R28"/>
-    <mergeCell ref="C18:D28"/>
-    <mergeCell ref="E18:F28"/>
-    <mergeCell ref="G18:H28"/>
-    <mergeCell ref="I18:J28"/>
-    <mergeCell ref="N18:N28"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N3:N17"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="AC1:AE1"/>
+    <mergeCell ref="B3:B17"/>
+    <mergeCell ref="C3:D17"/>
+    <mergeCell ref="E3:F17"/>
+    <mergeCell ref="G3:H17"/>
+    <mergeCell ref="I3:J17"/>
+    <mergeCell ref="W3:W17"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:U2"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="AC2:AE2"/>
     <mergeCell ref="O18:O28"/>
     <mergeCell ref="X3:X17"/>
     <mergeCell ref="Y3:Y17"/>
@@ -8101,9 +8141,1505 @@
     <mergeCell ref="T3:T28"/>
     <mergeCell ref="U3:U28"/>
     <mergeCell ref="V3:V17"/>
+    <mergeCell ref="C18:D28"/>
+    <mergeCell ref="E18:F28"/>
+    <mergeCell ref="G18:H28"/>
+    <mergeCell ref="I18:J28"/>
+    <mergeCell ref="N18:N28"/>
+    <mergeCell ref="X18:X28"/>
+    <mergeCell ref="Y18:Y28"/>
+    <mergeCell ref="P23:P28"/>
+    <mergeCell ref="Q23:Q28"/>
+    <mergeCell ref="R23:R28"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BC37298-6270-4D92-809C-0D876ABD187C}">
+  <dimension ref="A1:AE28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="AH31" sqref="AH31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="31" max="31" width="15.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="46">
+        <v>1</v>
+      </c>
+      <c r="C1" s="105">
+        <v>2</v>
+      </c>
+      <c r="D1" s="106"/>
+      <c r="E1" s="105">
+        <v>3</v>
+      </c>
+      <c r="F1" s="106"/>
+      <c r="G1" s="105">
+        <v>4</v>
+      </c>
+      <c r="H1" s="106"/>
+      <c r="I1" s="105">
+        <v>5</v>
+      </c>
+      <c r="J1" s="106"/>
+      <c r="K1" s="108">
+        <v>6</v>
+      </c>
+      <c r="L1" s="94"/>
+      <c r="M1" s="95"/>
+      <c r="N1" s="46">
+        <v>7</v>
+      </c>
+      <c r="O1" s="3">
+        <v>8</v>
+      </c>
+      <c r="P1" s="108">
+        <v>9</v>
+      </c>
+      <c r="Q1" s="94"/>
+      <c r="R1" s="109"/>
+      <c r="S1" s="93">
+        <v>10</v>
+      </c>
+      <c r="T1" s="94"/>
+      <c r="U1" s="95"/>
+      <c r="V1" s="46">
+        <v>11</v>
+      </c>
+      <c r="W1" s="3">
+        <v>12</v>
+      </c>
+      <c r="X1" s="46">
+        <v>13</v>
+      </c>
+      <c r="Y1" s="46">
+        <v>14</v>
+      </c>
+      <c r="Z1" s="93">
+        <v>15</v>
+      </c>
+      <c r="AA1" s="94"/>
+      <c r="AB1" s="95"/>
+      <c r="AC1" s="108">
+        <v>16</v>
+      </c>
+      <c r="AD1" s="94"/>
+      <c r="AE1" s="95"/>
+    </row>
+    <row r="2" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="96" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="97"/>
+      <c r="E2" s="98" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="97"/>
+      <c r="G2" s="96" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="97"/>
+      <c r="I2" s="96" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" s="97"/>
+      <c r="K2" s="102" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="103"/>
+      <c r="M2" s="101"/>
+      <c r="N2" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="P2" s="102" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="103"/>
+      <c r="R2" s="104"/>
+      <c r="S2" s="99" t="s">
+        <v>11</v>
+      </c>
+      <c r="T2" s="103"/>
+      <c r="U2" s="101"/>
+      <c r="V2" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="X2" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y2" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z2" s="99" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA2" s="103"/>
+      <c r="AB2" s="101"/>
+      <c r="AC2" s="102" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD2" s="103"/>
+      <c r="AE2" s="101"/>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="82" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="84" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="85"/>
+      <c r="E3" s="84" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="85"/>
+      <c r="G3" s="84" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="85"/>
+      <c r="I3" s="84" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="85"/>
+      <c r="K3" s="8">
+        <v>0</v>
+      </c>
+      <c r="L3" s="9">
+        <v>10</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3" s="82" t="s">
+        <v>15</v>
+      </c>
+      <c r="O3" s="82" t="s">
+        <v>15</v>
+      </c>
+      <c r="P3" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="9">
+        <v>10</v>
+      </c>
+      <c r="R3" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="S3" s="66">
+        <v>0</v>
+      </c>
+      <c r="T3" s="69">
+        <v>255</v>
+      </c>
+      <c r="U3" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="V3" s="82" t="s">
+        <v>15</v>
+      </c>
+      <c r="W3" s="82" t="s">
+        <v>15</v>
+      </c>
+      <c r="X3" s="82" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y3" s="82" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z3" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="9">
+        <v>10</v>
+      </c>
+      <c r="AB3" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC3" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="9">
+        <v>10</v>
+      </c>
+      <c r="AE3" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A4" s="12"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="13">
+        <v>11</v>
+      </c>
+      <c r="L4" s="14">
+        <v>20</v>
+      </c>
+      <c r="M4" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="N4" s="83"/>
+      <c r="O4" s="83"/>
+      <c r="P4" s="13">
+        <v>11</v>
+      </c>
+      <c r="Q4" s="14">
+        <v>20</v>
+      </c>
+      <c r="R4" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="S4" s="67"/>
+      <c r="T4" s="70"/>
+      <c r="U4" s="52"/>
+      <c r="V4" s="83"/>
+      <c r="W4" s="83"/>
+      <c r="X4" s="83"/>
+      <c r="Y4" s="83"/>
+      <c r="Z4" s="48">
+        <v>11</v>
+      </c>
+      <c r="AA4" s="49">
+        <v>20</v>
+      </c>
+      <c r="AB4" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC4" s="13">
+        <v>11</v>
+      </c>
+      <c r="AD4" s="14">
+        <v>20</v>
+      </c>
+      <c r="AE4" s="15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A5" s="12"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="86"/>
+      <c r="J5" s="87"/>
+      <c r="K5" s="13">
+        <v>21</v>
+      </c>
+      <c r="L5" s="14">
+        <v>30</v>
+      </c>
+      <c r="M5" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="N5" s="83"/>
+      <c r="O5" s="83"/>
+      <c r="P5" s="13">
+        <v>21</v>
+      </c>
+      <c r="Q5" s="14">
+        <v>30</v>
+      </c>
+      <c r="R5" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="S5" s="67"/>
+      <c r="T5" s="70"/>
+      <c r="U5" s="52"/>
+      <c r="V5" s="83"/>
+      <c r="W5" s="83"/>
+      <c r="X5" s="83"/>
+      <c r="Y5" s="83"/>
+      <c r="Z5" s="48">
+        <v>21</v>
+      </c>
+      <c r="AA5" s="49">
+        <v>30</v>
+      </c>
+      <c r="AB5" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC5" s="13">
+        <v>21</v>
+      </c>
+      <c r="AD5" s="14">
+        <v>30</v>
+      </c>
+      <c r="AE5" s="15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A6" s="12"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="86"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="87"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="87"/>
+      <c r="K6" s="13">
+        <v>31</v>
+      </c>
+      <c r="L6" s="14">
+        <v>40</v>
+      </c>
+      <c r="M6" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="N6" s="83"/>
+      <c r="O6" s="83"/>
+      <c r="P6" s="76">
+        <v>31</v>
+      </c>
+      <c r="Q6" s="78">
+        <v>110</v>
+      </c>
+      <c r="R6" s="73" t="s">
+        <v>42</v>
+      </c>
+      <c r="S6" s="67"/>
+      <c r="T6" s="70"/>
+      <c r="U6" s="52"/>
+      <c r="V6" s="83"/>
+      <c r="W6" s="83"/>
+      <c r="X6" s="83"/>
+      <c r="Y6" s="83"/>
+      <c r="Z6" s="13">
+        <v>31</v>
+      </c>
+      <c r="AA6" s="14">
+        <v>40</v>
+      </c>
+      <c r="AB6" s="15"/>
+      <c r="AC6" s="13">
+        <v>31</v>
+      </c>
+      <c r="AD6" s="14">
+        <v>40</v>
+      </c>
+      <c r="AE6" s="15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A7" s="12"/>
+      <c r="B7" s="83"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="87"/>
+      <c r="I7" s="86"/>
+      <c r="J7" s="87"/>
+      <c r="K7" s="13">
+        <v>41</v>
+      </c>
+      <c r="L7" s="14">
+        <v>50</v>
+      </c>
+      <c r="M7" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="N7" s="83"/>
+      <c r="O7" s="83"/>
+      <c r="P7" s="67"/>
+      <c r="Q7" s="70"/>
+      <c r="R7" s="74"/>
+      <c r="S7" s="67"/>
+      <c r="T7" s="70"/>
+      <c r="U7" s="52"/>
+      <c r="V7" s="83"/>
+      <c r="W7" s="83"/>
+      <c r="X7" s="83"/>
+      <c r="Y7" s="83"/>
+      <c r="Z7" s="13">
+        <v>41</v>
+      </c>
+      <c r="AA7" s="14">
+        <v>50</v>
+      </c>
+      <c r="AB7" s="15"/>
+      <c r="AC7" s="13">
+        <v>41</v>
+      </c>
+      <c r="AD7" s="14">
+        <v>50</v>
+      </c>
+      <c r="AE7" s="15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A8" s="12"/>
+      <c r="B8" s="83"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="87"/>
+      <c r="G8" s="86"/>
+      <c r="H8" s="87"/>
+      <c r="I8" s="86"/>
+      <c r="J8" s="87"/>
+      <c r="K8" s="13">
+        <v>51</v>
+      </c>
+      <c r="L8" s="14">
+        <v>60</v>
+      </c>
+      <c r="M8" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="N8" s="83"/>
+      <c r="O8" s="83"/>
+      <c r="P8" s="67"/>
+      <c r="Q8" s="70"/>
+      <c r="R8" s="74"/>
+      <c r="S8" s="67"/>
+      <c r="T8" s="70"/>
+      <c r="U8" s="52"/>
+      <c r="V8" s="83"/>
+      <c r="W8" s="83"/>
+      <c r="X8" s="83"/>
+      <c r="Y8" s="83"/>
+      <c r="Z8" s="13">
+        <v>51</v>
+      </c>
+      <c r="AA8" s="14">
+        <v>60</v>
+      </c>
+      <c r="AB8" s="15"/>
+      <c r="AC8" s="13">
+        <v>51</v>
+      </c>
+      <c r="AD8" s="14">
+        <v>60</v>
+      </c>
+      <c r="AE8" s="15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A9" s="12"/>
+      <c r="B9" s="83"/>
+      <c r="C9" s="86"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="86"/>
+      <c r="F9" s="87"/>
+      <c r="G9" s="86"/>
+      <c r="H9" s="87"/>
+      <c r="I9" s="86"/>
+      <c r="J9" s="87"/>
+      <c r="K9" s="13">
+        <v>61</v>
+      </c>
+      <c r="L9" s="14">
+        <v>70</v>
+      </c>
+      <c r="M9" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="N9" s="83"/>
+      <c r="O9" s="83"/>
+      <c r="P9" s="67"/>
+      <c r="Q9" s="70"/>
+      <c r="R9" s="74"/>
+      <c r="S9" s="67"/>
+      <c r="T9" s="70"/>
+      <c r="U9" s="52"/>
+      <c r="V9" s="83"/>
+      <c r="W9" s="83"/>
+      <c r="X9" s="83"/>
+      <c r="Y9" s="83"/>
+      <c r="Z9" s="13">
+        <v>61</v>
+      </c>
+      <c r="AA9" s="14">
+        <v>70</v>
+      </c>
+      <c r="AB9" s="15"/>
+      <c r="AC9" s="13">
+        <v>61</v>
+      </c>
+      <c r="AD9" s="14">
+        <v>70</v>
+      </c>
+      <c r="AE9" s="15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A10" s="12"/>
+      <c r="B10" s="83"/>
+      <c r="C10" s="86"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="86"/>
+      <c r="F10" s="87"/>
+      <c r="G10" s="86"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="86"/>
+      <c r="J10" s="87"/>
+      <c r="K10" s="13">
+        <v>71</v>
+      </c>
+      <c r="L10" s="14">
+        <v>80</v>
+      </c>
+      <c r="M10" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="N10" s="83"/>
+      <c r="O10" s="83"/>
+      <c r="P10" s="67"/>
+      <c r="Q10" s="70"/>
+      <c r="R10" s="74"/>
+      <c r="S10" s="67"/>
+      <c r="T10" s="70"/>
+      <c r="U10" s="52"/>
+      <c r="V10" s="83"/>
+      <c r="W10" s="83"/>
+      <c r="X10" s="83"/>
+      <c r="Y10" s="83"/>
+      <c r="Z10" s="13">
+        <v>71</v>
+      </c>
+      <c r="AA10" s="14">
+        <v>80</v>
+      </c>
+      <c r="AB10" s="15"/>
+      <c r="AC10" s="13">
+        <v>71</v>
+      </c>
+      <c r="AD10" s="14">
+        <v>80</v>
+      </c>
+      <c r="AE10" s="15"/>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A11" s="12"/>
+      <c r="B11" s="83"/>
+      <c r="C11" s="86"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="86"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="86"/>
+      <c r="H11" s="87"/>
+      <c r="I11" s="86"/>
+      <c r="J11" s="87"/>
+      <c r="K11" s="13">
+        <v>81</v>
+      </c>
+      <c r="L11" s="14">
+        <v>90</v>
+      </c>
+      <c r="M11" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="N11" s="83"/>
+      <c r="O11" s="83"/>
+      <c r="P11" s="67"/>
+      <c r="Q11" s="70"/>
+      <c r="R11" s="74"/>
+      <c r="S11" s="67"/>
+      <c r="T11" s="70"/>
+      <c r="U11" s="52"/>
+      <c r="V11" s="83"/>
+      <c r="W11" s="83"/>
+      <c r="X11" s="83"/>
+      <c r="Y11" s="83"/>
+      <c r="Z11" s="13">
+        <v>81</v>
+      </c>
+      <c r="AA11" s="14">
+        <v>90</v>
+      </c>
+      <c r="AB11" s="15"/>
+      <c r="AC11" s="13">
+        <v>81</v>
+      </c>
+      <c r="AD11" s="14">
+        <v>90</v>
+      </c>
+      <c r="AE11" s="15"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A12" s="12"/>
+      <c r="B12" s="83"/>
+      <c r="C12" s="86"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="86"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="86"/>
+      <c r="H12" s="87"/>
+      <c r="I12" s="86"/>
+      <c r="J12" s="87"/>
+      <c r="K12" s="13">
+        <v>91</v>
+      </c>
+      <c r="L12" s="14">
+        <v>100</v>
+      </c>
+      <c r="M12" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="N12" s="83"/>
+      <c r="O12" s="83"/>
+      <c r="P12" s="67"/>
+      <c r="Q12" s="70"/>
+      <c r="R12" s="74"/>
+      <c r="S12" s="67"/>
+      <c r="T12" s="70"/>
+      <c r="U12" s="52"/>
+      <c r="V12" s="83"/>
+      <c r="W12" s="83"/>
+      <c r="X12" s="83"/>
+      <c r="Y12" s="83"/>
+      <c r="Z12" s="13">
+        <v>91</v>
+      </c>
+      <c r="AA12" s="14">
+        <v>100</v>
+      </c>
+      <c r="AB12" s="15"/>
+      <c r="AC12" s="13">
+        <v>91</v>
+      </c>
+      <c r="AD12" s="14">
+        <v>100</v>
+      </c>
+      <c r="AE12" s="15"/>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A13" s="12"/>
+      <c r="B13" s="83"/>
+      <c r="C13" s="86"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="86"/>
+      <c r="H13" s="87"/>
+      <c r="I13" s="86"/>
+      <c r="J13" s="87"/>
+      <c r="K13" s="13">
+        <v>101</v>
+      </c>
+      <c r="L13" s="14">
+        <v>110</v>
+      </c>
+      <c r="M13" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="N13" s="83"/>
+      <c r="O13" s="83"/>
+      <c r="P13" s="77"/>
+      <c r="Q13" s="79"/>
+      <c r="R13" s="75"/>
+      <c r="S13" s="67"/>
+      <c r="T13" s="70"/>
+      <c r="U13" s="52"/>
+      <c r="V13" s="83"/>
+      <c r="W13" s="83"/>
+      <c r="X13" s="83"/>
+      <c r="Y13" s="83"/>
+      <c r="Z13" s="13">
+        <v>101</v>
+      </c>
+      <c r="AA13" s="14">
+        <v>110</v>
+      </c>
+      <c r="AB13" s="15"/>
+      <c r="AC13" s="13">
+        <v>101</v>
+      </c>
+      <c r="AD13" s="14">
+        <v>110</v>
+      </c>
+      <c r="AE13" s="15"/>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A14" s="12"/>
+      <c r="B14" s="83"/>
+      <c r="C14" s="86"/>
+      <c r="D14" s="87"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="87"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="87"/>
+      <c r="I14" s="86"/>
+      <c r="J14" s="87"/>
+      <c r="K14" s="13">
+        <v>111</v>
+      </c>
+      <c r="L14" s="14">
+        <v>120</v>
+      </c>
+      <c r="M14" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="N14" s="83"/>
+      <c r="O14" s="83"/>
+      <c r="P14" s="13">
+        <v>111</v>
+      </c>
+      <c r="Q14" s="14">
+        <v>120</v>
+      </c>
+      <c r="R14" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="S14" s="67"/>
+      <c r="T14" s="70"/>
+      <c r="U14" s="52"/>
+      <c r="V14" s="83"/>
+      <c r="W14" s="83"/>
+      <c r="X14" s="83"/>
+      <c r="Y14" s="83"/>
+      <c r="Z14" s="13">
+        <v>111</v>
+      </c>
+      <c r="AA14" s="14">
+        <v>120</v>
+      </c>
+      <c r="AB14" s="15"/>
+      <c r="AC14" s="13">
+        <v>111</v>
+      </c>
+      <c r="AD14" s="14">
+        <v>120</v>
+      </c>
+      <c r="AE14" s="15"/>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A15" s="12"/>
+      <c r="B15" s="83"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="87"/>
+      <c r="G15" s="86"/>
+      <c r="H15" s="87"/>
+      <c r="I15" s="86"/>
+      <c r="J15" s="87"/>
+      <c r="K15" s="13">
+        <v>120.833333333333</v>
+      </c>
+      <c r="L15" s="14">
+        <v>130</v>
+      </c>
+      <c r="M15" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="N15" s="83"/>
+      <c r="O15" s="83"/>
+      <c r="P15" s="76">
+        <v>120.833333333333</v>
+      </c>
+      <c r="Q15" s="78">
+        <v>200</v>
+      </c>
+      <c r="R15" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="S15" s="67"/>
+      <c r="T15" s="70"/>
+      <c r="U15" s="52"/>
+      <c r="V15" s="83"/>
+      <c r="W15" s="83"/>
+      <c r="X15" s="83"/>
+      <c r="Y15" s="83"/>
+      <c r="Z15" s="13">
+        <v>120.833333333333</v>
+      </c>
+      <c r="AA15" s="14">
+        <v>130</v>
+      </c>
+      <c r="AB15" s="15"/>
+      <c r="AC15" s="13">
+        <v>120.833333333333</v>
+      </c>
+      <c r="AD15" s="14">
+        <v>130</v>
+      </c>
+      <c r="AE15" s="15"/>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A16" s="12"/>
+      <c r="B16" s="83"/>
+      <c r="C16" s="86"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="86"/>
+      <c r="F16" s="87"/>
+      <c r="G16" s="86"/>
+      <c r="H16" s="87"/>
+      <c r="I16" s="86"/>
+      <c r="J16" s="87"/>
+      <c r="K16" s="13">
+        <v>131</v>
+      </c>
+      <c r="L16" s="14">
+        <v>140</v>
+      </c>
+      <c r="M16" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="N16" s="83"/>
+      <c r="O16" s="83"/>
+      <c r="P16" s="67"/>
+      <c r="Q16" s="70"/>
+      <c r="R16" s="52"/>
+      <c r="S16" s="67"/>
+      <c r="T16" s="70"/>
+      <c r="U16" s="52"/>
+      <c r="V16" s="83"/>
+      <c r="W16" s="83"/>
+      <c r="X16" s="83"/>
+      <c r="Y16" s="83"/>
+      <c r="Z16" s="13">
+        <v>131</v>
+      </c>
+      <c r="AA16" s="14">
+        <v>140</v>
+      </c>
+      <c r="AB16" s="15"/>
+      <c r="AC16" s="13">
+        <v>131</v>
+      </c>
+      <c r="AD16" s="14">
+        <v>140</v>
+      </c>
+      <c r="AE16" s="15"/>
+    </row>
+    <row r="17" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="12"/>
+      <c r="B17" s="83"/>
+      <c r="C17" s="86"/>
+      <c r="D17" s="87"/>
+      <c r="E17" s="86"/>
+      <c r="F17" s="87"/>
+      <c r="G17" s="86"/>
+      <c r="H17" s="87"/>
+      <c r="I17" s="86"/>
+      <c r="J17" s="87"/>
+      <c r="K17" s="13">
+        <v>141</v>
+      </c>
+      <c r="L17" s="14">
+        <v>150</v>
+      </c>
+      <c r="M17" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="N17" s="88"/>
+      <c r="O17" s="88"/>
+      <c r="P17" s="67"/>
+      <c r="Q17" s="70"/>
+      <c r="R17" s="52"/>
+      <c r="S17" s="67"/>
+      <c r="T17" s="70"/>
+      <c r="U17" s="52"/>
+      <c r="V17" s="88"/>
+      <c r="W17" s="88"/>
+      <c r="X17" s="88"/>
+      <c r="Y17" s="88"/>
+      <c r="Z17" s="13">
+        <v>141</v>
+      </c>
+      <c r="AA17" s="14">
+        <v>150</v>
+      </c>
+      <c r="AB17" s="15"/>
+      <c r="AC17" s="13">
+        <v>141</v>
+      </c>
+      <c r="AD17" s="14">
+        <v>150</v>
+      </c>
+      <c r="AE17" s="15"/>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A18" s="28"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="113" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="119"/>
+      <c r="E18" s="113" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18" s="119"/>
+      <c r="G18" s="113" t="s">
+        <v>67</v>
+      </c>
+      <c r="H18" s="114"/>
+      <c r="I18" s="113" t="s">
+        <v>73</v>
+      </c>
+      <c r="J18" s="114"/>
+      <c r="K18" s="13">
+        <v>150.833333333333</v>
+      </c>
+      <c r="L18" s="14">
+        <v>160</v>
+      </c>
+      <c r="M18" s="15"/>
+      <c r="N18" s="110" t="s">
+        <v>68</v>
+      </c>
+      <c r="O18" s="110" t="s">
+        <v>69</v>
+      </c>
+      <c r="P18" s="67"/>
+      <c r="Q18" s="70"/>
+      <c r="R18" s="52"/>
+      <c r="S18" s="67"/>
+      <c r="T18" s="70"/>
+      <c r="U18" s="52"/>
+      <c r="V18" s="110" t="s">
+        <v>70</v>
+      </c>
+      <c r="W18" s="110" t="s">
+        <v>71</v>
+      </c>
+      <c r="X18" s="110" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y18" s="110" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z18" s="13">
+        <v>150.833333333333</v>
+      </c>
+      <c r="AA18" s="14">
+        <v>160</v>
+      </c>
+      <c r="AB18" s="15"/>
+      <c r="AC18" s="13">
+        <v>150.833333333333</v>
+      </c>
+      <c r="AD18" s="14">
+        <v>160</v>
+      </c>
+      <c r="AE18" s="15"/>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A19" s="28"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="115"/>
+      <c r="D19" s="120"/>
+      <c r="E19" s="115"/>
+      <c r="F19" s="120"/>
+      <c r="G19" s="115"/>
+      <c r="H19" s="116"/>
+      <c r="I19" s="115"/>
+      <c r="J19" s="116"/>
+      <c r="K19" s="13">
+        <v>161</v>
+      </c>
+      <c r="L19" s="14">
+        <v>170</v>
+      </c>
+      <c r="M19" s="15"/>
+      <c r="N19" s="111"/>
+      <c r="O19" s="111"/>
+      <c r="P19" s="67"/>
+      <c r="Q19" s="70"/>
+      <c r="R19" s="52"/>
+      <c r="S19" s="67"/>
+      <c r="T19" s="70"/>
+      <c r="U19" s="52"/>
+      <c r="V19" s="111"/>
+      <c r="W19" s="111"/>
+      <c r="X19" s="111"/>
+      <c r="Y19" s="111"/>
+      <c r="Z19" s="13">
+        <v>161</v>
+      </c>
+      <c r="AA19" s="14">
+        <v>170</v>
+      </c>
+      <c r="AB19" s="15"/>
+      <c r="AC19" s="13">
+        <v>161</v>
+      </c>
+      <c r="AD19" s="14">
+        <v>170</v>
+      </c>
+      <c r="AE19" s="15"/>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A20" s="28"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="115"/>
+      <c r="D20" s="120"/>
+      <c r="E20" s="115"/>
+      <c r="F20" s="120"/>
+      <c r="G20" s="115"/>
+      <c r="H20" s="116"/>
+      <c r="I20" s="115"/>
+      <c r="J20" s="116"/>
+      <c r="K20" s="13">
+        <v>171</v>
+      </c>
+      <c r="L20" s="14">
+        <v>180</v>
+      </c>
+      <c r="M20" s="15"/>
+      <c r="N20" s="111"/>
+      <c r="O20" s="111"/>
+      <c r="P20" s="67"/>
+      <c r="Q20" s="70"/>
+      <c r="R20" s="52"/>
+      <c r="S20" s="67"/>
+      <c r="T20" s="70"/>
+      <c r="U20" s="52"/>
+      <c r="V20" s="111"/>
+      <c r="W20" s="111"/>
+      <c r="X20" s="111"/>
+      <c r="Y20" s="111"/>
+      <c r="Z20" s="13">
+        <v>171</v>
+      </c>
+      <c r="AA20" s="14">
+        <v>180</v>
+      </c>
+      <c r="AB20" s="15"/>
+      <c r="AC20" s="13">
+        <v>171</v>
+      </c>
+      <c r="AD20" s="14">
+        <v>180</v>
+      </c>
+      <c r="AE20" s="15"/>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A21" s="28"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="115"/>
+      <c r="D21" s="120"/>
+      <c r="E21" s="115"/>
+      <c r="F21" s="120"/>
+      <c r="G21" s="115"/>
+      <c r="H21" s="116"/>
+      <c r="I21" s="115"/>
+      <c r="J21" s="116"/>
+      <c r="K21" s="13">
+        <v>181</v>
+      </c>
+      <c r="L21" s="14">
+        <v>190</v>
+      </c>
+      <c r="M21" s="15"/>
+      <c r="N21" s="111"/>
+      <c r="O21" s="111"/>
+      <c r="P21" s="67"/>
+      <c r="Q21" s="70"/>
+      <c r="R21" s="52"/>
+      <c r="S21" s="67"/>
+      <c r="T21" s="70"/>
+      <c r="U21" s="52"/>
+      <c r="V21" s="111"/>
+      <c r="W21" s="111"/>
+      <c r="X21" s="111"/>
+      <c r="Y21" s="111"/>
+      <c r="Z21" s="13">
+        <v>181</v>
+      </c>
+      <c r="AA21" s="14">
+        <v>190</v>
+      </c>
+      <c r="AB21" s="15"/>
+      <c r="AC21" s="13">
+        <v>181</v>
+      </c>
+      <c r="AD21" s="14">
+        <v>190</v>
+      </c>
+      <c r="AE21" s="15"/>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A22" s="28"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="120"/>
+      <c r="E22" s="115"/>
+      <c r="F22" s="120"/>
+      <c r="G22" s="115"/>
+      <c r="H22" s="116"/>
+      <c r="I22" s="115"/>
+      <c r="J22" s="116"/>
+      <c r="K22" s="13">
+        <v>191</v>
+      </c>
+      <c r="L22" s="14">
+        <v>200</v>
+      </c>
+      <c r="M22" s="15"/>
+      <c r="N22" s="111"/>
+      <c r="O22" s="111"/>
+      <c r="P22" s="77"/>
+      <c r="Q22" s="79"/>
+      <c r="R22" s="80"/>
+      <c r="S22" s="67"/>
+      <c r="T22" s="70"/>
+      <c r="U22" s="52"/>
+      <c r="V22" s="111"/>
+      <c r="W22" s="111"/>
+      <c r="X22" s="111"/>
+      <c r="Y22" s="111"/>
+      <c r="Z22" s="13">
+        <v>191</v>
+      </c>
+      <c r="AA22" s="14">
+        <v>200</v>
+      </c>
+      <c r="AB22" s="15"/>
+      <c r="AC22" s="13">
+        <v>191</v>
+      </c>
+      <c r="AD22" s="14">
+        <v>200</v>
+      </c>
+      <c r="AE22" s="15"/>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A23" s="28"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="115"/>
+      <c r="D23" s="120"/>
+      <c r="E23" s="115"/>
+      <c r="F23" s="120"/>
+      <c r="G23" s="115"/>
+      <c r="H23" s="116"/>
+      <c r="I23" s="115"/>
+      <c r="J23" s="116"/>
+      <c r="K23" s="13">
+        <v>201</v>
+      </c>
+      <c r="L23" s="14">
+        <v>210</v>
+      </c>
+      <c r="M23" s="15"/>
+      <c r="N23" s="111"/>
+      <c r="O23" s="111"/>
+      <c r="P23" s="76">
+        <v>201</v>
+      </c>
+      <c r="Q23" s="78">
+        <v>255</v>
+      </c>
+      <c r="R23" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="S23" s="67"/>
+      <c r="T23" s="70"/>
+      <c r="U23" s="52"/>
+      <c r="V23" s="111"/>
+      <c r="W23" s="111"/>
+      <c r="X23" s="111"/>
+      <c r="Y23" s="111"/>
+      <c r="Z23" s="13">
+        <v>201</v>
+      </c>
+      <c r="AA23" s="14">
+        <v>210</v>
+      </c>
+      <c r="AB23" s="15"/>
+      <c r="AC23" s="13">
+        <v>201</v>
+      </c>
+      <c r="AD23" s="14">
+        <v>210</v>
+      </c>
+      <c r="AE23" s="15"/>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A24" s="28"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="115"/>
+      <c r="D24" s="120"/>
+      <c r="E24" s="115"/>
+      <c r="F24" s="120"/>
+      <c r="G24" s="115"/>
+      <c r="H24" s="116"/>
+      <c r="I24" s="115"/>
+      <c r="J24" s="116"/>
+      <c r="K24" s="13">
+        <v>210</v>
+      </c>
+      <c r="L24" s="14">
+        <v>220</v>
+      </c>
+      <c r="M24" s="15"/>
+      <c r="N24" s="111"/>
+      <c r="O24" s="111"/>
+      <c r="P24" s="67"/>
+      <c r="Q24" s="70"/>
+      <c r="R24" s="52"/>
+      <c r="S24" s="67"/>
+      <c r="T24" s="70"/>
+      <c r="U24" s="52"/>
+      <c r="V24" s="111"/>
+      <c r="W24" s="111"/>
+      <c r="X24" s="111"/>
+      <c r="Y24" s="111"/>
+      <c r="Z24" s="13">
+        <v>210</v>
+      </c>
+      <c r="AA24" s="14">
+        <v>220</v>
+      </c>
+      <c r="AB24" s="15"/>
+      <c r="AC24" s="13">
+        <v>210</v>
+      </c>
+      <c r="AD24" s="14">
+        <v>220</v>
+      </c>
+      <c r="AE24" s="15"/>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A25" s="28"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="115"/>
+      <c r="D25" s="120"/>
+      <c r="E25" s="115"/>
+      <c r="F25" s="120"/>
+      <c r="G25" s="115"/>
+      <c r="H25" s="116"/>
+      <c r="I25" s="115"/>
+      <c r="J25" s="116"/>
+      <c r="K25" s="13">
+        <v>221</v>
+      </c>
+      <c r="L25" s="14">
+        <v>230</v>
+      </c>
+      <c r="M25" s="15"/>
+      <c r="N25" s="111"/>
+      <c r="O25" s="111"/>
+      <c r="P25" s="67"/>
+      <c r="Q25" s="70"/>
+      <c r="R25" s="52"/>
+      <c r="S25" s="67"/>
+      <c r="T25" s="70"/>
+      <c r="U25" s="52"/>
+      <c r="V25" s="111"/>
+      <c r="W25" s="111"/>
+      <c r="X25" s="111"/>
+      <c r="Y25" s="111"/>
+      <c r="Z25" s="13">
+        <v>221</v>
+      </c>
+      <c r="AA25" s="14">
+        <v>230</v>
+      </c>
+      <c r="AB25" s="15"/>
+      <c r="AC25" s="13">
+        <v>221</v>
+      </c>
+      <c r="AD25" s="14">
+        <v>230</v>
+      </c>
+      <c r="AE25" s="15"/>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A26" s="28"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="115"/>
+      <c r="D26" s="120"/>
+      <c r="E26" s="115"/>
+      <c r="F26" s="120"/>
+      <c r="G26" s="115"/>
+      <c r="H26" s="116"/>
+      <c r="I26" s="115"/>
+      <c r="J26" s="116"/>
+      <c r="K26" s="13">
+        <v>231</v>
+      </c>
+      <c r="L26" s="14">
+        <v>240</v>
+      </c>
+      <c r="M26" s="15"/>
+      <c r="N26" s="111"/>
+      <c r="O26" s="111"/>
+      <c r="P26" s="67"/>
+      <c r="Q26" s="70"/>
+      <c r="R26" s="52"/>
+      <c r="S26" s="67"/>
+      <c r="T26" s="70"/>
+      <c r="U26" s="52"/>
+      <c r="V26" s="111"/>
+      <c r="W26" s="111"/>
+      <c r="X26" s="111"/>
+      <c r="Y26" s="111"/>
+      <c r="Z26" s="13">
+        <v>231</v>
+      </c>
+      <c r="AA26" s="14">
+        <v>240</v>
+      </c>
+      <c r="AB26" s="15"/>
+      <c r="AC26" s="13">
+        <v>231</v>
+      </c>
+      <c r="AD26" s="14">
+        <v>240</v>
+      </c>
+      <c r="AE26" s="15"/>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A27" s="28"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="115"/>
+      <c r="D27" s="120"/>
+      <c r="E27" s="115"/>
+      <c r="F27" s="120"/>
+      <c r="G27" s="115"/>
+      <c r="H27" s="116"/>
+      <c r="I27" s="115"/>
+      <c r="J27" s="116"/>
+      <c r="K27" s="13">
+        <v>241</v>
+      </c>
+      <c r="L27" s="14">
+        <v>250</v>
+      </c>
+      <c r="M27" s="15"/>
+      <c r="N27" s="111"/>
+      <c r="O27" s="111"/>
+      <c r="P27" s="67"/>
+      <c r="Q27" s="70"/>
+      <c r="R27" s="52"/>
+      <c r="S27" s="67"/>
+      <c r="T27" s="70"/>
+      <c r="U27" s="52"/>
+      <c r="V27" s="111"/>
+      <c r="W27" s="111"/>
+      <c r="X27" s="111"/>
+      <c r="Y27" s="111"/>
+      <c r="Z27" s="13">
+        <v>241</v>
+      </c>
+      <c r="AA27" s="14">
+        <v>250</v>
+      </c>
+      <c r="AB27" s="15"/>
+      <c r="AC27" s="13">
+        <v>241</v>
+      </c>
+      <c r="AD27" s="14">
+        <v>250</v>
+      </c>
+      <c r="AE27" s="15"/>
+    </row>
+    <row r="28" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="29"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="117"/>
+      <c r="D28" s="121"/>
+      <c r="E28" s="117"/>
+      <c r="F28" s="121"/>
+      <c r="G28" s="117"/>
+      <c r="H28" s="118"/>
+      <c r="I28" s="117"/>
+      <c r="J28" s="118"/>
+      <c r="K28" s="18">
+        <v>251</v>
+      </c>
+      <c r="L28" s="19">
+        <v>255</v>
+      </c>
+      <c r="M28" s="20"/>
+      <c r="N28" s="112"/>
+      <c r="O28" s="112"/>
+      <c r="P28" s="68"/>
+      <c r="Q28" s="71"/>
+      <c r="R28" s="53"/>
+      <c r="S28" s="68"/>
+      <c r="T28" s="71"/>
+      <c r="U28" s="53"/>
+      <c r="V28" s="112"/>
+      <c r="W28" s="112"/>
+      <c r="X28" s="112"/>
+      <c r="Y28" s="112"/>
+      <c r="Z28" s="18">
+        <v>251</v>
+      </c>
+      <c r="AA28" s="19">
+        <v>255</v>
+      </c>
+      <c r="AB28" s="20"/>
+      <c r="AC28" s="18">
+        <v>251</v>
+      </c>
+      <c r="AD28" s="19">
+        <v>255</v>
+      </c>
+      <c r="AE28" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="51">
+    <mergeCell ref="P23:P28"/>
+    <mergeCell ref="Q23:Q28"/>
+    <mergeCell ref="R23:R28"/>
+    <mergeCell ref="C18:D28"/>
+    <mergeCell ref="E18:F28"/>
+    <mergeCell ref="G18:H28"/>
+    <mergeCell ref="I18:J28"/>
+    <mergeCell ref="N18:N28"/>
+    <mergeCell ref="O18:O28"/>
+    <mergeCell ref="P6:P13"/>
+    <mergeCell ref="Q6:Q13"/>
+    <mergeCell ref="R6:R13"/>
+    <mergeCell ref="P15:P22"/>
+    <mergeCell ref="Q15:Q22"/>
+    <mergeCell ref="R15:R22"/>
+    <mergeCell ref="T3:T28"/>
+    <mergeCell ref="U3:U28"/>
+    <mergeCell ref="V3:V17"/>
     <mergeCell ref="W3:W17"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:U2"/>
+    <mergeCell ref="X3:X17"/>
+    <mergeCell ref="Y3:Y17"/>
+    <mergeCell ref="V18:V28"/>
+    <mergeCell ref="W18:W28"/>
+    <mergeCell ref="X18:X28"/>
+    <mergeCell ref="Y18:Y28"/>
     <mergeCell ref="Z2:AB2"/>
     <mergeCell ref="AC2:AE2"/>
     <mergeCell ref="B3:B17"/>
@@ -8112,7 +9648,8 @@
     <mergeCell ref="G3:H17"/>
     <mergeCell ref="I3:J17"/>
     <mergeCell ref="N3:N17"/>
-    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="O3:O17"/>
+    <mergeCell ref="S3:S28"/>
     <mergeCell ref="S1:U1"/>
     <mergeCell ref="Z1:AB1"/>
     <mergeCell ref="AC1:AE1"/>
@@ -8121,11 +9658,14 @@
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:M2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:U2"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="K1:M1"/>
+    <mergeCell ref="P1:R1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/sac_v2.xlsx
+++ b/sac_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\GitHub\KXKM_ESP32_SAC_V2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FA45114-0196-4587-8A49-F5D18F9CCE9F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BDAB288-5040-4B29-A3B5-14AF166E89AF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="28800" windowHeight="16200" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sac_v2" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="81">
   <si>
     <t>ch</t>
   </si>
@@ -270,6 +270,9 @@
   <si>
     <t>mirror *2 &lt;&lt;</t>
   </si>
+  <si>
+    <t>0 255 no use</t>
+  </si>
 </sst>
 </file>
 
@@ -1224,6 +1227,114 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
@@ -1272,21 +1383,12 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
@@ -1299,107 +1401,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
@@ -1747,44 +1750,44 @@
       <c r="B1" s="4">
         <v>1</v>
       </c>
-      <c r="C1" s="105">
+      <c r="C1" s="64">
         <v>2</v>
       </c>
-      <c r="D1" s="106"/>
-      <c r="E1" s="105">
+      <c r="D1" s="65"/>
+      <c r="E1" s="64">
         <v>3</v>
       </c>
-      <c r="F1" s="106"/>
-      <c r="G1" s="105">
+      <c r="F1" s="65"/>
+      <c r="G1" s="64">
         <v>4</v>
       </c>
-      <c r="H1" s="106"/>
-      <c r="I1" s="93">
+      <c r="H1" s="65"/>
+      <c r="I1" s="51">
         <v>5</v>
       </c>
-      <c r="J1" s="107"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="108">
+      <c r="J1" s="66"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="67">
         <v>6</v>
       </c>
-      <c r="M1" s="94"/>
-      <c r="N1" s="95"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="53"/>
       <c r="O1" s="4">
         <v>7</v>
       </c>
       <c r="P1" s="3">
         <v>8</v>
       </c>
-      <c r="Q1" s="108">
+      <c r="Q1" s="67">
         <v>9</v>
       </c>
-      <c r="R1" s="94"/>
-      <c r="S1" s="109"/>
-      <c r="T1" s="93">
+      <c r="R1" s="52"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="51">
         <v>10</v>
       </c>
-      <c r="U1" s="94"/>
-      <c r="V1" s="95"/>
+      <c r="U1" s="52"/>
+      <c r="V1" s="53"/>
       <c r="W1" s="4">
         <v>11</v>
       </c>
@@ -1797,12 +1800,12 @@
       <c r="Z1" s="35">
         <v>14</v>
       </c>
-      <c r="AA1" s="81"/>
-      <c r="AB1" s="81"/>
-      <c r="AC1" s="81"/>
-      <c r="AD1" s="81"/>
-      <c r="AE1" s="81"/>
-      <c r="AF1" s="81"/>
+      <c r="AA1" s="54"/>
+      <c r="AB1" s="54"/>
+      <c r="AC1" s="54"/>
+      <c r="AD1" s="54"/>
+      <c r="AE1" s="54"/>
+      <c r="AF1" s="54"/>
       <c r="AG1" s="1">
         <v>16</v>
       </c>
@@ -1814,44 +1817,44 @@
       <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="96" t="s">
+      <c r="C2" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="97"/>
-      <c r="E2" s="98" t="s">
+      <c r="D2" s="56"/>
+      <c r="E2" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="97"/>
-      <c r="G2" s="96" t="s">
+      <c r="F2" s="56"/>
+      <c r="G2" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="97"/>
-      <c r="I2" s="99" t="s">
+      <c r="H2" s="56"/>
+      <c r="I2" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="100"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="102" t="s">
+      <c r="J2" s="59"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="103"/>
-      <c r="N2" s="101"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="60"/>
       <c r="O2" s="6" t="s">
         <v>8</v>
       </c>
       <c r="P2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" s="102" t="s">
+      <c r="Q2" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="103"/>
-      <c r="S2" s="104"/>
-      <c r="T2" s="99" t="s">
+      <c r="R2" s="62"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="U2" s="103"/>
-      <c r="V2" s="101"/>
+      <c r="U2" s="62"/>
+      <c r="V2" s="60"/>
       <c r="W2" s="6" t="s">
         <v>47</v>
       </c>
@@ -1864,30 +1867,30 @@
       <c r="Z2" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="AA2" s="81"/>
-      <c r="AB2" s="81"/>
-      <c r="AC2" s="81"/>
-      <c r="AD2" s="81"/>
-      <c r="AE2" s="81"/>
-      <c r="AF2" s="81"/>
+      <c r="AA2" s="54"/>
+      <c r="AB2" s="54"/>
+      <c r="AC2" s="54"/>
+      <c r="AD2" s="54"/>
+      <c r="AE2" s="54"/>
+      <c r="AF2" s="54"/>
     </row>
     <row r="3" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="84" t="s">
+      <c r="C3" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="85"/>
-      <c r="E3" s="84" t="s">
+      <c r="D3" s="75"/>
+      <c r="E3" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="85"/>
-      <c r="G3" s="84" t="s">
+      <c r="F3" s="75"/>
+      <c r="G3" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="85"/>
+      <c r="H3" s="75"/>
       <c r="I3" s="8">
         <v>0</v>
       </c>
@@ -1906,10 +1909,10 @@
       <c r="N3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="82" t="s">
+      <c r="O3" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="82" t="s">
+      <c r="P3" s="72" t="s">
         <v>15</v>
       </c>
       <c r="Q3" s="8">
@@ -1921,25 +1924,25 @@
       <c r="S3" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="T3" s="66">
+      <c r="T3" s="102">
         <v>0</v>
       </c>
-      <c r="U3" s="69">
+      <c r="U3" s="104">
         <v>255</v>
       </c>
-      <c r="V3" s="72" t="s">
+      <c r="V3" s="105" t="s">
         <v>46</v>
       </c>
-      <c r="W3" s="90" t="s">
+      <c r="W3" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="X3" s="82" t="s">
+      <c r="X3" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="Y3" s="82" t="s">
+      <c r="Y3" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="Z3" s="82" t="s">
+      <c r="Z3" s="72" t="s">
         <v>15</v>
       </c>
       <c r="AA3" s="39"/>
@@ -1951,13 +1954,13 @@
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
-      <c r="B4" s="83"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="87"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="77"/>
       <c r="I4" s="13">
         <v>11</v>
       </c>
@@ -1976,8 +1979,8 @@
       <c r="N4" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="O4" s="83"/>
-      <c r="P4" s="83"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="73"/>
       <c r="Q4" s="13">
         <v>11</v>
       </c>
@@ -1987,13 +1990,13 @@
       <c r="S4" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="T4" s="67"/>
+      <c r="T4" s="80"/>
       <c r="U4" s="70"/>
-      <c r="V4" s="52"/>
-      <c r="W4" s="91"/>
-      <c r="X4" s="83"/>
-      <c r="Y4" s="83"/>
-      <c r="Z4" s="83"/>
+      <c r="V4" s="88"/>
+      <c r="W4" s="85"/>
+      <c r="X4" s="73"/>
+      <c r="Y4" s="73"/>
+      <c r="Z4" s="73"/>
       <c r="AA4" s="39"/>
       <c r="AB4" s="39"/>
       <c r="AC4" s="40"/>
@@ -2003,13 +2006,13 @@
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
-      <c r="B5" s="83"/>
-      <c r="C5" s="86"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="87"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="77"/>
       <c r="I5" s="13">
         <v>21</v>
       </c>
@@ -2028,8 +2031,8 @@
       <c r="N5" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="O5" s="83"/>
-      <c r="P5" s="83"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="73"/>
       <c r="Q5" s="13">
         <v>21</v>
       </c>
@@ -2039,13 +2042,13 @@
       <c r="S5" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="T5" s="67"/>
+      <c r="T5" s="80"/>
       <c r="U5" s="70"/>
-      <c r="V5" s="52"/>
-      <c r="W5" s="91"/>
-      <c r="X5" s="83"/>
-      <c r="Y5" s="83"/>
-      <c r="Z5" s="83"/>
+      <c r="V5" s="88"/>
+      <c r="W5" s="85"/>
+      <c r="X5" s="73"/>
+      <c r="Y5" s="73"/>
+      <c r="Z5" s="73"/>
       <c r="AA5" s="39"/>
       <c r="AB5" s="39"/>
       <c r="AC5" s="40"/>
@@ -2055,13 +2058,13 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
-      <c r="B6" s="83"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="87"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="77"/>
       <c r="I6" s="13">
         <v>31</v>
       </c>
@@ -2080,24 +2083,24 @@
       <c r="N6" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="O6" s="83"/>
-      <c r="P6" s="83"/>
-      <c r="Q6" s="76">
+      <c r="O6" s="73"/>
+      <c r="P6" s="73"/>
+      <c r="Q6" s="79">
         <v>31</v>
       </c>
-      <c r="R6" s="78">
+      <c r="R6" s="69">
         <v>110</v>
       </c>
-      <c r="S6" s="73" t="s">
+      <c r="S6" s="106" t="s">
         <v>42</v>
       </c>
-      <c r="T6" s="67"/>
+      <c r="T6" s="80"/>
       <c r="U6" s="70"/>
-      <c r="V6" s="52"/>
-      <c r="W6" s="91"/>
-      <c r="X6" s="83"/>
-      <c r="Y6" s="83"/>
-      <c r="Z6" s="83"/>
+      <c r="V6" s="88"/>
+      <c r="W6" s="85"/>
+      <c r="X6" s="73"/>
+      <c r="Y6" s="73"/>
+      <c r="Z6" s="73"/>
       <c r="AA6" s="39"/>
       <c r="AB6" s="39"/>
       <c r="AC6" s="40"/>
@@ -2107,13 +2110,13 @@
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
-      <c r="B7" s="83"/>
-      <c r="C7" s="86"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="86"/>
-      <c r="H7" s="87"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="77"/>
       <c r="I7" s="13">
         <v>41</v>
       </c>
@@ -2132,18 +2135,18 @@
       <c r="N7" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="O7" s="83"/>
-      <c r="P7" s="83"/>
-      <c r="Q7" s="67"/>
+      <c r="O7" s="73"/>
+      <c r="P7" s="73"/>
+      <c r="Q7" s="80"/>
       <c r="R7" s="70"/>
-      <c r="S7" s="74"/>
-      <c r="T7" s="67"/>
+      <c r="S7" s="107"/>
+      <c r="T7" s="80"/>
       <c r="U7" s="70"/>
-      <c r="V7" s="52"/>
-      <c r="W7" s="91"/>
-      <c r="X7" s="83"/>
-      <c r="Y7" s="83"/>
-      <c r="Z7" s="83"/>
+      <c r="V7" s="88"/>
+      <c r="W7" s="85"/>
+      <c r="X7" s="73"/>
+      <c r="Y7" s="73"/>
+      <c r="Z7" s="73"/>
       <c r="AA7" s="39"/>
       <c r="AB7" s="39"/>
       <c r="AC7" s="40"/>
@@ -2153,13 +2156,13 @@
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
-      <c r="B8" s="83"/>
-      <c r="C8" s="86"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="86"/>
-      <c r="F8" s="87"/>
-      <c r="G8" s="86"/>
-      <c r="H8" s="87"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="77"/>
       <c r="I8" s="13">
         <v>51</v>
       </c>
@@ -2178,18 +2181,18 @@
       <c r="N8" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="O8" s="83"/>
-      <c r="P8" s="83"/>
-      <c r="Q8" s="67"/>
+      <c r="O8" s="73"/>
+      <c r="P8" s="73"/>
+      <c r="Q8" s="80"/>
       <c r="R8" s="70"/>
-      <c r="S8" s="74"/>
-      <c r="T8" s="67"/>
+      <c r="S8" s="107"/>
+      <c r="T8" s="80"/>
       <c r="U8" s="70"/>
-      <c r="V8" s="52"/>
-      <c r="W8" s="91"/>
-      <c r="X8" s="83"/>
-      <c r="Y8" s="83"/>
-      <c r="Z8" s="83"/>
+      <c r="V8" s="88"/>
+      <c r="W8" s="85"/>
+      <c r="X8" s="73"/>
+      <c r="Y8" s="73"/>
+      <c r="Z8" s="73"/>
       <c r="AA8" s="39"/>
       <c r="AB8" s="39"/>
       <c r="AC8" s="40"/>
@@ -2199,13 +2202,13 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
-      <c r="B9" s="83"/>
-      <c r="C9" s="86"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="86"/>
-      <c r="F9" s="87"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="87"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="77"/>
       <c r="I9" s="13">
         <v>61</v>
       </c>
@@ -2224,18 +2227,18 @@
       <c r="N9" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="O9" s="83"/>
-      <c r="P9" s="83"/>
-      <c r="Q9" s="67"/>
+      <c r="O9" s="73"/>
+      <c r="P9" s="73"/>
+      <c r="Q9" s="80"/>
       <c r="R9" s="70"/>
-      <c r="S9" s="74"/>
-      <c r="T9" s="67"/>
+      <c r="S9" s="107"/>
+      <c r="T9" s="80"/>
       <c r="U9" s="70"/>
-      <c r="V9" s="52"/>
-      <c r="W9" s="91"/>
-      <c r="X9" s="83"/>
-      <c r="Y9" s="83"/>
-      <c r="Z9" s="83"/>
+      <c r="V9" s="88"/>
+      <c r="W9" s="85"/>
+      <c r="X9" s="73"/>
+      <c r="Y9" s="73"/>
+      <c r="Z9" s="73"/>
       <c r="AA9" s="39"/>
       <c r="AB9" s="39"/>
       <c r="AC9" s="40"/>
@@ -2245,13 +2248,13 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
-      <c r="B10" s="83"/>
-      <c r="C10" s="86"/>
-      <c r="D10" s="87"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="86"/>
-      <c r="H10" s="87"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="76"/>
+      <c r="H10" s="77"/>
       <c r="I10" s="13">
         <v>71</v>
       </c>
@@ -2270,18 +2273,18 @@
       <c r="N10" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="O10" s="83"/>
-      <c r="P10" s="83"/>
-      <c r="Q10" s="67"/>
+      <c r="O10" s="73"/>
+      <c r="P10" s="73"/>
+      <c r="Q10" s="80"/>
       <c r="R10" s="70"/>
-      <c r="S10" s="74"/>
-      <c r="T10" s="67"/>
+      <c r="S10" s="107"/>
+      <c r="T10" s="80"/>
       <c r="U10" s="70"/>
-      <c r="V10" s="52"/>
-      <c r="W10" s="91"/>
-      <c r="X10" s="83"/>
-      <c r="Y10" s="83"/>
-      <c r="Z10" s="83"/>
+      <c r="V10" s="88"/>
+      <c r="W10" s="85"/>
+      <c r="X10" s="73"/>
+      <c r="Y10" s="73"/>
+      <c r="Z10" s="73"/>
       <c r="AA10" s="39"/>
       <c r="AB10" s="39"/>
       <c r="AC10" s="40"/>
@@ -2291,13 +2294,13 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
-      <c r="B11" s="83"/>
-      <c r="C11" s="86"/>
-      <c r="D11" s="87"/>
-      <c r="E11" s="86"/>
-      <c r="F11" s="87"/>
-      <c r="G11" s="86"/>
-      <c r="H11" s="87"/>
+      <c r="B11" s="73"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="77"/>
       <c r="I11" s="13">
         <v>81</v>
       </c>
@@ -2316,18 +2319,18 @@
       <c r="N11" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="O11" s="83"/>
-      <c r="P11" s="83"/>
-      <c r="Q11" s="67"/>
+      <c r="O11" s="73"/>
+      <c r="P11" s="73"/>
+      <c r="Q11" s="80"/>
       <c r="R11" s="70"/>
-      <c r="S11" s="74"/>
-      <c r="T11" s="67"/>
+      <c r="S11" s="107"/>
+      <c r="T11" s="80"/>
       <c r="U11" s="70"/>
-      <c r="V11" s="52"/>
-      <c r="W11" s="91"/>
-      <c r="X11" s="83"/>
-      <c r="Y11" s="83"/>
-      <c r="Z11" s="83"/>
+      <c r="V11" s="88"/>
+      <c r="W11" s="85"/>
+      <c r="X11" s="73"/>
+      <c r="Y11" s="73"/>
+      <c r="Z11" s="73"/>
       <c r="AA11" s="39"/>
       <c r="AB11" s="39"/>
       <c r="AC11" s="40"/>
@@ -2337,13 +2340,13 @@
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
-      <c r="B12" s="83"/>
-      <c r="C12" s="86"/>
-      <c r="D12" s="87"/>
-      <c r="E12" s="86"/>
-      <c r="F12" s="87"/>
-      <c r="G12" s="86"/>
-      <c r="H12" s="87"/>
+      <c r="B12" s="73"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="77"/>
       <c r="I12" s="13">
         <v>91</v>
       </c>
@@ -2360,18 +2363,18 @@
         <v>100</v>
       </c>
       <c r="N12" s="15"/>
-      <c r="O12" s="83"/>
-      <c r="P12" s="83"/>
-      <c r="Q12" s="67"/>
+      <c r="O12" s="73"/>
+      <c r="P12" s="73"/>
+      <c r="Q12" s="80"/>
       <c r="R12" s="70"/>
-      <c r="S12" s="74"/>
-      <c r="T12" s="67"/>
+      <c r="S12" s="107"/>
+      <c r="T12" s="80"/>
       <c r="U12" s="70"/>
-      <c r="V12" s="52"/>
-      <c r="W12" s="91"/>
-      <c r="X12" s="83"/>
-      <c r="Y12" s="83"/>
-      <c r="Z12" s="83"/>
+      <c r="V12" s="88"/>
+      <c r="W12" s="85"/>
+      <c r="X12" s="73"/>
+      <c r="Y12" s="73"/>
+      <c r="Z12" s="73"/>
       <c r="AA12" s="39"/>
       <c r="AB12" s="39"/>
       <c r="AC12" s="40"/>
@@ -2381,13 +2384,13 @@
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
-      <c r="B13" s="83"/>
-      <c r="C13" s="86"/>
-      <c r="D13" s="87"/>
-      <c r="E13" s="86"/>
-      <c r="F13" s="87"/>
-      <c r="G13" s="86"/>
-      <c r="H13" s="87"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="77"/>
       <c r="I13" s="13">
         <v>101</v>
       </c>
@@ -2404,18 +2407,18 @@
         <v>110</v>
       </c>
       <c r="N13" s="15"/>
-      <c r="O13" s="83"/>
-      <c r="P13" s="83"/>
-      <c r="Q13" s="77"/>
-      <c r="R13" s="79"/>
-      <c r="S13" s="75"/>
-      <c r="T13" s="67"/>
+      <c r="O13" s="73"/>
+      <c r="P13" s="73"/>
+      <c r="Q13" s="81"/>
+      <c r="R13" s="82"/>
+      <c r="S13" s="108"/>
+      <c r="T13" s="80"/>
       <c r="U13" s="70"/>
-      <c r="V13" s="52"/>
-      <c r="W13" s="91"/>
-      <c r="X13" s="83"/>
-      <c r="Y13" s="83"/>
-      <c r="Z13" s="83"/>
+      <c r="V13" s="88"/>
+      <c r="W13" s="85"/>
+      <c r="X13" s="73"/>
+      <c r="Y13" s="73"/>
+      <c r="Z13" s="73"/>
       <c r="AA13" s="39"/>
       <c r="AB13" s="39"/>
       <c r="AC13" s="40"/>
@@ -2425,13 +2428,13 @@
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
-      <c r="B14" s="83"/>
-      <c r="C14" s="86"/>
-      <c r="D14" s="87"/>
-      <c r="E14" s="86"/>
-      <c r="F14" s="87"/>
-      <c r="G14" s="86"/>
-      <c r="H14" s="87"/>
+      <c r="B14" s="73"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="77"/>
       <c r="I14" s="13">
         <v>111</v>
       </c>
@@ -2448,8 +2451,8 @@
         <v>120</v>
       </c>
       <c r="N14" s="15"/>
-      <c r="O14" s="83"/>
-      <c r="P14" s="83"/>
+      <c r="O14" s="73"/>
+      <c r="P14" s="73"/>
       <c r="Q14" s="13">
         <v>111</v>
       </c>
@@ -2459,13 +2462,13 @@
       <c r="S14" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="T14" s="67"/>
+      <c r="T14" s="80"/>
       <c r="U14" s="70"/>
-      <c r="V14" s="52"/>
-      <c r="W14" s="91"/>
-      <c r="X14" s="83"/>
-      <c r="Y14" s="83"/>
-      <c r="Z14" s="83"/>
+      <c r="V14" s="88"/>
+      <c r="W14" s="85"/>
+      <c r="X14" s="73"/>
+      <c r="Y14" s="73"/>
+      <c r="Z14" s="73"/>
       <c r="AA14" s="39"/>
       <c r="AB14" s="39"/>
       <c r="AC14" s="40"/>
@@ -2475,13 +2478,13 @@
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
-      <c r="B15" s="83"/>
-      <c r="C15" s="86"/>
-      <c r="D15" s="87"/>
-      <c r="E15" s="86"/>
-      <c r="F15" s="87"/>
-      <c r="G15" s="86"/>
-      <c r="H15" s="87"/>
+      <c r="B15" s="73"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="76"/>
+      <c r="H15" s="77"/>
       <c r="I15" s="13">
         <v>120.833333333333</v>
       </c>
@@ -2498,24 +2501,24 @@
         <v>130</v>
       </c>
       <c r="N15" s="15"/>
-      <c r="O15" s="83"/>
-      <c r="P15" s="83"/>
-      <c r="Q15" s="76">
+      <c r="O15" s="73"/>
+      <c r="P15" s="73"/>
+      <c r="Q15" s="79">
         <v>120.833333333333</v>
       </c>
-      <c r="R15" s="78">
+      <c r="R15" s="69">
         <v>200</v>
       </c>
-      <c r="S15" s="51" t="s">
+      <c r="S15" s="87" t="s">
         <v>44</v>
       </c>
-      <c r="T15" s="67"/>
+      <c r="T15" s="80"/>
       <c r="U15" s="70"/>
-      <c r="V15" s="52"/>
-      <c r="W15" s="91"/>
-      <c r="X15" s="83"/>
-      <c r="Y15" s="83"/>
-      <c r="Z15" s="83"/>
+      <c r="V15" s="88"/>
+      <c r="W15" s="85"/>
+      <c r="X15" s="73"/>
+      <c r="Y15" s="73"/>
+      <c r="Z15" s="73"/>
       <c r="AA15" s="39"/>
       <c r="AB15" s="39"/>
       <c r="AC15" s="40"/>
@@ -2525,13 +2528,13 @@
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
-      <c r="B16" s="83"/>
-      <c r="C16" s="86"/>
-      <c r="D16" s="87"/>
-      <c r="E16" s="86"/>
-      <c r="F16" s="87"/>
-      <c r="G16" s="86"/>
-      <c r="H16" s="87"/>
+      <c r="B16" s="73"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="77"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="77"/>
       <c r="I16" s="13">
         <v>131</v>
       </c>
@@ -2548,18 +2551,18 @@
         <v>140</v>
       </c>
       <c r="N16" s="15"/>
-      <c r="O16" s="83"/>
-      <c r="P16" s="83"/>
-      <c r="Q16" s="67"/>
+      <c r="O16" s="73"/>
+      <c r="P16" s="73"/>
+      <c r="Q16" s="80"/>
       <c r="R16" s="70"/>
-      <c r="S16" s="52"/>
-      <c r="T16" s="67"/>
+      <c r="S16" s="88"/>
+      <c r="T16" s="80"/>
       <c r="U16" s="70"/>
-      <c r="V16" s="52"/>
-      <c r="W16" s="91"/>
-      <c r="X16" s="83"/>
-      <c r="Y16" s="83"/>
-      <c r="Z16" s="83"/>
+      <c r="V16" s="88"/>
+      <c r="W16" s="85"/>
+      <c r="X16" s="73"/>
+      <c r="Y16" s="73"/>
+      <c r="Z16" s="73"/>
       <c r="AA16" s="39"/>
       <c r="AB16" s="39"/>
       <c r="AC16" s="40"/>
@@ -2569,13 +2572,13 @@
     </row>
     <row r="17" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12"/>
-      <c r="B17" s="83"/>
-      <c r="C17" s="86"/>
-      <c r="D17" s="87"/>
-      <c r="E17" s="86"/>
-      <c r="F17" s="87"/>
-      <c r="G17" s="86"/>
-      <c r="H17" s="87"/>
+      <c r="B17" s="73"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="77"/>
       <c r="I17" s="13">
         <v>141</v>
       </c>
@@ -2592,18 +2595,18 @@
         <v>150</v>
       </c>
       <c r="N17" s="15"/>
-      <c r="O17" s="88"/>
-      <c r="P17" s="88"/>
-      <c r="Q17" s="67"/>
+      <c r="O17" s="78"/>
+      <c r="P17" s="78"/>
+      <c r="Q17" s="80"/>
       <c r="R17" s="70"/>
-      <c r="S17" s="52"/>
-      <c r="T17" s="67"/>
+      <c r="S17" s="88"/>
+      <c r="T17" s="80"/>
       <c r="U17" s="70"/>
-      <c r="V17" s="52"/>
-      <c r="W17" s="92"/>
-      <c r="X17" s="89"/>
-      <c r="Y17" s="89"/>
-      <c r="Z17" s="89"/>
+      <c r="V17" s="88"/>
+      <c r="W17" s="86"/>
+      <c r="X17" s="83"/>
+      <c r="Y17" s="83"/>
+      <c r="Z17" s="83"/>
       <c r="AA17" s="39"/>
       <c r="AB17" s="39"/>
       <c r="AC17" s="40"/>
@@ -2614,12 +2617,12 @@
     <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="28"/>
       <c r="B18" s="32"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="62"/>
+      <c r="C18" s="92"/>
+      <c r="D18" s="93"/>
+      <c r="E18" s="92"/>
+      <c r="F18" s="93"/>
+      <c r="G18" s="92"/>
+      <c r="H18" s="98"/>
       <c r="I18" s="30">
         <v>150.833333333333</v>
       </c>
@@ -2635,17 +2638,17 @@
       </c>
       <c r="N18" s="15"/>
       <c r="O18" s="16"/>
-      <c r="P18" s="65"/>
-      <c r="Q18" s="67"/>
+      <c r="P18" s="101"/>
+      <c r="Q18" s="80"/>
       <c r="R18" s="70"/>
-      <c r="S18" s="52"/>
-      <c r="T18" s="67"/>
+      <c r="S18" s="88"/>
+      <c r="T18" s="80"/>
       <c r="U18" s="70"/>
-      <c r="V18" s="52"/>
+      <c r="V18" s="88"/>
       <c r="W18" s="42"/>
-      <c r="X18" s="54"/>
-      <c r="Y18" s="54"/>
-      <c r="Z18" s="54"/>
+      <c r="X18" s="90"/>
+      <c r="Y18" s="90"/>
+      <c r="Z18" s="90"/>
       <c r="AA18" s="39"/>
       <c r="AB18" s="39"/>
       <c r="AC18" s="40"/>
@@ -2656,12 +2659,12 @@
     <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" s="28"/>
       <c r="B19" s="33"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="63"/>
+      <c r="C19" s="94"/>
+      <c r="D19" s="95"/>
+      <c r="E19" s="94"/>
+      <c r="F19" s="95"/>
+      <c r="G19" s="94"/>
+      <c r="H19" s="99"/>
       <c r="I19" s="30">
         <v>161</v>
       </c>
@@ -2677,17 +2680,17 @@
       </c>
       <c r="N19" s="15"/>
       <c r="O19" s="16"/>
-      <c r="P19" s="54"/>
-      <c r="Q19" s="67"/>
+      <c r="P19" s="90"/>
+      <c r="Q19" s="80"/>
       <c r="R19" s="70"/>
-      <c r="S19" s="52"/>
-      <c r="T19" s="67"/>
+      <c r="S19" s="88"/>
+      <c r="T19" s="80"/>
       <c r="U19" s="70"/>
-      <c r="V19" s="52"/>
+      <c r="V19" s="88"/>
       <c r="W19" s="42"/>
-      <c r="X19" s="54"/>
-      <c r="Y19" s="54"/>
-      <c r="Z19" s="54"/>
+      <c r="X19" s="90"/>
+      <c r="Y19" s="90"/>
+      <c r="Z19" s="90"/>
       <c r="AA19" s="39"/>
       <c r="AB19" s="39"/>
       <c r="AC19" s="40"/>
@@ -2698,12 +2701,12 @@
     <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" s="28"/>
       <c r="B20" s="33"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="63"/>
+      <c r="C20" s="94"/>
+      <c r="D20" s="95"/>
+      <c r="E20" s="94"/>
+      <c r="F20" s="95"/>
+      <c r="G20" s="94"/>
+      <c r="H20" s="99"/>
       <c r="I20" s="30">
         <v>171</v>
       </c>
@@ -2719,17 +2722,17 @@
       </c>
       <c r="N20" s="15"/>
       <c r="O20" s="16"/>
-      <c r="P20" s="54"/>
-      <c r="Q20" s="67"/>
+      <c r="P20" s="90"/>
+      <c r="Q20" s="80"/>
       <c r="R20" s="70"/>
-      <c r="S20" s="52"/>
-      <c r="T20" s="67"/>
+      <c r="S20" s="88"/>
+      <c r="T20" s="80"/>
       <c r="U20" s="70"/>
-      <c r="V20" s="52"/>
+      <c r="V20" s="88"/>
       <c r="W20" s="42"/>
-      <c r="X20" s="54"/>
-      <c r="Y20" s="54"/>
-      <c r="Z20" s="54"/>
+      <c r="X20" s="90"/>
+      <c r="Y20" s="90"/>
+      <c r="Z20" s="90"/>
       <c r="AA20" s="39"/>
       <c r="AB20" s="39"/>
       <c r="AC20" s="40"/>
@@ -2740,12 +2743,12 @@
     <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" s="28"/>
       <c r="B21" s="33"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="58"/>
-      <c r="H21" s="63"/>
+      <c r="C21" s="94"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="94"/>
+      <c r="H21" s="99"/>
       <c r="I21" s="30">
         <v>181</v>
       </c>
@@ -2761,17 +2764,17 @@
       </c>
       <c r="N21" s="15"/>
       <c r="O21" s="16"/>
-      <c r="P21" s="54"/>
-      <c r="Q21" s="67"/>
+      <c r="P21" s="90"/>
+      <c r="Q21" s="80"/>
       <c r="R21" s="70"/>
-      <c r="S21" s="52"/>
-      <c r="T21" s="67"/>
+      <c r="S21" s="88"/>
+      <c r="T21" s="80"/>
       <c r="U21" s="70"/>
-      <c r="V21" s="52"/>
+      <c r="V21" s="88"/>
       <c r="W21" s="42"/>
-      <c r="X21" s="54"/>
-      <c r="Y21" s="54"/>
-      <c r="Z21" s="54"/>
+      <c r="X21" s="90"/>
+      <c r="Y21" s="90"/>
+      <c r="Z21" s="90"/>
       <c r="AA21" s="39"/>
       <c r="AB21" s="39"/>
       <c r="AC21" s="40"/>
@@ -2782,12 +2785,12 @@
     <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" s="28"/>
       <c r="B22" s="33"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="58"/>
-      <c r="H22" s="63"/>
+      <c r="C22" s="94"/>
+      <c r="D22" s="95"/>
+      <c r="E22" s="94"/>
+      <c r="F22" s="95"/>
+      <c r="G22" s="94"/>
+      <c r="H22" s="99"/>
       <c r="I22" s="30">
         <v>191</v>
       </c>
@@ -2803,17 +2806,17 @@
       </c>
       <c r="N22" s="15"/>
       <c r="O22" s="16"/>
-      <c r="P22" s="54"/>
-      <c r="Q22" s="77"/>
-      <c r="R22" s="79"/>
-      <c r="S22" s="80"/>
-      <c r="T22" s="67"/>
+      <c r="P22" s="90"/>
+      <c r="Q22" s="81"/>
+      <c r="R22" s="82"/>
+      <c r="S22" s="109"/>
+      <c r="T22" s="80"/>
       <c r="U22" s="70"/>
-      <c r="V22" s="52"/>
+      <c r="V22" s="88"/>
       <c r="W22" s="42"/>
-      <c r="X22" s="54"/>
-      <c r="Y22" s="54"/>
-      <c r="Z22" s="54"/>
+      <c r="X22" s="90"/>
+      <c r="Y22" s="90"/>
+      <c r="Z22" s="90"/>
       <c r="AA22" s="39"/>
       <c r="AB22" s="39"/>
       <c r="AC22" s="40"/>
@@ -2824,12 +2827,12 @@
     <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" s="28"/>
       <c r="B23" s="33"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="58"/>
-      <c r="F23" s="59"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="63"/>
+      <c r="C23" s="94"/>
+      <c r="D23" s="95"/>
+      <c r="E23" s="94"/>
+      <c r="F23" s="95"/>
+      <c r="G23" s="94"/>
+      <c r="H23" s="99"/>
       <c r="I23" s="30">
         <v>201</v>
       </c>
@@ -2845,23 +2848,23 @@
       </c>
       <c r="N23" s="15"/>
       <c r="O23" s="16"/>
-      <c r="P23" s="54"/>
-      <c r="Q23" s="76">
+      <c r="P23" s="90"/>
+      <c r="Q23" s="79">
         <v>201</v>
       </c>
-      <c r="R23" s="78">
+      <c r="R23" s="69">
         <v>255</v>
       </c>
-      <c r="S23" s="51" t="s">
+      <c r="S23" s="87" t="s">
         <v>45</v>
       </c>
-      <c r="T23" s="67"/>
+      <c r="T23" s="80"/>
       <c r="U23" s="70"/>
-      <c r="V23" s="52"/>
+      <c r="V23" s="88"/>
       <c r="W23" s="42"/>
-      <c r="X23" s="54"/>
-      <c r="Y23" s="54"/>
-      <c r="Z23" s="54"/>
+      <c r="X23" s="90"/>
+      <c r="Y23" s="90"/>
+      <c r="Z23" s="90"/>
       <c r="AA23" s="39"/>
       <c r="AB23" s="39"/>
       <c r="AC23" s="40"/>
@@ -2872,12 +2875,12 @@
     <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24" s="28"/>
       <c r="B24" s="33"/>
-      <c r="C24" s="58"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="58"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="58"/>
-      <c r="H24" s="63"/>
+      <c r="C24" s="94"/>
+      <c r="D24" s="95"/>
+      <c r="E24" s="94"/>
+      <c r="F24" s="95"/>
+      <c r="G24" s="94"/>
+      <c r="H24" s="99"/>
       <c r="I24" s="30">
         <v>210</v>
       </c>
@@ -2893,17 +2896,17 @@
       </c>
       <c r="N24" s="15"/>
       <c r="O24" s="16"/>
-      <c r="P24" s="54"/>
-      <c r="Q24" s="67"/>
+      <c r="P24" s="90"/>
+      <c r="Q24" s="80"/>
       <c r="R24" s="70"/>
-      <c r="S24" s="52"/>
-      <c r="T24" s="67"/>
+      <c r="S24" s="88"/>
+      <c r="T24" s="80"/>
       <c r="U24" s="70"/>
-      <c r="V24" s="52"/>
+      <c r="V24" s="88"/>
       <c r="W24" s="42"/>
-      <c r="X24" s="54"/>
-      <c r="Y24" s="54"/>
-      <c r="Z24" s="54"/>
+      <c r="X24" s="90"/>
+      <c r="Y24" s="90"/>
+      <c r="Z24" s="90"/>
       <c r="AA24" s="39"/>
       <c r="AB24" s="39"/>
       <c r="AC24" s="40"/>
@@ -2914,12 +2917,12 @@
     <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25" s="28"/>
       <c r="B25" s="33"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="58"/>
-      <c r="H25" s="63"/>
+      <c r="C25" s="94"/>
+      <c r="D25" s="95"/>
+      <c r="E25" s="94"/>
+      <c r="F25" s="95"/>
+      <c r="G25" s="94"/>
+      <c r="H25" s="99"/>
       <c r="I25" s="30">
         <v>221</v>
       </c>
@@ -2935,17 +2938,17 @@
       </c>
       <c r="N25" s="15"/>
       <c r="O25" s="16"/>
-      <c r="P25" s="54"/>
-      <c r="Q25" s="67"/>
+      <c r="P25" s="90"/>
+      <c r="Q25" s="80"/>
       <c r="R25" s="70"/>
-      <c r="S25" s="52"/>
-      <c r="T25" s="67"/>
+      <c r="S25" s="88"/>
+      <c r="T25" s="80"/>
       <c r="U25" s="70"/>
-      <c r="V25" s="52"/>
+      <c r="V25" s="88"/>
       <c r="W25" s="42"/>
-      <c r="X25" s="54"/>
-      <c r="Y25" s="54"/>
-      <c r="Z25" s="54"/>
+      <c r="X25" s="90"/>
+      <c r="Y25" s="90"/>
+      <c r="Z25" s="90"/>
       <c r="AA25" s="39"/>
       <c r="AB25" s="39"/>
       <c r="AC25" s="40"/>
@@ -2956,12 +2959,12 @@
     <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26" s="28"/>
       <c r="B26" s="33"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="63"/>
+      <c r="C26" s="94"/>
+      <c r="D26" s="95"/>
+      <c r="E26" s="94"/>
+      <c r="F26" s="95"/>
+      <c r="G26" s="94"/>
+      <c r="H26" s="99"/>
       <c r="I26" s="30">
         <v>231</v>
       </c>
@@ -2977,17 +2980,17 @@
       </c>
       <c r="N26" s="15"/>
       <c r="O26" s="16"/>
-      <c r="P26" s="54"/>
-      <c r="Q26" s="67"/>
+      <c r="P26" s="90"/>
+      <c r="Q26" s="80"/>
       <c r="R26" s="70"/>
-      <c r="S26" s="52"/>
-      <c r="T26" s="67"/>
+      <c r="S26" s="88"/>
+      <c r="T26" s="80"/>
       <c r="U26" s="70"/>
-      <c r="V26" s="52"/>
+      <c r="V26" s="88"/>
       <c r="W26" s="42"/>
-      <c r="X26" s="54"/>
-      <c r="Y26" s="54"/>
-      <c r="Z26" s="54"/>
+      <c r="X26" s="90"/>
+      <c r="Y26" s="90"/>
+      <c r="Z26" s="90"/>
       <c r="AA26" s="39"/>
       <c r="AB26" s="39"/>
       <c r="AC26" s="40"/>
@@ -2998,12 +3001,12 @@
     <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27" s="28"/>
       <c r="B27" s="33"/>
-      <c r="C27" s="58"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="58"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="58"/>
-      <c r="H27" s="63"/>
+      <c r="C27" s="94"/>
+      <c r="D27" s="95"/>
+      <c r="E27" s="94"/>
+      <c r="F27" s="95"/>
+      <c r="G27" s="94"/>
+      <c r="H27" s="99"/>
       <c r="I27" s="30">
         <v>241</v>
       </c>
@@ -3019,17 +3022,17 @@
       </c>
       <c r="N27" s="15"/>
       <c r="O27" s="16"/>
-      <c r="P27" s="54"/>
-      <c r="Q27" s="67"/>
+      <c r="P27" s="90"/>
+      <c r="Q27" s="80"/>
       <c r="R27" s="70"/>
-      <c r="S27" s="52"/>
-      <c r="T27" s="67"/>
+      <c r="S27" s="88"/>
+      <c r="T27" s="80"/>
       <c r="U27" s="70"/>
-      <c r="V27" s="52"/>
+      <c r="V27" s="88"/>
       <c r="W27" s="42"/>
-      <c r="X27" s="54"/>
-      <c r="Y27" s="54"/>
-      <c r="Z27" s="54"/>
+      <c r="X27" s="90"/>
+      <c r="Y27" s="90"/>
+      <c r="Z27" s="90"/>
       <c r="AA27" s="39"/>
       <c r="AB27" s="39"/>
       <c r="AC27" s="40"/>
@@ -3040,12 +3043,12 @@
     <row r="28" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="29"/>
       <c r="B28" s="34"/>
-      <c r="C28" s="60"/>
-      <c r="D28" s="61"/>
-      <c r="E28" s="60"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="60"/>
-      <c r="H28" s="64"/>
+      <c r="C28" s="96"/>
+      <c r="D28" s="97"/>
+      <c r="E28" s="96"/>
+      <c r="F28" s="97"/>
+      <c r="G28" s="96"/>
+      <c r="H28" s="100"/>
       <c r="I28" s="31">
         <v>251</v>
       </c>
@@ -3061,17 +3064,17 @@
       </c>
       <c r="N28" s="20"/>
       <c r="O28" s="21"/>
-      <c r="P28" s="55"/>
-      <c r="Q28" s="68"/>
+      <c r="P28" s="91"/>
+      <c r="Q28" s="103"/>
       <c r="R28" s="71"/>
-      <c r="S28" s="53"/>
-      <c r="T28" s="68"/>
+      <c r="S28" s="89"/>
+      <c r="T28" s="103"/>
       <c r="U28" s="71"/>
-      <c r="V28" s="53"/>
+      <c r="V28" s="89"/>
       <c r="W28" s="43"/>
-      <c r="X28" s="55"/>
-      <c r="Y28" s="55"/>
-      <c r="Z28" s="55"/>
+      <c r="X28" s="91"/>
+      <c r="Y28" s="91"/>
+      <c r="Z28" s="91"/>
       <c r="AA28" s="39"/>
       <c r="AB28" s="40"/>
       <c r="AC28" s="40"/>
@@ -3761,6 +3764,37 @@
     </row>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="X18:X28"/>
+    <mergeCell ref="Y18:Y28"/>
+    <mergeCell ref="Z18:Z28"/>
+    <mergeCell ref="C18:D28"/>
+    <mergeCell ref="E18:F28"/>
+    <mergeCell ref="G18:H28"/>
+    <mergeCell ref="P18:P28"/>
+    <mergeCell ref="T3:T28"/>
+    <mergeCell ref="U3:U28"/>
+    <mergeCell ref="V3:V28"/>
+    <mergeCell ref="S6:S13"/>
+    <mergeCell ref="Q15:Q22"/>
+    <mergeCell ref="R15:R22"/>
+    <mergeCell ref="S15:S22"/>
+    <mergeCell ref="Q23:Q28"/>
+    <mergeCell ref="R23:R28"/>
+    <mergeCell ref="AA2:AC2"/>
+    <mergeCell ref="AD2:AF2"/>
+    <mergeCell ref="B3:B17"/>
+    <mergeCell ref="C3:D17"/>
+    <mergeCell ref="E3:F17"/>
+    <mergeCell ref="G3:H17"/>
+    <mergeCell ref="O3:O17"/>
+    <mergeCell ref="P3:P17"/>
+    <mergeCell ref="Q6:Q13"/>
+    <mergeCell ref="R6:R13"/>
+    <mergeCell ref="X3:X17"/>
+    <mergeCell ref="Y3:Y17"/>
+    <mergeCell ref="Z3:Z17"/>
+    <mergeCell ref="W3:W17"/>
+    <mergeCell ref="S23:S28"/>
     <mergeCell ref="T1:V1"/>
     <mergeCell ref="AA1:AC1"/>
     <mergeCell ref="AD1:AF1"/>
@@ -3777,37 +3811,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="L1:N1"/>
     <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="R23:R28"/>
-    <mergeCell ref="AA2:AC2"/>
-    <mergeCell ref="AD2:AF2"/>
-    <mergeCell ref="B3:B17"/>
-    <mergeCell ref="C3:D17"/>
-    <mergeCell ref="E3:F17"/>
-    <mergeCell ref="G3:H17"/>
-    <mergeCell ref="O3:O17"/>
-    <mergeCell ref="P3:P17"/>
-    <mergeCell ref="Q6:Q13"/>
-    <mergeCell ref="R6:R13"/>
-    <mergeCell ref="X3:X17"/>
-    <mergeCell ref="Y3:Y17"/>
-    <mergeCell ref="Z3:Z17"/>
-    <mergeCell ref="W3:W17"/>
-    <mergeCell ref="S23:S28"/>
-    <mergeCell ref="X18:X28"/>
-    <mergeCell ref="Y18:Y28"/>
-    <mergeCell ref="Z18:Z28"/>
-    <mergeCell ref="C18:D28"/>
-    <mergeCell ref="E18:F28"/>
-    <mergeCell ref="G18:H28"/>
-    <mergeCell ref="P18:P28"/>
-    <mergeCell ref="T3:T28"/>
-    <mergeCell ref="U3:U28"/>
-    <mergeCell ref="V3:V28"/>
-    <mergeCell ref="S6:S13"/>
-    <mergeCell ref="Q15:Q22"/>
-    <mergeCell ref="R15:R22"/>
-    <mergeCell ref="S15:S22"/>
-    <mergeCell ref="Q23:Q28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3831,43 +3834,43 @@
       <c r="B1" s="37">
         <v>1</v>
       </c>
-      <c r="C1" s="105">
+      <c r="C1" s="64">
         <v>2</v>
       </c>
-      <c r="D1" s="106"/>
-      <c r="E1" s="105">
+      <c r="D1" s="65"/>
+      <c r="E1" s="64">
         <v>3</v>
       </c>
-      <c r="F1" s="106"/>
-      <c r="G1" s="105">
+      <c r="F1" s="65"/>
+      <c r="G1" s="64">
         <v>4</v>
       </c>
-      <c r="H1" s="106"/>
-      <c r="I1" s="105">
+      <c r="H1" s="65"/>
+      <c r="I1" s="64">
         <v>5</v>
       </c>
-      <c r="J1" s="106"/>
-      <c r="K1" s="108">
+      <c r="J1" s="65"/>
+      <c r="K1" s="67">
         <v>6</v>
       </c>
-      <c r="L1" s="94"/>
-      <c r="M1" s="95"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="53"/>
       <c r="N1" s="37">
         <v>7</v>
       </c>
       <c r="O1" s="3">
         <v>8</v>
       </c>
-      <c r="P1" s="108">
+      <c r="P1" s="67">
         <v>9</v>
       </c>
-      <c r="Q1" s="94"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="93">
+      <c r="Q1" s="52"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="51">
         <v>10</v>
       </c>
-      <c r="T1" s="94"/>
-      <c r="U1" s="95"/>
+      <c r="T1" s="52"/>
+      <c r="U1" s="53"/>
       <c r="V1" s="37">
         <v>11</v>
       </c>
@@ -3891,43 +3894,43 @@
       <c r="B2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="96" t="s">
+      <c r="C2" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="97"/>
-      <c r="E2" s="98" t="s">
+      <c r="D2" s="56"/>
+      <c r="E2" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="97"/>
-      <c r="G2" s="96" t="s">
+      <c r="F2" s="56"/>
+      <c r="G2" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="97"/>
-      <c r="I2" s="96" t="s">
+      <c r="H2" s="56"/>
+      <c r="I2" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="J2" s="97"/>
-      <c r="K2" s="102" t="s">
+      <c r="J2" s="56"/>
+      <c r="K2" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="103"/>
-      <c r="M2" s="101"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="60"/>
       <c r="N2" s="38" t="s">
         <v>8</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="102" t="s">
+      <c r="P2" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="103"/>
-      <c r="R2" s="104"/>
-      <c r="S2" s="99" t="s">
+      <c r="Q2" s="62"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="T2" s="103"/>
-      <c r="U2" s="101"/>
+      <c r="T2" s="62"/>
+      <c r="U2" s="60"/>
       <c r="V2" s="38" t="s">
         <v>47</v>
       </c>
@@ -3946,25 +3949,25 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="84" t="s">
+      <c r="C3" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="85"/>
-      <c r="E3" s="84" t="s">
+      <c r="D3" s="75"/>
+      <c r="E3" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="85"/>
-      <c r="G3" s="84" t="s">
+      <c r="F3" s="75"/>
+      <c r="G3" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="85"/>
-      <c r="I3" s="84" t="s">
+      <c r="H3" s="75"/>
+      <c r="I3" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="85"/>
+      <c r="J3" s="75"/>
       <c r="K3" s="8">
         <v>0</v>
       </c>
@@ -3974,10 +3977,10 @@
       <c r="M3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="82" t="s">
+      <c r="N3" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="82" t="s">
+      <c r="O3" s="72" t="s">
         <v>15</v>
       </c>
       <c r="P3" s="8">
@@ -3989,42 +3992,42 @@
       <c r="R3" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="S3" s="66">
+      <c r="S3" s="102">
         <v>0</v>
       </c>
-      <c r="T3" s="69">
+      <c r="T3" s="104">
         <v>255</v>
       </c>
-      <c r="U3" s="72" t="s">
+      <c r="U3" s="105" t="s">
         <v>46</v>
       </c>
-      <c r="V3" s="90" t="s">
+      <c r="V3" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="W3" s="82" t="s">
+      <c r="W3" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="X3" s="82" t="s">
+      <c r="X3" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="Y3" s="82" t="s">
+      <c r="Y3" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="Z3" s="82" t="s">
+      <c r="Z3" s="72" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
-      <c r="B4" s="83"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="87"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="77"/>
       <c r="K4" s="13">
         <v>11</v>
       </c>
@@ -4034,8 +4037,8 @@
       <c r="M4" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="N4" s="83"/>
-      <c r="O4" s="83"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
       <c r="P4" s="13">
         <v>11</v>
       </c>
@@ -4045,26 +4048,26 @@
       <c r="R4" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="S4" s="67"/>
+      <c r="S4" s="80"/>
       <c r="T4" s="70"/>
-      <c r="U4" s="52"/>
-      <c r="V4" s="91"/>
-      <c r="W4" s="83"/>
-      <c r="X4" s="83"/>
-      <c r="Y4" s="83"/>
-      <c r="Z4" s="83"/>
+      <c r="U4" s="88"/>
+      <c r="V4" s="85"/>
+      <c r="W4" s="73"/>
+      <c r="X4" s="73"/>
+      <c r="Y4" s="73"/>
+      <c r="Z4" s="73"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
-      <c r="B5" s="83"/>
-      <c r="C5" s="86"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="87"/>
-      <c r="I5" s="86"/>
-      <c r="J5" s="87"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="77"/>
       <c r="K5" s="13">
         <v>21</v>
       </c>
@@ -4074,8 +4077,8 @@
       <c r="M5" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="N5" s="83"/>
-      <c r="O5" s="83"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="73"/>
       <c r="P5" s="13">
         <v>21</v>
       </c>
@@ -4085,26 +4088,26 @@
       <c r="R5" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="S5" s="67"/>
+      <c r="S5" s="80"/>
       <c r="T5" s="70"/>
-      <c r="U5" s="52"/>
-      <c r="V5" s="91"/>
-      <c r="W5" s="83"/>
-      <c r="X5" s="83"/>
-      <c r="Y5" s="83"/>
-      <c r="Z5" s="83"/>
+      <c r="U5" s="88"/>
+      <c r="V5" s="85"/>
+      <c r="W5" s="73"/>
+      <c r="X5" s="73"/>
+      <c r="Y5" s="73"/>
+      <c r="Z5" s="73"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
-      <c r="B6" s="83"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="87"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="87"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="77"/>
       <c r="K6" s="13">
         <v>31</v>
       </c>
@@ -4114,37 +4117,37 @@
       <c r="M6" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="N6" s="83"/>
-      <c r="O6" s="83"/>
-      <c r="P6" s="76">
+      <c r="N6" s="73"/>
+      <c r="O6" s="73"/>
+      <c r="P6" s="79">
         <v>31</v>
       </c>
-      <c r="Q6" s="78">
+      <c r="Q6" s="69">
         <v>110</v>
       </c>
-      <c r="R6" s="73" t="s">
+      <c r="R6" s="106" t="s">
         <v>42</v>
       </c>
-      <c r="S6" s="67"/>
+      <c r="S6" s="80"/>
       <c r="T6" s="70"/>
-      <c r="U6" s="52"/>
-      <c r="V6" s="91"/>
-      <c r="W6" s="83"/>
-      <c r="X6" s="83"/>
-      <c r="Y6" s="83"/>
-      <c r="Z6" s="83"/>
+      <c r="U6" s="88"/>
+      <c r="V6" s="85"/>
+      <c r="W6" s="73"/>
+      <c r="X6" s="73"/>
+      <c r="Y6" s="73"/>
+      <c r="Z6" s="73"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
-      <c r="B7" s="83"/>
-      <c r="C7" s="86"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="86"/>
-      <c r="H7" s="87"/>
-      <c r="I7" s="86"/>
-      <c r="J7" s="87"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="77"/>
       <c r="K7" s="13">
         <v>41</v>
       </c>
@@ -4154,31 +4157,31 @@
       <c r="M7" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="N7" s="83"/>
-      <c r="O7" s="83"/>
-      <c r="P7" s="67"/>
+      <c r="N7" s="73"/>
+      <c r="O7" s="73"/>
+      <c r="P7" s="80"/>
       <c r="Q7" s="70"/>
-      <c r="R7" s="74"/>
-      <c r="S7" s="67"/>
+      <c r="R7" s="107"/>
+      <c r="S7" s="80"/>
       <c r="T7" s="70"/>
-      <c r="U7" s="52"/>
-      <c r="V7" s="91"/>
-      <c r="W7" s="83"/>
-      <c r="X7" s="83"/>
-      <c r="Y7" s="83"/>
-      <c r="Z7" s="83"/>
+      <c r="U7" s="88"/>
+      <c r="V7" s="85"/>
+      <c r="W7" s="73"/>
+      <c r="X7" s="73"/>
+      <c r="Y7" s="73"/>
+      <c r="Z7" s="73"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
-      <c r="B8" s="83"/>
-      <c r="C8" s="86"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="86"/>
-      <c r="F8" s="87"/>
-      <c r="G8" s="86"/>
-      <c r="H8" s="87"/>
-      <c r="I8" s="86"/>
-      <c r="J8" s="87"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="77"/>
       <c r="K8" s="13">
         <v>51</v>
       </c>
@@ -4188,31 +4191,31 @@
       <c r="M8" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="N8" s="83"/>
-      <c r="O8" s="83"/>
-      <c r="P8" s="67"/>
+      <c r="N8" s="73"/>
+      <c r="O8" s="73"/>
+      <c r="P8" s="80"/>
       <c r="Q8" s="70"/>
-      <c r="R8" s="74"/>
-      <c r="S8" s="67"/>
+      <c r="R8" s="107"/>
+      <c r="S8" s="80"/>
       <c r="T8" s="70"/>
-      <c r="U8" s="52"/>
-      <c r="V8" s="91"/>
-      <c r="W8" s="83"/>
-      <c r="X8" s="83"/>
-      <c r="Y8" s="83"/>
-      <c r="Z8" s="83"/>
+      <c r="U8" s="88"/>
+      <c r="V8" s="85"/>
+      <c r="W8" s="73"/>
+      <c r="X8" s="73"/>
+      <c r="Y8" s="73"/>
+      <c r="Z8" s="73"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
-      <c r="B9" s="83"/>
-      <c r="C9" s="86"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="86"/>
-      <c r="F9" s="87"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="87"/>
-      <c r="I9" s="86"/>
-      <c r="J9" s="87"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="77"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="77"/>
       <c r="K9" s="13">
         <v>61</v>
       </c>
@@ -4222,31 +4225,31 @@
       <c r="M9" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="N9" s="83"/>
-      <c r="O9" s="83"/>
-      <c r="P9" s="67"/>
+      <c r="N9" s="73"/>
+      <c r="O9" s="73"/>
+      <c r="P9" s="80"/>
       <c r="Q9" s="70"/>
-      <c r="R9" s="74"/>
-      <c r="S9" s="67"/>
+      <c r="R9" s="107"/>
+      <c r="S9" s="80"/>
       <c r="T9" s="70"/>
-      <c r="U9" s="52"/>
-      <c r="V9" s="91"/>
-      <c r="W9" s="83"/>
-      <c r="X9" s="83"/>
-      <c r="Y9" s="83"/>
-      <c r="Z9" s="83"/>
+      <c r="U9" s="88"/>
+      <c r="V9" s="85"/>
+      <c r="W9" s="73"/>
+      <c r="X9" s="73"/>
+      <c r="Y9" s="73"/>
+      <c r="Z9" s="73"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
-      <c r="B10" s="83"/>
-      <c r="C10" s="86"/>
-      <c r="D10" s="87"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="86"/>
-      <c r="H10" s="87"/>
-      <c r="I10" s="86"/>
-      <c r="J10" s="87"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="76"/>
+      <c r="H10" s="77"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="77"/>
       <c r="K10" s="13">
         <v>71</v>
       </c>
@@ -4256,31 +4259,31 @@
       <c r="M10" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="N10" s="83"/>
-      <c r="O10" s="83"/>
-      <c r="P10" s="67"/>
+      <c r="N10" s="73"/>
+      <c r="O10" s="73"/>
+      <c r="P10" s="80"/>
       <c r="Q10" s="70"/>
-      <c r="R10" s="74"/>
-      <c r="S10" s="67"/>
+      <c r="R10" s="107"/>
+      <c r="S10" s="80"/>
       <c r="T10" s="70"/>
-      <c r="U10" s="52"/>
-      <c r="V10" s="91"/>
-      <c r="W10" s="83"/>
-      <c r="X10" s="83"/>
-      <c r="Y10" s="83"/>
-      <c r="Z10" s="83"/>
+      <c r="U10" s="88"/>
+      <c r="V10" s="85"/>
+      <c r="W10" s="73"/>
+      <c r="X10" s="73"/>
+      <c r="Y10" s="73"/>
+      <c r="Z10" s="73"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
-      <c r="B11" s="83"/>
-      <c r="C11" s="86"/>
-      <c r="D11" s="87"/>
-      <c r="E11" s="86"/>
-      <c r="F11" s="87"/>
-      <c r="G11" s="86"/>
-      <c r="H11" s="87"/>
-      <c r="I11" s="86"/>
-      <c r="J11" s="87"/>
+      <c r="B11" s="73"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="77"/>
+      <c r="I11" s="76"/>
+      <c r="J11" s="77"/>
       <c r="K11" s="13">
         <v>81</v>
       </c>
@@ -4290,31 +4293,31 @@
       <c r="M11" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="N11" s="83"/>
-      <c r="O11" s="83"/>
-      <c r="P11" s="67"/>
+      <c r="N11" s="73"/>
+      <c r="O11" s="73"/>
+      <c r="P11" s="80"/>
       <c r="Q11" s="70"/>
-      <c r="R11" s="74"/>
-      <c r="S11" s="67"/>
+      <c r="R11" s="107"/>
+      <c r="S11" s="80"/>
       <c r="T11" s="70"/>
-      <c r="U11" s="52"/>
-      <c r="V11" s="91"/>
-      <c r="W11" s="83"/>
-      <c r="X11" s="83"/>
-      <c r="Y11" s="83"/>
-      <c r="Z11" s="83"/>
+      <c r="U11" s="88"/>
+      <c r="V11" s="85"/>
+      <c r="W11" s="73"/>
+      <c r="X11" s="73"/>
+      <c r="Y11" s="73"/>
+      <c r="Z11" s="73"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
-      <c r="B12" s="83"/>
-      <c r="C12" s="86"/>
-      <c r="D12" s="87"/>
-      <c r="E12" s="86"/>
-      <c r="F12" s="87"/>
-      <c r="G12" s="86"/>
-      <c r="H12" s="87"/>
-      <c r="I12" s="86"/>
-      <c r="J12" s="87"/>
+      <c r="B12" s="73"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="77"/>
+      <c r="I12" s="76"/>
+      <c r="J12" s="77"/>
       <c r="K12" s="13">
         <v>91</v>
       </c>
@@ -4322,31 +4325,31 @@
         <v>100</v>
       </c>
       <c r="M12" s="15"/>
-      <c r="N12" s="83"/>
-      <c r="O12" s="83"/>
-      <c r="P12" s="67"/>
+      <c r="N12" s="73"/>
+      <c r="O12" s="73"/>
+      <c r="P12" s="80"/>
       <c r="Q12" s="70"/>
-      <c r="R12" s="74"/>
-      <c r="S12" s="67"/>
+      <c r="R12" s="107"/>
+      <c r="S12" s="80"/>
       <c r="T12" s="70"/>
-      <c r="U12" s="52"/>
-      <c r="V12" s="91"/>
-      <c r="W12" s="83"/>
-      <c r="X12" s="83"/>
-      <c r="Y12" s="83"/>
-      <c r="Z12" s="83"/>
+      <c r="U12" s="88"/>
+      <c r="V12" s="85"/>
+      <c r="W12" s="73"/>
+      <c r="X12" s="73"/>
+      <c r="Y12" s="73"/>
+      <c r="Z12" s="73"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
-      <c r="B13" s="83"/>
-      <c r="C13" s="86"/>
-      <c r="D13" s="87"/>
-      <c r="E13" s="86"/>
-      <c r="F13" s="87"/>
-      <c r="G13" s="86"/>
-      <c r="H13" s="87"/>
-      <c r="I13" s="86"/>
-      <c r="J13" s="87"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="77"/>
+      <c r="I13" s="76"/>
+      <c r="J13" s="77"/>
       <c r="K13" s="13">
         <v>101</v>
       </c>
@@ -4354,31 +4357,31 @@
         <v>110</v>
       </c>
       <c r="M13" s="15"/>
-      <c r="N13" s="83"/>
-      <c r="O13" s="83"/>
-      <c r="P13" s="77"/>
-      <c r="Q13" s="79"/>
-      <c r="R13" s="75"/>
-      <c r="S13" s="67"/>
+      <c r="N13" s="73"/>
+      <c r="O13" s="73"/>
+      <c r="P13" s="81"/>
+      <c r="Q13" s="82"/>
+      <c r="R13" s="108"/>
+      <c r="S13" s="80"/>
       <c r="T13" s="70"/>
-      <c r="U13" s="52"/>
-      <c r="V13" s="91"/>
-      <c r="W13" s="83"/>
-      <c r="X13" s="83"/>
-      <c r="Y13" s="83"/>
-      <c r="Z13" s="83"/>
+      <c r="U13" s="88"/>
+      <c r="V13" s="85"/>
+      <c r="W13" s="73"/>
+      <c r="X13" s="73"/>
+      <c r="Y13" s="73"/>
+      <c r="Z13" s="73"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
-      <c r="B14" s="83"/>
-      <c r="C14" s="86"/>
-      <c r="D14" s="87"/>
-      <c r="E14" s="86"/>
-      <c r="F14" s="87"/>
-      <c r="G14" s="86"/>
-      <c r="H14" s="87"/>
-      <c r="I14" s="86"/>
-      <c r="J14" s="87"/>
+      <c r="B14" s="73"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="77"/>
+      <c r="I14" s="76"/>
+      <c r="J14" s="77"/>
       <c r="K14" s="13">
         <v>111</v>
       </c>
@@ -4386,8 +4389,8 @@
         <v>120</v>
       </c>
       <c r="M14" s="15"/>
-      <c r="N14" s="83"/>
-      <c r="O14" s="83"/>
+      <c r="N14" s="73"/>
+      <c r="O14" s="73"/>
       <c r="P14" s="13">
         <v>111</v>
       </c>
@@ -4397,26 +4400,26 @@
       <c r="R14" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="S14" s="67"/>
+      <c r="S14" s="80"/>
       <c r="T14" s="70"/>
-      <c r="U14" s="52"/>
-      <c r="V14" s="91"/>
-      <c r="W14" s="83"/>
-      <c r="X14" s="83"/>
-      <c r="Y14" s="83"/>
-      <c r="Z14" s="83"/>
+      <c r="U14" s="88"/>
+      <c r="V14" s="85"/>
+      <c r="W14" s="73"/>
+      <c r="X14" s="73"/>
+      <c r="Y14" s="73"/>
+      <c r="Z14" s="73"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
-      <c r="B15" s="83"/>
-      <c r="C15" s="86"/>
-      <c r="D15" s="87"/>
-      <c r="E15" s="86"/>
-      <c r="F15" s="87"/>
-      <c r="G15" s="86"/>
-      <c r="H15" s="87"/>
-      <c r="I15" s="86"/>
-      <c r="J15" s="87"/>
+      <c r="B15" s="73"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="76"/>
+      <c r="H15" s="77"/>
+      <c r="I15" s="76"/>
+      <c r="J15" s="77"/>
       <c r="K15" s="13">
         <v>120.833333333333</v>
       </c>
@@ -4424,37 +4427,37 @@
         <v>130</v>
       </c>
       <c r="M15" s="15"/>
-      <c r="N15" s="83"/>
-      <c r="O15" s="83"/>
-      <c r="P15" s="76">
+      <c r="N15" s="73"/>
+      <c r="O15" s="73"/>
+      <c r="P15" s="79">
         <v>120.833333333333</v>
       </c>
-      <c r="Q15" s="78">
+      <c r="Q15" s="69">
         <v>200</v>
       </c>
-      <c r="R15" s="51" t="s">
+      <c r="R15" s="87" t="s">
         <v>44</v>
       </c>
-      <c r="S15" s="67"/>
+      <c r="S15" s="80"/>
       <c r="T15" s="70"/>
-      <c r="U15" s="52"/>
-      <c r="V15" s="91"/>
-      <c r="W15" s="83"/>
-      <c r="X15" s="83"/>
-      <c r="Y15" s="83"/>
-      <c r="Z15" s="83"/>
+      <c r="U15" s="88"/>
+      <c r="V15" s="85"/>
+      <c r="W15" s="73"/>
+      <c r="X15" s="73"/>
+      <c r="Y15" s="73"/>
+      <c r="Z15" s="73"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
-      <c r="B16" s="83"/>
-      <c r="C16" s="86"/>
-      <c r="D16" s="87"/>
-      <c r="E16" s="86"/>
-      <c r="F16" s="87"/>
-      <c r="G16" s="86"/>
-      <c r="H16" s="87"/>
-      <c r="I16" s="86"/>
-      <c r="J16" s="87"/>
+      <c r="B16" s="73"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="77"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="77"/>
+      <c r="I16" s="76"/>
+      <c r="J16" s="77"/>
       <c r="K16" s="13">
         <v>131</v>
       </c>
@@ -4462,31 +4465,31 @@
         <v>140</v>
       </c>
       <c r="M16" s="15"/>
-      <c r="N16" s="83"/>
-      <c r="O16" s="83"/>
-      <c r="P16" s="67"/>
+      <c r="N16" s="73"/>
+      <c r="O16" s="73"/>
+      <c r="P16" s="80"/>
       <c r="Q16" s="70"/>
-      <c r="R16" s="52"/>
-      <c r="S16" s="67"/>
+      <c r="R16" s="88"/>
+      <c r="S16" s="80"/>
       <c r="T16" s="70"/>
-      <c r="U16" s="52"/>
-      <c r="V16" s="91"/>
-      <c r="W16" s="83"/>
-      <c r="X16" s="83"/>
-      <c r="Y16" s="83"/>
-      <c r="Z16" s="83"/>
+      <c r="U16" s="88"/>
+      <c r="V16" s="85"/>
+      <c r="W16" s="73"/>
+      <c r="X16" s="73"/>
+      <c r="Y16" s="73"/>
+      <c r="Z16" s="73"/>
     </row>
     <row r="17" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12"/>
-      <c r="B17" s="83"/>
-      <c r="C17" s="86"/>
-      <c r="D17" s="87"/>
-      <c r="E17" s="86"/>
-      <c r="F17" s="87"/>
-      <c r="G17" s="86"/>
-      <c r="H17" s="87"/>
-      <c r="I17" s="86"/>
-      <c r="J17" s="87"/>
+      <c r="B17" s="73"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="77"/>
+      <c r="I17" s="76"/>
+      <c r="J17" s="77"/>
       <c r="K17" s="13">
         <v>141</v>
       </c>
@@ -4494,31 +4497,31 @@
         <v>150</v>
       </c>
       <c r="M17" s="15"/>
-      <c r="N17" s="88"/>
-      <c r="O17" s="88"/>
-      <c r="P17" s="67"/>
+      <c r="N17" s="78"/>
+      <c r="O17" s="78"/>
+      <c r="P17" s="80"/>
       <c r="Q17" s="70"/>
-      <c r="R17" s="52"/>
-      <c r="S17" s="67"/>
+      <c r="R17" s="88"/>
+      <c r="S17" s="80"/>
       <c r="T17" s="70"/>
-      <c r="U17" s="52"/>
-      <c r="V17" s="92"/>
-      <c r="W17" s="89"/>
-      <c r="X17" s="89"/>
-      <c r="Y17" s="89"/>
-      <c r="Z17" s="89"/>
+      <c r="U17" s="88"/>
+      <c r="V17" s="86"/>
+      <c r="W17" s="83"/>
+      <c r="X17" s="83"/>
+      <c r="Y17" s="83"/>
+      <c r="Z17" s="83"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="28"/>
       <c r="B18" s="32"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="62"/>
+      <c r="C18" s="92"/>
+      <c r="D18" s="93"/>
+      <c r="E18" s="92"/>
+      <c r="F18" s="93"/>
+      <c r="G18" s="92"/>
+      <c r="H18" s="98"/>
+      <c r="I18" s="92"/>
+      <c r="J18" s="98"/>
       <c r="K18" s="13">
         <v>150.833333333333</v>
       </c>
@@ -4527,30 +4530,30 @@
       </c>
       <c r="M18" s="15"/>
       <c r="N18" s="16"/>
-      <c r="O18" s="65"/>
-      <c r="P18" s="67"/>
+      <c r="O18" s="101"/>
+      <c r="P18" s="80"/>
       <c r="Q18" s="70"/>
-      <c r="R18" s="52"/>
-      <c r="S18" s="67"/>
+      <c r="R18" s="88"/>
+      <c r="S18" s="80"/>
       <c r="T18" s="70"/>
-      <c r="U18" s="52"/>
+      <c r="U18" s="88"/>
       <c r="V18" s="42"/>
-      <c r="W18" s="54"/>
-      <c r="X18" s="54"/>
-      <c r="Y18" s="54"/>
-      <c r="Z18" s="54"/>
+      <c r="W18" s="90"/>
+      <c r="X18" s="90"/>
+      <c r="Y18" s="90"/>
+      <c r="Z18" s="90"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="28"/>
       <c r="B19" s="33"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="63"/>
+      <c r="C19" s="94"/>
+      <c r="D19" s="95"/>
+      <c r="E19" s="94"/>
+      <c r="F19" s="95"/>
+      <c r="G19" s="94"/>
+      <c r="H19" s="99"/>
+      <c r="I19" s="94"/>
+      <c r="J19" s="99"/>
       <c r="K19" s="13">
         <v>161</v>
       </c>
@@ -4559,30 +4562,30 @@
       </c>
       <c r="M19" s="15"/>
       <c r="N19" s="16"/>
-      <c r="O19" s="54"/>
-      <c r="P19" s="67"/>
+      <c r="O19" s="90"/>
+      <c r="P19" s="80"/>
       <c r="Q19" s="70"/>
-      <c r="R19" s="52"/>
-      <c r="S19" s="67"/>
+      <c r="R19" s="88"/>
+      <c r="S19" s="80"/>
       <c r="T19" s="70"/>
-      <c r="U19" s="52"/>
+      <c r="U19" s="88"/>
       <c r="V19" s="42"/>
-      <c r="W19" s="54"/>
-      <c r="X19" s="54"/>
-      <c r="Y19" s="54"/>
-      <c r="Z19" s="54"/>
+      <c r="W19" s="90"/>
+      <c r="X19" s="90"/>
+      <c r="Y19" s="90"/>
+      <c r="Z19" s="90"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="28"/>
       <c r="B20" s="33"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="58"/>
-      <c r="J20" s="63"/>
+      <c r="C20" s="94"/>
+      <c r="D20" s="95"/>
+      <c r="E20" s="94"/>
+      <c r="F20" s="95"/>
+      <c r="G20" s="94"/>
+      <c r="H20" s="99"/>
+      <c r="I20" s="94"/>
+      <c r="J20" s="99"/>
       <c r="K20" s="13">
         <v>171</v>
       </c>
@@ -4591,30 +4594,30 @@
       </c>
       <c r="M20" s="15"/>
       <c r="N20" s="16"/>
-      <c r="O20" s="54"/>
-      <c r="P20" s="67"/>
+      <c r="O20" s="90"/>
+      <c r="P20" s="80"/>
       <c r="Q20" s="70"/>
-      <c r="R20" s="52"/>
-      <c r="S20" s="67"/>
+      <c r="R20" s="88"/>
+      <c r="S20" s="80"/>
       <c r="T20" s="70"/>
-      <c r="U20" s="52"/>
+      <c r="U20" s="88"/>
       <c r="V20" s="42"/>
-      <c r="W20" s="54"/>
-      <c r="X20" s="54"/>
-      <c r="Y20" s="54"/>
-      <c r="Z20" s="54"/>
+      <c r="W20" s="90"/>
+      <c r="X20" s="90"/>
+      <c r="Y20" s="90"/>
+      <c r="Z20" s="90"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="28"/>
       <c r="B21" s="33"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="58"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="58"/>
-      <c r="J21" s="63"/>
+      <c r="C21" s="94"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="94"/>
+      <c r="H21" s="99"/>
+      <c r="I21" s="94"/>
+      <c r="J21" s="99"/>
       <c r="K21" s="13">
         <v>181</v>
       </c>
@@ -4623,30 +4626,30 @@
       </c>
       <c r="M21" s="15"/>
       <c r="N21" s="16"/>
-      <c r="O21" s="54"/>
-      <c r="P21" s="67"/>
+      <c r="O21" s="90"/>
+      <c r="P21" s="80"/>
       <c r="Q21" s="70"/>
-      <c r="R21" s="52"/>
-      <c r="S21" s="67"/>
+      <c r="R21" s="88"/>
+      <c r="S21" s="80"/>
       <c r="T21" s="70"/>
-      <c r="U21" s="52"/>
+      <c r="U21" s="88"/>
       <c r="V21" s="42"/>
-      <c r="W21" s="54"/>
-      <c r="X21" s="54"/>
-      <c r="Y21" s="54"/>
-      <c r="Z21" s="54"/>
+      <c r="W21" s="90"/>
+      <c r="X21" s="90"/>
+      <c r="Y21" s="90"/>
+      <c r="Z21" s="90"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="28"/>
       <c r="B22" s="33"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="58"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="58"/>
-      <c r="J22" s="63"/>
+      <c r="C22" s="94"/>
+      <c r="D22" s="95"/>
+      <c r="E22" s="94"/>
+      <c r="F22" s="95"/>
+      <c r="G22" s="94"/>
+      <c r="H22" s="99"/>
+      <c r="I22" s="94"/>
+      <c r="J22" s="99"/>
       <c r="K22" s="13">
         <v>191</v>
       </c>
@@ -4655,30 +4658,30 @@
       </c>
       <c r="M22" s="15"/>
       <c r="N22" s="16"/>
-      <c r="O22" s="54"/>
-      <c r="P22" s="77"/>
-      <c r="Q22" s="79"/>
-      <c r="R22" s="80"/>
-      <c r="S22" s="67"/>
+      <c r="O22" s="90"/>
+      <c r="P22" s="81"/>
+      <c r="Q22" s="82"/>
+      <c r="R22" s="109"/>
+      <c r="S22" s="80"/>
       <c r="T22" s="70"/>
-      <c r="U22" s="52"/>
+      <c r="U22" s="88"/>
       <c r="V22" s="42"/>
-      <c r="W22" s="54"/>
-      <c r="X22" s="54"/>
-      <c r="Y22" s="54"/>
-      <c r="Z22" s="54"/>
+      <c r="W22" s="90"/>
+      <c r="X22" s="90"/>
+      <c r="Y22" s="90"/>
+      <c r="Z22" s="90"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="28"/>
       <c r="B23" s="33"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="58"/>
-      <c r="F23" s="59"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="63"/>
-      <c r="I23" s="58"/>
-      <c r="J23" s="63"/>
+      <c r="C23" s="94"/>
+      <c r="D23" s="95"/>
+      <c r="E23" s="94"/>
+      <c r="F23" s="95"/>
+      <c r="G23" s="94"/>
+      <c r="H23" s="99"/>
+      <c r="I23" s="94"/>
+      <c r="J23" s="99"/>
       <c r="K23" s="13">
         <v>201</v>
       </c>
@@ -4687,36 +4690,36 @@
       </c>
       <c r="M23" s="15"/>
       <c r="N23" s="16"/>
-      <c r="O23" s="54"/>
-      <c r="P23" s="76">
+      <c r="O23" s="90"/>
+      <c r="P23" s="79">
         <v>201</v>
       </c>
-      <c r="Q23" s="78">
+      <c r="Q23" s="69">
         <v>255</v>
       </c>
-      <c r="R23" s="51" t="s">
+      <c r="R23" s="87" t="s">
         <v>45</v>
       </c>
-      <c r="S23" s="67"/>
+      <c r="S23" s="80"/>
       <c r="T23" s="70"/>
-      <c r="U23" s="52"/>
+      <c r="U23" s="88"/>
       <c r="V23" s="42"/>
-      <c r="W23" s="54"/>
-      <c r="X23" s="54"/>
-      <c r="Y23" s="54"/>
-      <c r="Z23" s="54"/>
+      <c r="W23" s="90"/>
+      <c r="X23" s="90"/>
+      <c r="Y23" s="90"/>
+      <c r="Z23" s="90"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="28"/>
       <c r="B24" s="33"/>
-      <c r="C24" s="58"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="58"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="58"/>
-      <c r="H24" s="63"/>
-      <c r="I24" s="58"/>
-      <c r="J24" s="63"/>
+      <c r="C24" s="94"/>
+      <c r="D24" s="95"/>
+      <c r="E24" s="94"/>
+      <c r="F24" s="95"/>
+      <c r="G24" s="94"/>
+      <c r="H24" s="99"/>
+      <c r="I24" s="94"/>
+      <c r="J24" s="99"/>
       <c r="K24" s="13">
         <v>210</v>
       </c>
@@ -4725,30 +4728,30 @@
       </c>
       <c r="M24" s="15"/>
       <c r="N24" s="16"/>
-      <c r="O24" s="54"/>
-      <c r="P24" s="67"/>
+      <c r="O24" s="90"/>
+      <c r="P24" s="80"/>
       <c r="Q24" s="70"/>
-      <c r="R24" s="52"/>
-      <c r="S24" s="67"/>
+      <c r="R24" s="88"/>
+      <c r="S24" s="80"/>
       <c r="T24" s="70"/>
-      <c r="U24" s="52"/>
+      <c r="U24" s="88"/>
       <c r="V24" s="42"/>
-      <c r="W24" s="54"/>
-      <c r="X24" s="54"/>
-      <c r="Y24" s="54"/>
-      <c r="Z24" s="54"/>
+      <c r="W24" s="90"/>
+      <c r="X24" s="90"/>
+      <c r="Y24" s="90"/>
+      <c r="Z24" s="90"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="28"/>
       <c r="B25" s="33"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="58"/>
-      <c r="H25" s="63"/>
-      <c r="I25" s="58"/>
-      <c r="J25" s="63"/>
+      <c r="C25" s="94"/>
+      <c r="D25" s="95"/>
+      <c r="E25" s="94"/>
+      <c r="F25" s="95"/>
+      <c r="G25" s="94"/>
+      <c r="H25" s="99"/>
+      <c r="I25" s="94"/>
+      <c r="J25" s="99"/>
       <c r="K25" s="13">
         <v>221</v>
       </c>
@@ -4757,30 +4760,30 @@
       </c>
       <c r="M25" s="15"/>
       <c r="N25" s="16"/>
-      <c r="O25" s="54"/>
-      <c r="P25" s="67"/>
+      <c r="O25" s="90"/>
+      <c r="P25" s="80"/>
       <c r="Q25" s="70"/>
-      <c r="R25" s="52"/>
-      <c r="S25" s="67"/>
+      <c r="R25" s="88"/>
+      <c r="S25" s="80"/>
       <c r="T25" s="70"/>
-      <c r="U25" s="52"/>
+      <c r="U25" s="88"/>
       <c r="V25" s="42"/>
-      <c r="W25" s="54"/>
-      <c r="X25" s="54"/>
-      <c r="Y25" s="54"/>
-      <c r="Z25" s="54"/>
+      <c r="W25" s="90"/>
+      <c r="X25" s="90"/>
+      <c r="Y25" s="90"/>
+      <c r="Z25" s="90"/>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="28"/>
       <c r="B26" s="33"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="63"/>
-      <c r="I26" s="58"/>
-      <c r="J26" s="63"/>
+      <c r="C26" s="94"/>
+      <c r="D26" s="95"/>
+      <c r="E26" s="94"/>
+      <c r="F26" s="95"/>
+      <c r="G26" s="94"/>
+      <c r="H26" s="99"/>
+      <c r="I26" s="94"/>
+      <c r="J26" s="99"/>
       <c r="K26" s="13">
         <v>231</v>
       </c>
@@ -4789,30 +4792,30 @@
       </c>
       <c r="M26" s="15"/>
       <c r="N26" s="16"/>
-      <c r="O26" s="54"/>
-      <c r="P26" s="67"/>
+      <c r="O26" s="90"/>
+      <c r="P26" s="80"/>
       <c r="Q26" s="70"/>
-      <c r="R26" s="52"/>
-      <c r="S26" s="67"/>
+      <c r="R26" s="88"/>
+      <c r="S26" s="80"/>
       <c r="T26" s="70"/>
-      <c r="U26" s="52"/>
+      <c r="U26" s="88"/>
       <c r="V26" s="42"/>
-      <c r="W26" s="54"/>
-      <c r="X26" s="54"/>
-      <c r="Y26" s="54"/>
-      <c r="Z26" s="54"/>
+      <c r="W26" s="90"/>
+      <c r="X26" s="90"/>
+      <c r="Y26" s="90"/>
+      <c r="Z26" s="90"/>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="28"/>
       <c r="B27" s="33"/>
-      <c r="C27" s="58"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="58"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="58"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="58"/>
-      <c r="J27" s="63"/>
+      <c r="C27" s="94"/>
+      <c r="D27" s="95"/>
+      <c r="E27" s="94"/>
+      <c r="F27" s="95"/>
+      <c r="G27" s="94"/>
+      <c r="H27" s="99"/>
+      <c r="I27" s="94"/>
+      <c r="J27" s="99"/>
       <c r="K27" s="13">
         <v>241</v>
       </c>
@@ -4821,30 +4824,30 @@
       </c>
       <c r="M27" s="15"/>
       <c r="N27" s="16"/>
-      <c r="O27" s="54"/>
-      <c r="P27" s="67"/>
+      <c r="O27" s="90"/>
+      <c r="P27" s="80"/>
       <c r="Q27" s="70"/>
-      <c r="R27" s="52"/>
-      <c r="S27" s="67"/>
+      <c r="R27" s="88"/>
+      <c r="S27" s="80"/>
       <c r="T27" s="70"/>
-      <c r="U27" s="52"/>
+      <c r="U27" s="88"/>
       <c r="V27" s="42"/>
-      <c r="W27" s="54"/>
-      <c r="X27" s="54"/>
-      <c r="Y27" s="54"/>
-      <c r="Z27" s="54"/>
+      <c r="W27" s="90"/>
+      <c r="X27" s="90"/>
+      <c r="Y27" s="90"/>
+      <c r="Z27" s="90"/>
     </row>
     <row r="28" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="29"/>
       <c r="B28" s="34"/>
-      <c r="C28" s="60"/>
-      <c r="D28" s="61"/>
-      <c r="E28" s="60"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="60"/>
-      <c r="H28" s="64"/>
-      <c r="I28" s="60"/>
-      <c r="J28" s="64"/>
+      <c r="C28" s="96"/>
+      <c r="D28" s="97"/>
+      <c r="E28" s="96"/>
+      <c r="F28" s="97"/>
+      <c r="G28" s="96"/>
+      <c r="H28" s="100"/>
+      <c r="I28" s="96"/>
+      <c r="J28" s="100"/>
       <c r="K28" s="18">
         <v>251</v>
       </c>
@@ -4853,21 +4856,52 @@
       </c>
       <c r="M28" s="20"/>
       <c r="N28" s="21"/>
-      <c r="O28" s="55"/>
-      <c r="P28" s="68"/>
+      <c r="O28" s="91"/>
+      <c r="P28" s="103"/>
       <c r="Q28" s="71"/>
-      <c r="R28" s="53"/>
-      <c r="S28" s="68"/>
+      <c r="R28" s="89"/>
+      <c r="S28" s="103"/>
       <c r="T28" s="71"/>
-      <c r="U28" s="53"/>
+      <c r="U28" s="89"/>
       <c r="V28" s="43"/>
-      <c r="W28" s="55"/>
-      <c r="X28" s="55"/>
-      <c r="Y28" s="55"/>
-      <c r="Z28" s="55"/>
+      <c r="W28" s="91"/>
+      <c r="X28" s="91"/>
+      <c r="Y28" s="91"/>
+      <c r="Z28" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="X3:X17"/>
+    <mergeCell ref="Q6:Q13"/>
+    <mergeCell ref="R6:R13"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="S2:U2"/>
+    <mergeCell ref="R15:R22"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="Y18:Y28"/>
+    <mergeCell ref="B3:B17"/>
+    <mergeCell ref="C3:D17"/>
+    <mergeCell ref="E3:F17"/>
+    <mergeCell ref="G3:H17"/>
+    <mergeCell ref="N3:N17"/>
+    <mergeCell ref="O3:O17"/>
+    <mergeCell ref="I3:J17"/>
+    <mergeCell ref="S3:S28"/>
+    <mergeCell ref="T3:T28"/>
+    <mergeCell ref="U3:U28"/>
+    <mergeCell ref="V3:V17"/>
+    <mergeCell ref="W3:W17"/>
     <mergeCell ref="Z3:Z17"/>
     <mergeCell ref="Z18:Z28"/>
     <mergeCell ref="C18:D28"/>
@@ -4884,37 +4918,6 @@
     <mergeCell ref="P6:P13"/>
     <mergeCell ref="P15:P22"/>
     <mergeCell ref="Q15:Q22"/>
-    <mergeCell ref="R15:R22"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="Y18:Y28"/>
-    <mergeCell ref="B3:B17"/>
-    <mergeCell ref="C3:D17"/>
-    <mergeCell ref="E3:F17"/>
-    <mergeCell ref="G3:H17"/>
-    <mergeCell ref="N3:N17"/>
-    <mergeCell ref="O3:O17"/>
-    <mergeCell ref="I3:J17"/>
-    <mergeCell ref="S3:S28"/>
-    <mergeCell ref="T3:T28"/>
-    <mergeCell ref="U3:U28"/>
-    <mergeCell ref="V3:V17"/>
-    <mergeCell ref="W3:W17"/>
-    <mergeCell ref="X3:X17"/>
-    <mergeCell ref="Q6:Q13"/>
-    <mergeCell ref="R6:R13"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="S1:U1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:U2"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4937,48 +4940,48 @@
       <c r="B1" s="44">
         <v>1</v>
       </c>
-      <c r="C1" s="105">
+      <c r="C1" s="64">
         <v>2</v>
       </c>
-      <c r="D1" s="106"/>
-      <c r="E1" s="105">
+      <c r="D1" s="65"/>
+      <c r="E1" s="64">
         <v>3</v>
       </c>
-      <c r="F1" s="106"/>
-      <c r="G1" s="105">
+      <c r="F1" s="65"/>
+      <c r="G1" s="64">
         <v>4</v>
       </c>
-      <c r="H1" s="106"/>
-      <c r="I1" s="105">
+      <c r="H1" s="65"/>
+      <c r="I1" s="64">
         <v>5</v>
       </c>
-      <c r="J1" s="106"/>
-      <c r="K1" s="93">
+      <c r="J1" s="65"/>
+      <c r="K1" s="51">
         <v>6</v>
       </c>
-      <c r="L1" s="107"/>
-      <c r="M1" s="95"/>
-      <c r="N1" s="108">
+      <c r="L1" s="66"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="67">
         <v>7</v>
       </c>
-      <c r="O1" s="94"/>
-      <c r="P1" s="95"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="53"/>
       <c r="Q1" s="44">
         <v>8</v>
       </c>
       <c r="R1" s="3">
         <v>9</v>
       </c>
-      <c r="S1" s="108">
+      <c r="S1" s="67">
         <v>10</v>
       </c>
-      <c r="T1" s="94"/>
-      <c r="U1" s="109"/>
-      <c r="V1" s="93">
+      <c r="T1" s="52"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="51">
         <v>11</v>
       </c>
-      <c r="W1" s="94"/>
-      <c r="X1" s="95"/>
+      <c r="W1" s="52"/>
+      <c r="X1" s="53"/>
       <c r="Y1" s="44">
         <v>12</v>
       </c>
@@ -4991,16 +4994,16 @@
       <c r="AB1" s="44">
         <v>15</v>
       </c>
-      <c r="AC1" s="93">
+      <c r="AC1" s="51">
         <v>16</v>
       </c>
-      <c r="AD1" s="94"/>
-      <c r="AE1" s="95"/>
-      <c r="AF1" s="108">
+      <c r="AD1" s="52"/>
+      <c r="AE1" s="53"/>
+      <c r="AF1" s="67">
         <v>17</v>
       </c>
-      <c r="AG1" s="94"/>
-      <c r="AH1" s="95"/>
+      <c r="AG1" s="52"/>
+      <c r="AH1" s="53"/>
     </row>
     <row r="2" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -5009,48 +5012,48 @@
       <c r="B2" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="96" t="s">
+      <c r="C2" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="97"/>
-      <c r="E2" s="98" t="s">
+      <c r="D2" s="56"/>
+      <c r="E2" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="97"/>
-      <c r="G2" s="96" t="s">
+      <c r="F2" s="56"/>
+      <c r="G2" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="97"/>
-      <c r="I2" s="96" t="s">
+      <c r="H2" s="56"/>
+      <c r="I2" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="J2" s="97"/>
-      <c r="K2" s="99" t="s">
+      <c r="J2" s="56"/>
+      <c r="K2" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="100"/>
-      <c r="M2" s="101"/>
-      <c r="N2" s="102" t="s">
+      <c r="L2" s="59"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="103"/>
-      <c r="P2" s="101"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="60"/>
       <c r="Q2" s="45" t="s">
         <v>8</v>
       </c>
       <c r="R2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="102" t="s">
+      <c r="S2" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="T2" s="103"/>
-      <c r="U2" s="104"/>
-      <c r="V2" s="99" t="s">
+      <c r="T2" s="62"/>
+      <c r="U2" s="63"/>
+      <c r="V2" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="W2" s="103"/>
-      <c r="X2" s="101"/>
+      <c r="W2" s="62"/>
+      <c r="X2" s="60"/>
       <c r="Y2" s="45" t="s">
         <v>12</v>
       </c>
@@ -5063,38 +5066,38 @@
       <c r="AB2" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="AC2" s="99" t="s">
+      <c r="AC2" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="AD2" s="103"/>
-      <c r="AE2" s="101"/>
-      <c r="AF2" s="102" t="s">
+      <c r="AD2" s="62"/>
+      <c r="AE2" s="60"/>
+      <c r="AF2" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="AG2" s="103"/>
-      <c r="AH2" s="101"/>
+      <c r="AG2" s="62"/>
+      <c r="AH2" s="60"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="84" t="s">
+      <c r="C3" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="85"/>
-      <c r="E3" s="84" t="s">
+      <c r="D3" s="75"/>
+      <c r="E3" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="85"/>
-      <c r="G3" s="84" t="s">
+      <c r="F3" s="75"/>
+      <c r="G3" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="85"/>
-      <c r="I3" s="84" t="s">
+      <c r="H3" s="75"/>
+      <c r="I3" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="85"/>
+      <c r="J3" s="75"/>
       <c r="K3" s="8">
         <v>0</v>
       </c>
@@ -5113,10 +5116,10 @@
       <c r="P3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="82" t="s">
+      <c r="Q3" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="R3" s="82" t="s">
+      <c r="R3" s="72" t="s">
         <v>15</v>
       </c>
       <c r="S3" s="8">
@@ -5128,25 +5131,25 @@
       <c r="U3" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="V3" s="66">
+      <c r="V3" s="102">
         <v>0</v>
       </c>
-      <c r="W3" s="69">
+      <c r="W3" s="104">
         <v>255</v>
       </c>
-      <c r="X3" s="72" t="s">
+      <c r="X3" s="105" t="s">
         <v>46</v>
       </c>
-      <c r="Y3" s="82" t="s">
+      <c r="Y3" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="Z3" s="82" t="s">
+      <c r="Z3" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="AA3" s="82" t="s">
+      <c r="AA3" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="AB3" s="82" t="s">
+      <c r="AB3" s="72" t="s">
         <v>15</v>
       </c>
       <c r="AC3" s="8">
@@ -5170,15 +5173,15 @@
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
-      <c r="B4" s="83"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="87"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="77"/>
       <c r="K4" s="13">
         <v>11</v>
       </c>
@@ -5197,8 +5200,8 @@
       <c r="P4" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="Q4" s="83"/>
-      <c r="R4" s="83"/>
+      <c r="Q4" s="73"/>
+      <c r="R4" s="73"/>
       <c r="S4" s="13">
         <v>11</v>
       </c>
@@ -5208,13 +5211,13 @@
       <c r="U4" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="V4" s="67"/>
+      <c r="V4" s="80"/>
       <c r="W4" s="70"/>
-      <c r="X4" s="52"/>
-      <c r="Y4" s="83"/>
-      <c r="Z4" s="83"/>
-      <c r="AA4" s="83"/>
-      <c r="AB4" s="83"/>
+      <c r="X4" s="88"/>
+      <c r="Y4" s="73"/>
+      <c r="Z4" s="73"/>
+      <c r="AA4" s="73"/>
+      <c r="AB4" s="73"/>
       <c r="AC4" s="48">
         <v>11</v>
       </c>
@@ -5236,15 +5239,15 @@
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
-      <c r="B5" s="83"/>
-      <c r="C5" s="86"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="87"/>
-      <c r="I5" s="86"/>
-      <c r="J5" s="87"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="77"/>
       <c r="K5" s="13">
         <v>21</v>
       </c>
@@ -5263,8 +5266,8 @@
       <c r="P5" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="Q5" s="83"/>
-      <c r="R5" s="83"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
       <c r="S5" s="13">
         <v>21</v>
       </c>
@@ -5274,13 +5277,13 @@
       <c r="U5" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="V5" s="67"/>
+      <c r="V5" s="80"/>
       <c r="W5" s="70"/>
-      <c r="X5" s="52"/>
-      <c r="Y5" s="83"/>
-      <c r="Z5" s="83"/>
-      <c r="AA5" s="83"/>
-      <c r="AB5" s="83"/>
+      <c r="X5" s="88"/>
+      <c r="Y5" s="73"/>
+      <c r="Z5" s="73"/>
+      <c r="AA5" s="73"/>
+      <c r="AB5" s="73"/>
       <c r="AC5" s="48">
         <v>21</v>
       </c>
@@ -5302,15 +5305,15 @@
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
-      <c r="B6" s="83"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="87"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="87"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="77"/>
       <c r="K6" s="13">
         <v>31</v>
       </c>
@@ -5329,24 +5332,24 @@
       <c r="P6" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="Q6" s="83"/>
-      <c r="R6" s="83"/>
-      <c r="S6" s="76">
+      <c r="Q6" s="73"/>
+      <c r="R6" s="73"/>
+      <c r="S6" s="79">
         <v>31</v>
       </c>
-      <c r="T6" s="78">
+      <c r="T6" s="69">
         <v>110</v>
       </c>
-      <c r="U6" s="73" t="s">
+      <c r="U6" s="106" t="s">
         <v>42</v>
       </c>
-      <c r="V6" s="67"/>
+      <c r="V6" s="80"/>
       <c r="W6" s="70"/>
-      <c r="X6" s="52"/>
-      <c r="Y6" s="83"/>
-      <c r="Z6" s="83"/>
-      <c r="AA6" s="83"/>
-      <c r="AB6" s="83"/>
+      <c r="X6" s="88"/>
+      <c r="Y6" s="73"/>
+      <c r="Z6" s="73"/>
+      <c r="AA6" s="73"/>
+      <c r="AB6" s="73"/>
       <c r="AC6" s="13">
         <v>31</v>
       </c>
@@ -5366,15 +5369,15 @@
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
-      <c r="B7" s="83"/>
-      <c r="C7" s="86"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="86"/>
-      <c r="H7" s="87"/>
-      <c r="I7" s="86"/>
-      <c r="J7" s="87"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="77"/>
       <c r="K7" s="13">
         <v>41</v>
       </c>
@@ -5393,18 +5396,18 @@
       <c r="P7" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="Q7" s="83"/>
-      <c r="R7" s="83"/>
-      <c r="S7" s="67"/>
+      <c r="Q7" s="73"/>
+      <c r="R7" s="73"/>
+      <c r="S7" s="80"/>
       <c r="T7" s="70"/>
-      <c r="U7" s="74"/>
-      <c r="V7" s="67"/>
+      <c r="U7" s="107"/>
+      <c r="V7" s="80"/>
       <c r="W7" s="70"/>
-      <c r="X7" s="52"/>
-      <c r="Y7" s="83"/>
-      <c r="Z7" s="83"/>
-      <c r="AA7" s="83"/>
-      <c r="AB7" s="83"/>
+      <c r="X7" s="88"/>
+      <c r="Y7" s="73"/>
+      <c r="Z7" s="73"/>
+      <c r="AA7" s="73"/>
+      <c r="AB7" s="73"/>
       <c r="AC7" s="13">
         <v>41</v>
       </c>
@@ -5422,15 +5425,15 @@
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
-      <c r="B8" s="83"/>
-      <c r="C8" s="86"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="86"/>
-      <c r="F8" s="87"/>
-      <c r="G8" s="86"/>
-      <c r="H8" s="87"/>
-      <c r="I8" s="86"/>
-      <c r="J8" s="87"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="77"/>
       <c r="K8" s="13">
         <v>51</v>
       </c>
@@ -5449,18 +5452,18 @@
       <c r="P8" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="Q8" s="83"/>
-      <c r="R8" s="83"/>
-      <c r="S8" s="67"/>
+      <c r="Q8" s="73"/>
+      <c r="R8" s="73"/>
+      <c r="S8" s="80"/>
       <c r="T8" s="70"/>
-      <c r="U8" s="74"/>
-      <c r="V8" s="67"/>
+      <c r="U8" s="107"/>
+      <c r="V8" s="80"/>
       <c r="W8" s="70"/>
-      <c r="X8" s="52"/>
-      <c r="Y8" s="83"/>
-      <c r="Z8" s="83"/>
-      <c r="AA8" s="83"/>
-      <c r="AB8" s="83"/>
+      <c r="X8" s="88"/>
+      <c r="Y8" s="73"/>
+      <c r="Z8" s="73"/>
+      <c r="AA8" s="73"/>
+      <c r="AB8" s="73"/>
       <c r="AC8" s="13">
         <v>51</v>
       </c>
@@ -5478,15 +5481,15 @@
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
-      <c r="B9" s="83"/>
-      <c r="C9" s="86"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="86"/>
-      <c r="F9" s="87"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="87"/>
-      <c r="I9" s="86"/>
-      <c r="J9" s="87"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="77"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="77"/>
       <c r="K9" s="13">
         <v>61</v>
       </c>
@@ -5505,18 +5508,18 @@
       <c r="P9" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="Q9" s="83"/>
-      <c r="R9" s="83"/>
-      <c r="S9" s="67"/>
+      <c r="Q9" s="73"/>
+      <c r="R9" s="73"/>
+      <c r="S9" s="80"/>
       <c r="T9" s="70"/>
-      <c r="U9" s="74"/>
-      <c r="V9" s="67"/>
+      <c r="U9" s="107"/>
+      <c r="V9" s="80"/>
       <c r="W9" s="70"/>
-      <c r="X9" s="52"/>
-      <c r="Y9" s="83"/>
-      <c r="Z9" s="83"/>
-      <c r="AA9" s="83"/>
-      <c r="AB9" s="83"/>
+      <c r="X9" s="88"/>
+      <c r="Y9" s="73"/>
+      <c r="Z9" s="73"/>
+      <c r="AA9" s="73"/>
+      <c r="AB9" s="73"/>
       <c r="AC9" s="13">
         <v>61</v>
       </c>
@@ -5534,15 +5537,15 @@
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
-      <c r="B10" s="83"/>
-      <c r="C10" s="86"/>
-      <c r="D10" s="87"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="86"/>
-      <c r="H10" s="87"/>
-      <c r="I10" s="86"/>
-      <c r="J10" s="87"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="76"/>
+      <c r="H10" s="77"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="77"/>
       <c r="K10" s="13">
         <v>71</v>
       </c>
@@ -5561,18 +5564,18 @@
       <c r="P10" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="Q10" s="83"/>
-      <c r="R10" s="83"/>
-      <c r="S10" s="67"/>
+      <c r="Q10" s="73"/>
+      <c r="R10" s="73"/>
+      <c r="S10" s="80"/>
       <c r="T10" s="70"/>
-      <c r="U10" s="74"/>
-      <c r="V10" s="67"/>
+      <c r="U10" s="107"/>
+      <c r="V10" s="80"/>
       <c r="W10" s="70"/>
-      <c r="X10" s="52"/>
-      <c r="Y10" s="83"/>
-      <c r="Z10" s="83"/>
-      <c r="AA10" s="83"/>
-      <c r="AB10" s="83"/>
+      <c r="X10" s="88"/>
+      <c r="Y10" s="73"/>
+      <c r="Z10" s="73"/>
+      <c r="AA10" s="73"/>
+      <c r="AB10" s="73"/>
       <c r="AC10" s="13">
         <v>71</v>
       </c>
@@ -5590,15 +5593,15 @@
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
-      <c r="B11" s="83"/>
-      <c r="C11" s="86"/>
-      <c r="D11" s="87"/>
-      <c r="E11" s="86"/>
-      <c r="F11" s="87"/>
-      <c r="G11" s="86"/>
-      <c r="H11" s="87"/>
-      <c r="I11" s="86"/>
-      <c r="J11" s="87"/>
+      <c r="B11" s="73"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="77"/>
+      <c r="I11" s="76"/>
+      <c r="J11" s="77"/>
       <c r="K11" s="13">
         <v>81</v>
       </c>
@@ -5617,18 +5620,18 @@
       <c r="P11" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="Q11" s="83"/>
-      <c r="R11" s="83"/>
-      <c r="S11" s="67"/>
+      <c r="Q11" s="73"/>
+      <c r="R11" s="73"/>
+      <c r="S11" s="80"/>
       <c r="T11" s="70"/>
-      <c r="U11" s="74"/>
-      <c r="V11" s="67"/>
+      <c r="U11" s="107"/>
+      <c r="V11" s="80"/>
       <c r="W11" s="70"/>
-      <c r="X11" s="52"/>
-      <c r="Y11" s="83"/>
-      <c r="Z11" s="83"/>
-      <c r="AA11" s="83"/>
-      <c r="AB11" s="83"/>
+      <c r="X11" s="88"/>
+      <c r="Y11" s="73"/>
+      <c r="Z11" s="73"/>
+      <c r="AA11" s="73"/>
+      <c r="AB11" s="73"/>
       <c r="AC11" s="13">
         <v>81</v>
       </c>
@@ -5646,15 +5649,15 @@
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
-      <c r="B12" s="83"/>
-      <c r="C12" s="86"/>
-      <c r="D12" s="87"/>
-      <c r="E12" s="86"/>
-      <c r="F12" s="87"/>
-      <c r="G12" s="86"/>
-      <c r="H12" s="87"/>
-      <c r="I12" s="86"/>
-      <c r="J12" s="87"/>
+      <c r="B12" s="73"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="77"/>
+      <c r="I12" s="76"/>
+      <c r="J12" s="77"/>
       <c r="K12" s="13">
         <v>91</v>
       </c>
@@ -5673,18 +5676,18 @@
       <c r="P12" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="Q12" s="83"/>
-      <c r="R12" s="83"/>
-      <c r="S12" s="67"/>
+      <c r="Q12" s="73"/>
+      <c r="R12" s="73"/>
+      <c r="S12" s="80"/>
       <c r="T12" s="70"/>
-      <c r="U12" s="74"/>
-      <c r="V12" s="67"/>
+      <c r="U12" s="107"/>
+      <c r="V12" s="80"/>
       <c r="W12" s="70"/>
-      <c r="X12" s="52"/>
-      <c r="Y12" s="83"/>
-      <c r="Z12" s="83"/>
-      <c r="AA12" s="83"/>
-      <c r="AB12" s="83"/>
+      <c r="X12" s="88"/>
+      <c r="Y12" s="73"/>
+      <c r="Z12" s="73"/>
+      <c r="AA12" s="73"/>
+      <c r="AB12" s="73"/>
       <c r="AC12" s="13">
         <v>91</v>
       </c>
@@ -5702,15 +5705,15 @@
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
-      <c r="B13" s="83"/>
-      <c r="C13" s="86"/>
-      <c r="D13" s="87"/>
-      <c r="E13" s="86"/>
-      <c r="F13" s="87"/>
-      <c r="G13" s="86"/>
-      <c r="H13" s="87"/>
-      <c r="I13" s="86"/>
-      <c r="J13" s="87"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="77"/>
+      <c r="I13" s="76"/>
+      <c r="J13" s="77"/>
       <c r="K13" s="13">
         <v>101</v>
       </c>
@@ -5729,18 +5732,18 @@
       <c r="P13" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="Q13" s="83"/>
-      <c r="R13" s="83"/>
-      <c r="S13" s="77"/>
-      <c r="T13" s="79"/>
-      <c r="U13" s="75"/>
-      <c r="V13" s="67"/>
+      <c r="Q13" s="73"/>
+      <c r="R13" s="73"/>
+      <c r="S13" s="81"/>
+      <c r="T13" s="82"/>
+      <c r="U13" s="108"/>
+      <c r="V13" s="80"/>
       <c r="W13" s="70"/>
-      <c r="X13" s="52"/>
-      <c r="Y13" s="83"/>
-      <c r="Z13" s="83"/>
-      <c r="AA13" s="83"/>
-      <c r="AB13" s="83"/>
+      <c r="X13" s="88"/>
+      <c r="Y13" s="73"/>
+      <c r="Z13" s="73"/>
+      <c r="AA13" s="73"/>
+      <c r="AB13" s="73"/>
       <c r="AC13" s="13">
         <v>101</v>
       </c>
@@ -5758,15 +5761,15 @@
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
-      <c r="B14" s="83"/>
-      <c r="C14" s="86"/>
-      <c r="D14" s="87"/>
-      <c r="E14" s="86"/>
-      <c r="F14" s="87"/>
-      <c r="G14" s="86"/>
-      <c r="H14" s="87"/>
-      <c r="I14" s="86"/>
-      <c r="J14" s="87"/>
+      <c r="B14" s="73"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="77"/>
+      <c r="I14" s="76"/>
+      <c r="J14" s="77"/>
       <c r="K14" s="13">
         <v>111</v>
       </c>
@@ -5785,8 +5788,8 @@
       <c r="P14" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="Q14" s="83"/>
-      <c r="R14" s="83"/>
+      <c r="Q14" s="73"/>
+      <c r="R14" s="73"/>
       <c r="S14" s="13">
         <v>111</v>
       </c>
@@ -5796,13 +5799,13 @@
       <c r="U14" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="V14" s="67"/>
+      <c r="V14" s="80"/>
       <c r="W14" s="70"/>
-      <c r="X14" s="52"/>
-      <c r="Y14" s="83"/>
-      <c r="Z14" s="83"/>
-      <c r="AA14" s="83"/>
-      <c r="AB14" s="83"/>
+      <c r="X14" s="88"/>
+      <c r="Y14" s="73"/>
+      <c r="Z14" s="73"/>
+      <c r="AA14" s="73"/>
+      <c r="AB14" s="73"/>
       <c r="AC14" s="13">
         <v>111</v>
       </c>
@@ -5820,15 +5823,15 @@
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
-      <c r="B15" s="83"/>
-      <c r="C15" s="86"/>
-      <c r="D15" s="87"/>
-      <c r="E15" s="86"/>
-      <c r="F15" s="87"/>
-      <c r="G15" s="86"/>
-      <c r="H15" s="87"/>
-      <c r="I15" s="86"/>
-      <c r="J15" s="87"/>
+      <c r="B15" s="73"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="76"/>
+      <c r="H15" s="77"/>
+      <c r="I15" s="76"/>
+      <c r="J15" s="77"/>
       <c r="K15" s="13">
         <v>120.833333333333</v>
       </c>
@@ -5847,24 +5850,24 @@
       <c r="P15" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="Q15" s="83"/>
-      <c r="R15" s="83"/>
-      <c r="S15" s="76">
+      <c r="Q15" s="73"/>
+      <c r="R15" s="73"/>
+      <c r="S15" s="79">
         <v>120.833333333333</v>
       </c>
-      <c r="T15" s="78">
+      <c r="T15" s="69">
         <v>200</v>
       </c>
-      <c r="U15" s="51" t="s">
+      <c r="U15" s="87" t="s">
         <v>44</v>
       </c>
-      <c r="V15" s="67"/>
+      <c r="V15" s="80"/>
       <c r="W15" s="70"/>
-      <c r="X15" s="52"/>
-      <c r="Y15" s="83"/>
-      <c r="Z15" s="83"/>
-      <c r="AA15" s="83"/>
-      <c r="AB15" s="83"/>
+      <c r="X15" s="88"/>
+      <c r="Y15" s="73"/>
+      <c r="Z15" s="73"/>
+      <c r="AA15" s="73"/>
+      <c r="AB15" s="73"/>
       <c r="AC15" s="13">
         <v>120.833333333333</v>
       </c>
@@ -5882,15 +5885,15 @@
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
-      <c r="B16" s="83"/>
-      <c r="C16" s="86"/>
-      <c r="D16" s="87"/>
-      <c r="E16" s="86"/>
-      <c r="F16" s="87"/>
-      <c r="G16" s="86"/>
-      <c r="H16" s="87"/>
-      <c r="I16" s="86"/>
-      <c r="J16" s="87"/>
+      <c r="B16" s="73"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="77"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="77"/>
+      <c r="I16" s="76"/>
+      <c r="J16" s="77"/>
       <c r="K16" s="13">
         <v>131</v>
       </c>
@@ -5909,18 +5912,18 @@
       <c r="P16" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="Q16" s="83"/>
-      <c r="R16" s="83"/>
-      <c r="S16" s="67"/>
+      <c r="Q16" s="73"/>
+      <c r="R16" s="73"/>
+      <c r="S16" s="80"/>
       <c r="T16" s="70"/>
-      <c r="U16" s="52"/>
-      <c r="V16" s="67"/>
+      <c r="U16" s="88"/>
+      <c r="V16" s="80"/>
       <c r="W16" s="70"/>
-      <c r="X16" s="52"/>
-      <c r="Y16" s="83"/>
-      <c r="Z16" s="83"/>
-      <c r="AA16" s="83"/>
-      <c r="AB16" s="83"/>
+      <c r="X16" s="88"/>
+      <c r="Y16" s="73"/>
+      <c r="Z16" s="73"/>
+      <c r="AA16" s="73"/>
+      <c r="AB16" s="73"/>
       <c r="AC16" s="13">
         <v>131</v>
       </c>
@@ -5938,15 +5941,15 @@
     </row>
     <row r="17" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12"/>
-      <c r="B17" s="83"/>
-      <c r="C17" s="86"/>
-      <c r="D17" s="87"/>
-      <c r="E17" s="86"/>
-      <c r="F17" s="87"/>
-      <c r="G17" s="86"/>
-      <c r="H17" s="87"/>
-      <c r="I17" s="86"/>
-      <c r="J17" s="87"/>
+      <c r="B17" s="73"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="77"/>
+      <c r="I17" s="76"/>
+      <c r="J17" s="77"/>
       <c r="K17" s="13">
         <v>141</v>
       </c>
@@ -5965,18 +5968,18 @@
       <c r="P17" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="Q17" s="88"/>
-      <c r="R17" s="88"/>
-      <c r="S17" s="67"/>
+      <c r="Q17" s="78"/>
+      <c r="R17" s="78"/>
+      <c r="S17" s="80"/>
       <c r="T17" s="70"/>
-      <c r="U17" s="52"/>
-      <c r="V17" s="67"/>
+      <c r="U17" s="88"/>
+      <c r="V17" s="80"/>
       <c r="W17" s="70"/>
-      <c r="X17" s="52"/>
-      <c r="Y17" s="88"/>
-      <c r="Z17" s="88"/>
-      <c r="AA17" s="88"/>
-      <c r="AB17" s="88"/>
+      <c r="X17" s="88"/>
+      <c r="Y17" s="78"/>
+      <c r="Z17" s="78"/>
+      <c r="AA17" s="78"/>
+      <c r="AB17" s="78"/>
       <c r="AC17" s="13">
         <v>141</v>
       </c>
@@ -6031,12 +6034,12 @@
       <c r="R18" s="110" t="s">
         <v>69</v>
       </c>
-      <c r="S18" s="67"/>
+      <c r="S18" s="80"/>
       <c r="T18" s="70"/>
-      <c r="U18" s="52"/>
-      <c r="V18" s="67"/>
+      <c r="U18" s="88"/>
+      <c r="V18" s="80"/>
       <c r="W18" s="70"/>
-      <c r="X18" s="52"/>
+      <c r="X18" s="88"/>
       <c r="Y18" s="110" t="s">
         <v>70</v>
       </c>
@@ -6091,12 +6094,12 @@
       <c r="P19" s="15"/>
       <c r="Q19" s="111"/>
       <c r="R19" s="111"/>
-      <c r="S19" s="67"/>
+      <c r="S19" s="80"/>
       <c r="T19" s="70"/>
-      <c r="U19" s="52"/>
-      <c r="V19" s="67"/>
+      <c r="U19" s="88"/>
+      <c r="V19" s="80"/>
       <c r="W19" s="70"/>
-      <c r="X19" s="52"/>
+      <c r="X19" s="88"/>
       <c r="Y19" s="111"/>
       <c r="Z19" s="111"/>
       <c r="AA19" s="111"/>
@@ -6143,12 +6146,12 @@
       <c r="P20" s="15"/>
       <c r="Q20" s="111"/>
       <c r="R20" s="111"/>
-      <c r="S20" s="67"/>
+      <c r="S20" s="80"/>
       <c r="T20" s="70"/>
-      <c r="U20" s="52"/>
-      <c r="V20" s="67"/>
+      <c r="U20" s="88"/>
+      <c r="V20" s="80"/>
       <c r="W20" s="70"/>
-      <c r="X20" s="52"/>
+      <c r="X20" s="88"/>
       <c r="Y20" s="111"/>
       <c r="Z20" s="111"/>
       <c r="AA20" s="111"/>
@@ -6195,12 +6198,12 @@
       <c r="P21" s="15"/>
       <c r="Q21" s="111"/>
       <c r="R21" s="111"/>
-      <c r="S21" s="67"/>
+      <c r="S21" s="80"/>
       <c r="T21" s="70"/>
-      <c r="U21" s="52"/>
-      <c r="V21" s="67"/>
+      <c r="U21" s="88"/>
+      <c r="V21" s="80"/>
       <c r="W21" s="70"/>
-      <c r="X21" s="52"/>
+      <c r="X21" s="88"/>
       <c r="Y21" s="111"/>
       <c r="Z21" s="111"/>
       <c r="AA21" s="111"/>
@@ -6247,12 +6250,12 @@
       <c r="P22" s="15"/>
       <c r="Q22" s="111"/>
       <c r="R22" s="111"/>
-      <c r="S22" s="77"/>
-      <c r="T22" s="79"/>
-      <c r="U22" s="80"/>
-      <c r="V22" s="67"/>
+      <c r="S22" s="81"/>
+      <c r="T22" s="82"/>
+      <c r="U22" s="109"/>
+      <c r="V22" s="80"/>
       <c r="W22" s="70"/>
-      <c r="X22" s="52"/>
+      <c r="X22" s="88"/>
       <c r="Y22" s="111"/>
       <c r="Z22" s="111"/>
       <c r="AA22" s="111"/>
@@ -6299,18 +6302,18 @@
       <c r="P23" s="15"/>
       <c r="Q23" s="111"/>
       <c r="R23" s="111"/>
-      <c r="S23" s="76">
+      <c r="S23" s="79">
         <v>201</v>
       </c>
-      <c r="T23" s="78">
+      <c r="T23" s="69">
         <v>255</v>
       </c>
-      <c r="U23" s="51" t="s">
+      <c r="U23" s="87" t="s">
         <v>45</v>
       </c>
-      <c r="V23" s="67"/>
+      <c r="V23" s="80"/>
       <c r="W23" s="70"/>
-      <c r="X23" s="52"/>
+      <c r="X23" s="88"/>
       <c r="Y23" s="111"/>
       <c r="Z23" s="111"/>
       <c r="AA23" s="111"/>
@@ -6357,12 +6360,12 @@
       <c r="P24" s="15"/>
       <c r="Q24" s="111"/>
       <c r="R24" s="111"/>
-      <c r="S24" s="67"/>
+      <c r="S24" s="80"/>
       <c r="T24" s="70"/>
-      <c r="U24" s="52"/>
-      <c r="V24" s="67"/>
+      <c r="U24" s="88"/>
+      <c r="V24" s="80"/>
       <c r="W24" s="70"/>
-      <c r="X24" s="52"/>
+      <c r="X24" s="88"/>
       <c r="Y24" s="111"/>
       <c r="Z24" s="111"/>
       <c r="AA24" s="111"/>
@@ -6409,12 +6412,12 @@
       <c r="P25" s="15"/>
       <c r="Q25" s="111"/>
       <c r="R25" s="111"/>
-      <c r="S25" s="67"/>
+      <c r="S25" s="80"/>
       <c r="T25" s="70"/>
-      <c r="U25" s="52"/>
-      <c r="V25" s="67"/>
+      <c r="U25" s="88"/>
+      <c r="V25" s="80"/>
       <c r="W25" s="70"/>
-      <c r="X25" s="52"/>
+      <c r="X25" s="88"/>
       <c r="Y25" s="111"/>
       <c r="Z25" s="111"/>
       <c r="AA25" s="111"/>
@@ -6461,12 +6464,12 @@
       <c r="P26" s="15"/>
       <c r="Q26" s="111"/>
       <c r="R26" s="111"/>
-      <c r="S26" s="67"/>
+      <c r="S26" s="80"/>
       <c r="T26" s="70"/>
-      <c r="U26" s="52"/>
-      <c r="V26" s="67"/>
+      <c r="U26" s="88"/>
+      <c r="V26" s="80"/>
       <c r="W26" s="70"/>
-      <c r="X26" s="52"/>
+      <c r="X26" s="88"/>
       <c r="Y26" s="111"/>
       <c r="Z26" s="111"/>
       <c r="AA26" s="111"/>
@@ -6513,12 +6516,12 @@
       <c r="P27" s="15"/>
       <c r="Q27" s="111"/>
       <c r="R27" s="111"/>
-      <c r="S27" s="67"/>
+      <c r="S27" s="80"/>
       <c r="T27" s="70"/>
-      <c r="U27" s="52"/>
-      <c r="V27" s="67"/>
+      <c r="U27" s="88"/>
+      <c r="V27" s="80"/>
       <c r="W27" s="70"/>
-      <c r="X27" s="52"/>
+      <c r="X27" s="88"/>
       <c r="Y27" s="111"/>
       <c r="Z27" s="111"/>
       <c r="AA27" s="111"/>
@@ -6565,12 +6568,12 @@
       <c r="P28" s="20"/>
       <c r="Q28" s="112"/>
       <c r="R28" s="112"/>
-      <c r="S28" s="68"/>
+      <c r="S28" s="103"/>
       <c r="T28" s="71"/>
-      <c r="U28" s="53"/>
-      <c r="V28" s="68"/>
+      <c r="U28" s="89"/>
+      <c r="V28" s="103"/>
       <c r="W28" s="71"/>
-      <c r="X28" s="53"/>
+      <c r="X28" s="89"/>
       <c r="Y28" s="112"/>
       <c r="Z28" s="112"/>
       <c r="AA28" s="112"/>
@@ -6592,6 +6595,43 @@
     </row>
   </sheetData>
   <mergeCells count="53">
+    <mergeCell ref="AB3:AB17"/>
+    <mergeCell ref="AB18:AB28"/>
+    <mergeCell ref="Z18:Z28"/>
+    <mergeCell ref="AA18:AA28"/>
+    <mergeCell ref="S23:S28"/>
+    <mergeCell ref="T23:T28"/>
+    <mergeCell ref="U23:U28"/>
+    <mergeCell ref="Z3:Z17"/>
+    <mergeCell ref="AA3:AA17"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I3:J17"/>
+    <mergeCell ref="I18:J28"/>
+    <mergeCell ref="C18:D28"/>
+    <mergeCell ref="E18:F28"/>
+    <mergeCell ref="G18:H28"/>
+    <mergeCell ref="T6:T13"/>
+    <mergeCell ref="U6:U13"/>
+    <mergeCell ref="S15:S22"/>
+    <mergeCell ref="T15:T22"/>
+    <mergeCell ref="U15:U22"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="B3:B17"/>
+    <mergeCell ref="C3:D17"/>
+    <mergeCell ref="E3:F17"/>
+    <mergeCell ref="G3:H17"/>
+    <mergeCell ref="Q3:Q17"/>
+    <mergeCell ref="R3:R17"/>
+    <mergeCell ref="V3:V28"/>
+    <mergeCell ref="W3:W28"/>
+    <mergeCell ref="Q18:Q28"/>
+    <mergeCell ref="R18:R28"/>
+    <mergeCell ref="Y18:Y28"/>
+    <mergeCell ref="X3:X28"/>
+    <mergeCell ref="Y3:Y17"/>
+    <mergeCell ref="S6:S13"/>
     <mergeCell ref="V1:X1"/>
     <mergeCell ref="AC1:AE1"/>
     <mergeCell ref="AF1:AH1"/>
@@ -6608,43 +6648,6 @@
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="S1:U1"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AH2"/>
-    <mergeCell ref="B3:B17"/>
-    <mergeCell ref="C3:D17"/>
-    <mergeCell ref="E3:F17"/>
-    <mergeCell ref="G3:H17"/>
-    <mergeCell ref="Q3:Q17"/>
-    <mergeCell ref="R3:R17"/>
-    <mergeCell ref="V3:V28"/>
-    <mergeCell ref="W3:W28"/>
-    <mergeCell ref="Q18:Q28"/>
-    <mergeCell ref="R18:R28"/>
-    <mergeCell ref="Y18:Y28"/>
-    <mergeCell ref="X3:X28"/>
-    <mergeCell ref="Y3:Y17"/>
-    <mergeCell ref="S6:S13"/>
-    <mergeCell ref="T6:T13"/>
-    <mergeCell ref="U6:U13"/>
-    <mergeCell ref="S15:S22"/>
-    <mergeCell ref="T15:T22"/>
-    <mergeCell ref="U15:U22"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="I3:J17"/>
-    <mergeCell ref="I18:J28"/>
-    <mergeCell ref="C18:D28"/>
-    <mergeCell ref="E18:F28"/>
-    <mergeCell ref="G18:H28"/>
-    <mergeCell ref="AB3:AB17"/>
-    <mergeCell ref="AB18:AB28"/>
-    <mergeCell ref="Z18:Z28"/>
-    <mergeCell ref="AA18:AA28"/>
-    <mergeCell ref="S23:S28"/>
-    <mergeCell ref="T23:T28"/>
-    <mergeCell ref="U23:U28"/>
-    <mergeCell ref="Z3:Z17"/>
-    <mergeCell ref="AA3:AA17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6667,43 +6670,43 @@
       <c r="B1" s="44">
         <v>1</v>
       </c>
-      <c r="C1" s="105">
+      <c r="C1" s="64">
         <v>2</v>
       </c>
-      <c r="D1" s="106"/>
-      <c r="E1" s="105">
+      <c r="D1" s="65"/>
+      <c r="E1" s="64">
         <v>3</v>
       </c>
-      <c r="F1" s="106"/>
-      <c r="G1" s="105">
+      <c r="F1" s="65"/>
+      <c r="G1" s="64">
         <v>4</v>
       </c>
-      <c r="H1" s="106"/>
-      <c r="I1" s="105">
+      <c r="H1" s="65"/>
+      <c r="I1" s="64">
         <v>5</v>
       </c>
-      <c r="J1" s="106"/>
-      <c r="K1" s="108">
+      <c r="J1" s="65"/>
+      <c r="K1" s="67">
         <v>6</v>
       </c>
-      <c r="L1" s="94"/>
-      <c r="M1" s="95"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="53"/>
       <c r="N1" s="44">
         <v>7</v>
       </c>
       <c r="O1" s="3">
         <v>8</v>
       </c>
-      <c r="P1" s="108">
+      <c r="P1" s="67">
         <v>9</v>
       </c>
-      <c r="Q1" s="94"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="93">
+      <c r="Q1" s="52"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="51">
         <v>10</v>
       </c>
-      <c r="T1" s="94"/>
-      <c r="U1" s="95"/>
+      <c r="T1" s="52"/>
+      <c r="U1" s="53"/>
       <c r="V1" s="44">
         <v>11</v>
       </c>
@@ -6716,16 +6719,16 @@
       <c r="Y1" s="44">
         <v>14</v>
       </c>
-      <c r="Z1" s="93">
+      <c r="Z1" s="51">
         <v>15</v>
       </c>
-      <c r="AA1" s="94"/>
-      <c r="AB1" s="95"/>
-      <c r="AC1" s="108">
+      <c r="AA1" s="52"/>
+      <c r="AB1" s="53"/>
+      <c r="AC1" s="67">
         <v>16</v>
       </c>
-      <c r="AD1" s="94"/>
-      <c r="AE1" s="95"/>
+      <c r="AD1" s="52"/>
+      <c r="AE1" s="53"/>
     </row>
     <row r="2" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -6734,43 +6737,43 @@
       <c r="B2" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="96" t="s">
+      <c r="C2" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="97"/>
-      <c r="E2" s="98" t="s">
+      <c r="D2" s="56"/>
+      <c r="E2" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="97"/>
-      <c r="G2" s="96" t="s">
+      <c r="F2" s="56"/>
+      <c r="G2" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="97"/>
-      <c r="I2" s="96" t="s">
+      <c r="H2" s="56"/>
+      <c r="I2" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="J2" s="97"/>
-      <c r="K2" s="102" t="s">
+      <c r="J2" s="56"/>
+      <c r="K2" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="103"/>
-      <c r="M2" s="101"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="60"/>
       <c r="N2" s="45" t="s">
         <v>8</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="102" t="s">
+      <c r="P2" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="103"/>
-      <c r="R2" s="104"/>
-      <c r="S2" s="99" t="s">
+      <c r="Q2" s="62"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="T2" s="103"/>
-      <c r="U2" s="101"/>
+      <c r="T2" s="62"/>
+      <c r="U2" s="60"/>
       <c r="V2" s="45" t="s">
         <v>12</v>
       </c>
@@ -6783,38 +6786,38 @@
       <c r="Y2" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="Z2" s="99" t="s">
+      <c r="Z2" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="AA2" s="103"/>
-      <c r="AB2" s="101"/>
-      <c r="AC2" s="102" t="s">
+      <c r="AA2" s="62"/>
+      <c r="AB2" s="60"/>
+      <c r="AC2" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="AD2" s="103"/>
-      <c r="AE2" s="101"/>
+      <c r="AD2" s="62"/>
+      <c r="AE2" s="60"/>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="84" t="s">
+      <c r="C3" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="85"/>
-      <c r="E3" s="84" t="s">
+      <c r="D3" s="75"/>
+      <c r="E3" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="85"/>
-      <c r="G3" s="84" t="s">
+      <c r="F3" s="75"/>
+      <c r="G3" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="85"/>
-      <c r="I3" s="84" t="s">
+      <c r="H3" s="75"/>
+      <c r="I3" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="85"/>
+      <c r="J3" s="75"/>
       <c r="K3" s="8">
         <v>0</v>
       </c>
@@ -6824,10 +6827,10 @@
       <c r="M3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="82" t="s">
+      <c r="N3" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="82" t="s">
+      <c r="O3" s="72" t="s">
         <v>15</v>
       </c>
       <c r="P3" s="8">
@@ -6839,25 +6842,25 @@
       <c r="R3" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="S3" s="66">
+      <c r="S3" s="102">
         <v>0</v>
       </c>
-      <c r="T3" s="69">
+      <c r="T3" s="104">
         <v>255</v>
       </c>
-      <c r="U3" s="72" t="s">
+      <c r="U3" s="105" t="s">
         <v>46</v>
       </c>
-      <c r="V3" s="82" t="s">
+      <c r="V3" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="W3" s="82" t="s">
+      <c r="W3" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="X3" s="82" t="s">
+      <c r="X3" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="Y3" s="82" t="s">
+      <c r="Y3" s="72" t="s">
         <v>15</v>
       </c>
       <c r="Z3" s="8">
@@ -6881,15 +6884,15 @@
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
-      <c r="B4" s="83"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="87"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="77"/>
       <c r="K4" s="13">
         <v>11</v>
       </c>
@@ -6899,8 +6902,8 @@
       <c r="M4" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="N4" s="83"/>
-      <c r="O4" s="83"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
       <c r="P4" s="13">
         <v>11</v>
       </c>
@@ -6910,13 +6913,13 @@
       <c r="R4" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="S4" s="67"/>
+      <c r="S4" s="80"/>
       <c r="T4" s="70"/>
-      <c r="U4" s="52"/>
-      <c r="V4" s="83"/>
-      <c r="W4" s="83"/>
-      <c r="X4" s="83"/>
-      <c r="Y4" s="83"/>
+      <c r="U4" s="88"/>
+      <c r="V4" s="73"/>
+      <c r="W4" s="73"/>
+      <c r="X4" s="73"/>
+      <c r="Y4" s="73"/>
       <c r="Z4" s="48">
         <v>11</v>
       </c>
@@ -6938,15 +6941,15 @@
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
-      <c r="B5" s="83"/>
-      <c r="C5" s="86"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="87"/>
-      <c r="I5" s="86"/>
-      <c r="J5" s="87"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="77"/>
       <c r="K5" s="13">
         <v>21</v>
       </c>
@@ -6956,8 +6959,8 @@
       <c r="M5" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="N5" s="83"/>
-      <c r="O5" s="83"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="73"/>
       <c r="P5" s="13">
         <v>21</v>
       </c>
@@ -6967,13 +6970,13 @@
       <c r="R5" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="S5" s="67"/>
+      <c r="S5" s="80"/>
       <c r="T5" s="70"/>
-      <c r="U5" s="52"/>
-      <c r="V5" s="83"/>
-      <c r="W5" s="83"/>
-      <c r="X5" s="83"/>
-      <c r="Y5" s="83"/>
+      <c r="U5" s="88"/>
+      <c r="V5" s="73"/>
+      <c r="W5" s="73"/>
+      <c r="X5" s="73"/>
+      <c r="Y5" s="73"/>
       <c r="Z5" s="48">
         <v>21</v>
       </c>
@@ -6995,15 +6998,15 @@
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
-      <c r="B6" s="83"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="87"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="87"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="77"/>
       <c r="K6" s="13">
         <v>31</v>
       </c>
@@ -7013,24 +7016,24 @@
       <c r="M6" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="N6" s="83"/>
-      <c r="O6" s="83"/>
-      <c r="P6" s="76">
+      <c r="N6" s="73"/>
+      <c r="O6" s="73"/>
+      <c r="P6" s="79">
         <v>31</v>
       </c>
-      <c r="Q6" s="78">
+      <c r="Q6" s="69">
         <v>110</v>
       </c>
-      <c r="R6" s="73" t="s">
+      <c r="R6" s="106" t="s">
         <v>42</v>
       </c>
-      <c r="S6" s="67"/>
+      <c r="S6" s="80"/>
       <c r="T6" s="70"/>
-      <c r="U6" s="52"/>
-      <c r="V6" s="83"/>
-      <c r="W6" s="83"/>
-      <c r="X6" s="83"/>
-      <c r="Y6" s="83"/>
+      <c r="U6" s="88"/>
+      <c r="V6" s="73"/>
+      <c r="W6" s="73"/>
+      <c r="X6" s="73"/>
+      <c r="Y6" s="73"/>
       <c r="Z6" s="13">
         <v>31</v>
       </c>
@@ -7050,15 +7053,15 @@
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
-      <c r="B7" s="83"/>
-      <c r="C7" s="86"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="86"/>
-      <c r="H7" s="87"/>
-      <c r="I7" s="86"/>
-      <c r="J7" s="87"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="77"/>
       <c r="K7" s="13">
         <v>41</v>
       </c>
@@ -7068,18 +7071,18 @@
       <c r="M7" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="N7" s="83"/>
-      <c r="O7" s="83"/>
-      <c r="P7" s="67"/>
+      <c r="N7" s="73"/>
+      <c r="O7" s="73"/>
+      <c r="P7" s="80"/>
       <c r="Q7" s="70"/>
-      <c r="R7" s="74"/>
-      <c r="S7" s="67"/>
+      <c r="R7" s="107"/>
+      <c r="S7" s="80"/>
       <c r="T7" s="70"/>
-      <c r="U7" s="52"/>
-      <c r="V7" s="83"/>
-      <c r="W7" s="83"/>
-      <c r="X7" s="83"/>
-      <c r="Y7" s="83"/>
+      <c r="U7" s="88"/>
+      <c r="V7" s="73"/>
+      <c r="W7" s="73"/>
+      <c r="X7" s="73"/>
+      <c r="Y7" s="73"/>
       <c r="Z7" s="13">
         <v>41</v>
       </c>
@@ -7097,15 +7100,15 @@
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
-      <c r="B8" s="83"/>
-      <c r="C8" s="86"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="86"/>
-      <c r="F8" s="87"/>
-      <c r="G8" s="86"/>
-      <c r="H8" s="87"/>
-      <c r="I8" s="86"/>
-      <c r="J8" s="87"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="77"/>
       <c r="K8" s="13">
         <v>51</v>
       </c>
@@ -7115,18 +7118,18 @@
       <c r="M8" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="N8" s="83"/>
-      <c r="O8" s="83"/>
-      <c r="P8" s="67"/>
+      <c r="N8" s="73"/>
+      <c r="O8" s="73"/>
+      <c r="P8" s="80"/>
       <c r="Q8" s="70"/>
-      <c r="R8" s="74"/>
-      <c r="S8" s="67"/>
+      <c r="R8" s="107"/>
+      <c r="S8" s="80"/>
       <c r="T8" s="70"/>
-      <c r="U8" s="52"/>
-      <c r="V8" s="83"/>
-      <c r="W8" s="83"/>
-      <c r="X8" s="83"/>
-      <c r="Y8" s="83"/>
+      <c r="U8" s="88"/>
+      <c r="V8" s="73"/>
+      <c r="W8" s="73"/>
+      <c r="X8" s="73"/>
+      <c r="Y8" s="73"/>
       <c r="Z8" s="13">
         <v>51</v>
       </c>
@@ -7144,15 +7147,15 @@
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
-      <c r="B9" s="83"/>
-      <c r="C9" s="86"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="86"/>
-      <c r="F9" s="87"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="87"/>
-      <c r="I9" s="86"/>
-      <c r="J9" s="87"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="77"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="77"/>
       <c r="K9" s="13">
         <v>61</v>
       </c>
@@ -7162,18 +7165,18 @@
       <c r="M9" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="N9" s="83"/>
-      <c r="O9" s="83"/>
-      <c r="P9" s="67"/>
+      <c r="N9" s="73"/>
+      <c r="O9" s="73"/>
+      <c r="P9" s="80"/>
       <c r="Q9" s="70"/>
-      <c r="R9" s="74"/>
-      <c r="S9" s="67"/>
+      <c r="R9" s="107"/>
+      <c r="S9" s="80"/>
       <c r="T9" s="70"/>
-      <c r="U9" s="52"/>
-      <c r="V9" s="83"/>
-      <c r="W9" s="83"/>
-      <c r="X9" s="83"/>
-      <c r="Y9" s="83"/>
+      <c r="U9" s="88"/>
+      <c r="V9" s="73"/>
+      <c r="W9" s="73"/>
+      <c r="X9" s="73"/>
+      <c r="Y9" s="73"/>
       <c r="Z9" s="13">
         <v>61</v>
       </c>
@@ -7191,15 +7194,15 @@
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
-      <c r="B10" s="83"/>
-      <c r="C10" s="86"/>
-      <c r="D10" s="87"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="86"/>
-      <c r="H10" s="87"/>
-      <c r="I10" s="86"/>
-      <c r="J10" s="87"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="76"/>
+      <c r="H10" s="77"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="77"/>
       <c r="K10" s="13">
         <v>71</v>
       </c>
@@ -7209,18 +7212,18 @@
       <c r="M10" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="N10" s="83"/>
-      <c r="O10" s="83"/>
-      <c r="P10" s="67"/>
+      <c r="N10" s="73"/>
+      <c r="O10" s="73"/>
+      <c r="P10" s="80"/>
       <c r="Q10" s="70"/>
-      <c r="R10" s="74"/>
-      <c r="S10" s="67"/>
+      <c r="R10" s="107"/>
+      <c r="S10" s="80"/>
       <c r="T10" s="70"/>
-      <c r="U10" s="52"/>
-      <c r="V10" s="83"/>
-      <c r="W10" s="83"/>
-      <c r="X10" s="83"/>
-      <c r="Y10" s="83"/>
+      <c r="U10" s="88"/>
+      <c r="V10" s="73"/>
+      <c r="W10" s="73"/>
+      <c r="X10" s="73"/>
+      <c r="Y10" s="73"/>
       <c r="Z10" s="13">
         <v>71</v>
       </c>
@@ -7238,15 +7241,15 @@
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
-      <c r="B11" s="83"/>
-      <c r="C11" s="86"/>
-      <c r="D11" s="87"/>
-      <c r="E11" s="86"/>
-      <c r="F11" s="87"/>
-      <c r="G11" s="86"/>
-      <c r="H11" s="87"/>
-      <c r="I11" s="86"/>
-      <c r="J11" s="87"/>
+      <c r="B11" s="73"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="77"/>
+      <c r="I11" s="76"/>
+      <c r="J11" s="77"/>
       <c r="K11" s="13">
         <v>81</v>
       </c>
@@ -7256,18 +7259,18 @@
       <c r="M11" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="N11" s="83"/>
-      <c r="O11" s="83"/>
-      <c r="P11" s="67"/>
+      <c r="N11" s="73"/>
+      <c r="O11" s="73"/>
+      <c r="P11" s="80"/>
       <c r="Q11" s="70"/>
-      <c r="R11" s="74"/>
-      <c r="S11" s="67"/>
+      <c r="R11" s="107"/>
+      <c r="S11" s="80"/>
       <c r="T11" s="70"/>
-      <c r="U11" s="52"/>
-      <c r="V11" s="83"/>
-      <c r="W11" s="83"/>
-      <c r="X11" s="83"/>
-      <c r="Y11" s="83"/>
+      <c r="U11" s="88"/>
+      <c r="V11" s="73"/>
+      <c r="W11" s="73"/>
+      <c r="X11" s="73"/>
+      <c r="Y11" s="73"/>
       <c r="Z11" s="13">
         <v>81</v>
       </c>
@@ -7285,15 +7288,15 @@
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
-      <c r="B12" s="83"/>
-      <c r="C12" s="86"/>
-      <c r="D12" s="87"/>
-      <c r="E12" s="86"/>
-      <c r="F12" s="87"/>
-      <c r="G12" s="86"/>
-      <c r="H12" s="87"/>
-      <c r="I12" s="86"/>
-      <c r="J12" s="87"/>
+      <c r="B12" s="73"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="77"/>
+      <c r="I12" s="76"/>
+      <c r="J12" s="77"/>
       <c r="K12" s="13">
         <v>91</v>
       </c>
@@ -7303,18 +7306,18 @@
       <c r="M12" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="N12" s="83"/>
-      <c r="O12" s="83"/>
-      <c r="P12" s="67"/>
+      <c r="N12" s="73"/>
+      <c r="O12" s="73"/>
+      <c r="P12" s="80"/>
       <c r="Q12" s="70"/>
-      <c r="R12" s="74"/>
-      <c r="S12" s="67"/>
+      <c r="R12" s="107"/>
+      <c r="S12" s="80"/>
       <c r="T12" s="70"/>
-      <c r="U12" s="52"/>
-      <c r="V12" s="83"/>
-      <c r="W12" s="83"/>
-      <c r="X12" s="83"/>
-      <c r="Y12" s="83"/>
+      <c r="U12" s="88"/>
+      <c r="V12" s="73"/>
+      <c r="W12" s="73"/>
+      <c r="X12" s="73"/>
+      <c r="Y12" s="73"/>
       <c r="Z12" s="13">
         <v>91</v>
       </c>
@@ -7332,15 +7335,15 @@
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
-      <c r="B13" s="83"/>
-      <c r="C13" s="86"/>
-      <c r="D13" s="87"/>
-      <c r="E13" s="86"/>
-      <c r="F13" s="87"/>
-      <c r="G13" s="86"/>
-      <c r="H13" s="87"/>
-      <c r="I13" s="86"/>
-      <c r="J13" s="87"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="77"/>
+      <c r="I13" s="76"/>
+      <c r="J13" s="77"/>
       <c r="K13" s="13">
         <v>101</v>
       </c>
@@ -7350,18 +7353,18 @@
       <c r="M13" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="N13" s="83"/>
-      <c r="O13" s="83"/>
-      <c r="P13" s="77"/>
-      <c r="Q13" s="79"/>
-      <c r="R13" s="75"/>
-      <c r="S13" s="67"/>
+      <c r="N13" s="73"/>
+      <c r="O13" s="73"/>
+      <c r="P13" s="81"/>
+      <c r="Q13" s="82"/>
+      <c r="R13" s="108"/>
+      <c r="S13" s="80"/>
       <c r="T13" s="70"/>
-      <c r="U13" s="52"/>
-      <c r="V13" s="83"/>
-      <c r="W13" s="83"/>
-      <c r="X13" s="83"/>
-      <c r="Y13" s="83"/>
+      <c r="U13" s="88"/>
+      <c r="V13" s="73"/>
+      <c r="W13" s="73"/>
+      <c r="X13" s="73"/>
+      <c r="Y13" s="73"/>
       <c r="Z13" s="13">
         <v>101</v>
       </c>
@@ -7379,15 +7382,15 @@
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
-      <c r="B14" s="83"/>
-      <c r="C14" s="86"/>
-      <c r="D14" s="87"/>
-      <c r="E14" s="86"/>
-      <c r="F14" s="87"/>
-      <c r="G14" s="86"/>
-      <c r="H14" s="87"/>
-      <c r="I14" s="86"/>
-      <c r="J14" s="87"/>
+      <c r="B14" s="73"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="77"/>
+      <c r="I14" s="76"/>
+      <c r="J14" s="77"/>
       <c r="K14" s="13">
         <v>111</v>
       </c>
@@ -7397,8 +7400,8 @@
       <c r="M14" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="N14" s="83"/>
-      <c r="O14" s="83"/>
+      <c r="N14" s="73"/>
+      <c r="O14" s="73"/>
       <c r="P14" s="13">
         <v>111</v>
       </c>
@@ -7408,13 +7411,13 @@
       <c r="R14" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="S14" s="67"/>
+      <c r="S14" s="80"/>
       <c r="T14" s="70"/>
-      <c r="U14" s="52"/>
-      <c r="V14" s="83"/>
-      <c r="W14" s="83"/>
-      <c r="X14" s="83"/>
-      <c r="Y14" s="83"/>
+      <c r="U14" s="88"/>
+      <c r="V14" s="73"/>
+      <c r="W14" s="73"/>
+      <c r="X14" s="73"/>
+      <c r="Y14" s="73"/>
       <c r="Z14" s="13">
         <v>111</v>
       </c>
@@ -7432,15 +7435,15 @@
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
-      <c r="B15" s="83"/>
-      <c r="C15" s="86"/>
-      <c r="D15" s="87"/>
-      <c r="E15" s="86"/>
-      <c r="F15" s="87"/>
-      <c r="G15" s="86"/>
-      <c r="H15" s="87"/>
-      <c r="I15" s="86"/>
-      <c r="J15" s="87"/>
+      <c r="B15" s="73"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="76"/>
+      <c r="H15" s="77"/>
+      <c r="I15" s="76"/>
+      <c r="J15" s="77"/>
       <c r="K15" s="13">
         <v>120.833333333333</v>
       </c>
@@ -7450,24 +7453,24 @@
       <c r="M15" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="N15" s="83"/>
-      <c r="O15" s="83"/>
-      <c r="P15" s="76">
+      <c r="N15" s="73"/>
+      <c r="O15" s="73"/>
+      <c r="P15" s="79">
         <v>120.833333333333</v>
       </c>
-      <c r="Q15" s="78">
+      <c r="Q15" s="69">
         <v>200</v>
       </c>
-      <c r="R15" s="51" t="s">
+      <c r="R15" s="87" t="s">
         <v>44</v>
       </c>
-      <c r="S15" s="67"/>
+      <c r="S15" s="80"/>
       <c r="T15" s="70"/>
-      <c r="U15" s="52"/>
-      <c r="V15" s="83"/>
-      <c r="W15" s="83"/>
-      <c r="X15" s="83"/>
-      <c r="Y15" s="83"/>
+      <c r="U15" s="88"/>
+      <c r="V15" s="73"/>
+      <c r="W15" s="73"/>
+      <c r="X15" s="73"/>
+      <c r="Y15" s="73"/>
       <c r="Z15" s="13">
         <v>120.833333333333</v>
       </c>
@@ -7485,15 +7488,15 @@
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
-      <c r="B16" s="83"/>
-      <c r="C16" s="86"/>
-      <c r="D16" s="87"/>
-      <c r="E16" s="86"/>
-      <c r="F16" s="87"/>
-      <c r="G16" s="86"/>
-      <c r="H16" s="87"/>
-      <c r="I16" s="86"/>
-      <c r="J16" s="87"/>
+      <c r="B16" s="73"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="77"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="77"/>
+      <c r="I16" s="76"/>
+      <c r="J16" s="77"/>
       <c r="K16" s="13">
         <v>131</v>
       </c>
@@ -7503,18 +7506,18 @@
       <c r="M16" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="N16" s="83"/>
-      <c r="O16" s="83"/>
-      <c r="P16" s="67"/>
+      <c r="N16" s="73"/>
+      <c r="O16" s="73"/>
+      <c r="P16" s="80"/>
       <c r="Q16" s="70"/>
-      <c r="R16" s="52"/>
-      <c r="S16" s="67"/>
+      <c r="R16" s="88"/>
+      <c r="S16" s="80"/>
       <c r="T16" s="70"/>
-      <c r="U16" s="52"/>
-      <c r="V16" s="83"/>
-      <c r="W16" s="83"/>
-      <c r="X16" s="83"/>
-      <c r="Y16" s="83"/>
+      <c r="U16" s="88"/>
+      <c r="V16" s="73"/>
+      <c r="W16" s="73"/>
+      <c r="X16" s="73"/>
+      <c r="Y16" s="73"/>
       <c r="Z16" s="13">
         <v>131</v>
       </c>
@@ -7532,15 +7535,15 @@
     </row>
     <row r="17" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12"/>
-      <c r="B17" s="83"/>
-      <c r="C17" s="86"/>
-      <c r="D17" s="87"/>
-      <c r="E17" s="86"/>
-      <c r="F17" s="87"/>
-      <c r="G17" s="86"/>
-      <c r="H17" s="87"/>
-      <c r="I17" s="86"/>
-      <c r="J17" s="87"/>
+      <c r="B17" s="73"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="77"/>
+      <c r="I17" s="76"/>
+      <c r="J17" s="77"/>
       <c r="K17" s="13">
         <v>141</v>
       </c>
@@ -7550,18 +7553,18 @@
       <c r="M17" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="N17" s="88"/>
-      <c r="O17" s="88"/>
-      <c r="P17" s="67"/>
+      <c r="N17" s="78"/>
+      <c r="O17" s="78"/>
+      <c r="P17" s="80"/>
       <c r="Q17" s="70"/>
-      <c r="R17" s="52"/>
-      <c r="S17" s="67"/>
+      <c r="R17" s="88"/>
+      <c r="S17" s="80"/>
       <c r="T17" s="70"/>
-      <c r="U17" s="52"/>
-      <c r="V17" s="88"/>
-      <c r="W17" s="88"/>
-      <c r="X17" s="88"/>
-      <c r="Y17" s="88"/>
+      <c r="U17" s="88"/>
+      <c r="V17" s="78"/>
+      <c r="W17" s="78"/>
+      <c r="X17" s="78"/>
+      <c r="Y17" s="78"/>
       <c r="Z17" s="13">
         <v>141</v>
       </c>
@@ -7609,12 +7612,12 @@
       <c r="O18" s="110" t="s">
         <v>69</v>
       </c>
-      <c r="P18" s="67"/>
+      <c r="P18" s="80"/>
       <c r="Q18" s="70"/>
-      <c r="R18" s="52"/>
-      <c r="S18" s="67"/>
+      <c r="R18" s="88"/>
+      <c r="S18" s="80"/>
       <c r="T18" s="70"/>
-      <c r="U18" s="52"/>
+      <c r="U18" s="88"/>
       <c r="V18" s="110" t="s">
         <v>70</v>
       </c>
@@ -7662,12 +7665,12 @@
       <c r="M19" s="15"/>
       <c r="N19" s="111"/>
       <c r="O19" s="111"/>
-      <c r="P19" s="67"/>
+      <c r="P19" s="80"/>
       <c r="Q19" s="70"/>
-      <c r="R19" s="52"/>
-      <c r="S19" s="67"/>
+      <c r="R19" s="88"/>
+      <c r="S19" s="80"/>
       <c r="T19" s="70"/>
-      <c r="U19" s="52"/>
+      <c r="U19" s="88"/>
       <c r="V19" s="111"/>
       <c r="W19" s="111"/>
       <c r="X19" s="111"/>
@@ -7707,12 +7710,12 @@
       <c r="M20" s="15"/>
       <c r="N20" s="111"/>
       <c r="O20" s="111"/>
-      <c r="P20" s="67"/>
+      <c r="P20" s="80"/>
       <c r="Q20" s="70"/>
-      <c r="R20" s="52"/>
-      <c r="S20" s="67"/>
+      <c r="R20" s="88"/>
+      <c r="S20" s="80"/>
       <c r="T20" s="70"/>
-      <c r="U20" s="52"/>
+      <c r="U20" s="88"/>
       <c r="V20" s="111"/>
       <c r="W20" s="111"/>
       <c r="X20" s="111"/>
@@ -7752,12 +7755,12 @@
       <c r="M21" s="15"/>
       <c r="N21" s="111"/>
       <c r="O21" s="111"/>
-      <c r="P21" s="67"/>
+      <c r="P21" s="80"/>
       <c r="Q21" s="70"/>
-      <c r="R21" s="52"/>
-      <c r="S21" s="67"/>
+      <c r="R21" s="88"/>
+      <c r="S21" s="80"/>
       <c r="T21" s="70"/>
-      <c r="U21" s="52"/>
+      <c r="U21" s="88"/>
       <c r="V21" s="111"/>
       <c r="W21" s="111"/>
       <c r="X21" s="111"/>
@@ -7797,12 +7800,12 @@
       <c r="M22" s="15"/>
       <c r="N22" s="111"/>
       <c r="O22" s="111"/>
-      <c r="P22" s="77"/>
-      <c r="Q22" s="79"/>
-      <c r="R22" s="80"/>
-      <c r="S22" s="67"/>
+      <c r="P22" s="81"/>
+      <c r="Q22" s="82"/>
+      <c r="R22" s="109"/>
+      <c r="S22" s="80"/>
       <c r="T22" s="70"/>
-      <c r="U22" s="52"/>
+      <c r="U22" s="88"/>
       <c r="V22" s="111"/>
       <c r="W22" s="111"/>
       <c r="X22" s="111"/>
@@ -7842,18 +7845,18 @@
       <c r="M23" s="15"/>
       <c r="N23" s="111"/>
       <c r="O23" s="111"/>
-      <c r="P23" s="76">
+      <c r="P23" s="79">
         <v>201</v>
       </c>
-      <c r="Q23" s="78">
+      <c r="Q23" s="69">
         <v>255</v>
       </c>
-      <c r="R23" s="51" t="s">
+      <c r="R23" s="87" t="s">
         <v>45</v>
       </c>
-      <c r="S23" s="67"/>
+      <c r="S23" s="80"/>
       <c r="T23" s="70"/>
-      <c r="U23" s="52"/>
+      <c r="U23" s="88"/>
       <c r="V23" s="111"/>
       <c r="W23" s="111"/>
       <c r="X23" s="111"/>
@@ -7893,12 +7896,12 @@
       <c r="M24" s="15"/>
       <c r="N24" s="111"/>
       <c r="O24" s="111"/>
-      <c r="P24" s="67"/>
+      <c r="P24" s="80"/>
       <c r="Q24" s="70"/>
-      <c r="R24" s="52"/>
-      <c r="S24" s="67"/>
+      <c r="R24" s="88"/>
+      <c r="S24" s="80"/>
       <c r="T24" s="70"/>
-      <c r="U24" s="52"/>
+      <c r="U24" s="88"/>
       <c r="V24" s="111"/>
       <c r="W24" s="111"/>
       <c r="X24" s="111"/>
@@ -7938,12 +7941,12 @@
       <c r="M25" s="15"/>
       <c r="N25" s="111"/>
       <c r="O25" s="111"/>
-      <c r="P25" s="67"/>
+      <c r="P25" s="80"/>
       <c r="Q25" s="70"/>
-      <c r="R25" s="52"/>
-      <c r="S25" s="67"/>
+      <c r="R25" s="88"/>
+      <c r="S25" s="80"/>
       <c r="T25" s="70"/>
-      <c r="U25" s="52"/>
+      <c r="U25" s="88"/>
       <c r="V25" s="111"/>
       <c r="W25" s="111"/>
       <c r="X25" s="111"/>
@@ -7983,12 +7986,12 @@
       <c r="M26" s="15"/>
       <c r="N26" s="111"/>
       <c r="O26" s="111"/>
-      <c r="P26" s="67"/>
+      <c r="P26" s="80"/>
       <c r="Q26" s="70"/>
-      <c r="R26" s="52"/>
-      <c r="S26" s="67"/>
+      <c r="R26" s="88"/>
+      <c r="S26" s="80"/>
       <c r="T26" s="70"/>
-      <c r="U26" s="52"/>
+      <c r="U26" s="88"/>
       <c r="V26" s="111"/>
       <c r="W26" s="111"/>
       <c r="X26" s="111"/>
@@ -8028,12 +8031,12 @@
       <c r="M27" s="15"/>
       <c r="N27" s="111"/>
       <c r="O27" s="111"/>
-      <c r="P27" s="67"/>
+      <c r="P27" s="80"/>
       <c r="Q27" s="70"/>
-      <c r="R27" s="52"/>
-      <c r="S27" s="67"/>
+      <c r="R27" s="88"/>
+      <c r="S27" s="80"/>
       <c r="T27" s="70"/>
-      <c r="U27" s="52"/>
+      <c r="U27" s="88"/>
       <c r="V27" s="111"/>
       <c r="W27" s="111"/>
       <c r="X27" s="111"/>
@@ -8073,12 +8076,12 @@
       <c r="M28" s="20"/>
       <c r="N28" s="112"/>
       <c r="O28" s="112"/>
-      <c r="P28" s="68"/>
+      <c r="P28" s="103"/>
       <c r="Q28" s="71"/>
-      <c r="R28" s="53"/>
-      <c r="S28" s="68"/>
+      <c r="R28" s="89"/>
+      <c r="S28" s="103"/>
       <c r="T28" s="71"/>
-      <c r="U28" s="53"/>
+      <c r="U28" s="89"/>
       <c r="V28" s="112"/>
       <c r="W28" s="112"/>
       <c r="X28" s="112"/>
@@ -8100,31 +8103,16 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="N3:N17"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="S1:U1"/>
-    <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="AC1:AE1"/>
-    <mergeCell ref="B3:B17"/>
-    <mergeCell ref="C3:D17"/>
-    <mergeCell ref="E3:F17"/>
-    <mergeCell ref="G3:H17"/>
-    <mergeCell ref="I3:J17"/>
-    <mergeCell ref="W3:W17"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:U2"/>
-    <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="X18:X28"/>
+    <mergeCell ref="Y18:Y28"/>
+    <mergeCell ref="P23:P28"/>
+    <mergeCell ref="Q23:Q28"/>
+    <mergeCell ref="R23:R28"/>
+    <mergeCell ref="C18:D28"/>
+    <mergeCell ref="E18:F28"/>
+    <mergeCell ref="G18:H28"/>
+    <mergeCell ref="I18:J28"/>
+    <mergeCell ref="N18:N28"/>
     <mergeCell ref="O18:O28"/>
     <mergeCell ref="X3:X17"/>
     <mergeCell ref="Y3:Y17"/>
@@ -8141,16 +8129,31 @@
     <mergeCell ref="T3:T28"/>
     <mergeCell ref="U3:U28"/>
     <mergeCell ref="V3:V17"/>
-    <mergeCell ref="C18:D28"/>
-    <mergeCell ref="E18:F28"/>
-    <mergeCell ref="G18:H28"/>
-    <mergeCell ref="I18:J28"/>
-    <mergeCell ref="N18:N28"/>
-    <mergeCell ref="X18:X28"/>
-    <mergeCell ref="Y18:Y28"/>
-    <mergeCell ref="P23:P28"/>
-    <mergeCell ref="Q23:Q28"/>
-    <mergeCell ref="R23:R28"/>
+    <mergeCell ref="B3:B17"/>
+    <mergeCell ref="C3:D17"/>
+    <mergeCell ref="E3:F17"/>
+    <mergeCell ref="G3:H17"/>
+    <mergeCell ref="I3:J17"/>
+    <mergeCell ref="N3:N17"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="AC1:AE1"/>
+    <mergeCell ref="W3:W17"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:U2"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8160,8 +8163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BC37298-6270-4D92-809C-0D876ABD187C}">
   <dimension ref="A1:AE28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="AH31" sqref="AH31"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5:R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8176,43 +8179,43 @@
       <c r="B1" s="46">
         <v>1</v>
       </c>
-      <c r="C1" s="105">
+      <c r="C1" s="64">
         <v>2</v>
       </c>
-      <c r="D1" s="106"/>
-      <c r="E1" s="105">
+      <c r="D1" s="65"/>
+      <c r="E1" s="64">
         <v>3</v>
       </c>
-      <c r="F1" s="106"/>
-      <c r="G1" s="105">
+      <c r="F1" s="65"/>
+      <c r="G1" s="64">
         <v>4</v>
       </c>
-      <c r="H1" s="106"/>
-      <c r="I1" s="105">
+      <c r="H1" s="65"/>
+      <c r="I1" s="64">
         <v>5</v>
       </c>
-      <c r="J1" s="106"/>
-      <c r="K1" s="108">
+      <c r="J1" s="65"/>
+      <c r="K1" s="67">
         <v>6</v>
       </c>
-      <c r="L1" s="94"/>
-      <c r="M1" s="95"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="53"/>
       <c r="N1" s="46">
         <v>7</v>
       </c>
       <c r="O1" s="3">
         <v>8</v>
       </c>
-      <c r="P1" s="108">
+      <c r="P1" s="67">
         <v>9</v>
       </c>
-      <c r="Q1" s="94"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="93">
+      <c r="Q1" s="52"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="51">
         <v>10</v>
       </c>
-      <c r="T1" s="94"/>
-      <c r="U1" s="95"/>
+      <c r="T1" s="52"/>
+      <c r="U1" s="53"/>
       <c r="V1" s="46">
         <v>11</v>
       </c>
@@ -8225,16 +8228,16 @@
       <c r="Y1" s="46">
         <v>14</v>
       </c>
-      <c r="Z1" s="93">
+      <c r="Z1" s="51">
         <v>15</v>
       </c>
-      <c r="AA1" s="94"/>
-      <c r="AB1" s="95"/>
-      <c r="AC1" s="108">
+      <c r="AA1" s="52"/>
+      <c r="AB1" s="53"/>
+      <c r="AC1" s="67">
         <v>16</v>
       </c>
-      <c r="AD1" s="94"/>
-      <c r="AE1" s="95"/>
+      <c r="AD1" s="52"/>
+      <c r="AE1" s="53"/>
     </row>
     <row r="2" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -8243,43 +8246,43 @@
       <c r="B2" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="96" t="s">
+      <c r="C2" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="97"/>
-      <c r="E2" s="98" t="s">
+      <c r="D2" s="56"/>
+      <c r="E2" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="97"/>
-      <c r="G2" s="96" t="s">
+      <c r="F2" s="56"/>
+      <c r="G2" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="97"/>
-      <c r="I2" s="96" t="s">
+      <c r="H2" s="56"/>
+      <c r="I2" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="J2" s="97"/>
-      <c r="K2" s="102" t="s">
+      <c r="J2" s="56"/>
+      <c r="K2" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="103"/>
-      <c r="M2" s="101"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="60"/>
       <c r="N2" s="47" t="s">
         <v>8</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="102" t="s">
+      <c r="P2" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="103"/>
-      <c r="R2" s="104"/>
-      <c r="S2" s="99" t="s">
+      <c r="Q2" s="62"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="T2" s="103"/>
-      <c r="U2" s="101"/>
+      <c r="T2" s="62"/>
+      <c r="U2" s="60"/>
       <c r="V2" s="47" t="s">
         <v>12</v>
       </c>
@@ -8292,38 +8295,38 @@
       <c r="Y2" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="Z2" s="99" t="s">
+      <c r="Z2" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="AA2" s="103"/>
-      <c r="AB2" s="101"/>
-      <c r="AC2" s="102" t="s">
+      <c r="AA2" s="62"/>
+      <c r="AB2" s="60"/>
+      <c r="AC2" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="AD2" s="103"/>
-      <c r="AE2" s="101"/>
+      <c r="AD2" s="62"/>
+      <c r="AE2" s="60"/>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="84" t="s">
+      <c r="C3" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="85"/>
-      <c r="E3" s="84" t="s">
+      <c r="D3" s="75"/>
+      <c r="E3" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="85"/>
-      <c r="G3" s="84" t="s">
+      <c r="F3" s="75"/>
+      <c r="G3" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="85"/>
-      <c r="I3" s="84" t="s">
+      <c r="H3" s="75"/>
+      <c r="I3" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="85"/>
+      <c r="J3" s="75"/>
       <c r="K3" s="8">
         <v>0</v>
       </c>
@@ -8333,10 +8336,10 @@
       <c r="M3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="82" t="s">
+      <c r="N3" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="82" t="s">
+      <c r="O3" s="72" t="s">
         <v>15</v>
       </c>
       <c r="P3" s="8">
@@ -8348,25 +8351,25 @@
       <c r="R3" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="S3" s="66">
+      <c r="S3" s="102">
         <v>0</v>
       </c>
-      <c r="T3" s="69">
+      <c r="T3" s="104">
         <v>255</v>
       </c>
-      <c r="U3" s="72" t="s">
+      <c r="U3" s="105" t="s">
         <v>46</v>
       </c>
-      <c r="V3" s="82" t="s">
+      <c r="V3" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="W3" s="82" t="s">
+      <c r="W3" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="X3" s="82" t="s">
+      <c r="X3" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="Y3" s="82" t="s">
+      <c r="Y3" s="72" t="s">
         <v>15</v>
       </c>
       <c r="Z3" s="8">
@@ -8390,15 +8393,15 @@
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
-      <c r="B4" s="83"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="87"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="77"/>
       <c r="K4" s="13">
         <v>11</v>
       </c>
@@ -8408,8 +8411,8 @@
       <c r="M4" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="N4" s="83"/>
-      <c r="O4" s="83"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
       <c r="P4" s="13">
         <v>11</v>
       </c>
@@ -8419,13 +8422,13 @@
       <c r="R4" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="S4" s="67"/>
+      <c r="S4" s="80"/>
       <c r="T4" s="70"/>
-      <c r="U4" s="52"/>
-      <c r="V4" s="83"/>
-      <c r="W4" s="83"/>
-      <c r="X4" s="83"/>
-      <c r="Y4" s="83"/>
+      <c r="U4" s="88"/>
+      <c r="V4" s="73"/>
+      <c r="W4" s="73"/>
+      <c r="X4" s="73"/>
+      <c r="Y4" s="73"/>
       <c r="Z4" s="48">
         <v>11</v>
       </c>
@@ -8447,15 +8450,15 @@
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
-      <c r="B5" s="83"/>
-      <c r="C5" s="86"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="87"/>
-      <c r="I5" s="86"/>
-      <c r="J5" s="87"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="77"/>
       <c r="K5" s="13">
         <v>21</v>
       </c>
@@ -8465,8 +8468,8 @@
       <c r="M5" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="N5" s="83"/>
-      <c r="O5" s="83"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="73"/>
       <c r="P5" s="13">
         <v>21</v>
       </c>
@@ -8476,13 +8479,13 @@
       <c r="R5" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="S5" s="67"/>
+      <c r="S5" s="80"/>
       <c r="T5" s="70"/>
-      <c r="U5" s="52"/>
-      <c r="V5" s="83"/>
-      <c r="W5" s="83"/>
-      <c r="X5" s="83"/>
-      <c r="Y5" s="83"/>
+      <c r="U5" s="88"/>
+      <c r="V5" s="73"/>
+      <c r="W5" s="73"/>
+      <c r="X5" s="73"/>
+      <c r="Y5" s="73"/>
       <c r="Z5" s="48">
         <v>21</v>
       </c>
@@ -8504,15 +8507,15 @@
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
-      <c r="B6" s="83"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="87"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="87"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="77"/>
       <c r="K6" s="13">
         <v>31</v>
       </c>
@@ -8522,24 +8525,24 @@
       <c r="M6" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="N6" s="83"/>
-      <c r="O6" s="83"/>
-      <c r="P6" s="76">
+      <c r="N6" s="73"/>
+      <c r="O6" s="73"/>
+      <c r="P6" s="79">
         <v>31</v>
       </c>
-      <c r="Q6" s="78">
+      <c r="Q6" s="69">
         <v>110</v>
       </c>
-      <c r="R6" s="73" t="s">
+      <c r="R6" s="106" t="s">
         <v>42</v>
       </c>
-      <c r="S6" s="67"/>
+      <c r="S6" s="80"/>
       <c r="T6" s="70"/>
-      <c r="U6" s="52"/>
-      <c r="V6" s="83"/>
-      <c r="W6" s="83"/>
-      <c r="X6" s="83"/>
-      <c r="Y6" s="83"/>
+      <c r="U6" s="88"/>
+      <c r="V6" s="73"/>
+      <c r="W6" s="73"/>
+      <c r="X6" s="73"/>
+      <c r="Y6" s="73"/>
       <c r="Z6" s="13">
         <v>31</v>
       </c>
@@ -8559,15 +8562,15 @@
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
-      <c r="B7" s="83"/>
-      <c r="C7" s="86"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="86"/>
-      <c r="H7" s="87"/>
-      <c r="I7" s="86"/>
-      <c r="J7" s="87"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="77"/>
       <c r="K7" s="13">
         <v>41</v>
       </c>
@@ -8577,18 +8580,18 @@
       <c r="M7" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="N7" s="83"/>
-      <c r="O7" s="83"/>
-      <c r="P7" s="67"/>
+      <c r="N7" s="73"/>
+      <c r="O7" s="73"/>
+      <c r="P7" s="80"/>
       <c r="Q7" s="70"/>
-      <c r="R7" s="74"/>
-      <c r="S7" s="67"/>
+      <c r="R7" s="107"/>
+      <c r="S7" s="80"/>
       <c r="T7" s="70"/>
-      <c r="U7" s="52"/>
-      <c r="V7" s="83"/>
-      <c r="W7" s="83"/>
-      <c r="X7" s="83"/>
-      <c r="Y7" s="83"/>
+      <c r="U7" s="88"/>
+      <c r="V7" s="73"/>
+      <c r="W7" s="73"/>
+      <c r="X7" s="73"/>
+      <c r="Y7" s="73"/>
       <c r="Z7" s="13">
         <v>41</v>
       </c>
@@ -8608,15 +8611,15 @@
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
-      <c r="B8" s="83"/>
-      <c r="C8" s="86"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="86"/>
-      <c r="F8" s="87"/>
-      <c r="G8" s="86"/>
-      <c r="H8" s="87"/>
-      <c r="I8" s="86"/>
-      <c r="J8" s="87"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="77"/>
       <c r="K8" s="13">
         <v>51</v>
       </c>
@@ -8626,18 +8629,18 @@
       <c r="M8" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="N8" s="83"/>
-      <c r="O8" s="83"/>
-      <c r="P8" s="67"/>
+      <c r="N8" s="73"/>
+      <c r="O8" s="73"/>
+      <c r="P8" s="80"/>
       <c r="Q8" s="70"/>
-      <c r="R8" s="74"/>
-      <c r="S8" s="67"/>
+      <c r="R8" s="107"/>
+      <c r="S8" s="80"/>
       <c r="T8" s="70"/>
-      <c r="U8" s="52"/>
-      <c r="V8" s="83"/>
-      <c r="W8" s="83"/>
-      <c r="X8" s="83"/>
-      <c r="Y8" s="83"/>
+      <c r="U8" s="88"/>
+      <c r="V8" s="73"/>
+      <c r="W8" s="73"/>
+      <c r="X8" s="73"/>
+      <c r="Y8" s="73"/>
       <c r="Z8" s="13">
         <v>51</v>
       </c>
@@ -8657,15 +8660,15 @@
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
-      <c r="B9" s="83"/>
-      <c r="C9" s="86"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="86"/>
-      <c r="F9" s="87"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="87"/>
-      <c r="I9" s="86"/>
-      <c r="J9" s="87"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="77"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="77"/>
       <c r="K9" s="13">
         <v>61</v>
       </c>
@@ -8675,18 +8678,18 @@
       <c r="M9" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="N9" s="83"/>
-      <c r="O9" s="83"/>
-      <c r="P9" s="67"/>
+      <c r="N9" s="73"/>
+      <c r="O9" s="73"/>
+      <c r="P9" s="80"/>
       <c r="Q9" s="70"/>
-      <c r="R9" s="74"/>
-      <c r="S9" s="67"/>
+      <c r="R9" s="107"/>
+      <c r="S9" s="80"/>
       <c r="T9" s="70"/>
-      <c r="U9" s="52"/>
-      <c r="V9" s="83"/>
-      <c r="W9" s="83"/>
-      <c r="X9" s="83"/>
-      <c r="Y9" s="83"/>
+      <c r="U9" s="88"/>
+      <c r="V9" s="73"/>
+      <c r="W9" s="73"/>
+      <c r="X9" s="73"/>
+      <c r="Y9" s="73"/>
       <c r="Z9" s="13">
         <v>61</v>
       </c>
@@ -8706,15 +8709,15 @@
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
-      <c r="B10" s="83"/>
-      <c r="C10" s="86"/>
-      <c r="D10" s="87"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="86"/>
-      <c r="H10" s="87"/>
-      <c r="I10" s="86"/>
-      <c r="J10" s="87"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="76"/>
+      <c r="H10" s="77"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="77"/>
       <c r="K10" s="13">
         <v>71</v>
       </c>
@@ -8724,18 +8727,18 @@
       <c r="M10" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="N10" s="83"/>
-      <c r="O10" s="83"/>
-      <c r="P10" s="67"/>
+      <c r="N10" s="73"/>
+      <c r="O10" s="73"/>
+      <c r="P10" s="80"/>
       <c r="Q10" s="70"/>
-      <c r="R10" s="74"/>
-      <c r="S10" s="67"/>
+      <c r="R10" s="107"/>
+      <c r="S10" s="80"/>
       <c r="T10" s="70"/>
-      <c r="U10" s="52"/>
-      <c r="V10" s="83"/>
-      <c r="W10" s="83"/>
-      <c r="X10" s="83"/>
-      <c r="Y10" s="83"/>
+      <c r="U10" s="88"/>
+      <c r="V10" s="73"/>
+      <c r="W10" s="73"/>
+      <c r="X10" s="73"/>
+      <c r="Y10" s="73"/>
       <c r="Z10" s="13">
         <v>71</v>
       </c>
@@ -8753,15 +8756,15 @@
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
-      <c r="B11" s="83"/>
-      <c r="C11" s="86"/>
-      <c r="D11" s="87"/>
-      <c r="E11" s="86"/>
-      <c r="F11" s="87"/>
-      <c r="G11" s="86"/>
-      <c r="H11" s="87"/>
-      <c r="I11" s="86"/>
-      <c r="J11" s="87"/>
+      <c r="B11" s="73"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="77"/>
+      <c r="I11" s="76"/>
+      <c r="J11" s="77"/>
       <c r="K11" s="13">
         <v>81</v>
       </c>
@@ -8771,18 +8774,18 @@
       <c r="M11" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="N11" s="83"/>
-      <c r="O11" s="83"/>
-      <c r="P11" s="67"/>
+      <c r="N11" s="73"/>
+      <c r="O11" s="73"/>
+      <c r="P11" s="80"/>
       <c r="Q11" s="70"/>
-      <c r="R11" s="74"/>
-      <c r="S11" s="67"/>
+      <c r="R11" s="107"/>
+      <c r="S11" s="80"/>
       <c r="T11" s="70"/>
-      <c r="U11" s="52"/>
-      <c r="V11" s="83"/>
-      <c r="W11" s="83"/>
-      <c r="X11" s="83"/>
-      <c r="Y11" s="83"/>
+      <c r="U11" s="88"/>
+      <c r="V11" s="73"/>
+      <c r="W11" s="73"/>
+      <c r="X11" s="73"/>
+      <c r="Y11" s="73"/>
       <c r="Z11" s="13">
         <v>81</v>
       </c>
@@ -8800,15 +8803,15 @@
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
-      <c r="B12" s="83"/>
-      <c r="C12" s="86"/>
-      <c r="D12" s="87"/>
-      <c r="E12" s="86"/>
-      <c r="F12" s="87"/>
-      <c r="G12" s="86"/>
-      <c r="H12" s="87"/>
-      <c r="I12" s="86"/>
-      <c r="J12" s="87"/>
+      <c r="B12" s="73"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="77"/>
+      <c r="I12" s="76"/>
+      <c r="J12" s="77"/>
       <c r="K12" s="13">
         <v>91</v>
       </c>
@@ -8818,18 +8821,18 @@
       <c r="M12" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="N12" s="83"/>
-      <c r="O12" s="83"/>
-      <c r="P12" s="67"/>
+      <c r="N12" s="73"/>
+      <c r="O12" s="73"/>
+      <c r="P12" s="80"/>
       <c r="Q12" s="70"/>
-      <c r="R12" s="74"/>
-      <c r="S12" s="67"/>
+      <c r="R12" s="107"/>
+      <c r="S12" s="80"/>
       <c r="T12" s="70"/>
-      <c r="U12" s="52"/>
-      <c r="V12" s="83"/>
-      <c r="W12" s="83"/>
-      <c r="X12" s="83"/>
-      <c r="Y12" s="83"/>
+      <c r="U12" s="88"/>
+      <c r="V12" s="73"/>
+      <c r="W12" s="73"/>
+      <c r="X12" s="73"/>
+      <c r="Y12" s="73"/>
       <c r="Z12" s="13">
         <v>91</v>
       </c>
@@ -8847,15 +8850,15 @@
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
-      <c r="B13" s="83"/>
-      <c r="C13" s="86"/>
-      <c r="D13" s="87"/>
-      <c r="E13" s="86"/>
-      <c r="F13" s="87"/>
-      <c r="G13" s="86"/>
-      <c r="H13" s="87"/>
-      <c r="I13" s="86"/>
-      <c r="J13" s="87"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="77"/>
+      <c r="I13" s="76"/>
+      <c r="J13" s="77"/>
       <c r="K13" s="13">
         <v>101</v>
       </c>
@@ -8865,18 +8868,18 @@
       <c r="M13" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="N13" s="83"/>
-      <c r="O13" s="83"/>
-      <c r="P13" s="77"/>
-      <c r="Q13" s="79"/>
-      <c r="R13" s="75"/>
-      <c r="S13" s="67"/>
+      <c r="N13" s="73"/>
+      <c r="O13" s="73"/>
+      <c r="P13" s="81"/>
+      <c r="Q13" s="82"/>
+      <c r="R13" s="108"/>
+      <c r="S13" s="80"/>
       <c r="T13" s="70"/>
-      <c r="U13" s="52"/>
-      <c r="V13" s="83"/>
-      <c r="W13" s="83"/>
-      <c r="X13" s="83"/>
-      <c r="Y13" s="83"/>
+      <c r="U13" s="88"/>
+      <c r="V13" s="73"/>
+      <c r="W13" s="73"/>
+      <c r="X13" s="73"/>
+      <c r="Y13" s="73"/>
       <c r="Z13" s="13">
         <v>101</v>
       </c>
@@ -8894,15 +8897,15 @@
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
-      <c r="B14" s="83"/>
-      <c r="C14" s="86"/>
-      <c r="D14" s="87"/>
-      <c r="E14" s="86"/>
-      <c r="F14" s="87"/>
-      <c r="G14" s="86"/>
-      <c r="H14" s="87"/>
-      <c r="I14" s="86"/>
-      <c r="J14" s="87"/>
+      <c r="B14" s="73"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="77"/>
+      <c r="I14" s="76"/>
+      <c r="J14" s="77"/>
       <c r="K14" s="13">
         <v>111</v>
       </c>
@@ -8912,8 +8915,8 @@
       <c r="M14" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="N14" s="83"/>
-      <c r="O14" s="83"/>
+      <c r="N14" s="73"/>
+      <c r="O14" s="73"/>
       <c r="P14" s="13">
         <v>111</v>
       </c>
@@ -8923,13 +8926,13 @@
       <c r="R14" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="S14" s="67"/>
+      <c r="S14" s="80"/>
       <c r="T14" s="70"/>
-      <c r="U14" s="52"/>
-      <c r="V14" s="83"/>
-      <c r="W14" s="83"/>
-      <c r="X14" s="83"/>
-      <c r="Y14" s="83"/>
+      <c r="U14" s="88"/>
+      <c r="V14" s="73"/>
+      <c r="W14" s="73"/>
+      <c r="X14" s="73"/>
+      <c r="Y14" s="73"/>
       <c r="Z14" s="13">
         <v>111</v>
       </c>
@@ -8947,15 +8950,15 @@
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
-      <c r="B15" s="83"/>
-      <c r="C15" s="86"/>
-      <c r="D15" s="87"/>
-      <c r="E15" s="86"/>
-      <c r="F15" s="87"/>
-      <c r="G15" s="86"/>
-      <c r="H15" s="87"/>
-      <c r="I15" s="86"/>
-      <c r="J15" s="87"/>
+      <c r="B15" s="73"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="76"/>
+      <c r="H15" s="77"/>
+      <c r="I15" s="76"/>
+      <c r="J15" s="77"/>
       <c r="K15" s="13">
         <v>120.833333333333</v>
       </c>
@@ -8965,24 +8968,24 @@
       <c r="M15" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="N15" s="83"/>
-      <c r="O15" s="83"/>
-      <c r="P15" s="76">
+      <c r="N15" s="73"/>
+      <c r="O15" s="73"/>
+      <c r="P15" s="79">
         <v>120.833333333333</v>
       </c>
-      <c r="Q15" s="78">
+      <c r="Q15" s="69">
         <v>200</v>
       </c>
-      <c r="R15" s="51" t="s">
+      <c r="R15" s="87" t="s">
         <v>44</v>
       </c>
-      <c r="S15" s="67"/>
+      <c r="S15" s="80"/>
       <c r="T15" s="70"/>
-      <c r="U15" s="52"/>
-      <c r="V15" s="83"/>
-      <c r="W15" s="83"/>
-      <c r="X15" s="83"/>
-      <c r="Y15" s="83"/>
+      <c r="U15" s="88"/>
+      <c r="V15" s="73"/>
+      <c r="W15" s="73"/>
+      <c r="X15" s="73"/>
+      <c r="Y15" s="73"/>
       <c r="Z15" s="13">
         <v>120.833333333333</v>
       </c>
@@ -9000,15 +9003,15 @@
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
-      <c r="B16" s="83"/>
-      <c r="C16" s="86"/>
-      <c r="D16" s="87"/>
-      <c r="E16" s="86"/>
-      <c r="F16" s="87"/>
-      <c r="G16" s="86"/>
-      <c r="H16" s="87"/>
-      <c r="I16" s="86"/>
-      <c r="J16" s="87"/>
+      <c r="B16" s="73"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="77"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="77"/>
+      <c r="I16" s="76"/>
+      <c r="J16" s="77"/>
       <c r="K16" s="13">
         <v>131</v>
       </c>
@@ -9018,18 +9021,18 @@
       <c r="M16" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="N16" s="83"/>
-      <c r="O16" s="83"/>
-      <c r="P16" s="67"/>
+      <c r="N16" s="73"/>
+      <c r="O16" s="73"/>
+      <c r="P16" s="80"/>
       <c r="Q16" s="70"/>
-      <c r="R16" s="52"/>
-      <c r="S16" s="67"/>
+      <c r="R16" s="88"/>
+      <c r="S16" s="80"/>
       <c r="T16" s="70"/>
-      <c r="U16" s="52"/>
-      <c r="V16" s="83"/>
-      <c r="W16" s="83"/>
-      <c r="X16" s="83"/>
-      <c r="Y16" s="83"/>
+      <c r="U16" s="88"/>
+      <c r="V16" s="73"/>
+      <c r="W16" s="73"/>
+      <c r="X16" s="73"/>
+      <c r="Y16" s="73"/>
       <c r="Z16" s="13">
         <v>131</v>
       </c>
@@ -9047,15 +9050,15 @@
     </row>
     <row r="17" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12"/>
-      <c r="B17" s="83"/>
-      <c r="C17" s="86"/>
-      <c r="D17" s="87"/>
-      <c r="E17" s="86"/>
-      <c r="F17" s="87"/>
-      <c r="G17" s="86"/>
-      <c r="H17" s="87"/>
-      <c r="I17" s="86"/>
-      <c r="J17" s="87"/>
+      <c r="B17" s="73"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="77"/>
+      <c r="I17" s="76"/>
+      <c r="J17" s="77"/>
       <c r="K17" s="13">
         <v>141</v>
       </c>
@@ -9065,18 +9068,18 @@
       <c r="M17" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="N17" s="88"/>
-      <c r="O17" s="88"/>
-      <c r="P17" s="67"/>
+      <c r="N17" s="78"/>
+      <c r="O17" s="78"/>
+      <c r="P17" s="80"/>
       <c r="Q17" s="70"/>
-      <c r="R17" s="52"/>
-      <c r="S17" s="67"/>
+      <c r="R17" s="88"/>
+      <c r="S17" s="80"/>
       <c r="T17" s="70"/>
-      <c r="U17" s="52"/>
-      <c r="V17" s="88"/>
-      <c r="W17" s="88"/>
-      <c r="X17" s="88"/>
-      <c r="Y17" s="88"/>
+      <c r="U17" s="88"/>
+      <c r="V17" s="78"/>
+      <c r="W17" s="78"/>
+      <c r="X17" s="78"/>
+      <c r="Y17" s="78"/>
       <c r="Z17" s="13">
         <v>141</v>
       </c>
@@ -9108,7 +9111,7 @@
       </c>
       <c r="H18" s="114"/>
       <c r="I18" s="113" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="J18" s="114"/>
       <c r="K18" s="13">
@@ -9124,12 +9127,12 @@
       <c r="O18" s="110" t="s">
         <v>69</v>
       </c>
-      <c r="P18" s="67"/>
+      <c r="P18" s="80"/>
       <c r="Q18" s="70"/>
-      <c r="R18" s="52"/>
-      <c r="S18" s="67"/>
+      <c r="R18" s="88"/>
+      <c r="S18" s="80"/>
       <c r="T18" s="70"/>
-      <c r="U18" s="52"/>
+      <c r="U18" s="88"/>
       <c r="V18" s="110" t="s">
         <v>70</v>
       </c>
@@ -9177,12 +9180,12 @@
       <c r="M19" s="15"/>
       <c r="N19" s="111"/>
       <c r="O19" s="111"/>
-      <c r="P19" s="67"/>
+      <c r="P19" s="80"/>
       <c r="Q19" s="70"/>
-      <c r="R19" s="52"/>
-      <c r="S19" s="67"/>
+      <c r="R19" s="88"/>
+      <c r="S19" s="80"/>
       <c r="T19" s="70"/>
-      <c r="U19" s="52"/>
+      <c r="U19" s="88"/>
       <c r="V19" s="111"/>
       <c r="W19" s="111"/>
       <c r="X19" s="111"/>
@@ -9222,12 +9225,12 @@
       <c r="M20" s="15"/>
       <c r="N20" s="111"/>
       <c r="O20" s="111"/>
-      <c r="P20" s="67"/>
+      <c r="P20" s="80"/>
       <c r="Q20" s="70"/>
-      <c r="R20" s="52"/>
-      <c r="S20" s="67"/>
+      <c r="R20" s="88"/>
+      <c r="S20" s="80"/>
       <c r="T20" s="70"/>
-      <c r="U20" s="52"/>
+      <c r="U20" s="88"/>
       <c r="V20" s="111"/>
       <c r="W20" s="111"/>
       <c r="X20" s="111"/>
@@ -9267,12 +9270,12 @@
       <c r="M21" s="15"/>
       <c r="N21" s="111"/>
       <c r="O21" s="111"/>
-      <c r="P21" s="67"/>
+      <c r="P21" s="80"/>
       <c r="Q21" s="70"/>
-      <c r="R21" s="52"/>
-      <c r="S21" s="67"/>
+      <c r="R21" s="88"/>
+      <c r="S21" s="80"/>
       <c r="T21" s="70"/>
-      <c r="U21" s="52"/>
+      <c r="U21" s="88"/>
       <c r="V21" s="111"/>
       <c r="W21" s="111"/>
       <c r="X21" s="111"/>
@@ -9312,12 +9315,12 @@
       <c r="M22" s="15"/>
       <c r="N22" s="111"/>
       <c r="O22" s="111"/>
-      <c r="P22" s="77"/>
-      <c r="Q22" s="79"/>
-      <c r="R22" s="80"/>
-      <c r="S22" s="67"/>
+      <c r="P22" s="81"/>
+      <c r="Q22" s="82"/>
+      <c r="R22" s="109"/>
+      <c r="S22" s="80"/>
       <c r="T22" s="70"/>
-      <c r="U22" s="52"/>
+      <c r="U22" s="88"/>
       <c r="V22" s="111"/>
       <c r="W22" s="111"/>
       <c r="X22" s="111"/>
@@ -9357,18 +9360,18 @@
       <c r="M23" s="15"/>
       <c r="N23" s="111"/>
       <c r="O23" s="111"/>
-      <c r="P23" s="76">
+      <c r="P23" s="79">
         <v>201</v>
       </c>
-      <c r="Q23" s="78">
+      <c r="Q23" s="69">
         <v>255</v>
       </c>
-      <c r="R23" s="51" t="s">
+      <c r="R23" s="87" t="s">
         <v>45</v>
       </c>
-      <c r="S23" s="67"/>
+      <c r="S23" s="80"/>
       <c r="T23" s="70"/>
-      <c r="U23" s="52"/>
+      <c r="U23" s="88"/>
       <c r="V23" s="111"/>
       <c r="W23" s="111"/>
       <c r="X23" s="111"/>
@@ -9408,12 +9411,12 @@
       <c r="M24" s="15"/>
       <c r="N24" s="111"/>
       <c r="O24" s="111"/>
-      <c r="P24" s="67"/>
+      <c r="P24" s="80"/>
       <c r="Q24" s="70"/>
-      <c r="R24" s="52"/>
-      <c r="S24" s="67"/>
+      <c r="R24" s="88"/>
+      <c r="S24" s="80"/>
       <c r="T24" s="70"/>
-      <c r="U24" s="52"/>
+      <c r="U24" s="88"/>
       <c r="V24" s="111"/>
       <c r="W24" s="111"/>
       <c r="X24" s="111"/>
@@ -9453,12 +9456,12 @@
       <c r="M25" s="15"/>
       <c r="N25" s="111"/>
       <c r="O25" s="111"/>
-      <c r="P25" s="67"/>
+      <c r="P25" s="80"/>
       <c r="Q25" s="70"/>
-      <c r="R25" s="52"/>
-      <c r="S25" s="67"/>
+      <c r="R25" s="88"/>
+      <c r="S25" s="80"/>
       <c r="T25" s="70"/>
-      <c r="U25" s="52"/>
+      <c r="U25" s="88"/>
       <c r="V25" s="111"/>
       <c r="W25" s="111"/>
       <c r="X25" s="111"/>
@@ -9498,12 +9501,12 @@
       <c r="M26" s="15"/>
       <c r="N26" s="111"/>
       <c r="O26" s="111"/>
-      <c r="P26" s="67"/>
+      <c r="P26" s="80"/>
       <c r="Q26" s="70"/>
-      <c r="R26" s="52"/>
-      <c r="S26" s="67"/>
+      <c r="R26" s="88"/>
+      <c r="S26" s="80"/>
       <c r="T26" s="70"/>
-      <c r="U26" s="52"/>
+      <c r="U26" s="88"/>
       <c r="V26" s="111"/>
       <c r="W26" s="111"/>
       <c r="X26" s="111"/>
@@ -9543,12 +9546,12 @@
       <c r="M27" s="15"/>
       <c r="N27" s="111"/>
       <c r="O27" s="111"/>
-      <c r="P27" s="67"/>
+      <c r="P27" s="80"/>
       <c r="Q27" s="70"/>
-      <c r="R27" s="52"/>
-      <c r="S27" s="67"/>
+      <c r="R27" s="88"/>
+      <c r="S27" s="80"/>
       <c r="T27" s="70"/>
-      <c r="U27" s="52"/>
+      <c r="U27" s="88"/>
       <c r="V27" s="111"/>
       <c r="W27" s="111"/>
       <c r="X27" s="111"/>
@@ -9588,12 +9591,12 @@
       <c r="M28" s="20"/>
       <c r="N28" s="112"/>
       <c r="O28" s="112"/>
-      <c r="P28" s="68"/>
+      <c r="P28" s="103"/>
       <c r="Q28" s="71"/>
-      <c r="R28" s="53"/>
-      <c r="S28" s="68"/>
+      <c r="R28" s="89"/>
+      <c r="S28" s="103"/>
       <c r="T28" s="71"/>
-      <c r="U28" s="53"/>
+      <c r="U28" s="89"/>
       <c r="V28" s="112"/>
       <c r="W28" s="112"/>
       <c r="X28" s="112"/>
@@ -9615,41 +9618,6 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="P23:P28"/>
-    <mergeCell ref="Q23:Q28"/>
-    <mergeCell ref="R23:R28"/>
-    <mergeCell ref="C18:D28"/>
-    <mergeCell ref="E18:F28"/>
-    <mergeCell ref="G18:H28"/>
-    <mergeCell ref="I18:J28"/>
-    <mergeCell ref="N18:N28"/>
-    <mergeCell ref="O18:O28"/>
-    <mergeCell ref="P6:P13"/>
-    <mergeCell ref="Q6:Q13"/>
-    <mergeCell ref="R6:R13"/>
-    <mergeCell ref="P15:P22"/>
-    <mergeCell ref="Q15:Q22"/>
-    <mergeCell ref="R15:R22"/>
-    <mergeCell ref="T3:T28"/>
-    <mergeCell ref="U3:U28"/>
-    <mergeCell ref="V3:V17"/>
-    <mergeCell ref="W3:W17"/>
-    <mergeCell ref="X3:X17"/>
-    <mergeCell ref="Y3:Y17"/>
-    <mergeCell ref="V18:V28"/>
-    <mergeCell ref="W18:W28"/>
-    <mergeCell ref="X18:X28"/>
-    <mergeCell ref="Y18:Y28"/>
-    <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="B3:B17"/>
-    <mergeCell ref="C3:D17"/>
-    <mergeCell ref="E3:F17"/>
-    <mergeCell ref="G3:H17"/>
-    <mergeCell ref="I3:J17"/>
-    <mergeCell ref="N3:N17"/>
-    <mergeCell ref="O3:O17"/>
-    <mergeCell ref="S3:S28"/>
     <mergeCell ref="S1:U1"/>
     <mergeCell ref="Z1:AB1"/>
     <mergeCell ref="AC1:AE1"/>
@@ -9666,6 +9634,41 @@
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="P1:R1"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="B3:B17"/>
+    <mergeCell ref="C3:D17"/>
+    <mergeCell ref="E3:F17"/>
+    <mergeCell ref="G3:H17"/>
+    <mergeCell ref="I3:J17"/>
+    <mergeCell ref="N3:N17"/>
+    <mergeCell ref="O3:O17"/>
+    <mergeCell ref="S3:S28"/>
+    <mergeCell ref="Y3:Y17"/>
+    <mergeCell ref="V18:V28"/>
+    <mergeCell ref="W18:W28"/>
+    <mergeCell ref="X18:X28"/>
+    <mergeCell ref="Y18:Y28"/>
+    <mergeCell ref="T3:T28"/>
+    <mergeCell ref="U3:U28"/>
+    <mergeCell ref="V3:V17"/>
+    <mergeCell ref="W3:W17"/>
+    <mergeCell ref="X3:X17"/>
+    <mergeCell ref="P6:P13"/>
+    <mergeCell ref="Q6:Q13"/>
+    <mergeCell ref="R6:R13"/>
+    <mergeCell ref="P15:P22"/>
+    <mergeCell ref="Q15:Q22"/>
+    <mergeCell ref="R15:R22"/>
+    <mergeCell ref="P23:P28"/>
+    <mergeCell ref="Q23:Q28"/>
+    <mergeCell ref="R23:R28"/>
+    <mergeCell ref="C18:D28"/>
+    <mergeCell ref="E18:F28"/>
+    <mergeCell ref="G18:H28"/>
+    <mergeCell ref="I18:J28"/>
+    <mergeCell ref="N18:N28"/>
+    <mergeCell ref="O18:O28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
